--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -668,7 +668,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -871,11 +871,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,7 +919,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955025"/>
+          <c:w val="0.91978071330955036"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -975,7 +975,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,7 +1061,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,7 +1147,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1233,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1275,11 +1275,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="147839616"/>
-        <c:axId val="148375808"/>
+        <c:axId val="131050880"/>
+        <c:axId val="130815104"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="147839616"/>
+        <c:axId val="131050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="148375808"/>
+        <c:crossAx val="130815104"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1322,7 +1322,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="148375808"/>
+        <c:axId val="130815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147839616"/>
+        <c:crossAx val="131050880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1386,8 +1386,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607802E-2"/>
-          <c:y val="0.33819556996218297"/>
+          <c:x val="4.5828229804607809E-2"/>
+          <c:y val="0.33819556996218303"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1454,7 +1454,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1508,7 +1508,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127408E-2"/>
+          <c:x val="4.4510450248127421E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1566,7 +1566,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,11 +1602,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="150019072"/>
-        <c:axId val="150156032"/>
+        <c:axId val="130847104"/>
+        <c:axId val="130848640"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="150019072"/>
+        <c:axId val="130847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,13 +1614,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="150156032"/>
+        <c:crossAx val="130848640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="150156032"/>
+        <c:axId val="130848640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1663,7 +1663,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150019072"/>
+        <c:crossAx val="130847104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1712,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1786,7 +1786,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1872,7 +1872,7 @@
                   <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42896</c:v>
+                  <c:v>42897</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,11 +1908,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="152813952"/>
-        <c:axId val="152815488"/>
+        <c:axId val="130873600"/>
+        <c:axId val="130883584"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="152813952"/>
+        <c:axId val="130873600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152815488"/>
+        <c:crossAx val="130883584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1954,7 +1954,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="152815488"/>
+        <c:axId val="130883584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152813952"/>
+        <c:crossAx val="130873600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,7 +2045,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001243" r="0.75000000000001243" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5493,7 +5493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="47">
-        <v>42896</v>
+        <v>42897</v>
       </c>
       <c r="B54" s="4">
         <v>48</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B62" s="49">
         <f>A48+A58/B58*(A54-A48)</f>
-        <v>43528.041666666664</v>
+        <v>43532.25</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="218">
   <si>
     <t>Feature</t>
   </si>
@@ -269,9 +269,6 @@
     <t>highlights mathcing tokens if enabled</t>
   </si>
   <si>
-    <t>pluggable matching token highlight</t>
-  </si>
-  <si>
     <t>matching token highlight logic</t>
   </si>
   <si>
@@ -470,9 +467,6 @@
     <t>pops up with multiple search results</t>
   </si>
   <si>
-    <t>tabbed?</t>
-  </si>
-  <si>
     <t>ETA:</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
     <t>auto close braces</t>
   </si>
   <si>
-    <t>pluggable auto completion</t>
-  </si>
-  <si>
     <t>selection highlight</t>
   </si>
   <si>
@@ -626,9 +617,6 @@
     <t>adjusts horizontal scroll bar when needed</t>
   </si>
   <si>
-    <t>pluggable copy paste handlers</t>
-  </si>
-  <si>
     <t>copy specific data formats</t>
   </si>
   <si>
@@ -660,6 +648,30 @@
   </si>
   <si>
     <t>highlight processor</t>
+  </si>
+  <si>
+    <t>plugin interface</t>
+  </si>
+  <si>
+    <t>with history</t>
+  </si>
+  <si>
+    <t>highlighter</t>
+  </si>
+  <si>
+    <t>auto completion</t>
+  </si>
+  <si>
+    <t>copy paste handlers</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>line markers</t>
+  </si>
+  <si>
+    <t>editable plain text model</t>
   </si>
 </sst>
 </file>
@@ -919,7 +931,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955036"/>
+          <c:w val="0.91978071330955058"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1091,7 +1103,7 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,23 +1275,23 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="131050880"/>
-        <c:axId val="130815104"/>
+        <c:axId val="127643008"/>
+        <c:axId val="127407232"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="131050880"/>
+        <c:axId val="127643008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130815104"/>
+        <c:crossAx val="127407232"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1322,7 +1334,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130815104"/>
+        <c:axId val="127407232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="131050880"/>
+        <c:crossAx val="127643008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1386,8 +1398,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607809E-2"/>
-          <c:y val="0.33819556996218303"/>
+          <c:x val="4.5828229804607816E-2"/>
+          <c:y val="0.33819556996218314"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1454,7 +1466,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1508,7 +1520,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127421E-2"/>
+          <c:x val="4.4510450248127428E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1596,17 +1608,17 @@
                   <c:v>0.23809523809523808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23762376237623761</c:v>
+                  <c:v>0.22966507177033493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130847104"/>
-        <c:axId val="130848640"/>
+        <c:axId val="127439232"/>
+        <c:axId val="127440768"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130847104"/>
+        <c:axId val="127439232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,13 +1626,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="130848640"/>
+        <c:crossAx val="127440768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130848640"/>
+        <c:axId val="127440768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1663,7 +1675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130847104"/>
+        <c:crossAx val="127439232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1712,7 +1724,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1816,7 +1828,7 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1908,11 +1920,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="130873600"/>
-        <c:axId val="130883584"/>
+        <c:axId val="127465728"/>
+        <c:axId val="127475712"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="130873600"/>
+        <c:axId val="127465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,7 +1957,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130883584"/>
+        <c:crossAx val="127475712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1954,7 +1966,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="130883584"/>
+        <c:axId val="127475712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +2008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130873600"/>
+        <c:crossAx val="127465728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2045,7 +2057,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001255" r="0.75000000000001255" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2503,10 +2515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D443"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2617,39 +2629,33 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
-      <c r="B15" s="22"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
-      <c r="B17" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="22"/>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="4"/>
     </row>
@@ -2659,30 +2665,44 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="22"/>
-      <c r="C21" s="7"/>
+      <c r="B21" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="22"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7"/>
+      <c r="B23" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
-      <c r="B24" s="22"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2691,25 +2711,21 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2718,7 +2734,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2727,7 +2743,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2735,13 +2751,17 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2749,39 +2769,25 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
-      <c r="B35" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
@@ -2790,30 +2796,40 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="22"/>
-      <c r="C39" s="7"/>
+      <c r="B39" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B40" s="22"/>
       <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
-        <v>167</v>
+      <c r="B42" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -2822,30 +2838,34 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="22" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="20" t="s">
-        <v>191</v>
+      <c r="B46" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2854,7 +2874,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2863,7 +2883,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="20" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2871,26 +2891,22 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="22" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22" t="s">
-        <v>197</v>
+      <c r="B51" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -2899,7 +2915,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2907,31 +2923,35 @@
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="7"/>
+      <c r="B53" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="22" t="s">
-        <v>39</v>
+      <c r="B54" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>42</v>
+      <c r="B55" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2939,8 +2959,8 @@
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="20" t="s">
-        <v>41</v>
+      <c r="B57" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2949,7 +2969,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2957,8 +2977,8 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22" t="s">
-        <v>113</v>
+      <c r="B59" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2966,8 +2986,8 @@
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="22" t="s">
-        <v>115</v>
+      <c r="B60" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -2976,7 +2996,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -2984,40 +3004,40 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20" t="s">
-        <v>150</v>
+      <c r="B63" s="27" t="s">
+        <v>33</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>152</v>
+      <c r="B64" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="27" t="s">
-        <v>33</v>
+      <c r="B66" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3026,34 +3046,30 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
-        <v>174</v>
+      <c r="B69" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3061,13 +3077,17 @@
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
+      <c r="B71" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="27" t="s">
-        <v>32</v>
+      <c r="B72" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3076,7 +3096,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -3084,30 +3104,18 @@
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
@@ -3116,23 +3124,35 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
-        <v>39</v>
+      <c r="B81" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2</v>
@@ -3141,7 +3161,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -3150,75 +3170,75 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="9"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="C87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="20"/>
-      <c r="C88" s="9"/>
+      <c r="B88" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3226,30 +3246,18 @@
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
@@ -3268,8 +3276,12 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
@@ -3278,27 +3290,31 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22"/>
-      <c r="C100" s="7"/>
+      <c r="B100" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="7"/>
+      <c r="B102" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3306,22 +3322,22 @@
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B105" s="22"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3330,7 +3346,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3344,7 +3360,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3352,12 +3368,8 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
@@ -3366,16 +3378,14 @@
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
+      <c r="B113" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
@@ -3385,32 +3395,42 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
+      <c r="B115" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="7"/>
+      <c r="B116" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22"/>
-      <c r="C117" s="7"/>
+      <c r="B117" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="7"/>
+      <c r="B118" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3418,30 +3438,18 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
@@ -3455,41 +3463,49 @@
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="7"/>
+      <c r="B125" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="22"/>
-      <c r="C126" s="7"/>
+      <c r="B126" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="22"/>
-      <c r="C127" s="7"/>
+      <c r="B127" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
-        <v>52</v>
+      <c r="B129" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>14</v>
@@ -3511,12 +3527,8 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
@@ -3525,12 +3537,8 @@
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
@@ -3544,46 +3552,46 @@
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="22"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="7"/>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22"/>
-      <c r="C140" s="7"/>
+      <c r="B140" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20"/>
-      <c r="C141" s="7"/>
+      <c r="B141" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="20"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="7"/>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B143" s="20"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B144" s="22"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
@@ -3592,13 +3600,21 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20"/>
-      <c r="C146" s="7"/>
+      <c r="B146" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
+      <c r="B147" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
@@ -3607,21 +3623,13 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B150" s="22"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
@@ -3630,13 +3638,21 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="22"/>
-      <c r="C153" s="7"/>
+      <c r="B153" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
@@ -3645,21 +3661,13 @@
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B155" s="22"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>60</v>
-      </c>
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
@@ -3668,83 +3676,87 @@
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="22"/>
-      <c r="C160" s="7"/>
+      <c r="B160" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B162" s="22"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B163" s="22"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22"/>
-      <c r="C164" s="7"/>
+      <c r="B164" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="22"/>
-      <c r="C165" s="7"/>
+      <c r="B165" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="22"/>
-      <c r="C166" s="7"/>
+      <c r="B166" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B167" s="22"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20" t="s">
-        <v>170</v>
+      <c r="B169" s="22" t="s">
+        <v>73</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3752,8 +3764,12 @@
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="22"/>
-      <c r="C170" s="7"/>
+      <c r="B170" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
@@ -3762,31 +3778,31 @@
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B172" s="22"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B173" s="22"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22"/>
-      <c r="C174" s="7"/>
+      <c r="B174" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
-      <c r="C175" s="7"/>
+      <c r="B175" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
@@ -3795,31 +3811,31 @@
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B177" s="22"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
+      <c r="B179" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="22"/>
-      <c r="C180" s="7"/>
+      <c r="B180" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
@@ -3828,92 +3844,88 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B182" s="22"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20" t="s">
+      <c r="B183" s="22"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" s="6" customFormat="1">
+      <c r="B184" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" s="6" customFormat="1">
+      <c r="B185" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="22"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="22"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="22"/>
-      <c r="C186" s="7"/>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="22"/>
-      <c r="C191" s="7"/>
+      <c r="C191" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="22"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>74</v>
+      <c r="B194" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -3921,12 +3933,12 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
@@ -3940,8 +3952,12 @@
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="22"/>
-      <c r="C198" s="7"/>
+      <c r="B198" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
@@ -3950,16 +3966,12 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B200" s="22"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20" t="s">
+      <c r="B201" s="22" t="s">
         <v>130</v>
       </c>
       <c r="C201" s="7" t="s">
@@ -3968,36 +3980,36 @@
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="22"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B204" s="22"/>
+      <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B205" s="22"/>
+      <c r="C205" s="7"/>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="20" t="s">
-        <v>133</v>
+      <c r="B206" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>14</v>
@@ -4005,64 +4017,68 @@
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="22"/>
-      <c r="C207" s="7"/>
+      <c r="B207" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="22"/>
-      <c r="C208" s="7"/>
+      <c r="B208" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="22" t="s">
+      <c r="B209" s="22"/>
+      <c r="C209" s="7"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="22"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="C209" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="22"/>
-      <c r="C212" s="7"/>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="22"/>
-      <c r="C213" s="7"/>
+      <c r="C213" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="22" t="s">
+      <c r="B214" s="22"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>14</v>
@@ -4071,7 +4087,7 @@
     </row>
     <row r="216" spans="2:4" s="6" customFormat="1">
       <c r="B216" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>14</v>
@@ -4079,35 +4095,27 @@
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="22"/>
-      <c r="C217" s="7"/>
+      <c r="B217" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B218" s="22"/>
+      <c r="C218" s="7"/>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B219" s="22"/>
+      <c r="C219" s="7"/>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B220" s="22"/>
+      <c r="C220" s="7"/>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="2:4" s="6" customFormat="1">
@@ -4136,17 +4144,21 @@
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="22"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="7"/>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="22"/>
-      <c r="C227" s="7"/>
+      <c r="B227" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="22"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="7"/>
       <c r="D228" s="4"/>
     </row>
@@ -4156,32 +4168,40 @@
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B230" s="20"/>
+      <c r="C230" s="7"/>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="20"/>
-      <c r="C231" s="7"/>
+      <c r="B231" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20"/>
-      <c r="C232" s="7"/>
+      <c r="B232" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D232" s="4"/>
     </row>
     <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20"/>
-      <c r="C233" s="7"/>
+      <c r="B233" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="2:4" s="6" customFormat="1">
       <c r="B234" s="22" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>2</v>
@@ -4190,7 +4210,7 @@
     </row>
     <row r="235" spans="2:4" s="6" customFormat="1">
       <c r="B235" s="20" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>2</v>
@@ -4199,7 +4219,7 @@
     </row>
     <row r="236" spans="2:4" s="6" customFormat="1">
       <c r="B236" s="20" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>2</v>
@@ -4207,30 +4227,18 @@
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B237" s="20"/>
+      <c r="C237" s="7"/>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B238" s="20"/>
+      <c r="C238" s="7"/>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B239" s="20"/>
+      <c r="C239" s="7"/>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="2:4" s="6" customFormat="1">
@@ -4259,7 +4267,7 @@
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="20"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="7"/>
       <c r="D245" s="4"/>
     </row>
@@ -4269,52 +4277,61 @@
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="20"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="7"/>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="22"/>
+      <c r="B248" s="4"/>
       <c r="C248" s="7"/>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="20"/>
+      <c r="B249" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C249" s="7"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="2:4" s="6" customFormat="1">
-      <c r="B250" s="19"/>
+    <row r="250" spans="2:4">
       <c r="C250" s="7"/>
-      <c r="D250" s="4"/>
-    </row>
-    <row r="251" spans="2:4" s="6" customFormat="1">
-      <c r="B251" s="4"/>
+    </row>
+    <row r="251" spans="2:4">
+      <c r="B251" s="43" t="s">
+        <v>143</v>
+      </c>
       <c r="C251" s="7"/>
-      <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="2:4" s="6" customFormat="1">
-      <c r="B252" s="3" t="s">
-        <v>24</v>
-      </c>
+    </row>
+    <row r="252" spans="2:4">
       <c r="C252" s="7"/>
-      <c r="D252" s="4"/>
     </row>
     <row r="253" spans="2:4">
-      <c r="C253" s="7"/>
+      <c r="B253" t="s">
+        <v>86</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="254" spans="2:4">
-      <c r="B254" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C254" s="7"/>
+      <c r="B254" t="s">
+        <v>87</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="255" spans="2:4">
-      <c r="C255" s="7"/>
+      <c r="B255" t="s">
+        <v>88</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="256" spans="2:4">
       <c r="B256" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C256" s="9" t="s">
         <v>14</v>
@@ -4322,144 +4339,144 @@
     </row>
     <row r="257" spans="2:3">
       <c r="B257" t="s">
-        <v>88</v>
-      </c>
-      <c r="C257" s="9" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>89</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C259" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" t="s">
-        <v>91</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>2</v>
+      <c r="B260" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" t="s">
-        <v>92</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>2</v>
+        <v>93</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" t="s">
-        <v>93</v>
+      <c r="B262" s="44" t="s">
+        <v>95</v>
       </c>
       <c r="C262" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="44" t="s">
-        <v>95</v>
+      <c r="B263" t="s">
+        <v>97</v>
       </c>
       <c r="C263" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" t="s">
-        <v>94</v>
+      <c r="B264" s="44" t="s">
+        <v>98</v>
       </c>
       <c r="C264" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="44" t="s">
-        <v>96</v>
+      <c r="B265" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="C265" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" t="s">
-        <v>98</v>
+      <c r="B266" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B267" s="44"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C268" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B268" s="44"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C269" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B269" s="44"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="44"/>
       <c r="C270" s="9"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="44"/>
       <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="44"/>
       <c r="C272" s="9"/>
     </row>
     <row r="273" spans="2:3">
       <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:3">
+      <c r="B274" s="43" t="s">
+        <v>144</v>
+      </c>
       <c r="C274" s="9"/>
     </row>
     <row r="275" spans="2:3">
       <c r="C275" s="9"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="C276" s="9"/>
+      <c r="B276" t="s">
+        <v>116</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C277" s="9"/>
+      <c r="B277" t="s">
+        <v>117</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="278" spans="2:3">
-      <c r="C278" s="9"/>
+      <c r="B278" t="s">
+        <v>118</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="279" spans="2:3">
       <c r="B279" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4467,7 +4484,7 @@
     </row>
     <row r="280" spans="2:3">
       <c r="B280" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>14</v>
@@ -4475,7 +4492,7 @@
     </row>
     <row r="281" spans="2:3">
       <c r="B281" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>14</v>
@@ -4483,57 +4500,49 @@
     </row>
     <row r="282" spans="2:3">
       <c r="B282" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" t="s">
-        <v>121</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" t="s">
-        <v>122</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" t="s">
-        <v>156</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="2:3">
+      <c r="B286" s="43" t="s">
+        <v>145</v>
+      </c>
       <c r="C286" s="9"/>
     </row>
     <row r="287" spans="2:3">
       <c r="C287" s="9"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="C288" s="9"/>
+      <c r="B288" t="s">
+        <v>141</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="C289" s="9"/>
-    </row>
-    <row r="290" spans="2:3">
-      <c r="C290" s="9"/>
+      <c r="B289" t="s">
+        <v>107</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>14</v>
@@ -4541,42 +4550,45 @@
     </row>
     <row r="292" spans="2:3">
       <c r="B292" t="s">
-        <v>108</v>
-      </c>
-      <c r="C292" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" t="s">
+        <v>100</v>
+      </c>
+      <c r="C293" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" t="s">
-        <v>86</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" t="s">
-        <v>100</v>
-      </c>
-      <c r="C295" s="7" t="s">
+      <c r="B295" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C295" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" t="s">
-        <v>101</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="C297" s="9"/>
+      <c r="B297" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="45" t="s">
-        <v>107</v>
+      <c r="B298" t="s">
+        <v>105</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>14</v>
@@ -4586,31 +4598,21 @@
       <c r="C299" s="9"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="C300" s="9" t="s">
+      <c r="B300" t="s">
+        <v>193</v>
+      </c>
+      <c r="C300" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" t="s">
-        <v>106</v>
-      </c>
-      <c r="C301" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C301" s="9"/>
     </row>
     <row r="302" spans="2:3">
       <c r="C302" s="9"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" t="s">
-        <v>195</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3">
       <c r="C304" s="9"/>
@@ -4664,31 +4666,41 @@
       <c r="C320" s="9"/>
     </row>
     <row r="321" spans="2:3">
+      <c r="B321" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="C321" s="9"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="C322" s="9"/>
+      <c r="B322" t="s">
+        <v>49</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="323" spans="2:3">
-      <c r="C323" s="9"/>
+      <c r="B323" t="s">
+        <v>50</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C324" s="9"/>
+      <c r="B324" t="s">
+        <v>51</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" t="s">
-        <v>49</v>
-      </c>
-      <c r="C325" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C325" s="9"/>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C326" s="7" t="s">
         <v>14</v>
@@ -4696,7 +4708,7 @@
     </row>
     <row r="327" spans="2:3">
       <c r="B327" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C327" s="7" t="s">
         <v>14</v>
@@ -4707,30 +4719,20 @@
     </row>
     <row r="329" spans="2:3">
       <c r="B329" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="2:3">
-      <c r="B330" t="s">
-        <v>104</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" spans="2:3">
       <c r="C331" s="9"/>
     </row>
     <row r="332" spans="2:3">
-      <c r="B332" t="s">
-        <v>156</v>
-      </c>
-      <c r="C332" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" spans="2:3">
       <c r="C333" s="9"/>
@@ -4747,48 +4749,62 @@
     <row r="337" spans="2:4">
       <c r="C337" s="9"/>
     </row>
-    <row r="338" spans="2:4">
-      <c r="C338" s="9"/>
-    </row>
-    <row r="339" spans="2:4">
-      <c r="C339" s="9"/>
-    </row>
-    <row r="340" spans="2:4">
-      <c r="C340" s="9"/>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C339" s="7"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="22"/>
+      <c r="C340" s="7"/>
+      <c r="D340" s="4"/>
+    </row>
+    <row r="341" spans="2:4" s="6" customFormat="1">
+      <c r="B341" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C342" s="7"/>
+      <c r="B342" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22"/>
-      <c r="C343" s="7"/>
+      <c r="B343" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B345" s="22"/>
+      <c r="C345" s="7"/>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
       <c r="B346" s="22" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
@@ -4797,7 +4813,7 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="22" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -4810,8 +4826,8 @@
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22" t="s">
-        <v>103</v>
+      <c r="B349" t="s">
+        <v>154</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -4819,22 +4835,22 @@
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B350" s="22"/>
+      <c r="C350" s="7"/>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" t="s">
-        <v>156</v>
+      <c r="B352" s="22" t="s">
+        <v>181</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -4842,13 +4858,12 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>182</v>
+      <c r="B354" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -4856,35 +4871,34 @@
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B355" s="22"/>
+      <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="C356" s="7"/>
+      <c r="B356" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B357" s="22"/>
+      <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
+      <c r="B358" s="22" t="s">
+        <v>184</v>
+      </c>
       <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22" t="s">
-        <v>194</v>
+      <c r="B359" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
@@ -4892,20 +4906,26 @@
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22"/>
-      <c r="C360" s="7"/>
+      <c r="B360" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C361" s="7"/>
+      <c r="B361" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
       <c r="B362" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>14</v>
@@ -4914,7 +4934,7 @@
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="20" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>14</v>
@@ -4922,17 +4942,13 @@
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C364" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B364" s="22"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="20" t="s">
-        <v>185</v>
+      <c r="B365" s="22" t="s">
+        <v>190</v>
       </c>
       <c r="C365" s="7" t="s">
         <v>14</v>
@@ -4940,8 +4956,8 @@
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="20" t="s">
-        <v>188</v>
+      <c r="B366" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>14</v>
@@ -4955,7 +4971,7 @@
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
       <c r="B368" s="22" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C368" s="7" t="s">
         <v>14</v>
@@ -4963,12 +4979,8 @@
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
@@ -4977,12 +4989,8 @@
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C371" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B371" s="22"/>
+      <c r="C371" s="7"/>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
@@ -4991,7 +4999,9 @@
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22"/>
+      <c r="B373" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
@@ -5001,25 +5011,35 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C376" s="7"/>
+      <c r="B376" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22"/>
-      <c r="C377" s="7"/>
+      <c r="B377" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C377" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
       <c r="B378" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C378" s="7" t="s">
         <v>14</v>
@@ -5027,26 +5047,22 @@
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="2:4" s="6" customFormat="1">
       <c r="B380" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
       <c r="B381" s="22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C381" s="7" t="s">
         <v>14</v>
@@ -5060,7 +5076,7 @@
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
       <c r="B383" s="22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C383" s="7" t="s">
         <v>14</v>
@@ -5069,7 +5085,7 @@
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
       <c r="B384" s="22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C384" s="7" t="s">
         <v>14</v>
@@ -5077,22 +5093,22 @@
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="22"/>
-      <c r="C385" s="7"/>
+      <c r="B385" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B386" s="22"/>
+      <c r="C386" s="7"/>
       <c r="D386" s="4"/>
     </row>
     <row r="387" spans="2:4" s="6" customFormat="1">
       <c r="B387" s="22" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="C387" s="7" t="s">
         <v>14</v>
@@ -5100,26 +5116,22 @@
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C388" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B388" s="22"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22"/>
-      <c r="C389" s="7"/>
+      <c r="B389" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C390" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B390" s="22"/>
+      <c r="C390" s="7"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" s="6" customFormat="1">
@@ -5128,12 +5140,8 @@
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B392" s="22"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" s="6" customFormat="1">
@@ -5147,7 +5155,9 @@
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="22"/>
+      <c r="B395" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C395" s="7"/>
       <c r="D395" s="4"/>
     </row>
@@ -5157,32 +5167,42 @@
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22"/>
+      <c r="B397" s="22" t="s">
+        <v>159</v>
+      </c>
       <c r="C397" s="7"/>
       <c r="D397" s="4"/>
     </row>
     <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C398" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C398" s="7"/>
-      <c r="D398" s="4"/>
-    </row>
-    <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="22"/>
-      <c r="C399" s="7"/>
+      <c r="C399" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="C400" s="7"/>
+      <c r="B400" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C400" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="2:4" s="6" customFormat="1">
       <c r="B401" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>2</v>
@@ -5190,26 +5210,20 @@
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B402" s="22"/>
+      <c r="C402" s="7"/>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C403" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B403" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C403" s="7"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="2:4" s="6" customFormat="1">
       <c r="B404" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C404" s="7" t="s">
         <v>2</v>
@@ -5217,32 +5231,34 @@
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="2:4" s="6" customFormat="1">
-      <c r="B405" s="22"/>
-      <c r="C405" s="7"/>
+      <c r="B405" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C405" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="2:4" s="6" customFormat="1">
-      <c r="B406" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="2:4" s="6" customFormat="1">
-      <c r="B407" s="20" t="s">
-        <v>163</v>
+      <c r="B407" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="20" t="s">
-        <v>164</v>
+      <c r="B408" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D408" s="4"/>
     </row>
@@ -5253,7 +5269,7 @@
     </row>
     <row r="410" spans="2:4" s="6" customFormat="1">
       <c r="B410" s="22" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C410" s="7" t="s">
         <v>14</v>
@@ -5261,12 +5277,8 @@
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="2:4" s="6" customFormat="1">
-      <c r="B411" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="C411" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B411" s="22"/>
+      <c r="C411" s="7"/>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="2:4" s="6" customFormat="1">
@@ -5275,12 +5287,8 @@
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C413" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B413" s="22"/>
+      <c r="C413" s="7"/>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="2:4" s="6" customFormat="1">
@@ -5289,33 +5297,57 @@
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="22"/>
-      <c r="C415" s="7"/>
+      <c r="B415" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="22"/>
-      <c r="C416" s="7"/>
+      <c r="B416" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="2:4" s="6" customFormat="1">
-      <c r="B417" s="22"/>
-      <c r="C417" s="7"/>
+      <c r="B417" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C417" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="2:4" s="6" customFormat="1">
-      <c r="B418" s="22"/>
-      <c r="C418" s="7"/>
+      <c r="B418" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C418" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="2:4" s="6" customFormat="1">
-      <c r="B419" s="22"/>
-      <c r="C419" s="7"/>
+      <c r="B419" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C419" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="2:4" s="6" customFormat="1">
-      <c r="B420" s="22"/>
-      <c r="C420" s="7"/>
+      <c r="B420" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="2:4" s="6" customFormat="1">
@@ -5380,16 +5412,16 @@
     </row>
     <row r="433" spans="1:4" s="6" customFormat="1">
       <c r="B433" s="22"/>
-      <c r="C433" s="4"/>
+      <c r="C433" s="7"/>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4" s="6" customFormat="1">
-      <c r="B434" s="19"/>
+      <c r="B434" s="22"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
     </row>
     <row r="435" spans="1:4" s="6" customFormat="1">
-      <c r="B435" s="21"/>
+      <c r="B435" s="19"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
     </row>
@@ -5398,76 +5430,81 @@
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="3"/>
-      <c r="B437" s="11"/>
-      <c r="C437" s="11"/>
-      <c r="D437" s="3"/>
+    <row r="437" spans="1:4" s="6" customFormat="1">
+      <c r="B437" s="21"/>
+      <c r="C437" s="4"/>
+      <c r="D437" s="4"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="3"/>
-      <c r="B438" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C438" s="6">
-        <f>COUNTIF(C5:C437,"y")</f>
-        <v>48</v>
-      </c>
-      <c r="D438" s="2"/>
+      <c r="B438" s="11"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="3"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="3"/>
       <c r="B439" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C439" s="6">
-        <f>COUNTIF(C5:C437,"n")</f>
-        <v>153</v>
+        <f>COUNTIF(C5:C438,"y")</f>
+        <v>48</v>
       </c>
       <c r="D439" s="2"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="3"/>
       <c r="B440" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C440" s="7">
-        <f>COUNTIF(C5:C437,"TBD")</f>
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C440" s="6">
+        <f>COUNTIF(C5:C438,"n")</f>
+        <v>158</v>
       </c>
       <c r="D440" s="2"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="3"/>
       <c r="B441" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="7">
+        <f>COUNTIF(C5:C438,"TBD")</f>
+        <v>1</v>
+      </c>
+      <c r="D441" s="2"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="3"/>
+      <c r="B442" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C441">
-        <f>SUM(C438:C440)</f>
-        <v>202</v>
-      </c>
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="1:4" ht="18">
-      <c r="A442" s="3"/>
-      <c r="B442" s="10"/>
-      <c r="C442" s="10" t="s">
+      <c r="C442">
+        <f>SUM(C439:C441)</f>
+        <v>207</v>
+      </c>
+      <c r="D442" s="2"/>
+    </row>
+    <row r="443" spans="1:4" ht="18">
+      <c r="A443" s="3"/>
+      <c r="B443" s="10"/>
+      <c r="C443" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D442" s="41">
-        <f>C438/(C439+C438 + C440)</f>
-        <v>0.23762376237623761</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="3"/>
-      <c r="B443" s="11"/>
-      <c r="C443" s="11"/>
-      <c r="D443" s="3"/>
+      <c r="D443" s="41">
+        <f>C439/(C440+C439 + C441)</f>
+        <v>0.2318840579710145</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="3"/>
+      <c r="B444" s="11"/>
+      <c r="C444" s="11"/>
+      <c r="D444" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C342:C65191 C294:C340 C1:C3 C6:C292">
+  <conditionalFormatting sqref="C291:C337 C339:C65192 C6:C289 C1:C3">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5493,7 +5530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5875,18 +5912,18 @@
         <v>48</v>
       </c>
       <c r="C54" s="4">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="30">
         <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
-        <v>0.23762376237623761</v>
+        <v>0.22966507177033493</v>
       </c>
       <c r="H54" s="7"/>
     </row>
@@ -5931,30 +5968,30 @@
       </c>
       <c r="G57" s="38">
         <f>MIN(G54)</f>
-        <v>0.23762376237623761</v>
+        <v>0.22966507177033493</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="39">
         <f>SUM(B58:D58)</f>
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B58" s="15">
-        <f>Features!C438</f>
+        <f>Features!C439</f>
         <v>48</v>
       </c>
       <c r="C58" s="16">
-        <f>Features!C439</f>
-        <v>153</v>
+        <f>Features!C440</f>
+        <v>158</v>
       </c>
       <c r="D58" s="17">
-        <f>Features!C440</f>
+        <f>Features!C441</f>
         <v>1</v>
       </c>
       <c r="E58" s="18">
         <f>MIN(E54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="30"/>
@@ -5993,11 +6030,11 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B62" s="49">
-        <f>A48+A58/B58*(A54-A48)</f>
-        <v>43532.25</v>
+        <f>(A54-A48)*A58/B58 +A48</f>
+        <v>43552.875</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="217">
   <si>
     <t>Feature</t>
   </si>
@@ -191,18 +191,6 @@
     <t>shift left mouse click</t>
   </si>
   <si>
-    <t>clears existing selection, selects from anchor to mouse pointer</t>
-  </si>
-  <si>
-    <t>shift right mouse click</t>
-  </si>
-  <si>
-    <t>same as shift left click?</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>scrolls</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t>combines overlapping selection blocks</t>
   </si>
   <si>
-    <t>highlights mathcing tokens if enabled</t>
-  </si>
-  <si>
     <t>matching token highlight logic</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>ctrl + shift: ctrl ignored</t>
   </si>
   <si>
-    <t>right click: always invokes a popup</t>
-  </si>
-  <si>
     <t>alt + drag</t>
   </si>
   <si>
@@ -672,6 +654,21 @@
   </si>
   <si>
     <t>editable plain text model</t>
+  </si>
+  <si>
+    <t>right click: invokes a popup</t>
+  </si>
+  <si>
+    <t>highlights matching tokens if enabled</t>
+  </si>
+  <si>
+    <t>clears selection if outside of selected region(s)</t>
+  </si>
+  <si>
+    <t>clears existing selection, selects from anchor to the mouse pointer</t>
+  </si>
+  <si>
+    <t>shift right mouse click shows a popup menu</t>
   </si>
 </sst>
 </file>
@@ -931,7 +928,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955058"/>
+          <c:w val="0.91978071330955091"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -964,10 +961,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -989,15 +986,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$54</c:f>
+              <c:f>Progress!$B$48:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1017,6 +1017,9 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
@@ -1050,10 +1053,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1075,15 +1078,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1104,6 +1110,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,10 +1145,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1161,15 +1170,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1190,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1237,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1247,15 +1262,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$58</c:f>
+              <c:f>Progress!$E$48:$E$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1277,21 +1295,24 @@
                 <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127643008"/>
-        <c:axId val="127407232"/>
+        <c:axId val="175222144"/>
+        <c:axId val="174920832"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="127643008"/>
+        <c:axId val="175222144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127407232"/>
+        <c:crossAx val="174920832"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1334,7 +1355,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127407232"/>
+        <c:axId val="174920832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127643008"/>
+        <c:crossAx val="175222144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,8 +1419,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.5828229804607816E-2"/>
-          <c:y val="0.33819556996218314"/>
+          <c:x val="4.5828229804607823E-2"/>
+          <c:y val="0.33819556996218336"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1466,7 +1487,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1520,7 +1541,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127428E-2"/>
+          <c:x val="4.4510450248127456E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1555,10 +1576,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1580,15 +1601,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$54</c:f>
+              <c:f>Progress!$G$48:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1610,15 +1634,18 @@
                 <c:pt idx="6">
                   <c:v>0.22966507177033493</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22966507177033493</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127439232"/>
-        <c:axId val="127440768"/>
+        <c:axId val="174952832"/>
+        <c:axId val="174954368"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="127439232"/>
+        <c:axId val="174952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,13 +1653,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="127440768"/>
+        <c:crossAx val="174954368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127440768"/>
+        <c:axId val="174954368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1675,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127439232"/>
+        <c:crossAx val="174952832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1724,7 +1751,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1775,10 +1802,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1800,15 +1827,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$54</c:f>
+              <c:f>Progress!$C$48:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1829,6 +1859,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,10 +1894,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$54</c:f>
+              <c:f>Progress!$A$48:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1886,15 +1919,18 @@
                 <c:pt idx="6">
                   <c:v>42897</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>42910</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$54</c:f>
+              <c:f>Progress!$D$48:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1916,15 +1952,18 @@
                 <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127465728"/>
-        <c:axId val="127475712"/>
+        <c:axId val="174975232"/>
+        <c:axId val="174977024"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="127465728"/>
+        <c:axId val="174975232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127475712"/>
+        <c:crossAx val="174977024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1966,7 +2005,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="127475712"/>
+        <c:axId val="174977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="127465728"/>
+        <c:crossAx val="174975232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2057,7 +2096,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001266" r="0.75000000000001266" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2107,7 +2146,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2515,10 +2554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D373"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:XFD268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2630,7 +2669,7 @@
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>14</v>
@@ -2666,7 +2705,7 @@
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>14</v>
@@ -2684,7 +2723,7 @@
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -2693,7 +2732,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2702,7 +2741,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2711,7 +2750,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2725,7 +2764,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2734,7 +2773,7 @@
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2743,7 +2782,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2752,7 +2791,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2761,7 +2800,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2797,7 +2836,7 @@
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2806,7 +2845,7 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2820,7 +2859,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -2829,7 +2868,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>14</v>
@@ -2847,7 +2886,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2865,7 +2904,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -2874,7 +2913,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -2883,7 +2922,7 @@
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
       <c r="B48" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>14</v>
@@ -2915,7 +2954,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
@@ -2942,7 +2981,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2951,7 +2990,7 @@
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
       <c r="B56" s="22" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -2960,7 +2999,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -2969,7 +3008,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -2978,7 +3017,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -2987,7 +3026,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="20" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -2996,7 +3035,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3019,7 +3058,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>2</v>
@@ -3028,7 +3067,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="20" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3037,7 +3076,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3046,7 +3085,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>14</v>
@@ -3069,7 +3108,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3096,7 +3135,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>14</v>
@@ -3134,7 +3173,7 @@
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
       <c r="B79" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>2</v>
@@ -3143,7 +3182,7 @@
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
       <c r="B80" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>2</v>
@@ -3152,7 +3191,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2</v>
@@ -3161,7 +3200,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -3170,7 +3209,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>14</v>
@@ -3179,7 +3218,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -3202,7 +3241,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>14</v>
@@ -3211,7 +3250,7 @@
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
       <c r="B88" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>14</v>
@@ -3220,7 +3259,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3229,7 +3268,7 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3238,7 +3277,7 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3277,7 +3316,7 @@
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
       <c r="B98" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3291,7 +3330,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3305,7 +3344,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="22" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3314,7 +3353,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3323,7 +3362,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3337,7 +3376,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3346,7 +3385,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3360,7 +3399,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3396,14 +3435,14 @@
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
       <c r="B115" s="22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
       <c r="B116" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>14</v>
@@ -3412,7 +3451,7 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>14</v>
@@ -3421,7 +3460,7 @@
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3430,7 +3469,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3443,46 +3482,60 @@
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="22"/>
+      <c r="B121" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="B122" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
+      <c r="B123" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="22"/>
-      <c r="C124" s="7"/>
+      <c r="B124" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22" t="s">
-        <v>53</v>
+      <c r="B125" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="20" t="s">
-        <v>52</v>
+      <c r="B126" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3490,13 +3543,13 @@
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="22"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="7"/>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="22" t="s">
-        <v>173</v>
+      <c r="B129" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3504,11 +3557,11 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>174</v>
+      <c r="B130" s="23" t="s">
+        <v>215</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D130" s="4"/>
     </row>
@@ -3518,8 +3571,8 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22" t="s">
-        <v>175</v>
+      <c r="B132" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>14</v>
@@ -3527,43 +3580,63 @@
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="22"/>
-      <c r="C133" s="7"/>
+      <c r="B133" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="22"/>
-      <c r="C136" s="7"/>
+      <c r="B136" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="22"/>
-      <c r="C137" s="7"/>
+      <c r="B137" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20"/>
-      <c r="C138" s="7"/>
+      <c r="B138" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="7"/>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22" t="s">
-        <v>54</v>
+      <c r="B140" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>14</v>
@@ -3571,8 +3644,8 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
-        <v>55</v>
+      <c r="B141" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3585,35 +3658,43 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="22"/>
-      <c r="C144" s="7"/>
+      <c r="B144" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="B145" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
       <c r="B147" s="20" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D147" s="4"/>
     </row>
@@ -3623,23 +3704,31 @@
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
+      <c r="B149" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7"/>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22" t="s">
-        <v>58</v>
+      <c r="B152" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3647,17 +3736,21 @@
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>59</v>
+      <c r="B153" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
-      <c r="C154" s="7"/>
+      <c r="B154" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
@@ -3666,18 +3759,26 @@
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="22"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22" t="s">
-        <v>68</v>
+      <c r="B158" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>14</v>
@@ -3685,17 +3786,13 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B159" s="20"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3703,41 +3800,49 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22"/>
-      <c r="C161" s="7"/>
+      <c r="B161" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="22"/>
-      <c r="C162" s="7"/>
+      <c r="B162" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="22"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="22" t="s">
-        <v>72</v>
+      <c r="B164" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20" t="s">
-        <v>71</v>
+      <c r="B165" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="20" t="s">
-        <v>168</v>
+      <c r="B166" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -3745,51 +3850,61 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="22"/>
+      <c r="B167" s="23"/>
       <c r="C167" s="7"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="22"/>
-      <c r="C168" s="7"/>
+      <c r="B168" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B170" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="7"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="22"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="22"/>
-      <c r="C172" s="7"/>
+      <c r="B172" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="22"/>
-      <c r="C173" s="7"/>
+      <c r="B173" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="22" t="s">
-        <v>75</v>
+      <c r="B174" s="20" t="s">
+        <v>216</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>14</v>
@@ -3797,22 +3912,26 @@
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B175" s="22"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="7"/>
+      <c r="B176" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="22"/>
-      <c r="C177" s="7"/>
+      <c r="B177" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
@@ -3821,8 +3940,8 @@
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22" t="s">
-        <v>76</v>
+      <c r="B179" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>14</v>
@@ -3830,8 +3949,8 @@
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20" t="s">
-        <v>74</v>
+      <c r="B180" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -3844,77 +3963,89 @@
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="7"/>
+      <c r="B182" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="22"/>
-      <c r="C183" s="7"/>
+      <c r="B183" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B184" s="20"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>81</v>
+      <c r="B186" s="27" t="s">
+        <v>134</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="22"/>
-      <c r="C188" s="7"/>
+      <c r="B188" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22" t="s">
-        <v>78</v>
+      <c r="B190" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="7"/>
       <c r="D192" s="4"/>
     </row>
@@ -3924,836 +4055,949 @@
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B194" s="19"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="22"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
+      <c r="B196" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22"/>
+    <row r="197" spans="2:4">
+      <c r="C197" s="7"/>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="2:4">
       <c r="C199" s="7"/>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="22"/>
-      <c r="C204" s="7"/>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="22"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="22" t="s">
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" t="s">
+        <v>81</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" t="s">
+        <v>82</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" t="s">
+        <v>83</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" t="s">
+        <v>84</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" t="s">
+        <v>85</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" t="s">
+        <v>86</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" t="s">
+        <v>87</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" t="s">
+        <v>88</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>92</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="44"/>
+      <c r="C214" s="9"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="44"/>
+      <c r="C215" s="9"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="44"/>
+      <c r="C216" s="9"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="C217" s="9"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="C218" s="9"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="C219" s="9"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="C220" s="9"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C221" s="9"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="C222" s="9"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" t="s">
+        <v>111</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" t="s">
+        <v>113</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>114</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" t="s">
+        <v>115</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" t="s">
+        <v>116</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" t="s">
+        <v>148</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="C230" s="9"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="C231" s="9"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="C232" s="9"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C233" s="9"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="C234" s="9"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" t="s">
         <v>135</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4" s="6" customFormat="1">
-      <c r="B207" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="2:4" s="6" customFormat="1">
-      <c r="B208" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="2:4" s="6" customFormat="1">
-      <c r="B209" s="22"/>
-      <c r="C209" s="7"/>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="2:4" s="6" customFormat="1">
-      <c r="B210" s="22"/>
-      <c r="C210" s="7"/>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="2:4" s="6" customFormat="1">
-      <c r="B211" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="2:4" s="6" customFormat="1">
-      <c r="B212" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="2:4" s="6" customFormat="1">
-      <c r="B213" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="2:4" s="6" customFormat="1">
-      <c r="B214" s="22"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="2:4" s="6" customFormat="1">
-      <c r="B215" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="2:4" s="6" customFormat="1">
-      <c r="B216" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="2:4" s="6" customFormat="1">
-      <c r="B217" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="2:4" s="6" customFormat="1">
-      <c r="B218" s="22"/>
-      <c r="C218" s="7"/>
-      <c r="D218" s="4"/>
-    </row>
-    <row r="219" spans="2:4" s="6" customFormat="1">
-      <c r="B219" s="22"/>
-      <c r="C219" s="7"/>
-      <c r="D219" s="4"/>
-    </row>
-    <row r="220" spans="2:4" s="6" customFormat="1">
-      <c r="B220" s="22"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="4"/>
-    </row>
-    <row r="221" spans="2:4" s="6" customFormat="1">
-      <c r="B221" s="22"/>
-      <c r="C221" s="7"/>
-      <c r="D221" s="4"/>
-    </row>
-    <row r="222" spans="2:4" s="6" customFormat="1">
-      <c r="B222" s="22"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="4"/>
-    </row>
-    <row r="223" spans="2:4" s="6" customFormat="1">
-      <c r="B223" s="22"/>
-      <c r="C223" s="7"/>
-      <c r="D223" s="4"/>
-    </row>
-    <row r="224" spans="2:4" s="6" customFormat="1">
-      <c r="B224" s="22"/>
-      <c r="C224" s="7"/>
-      <c r="D224" s="4"/>
-    </row>
-    <row r="225" spans="2:4" s="6" customFormat="1">
-      <c r="B225" s="22"/>
-      <c r="C225" s="7"/>
-      <c r="D225" s="4"/>
-    </row>
-    <row r="226" spans="2:4" s="6" customFormat="1">
-      <c r="B226" s="20"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="4"/>
-    </row>
-    <row r="227" spans="2:4" s="6" customFormat="1">
-      <c r="B227" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D227" s="4"/>
-    </row>
-    <row r="228" spans="2:4" s="6" customFormat="1">
-      <c r="B228" s="20"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="4"/>
-    </row>
-    <row r="229" spans="2:4" s="6" customFormat="1">
-      <c r="B229" s="20"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="4"/>
-    </row>
-    <row r="230" spans="2:4" s="6" customFormat="1">
-      <c r="B230" s="20"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="4"/>
-    </row>
-    <row r="231" spans="2:4" s="6" customFormat="1">
-      <c r="B231" s="22" t="s">
+      <c r="C235" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" t="s">
+        <v>102</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>80</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
+        <v>94</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
+        <v>95</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="C241" s="9"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="C243" s="9"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
+        <v>100</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" t="s">
+        <v>187</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C254" s="9"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>49</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" t="s">
+        <v>50</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" t="s">
+        <v>51</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="2:4">
+      <c r="B259" t="s">
+        <v>97</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4">
+      <c r="B260" t="s">
+        <v>98</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
+        <v>148</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="C263" s="9"/>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="C264" s="9"/>
+    </row>
+    <row r="265" spans="2:4">
+      <c r="C265" s="9"/>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="C266" s="9"/>
+    </row>
+    <row r="268" spans="2:4" s="6" customFormat="1">
+      <c r="B268" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268" s="7"/>
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="22"/>
+      <c r="C269" s="7"/>
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="2:4" s="6" customFormat="1">
+      <c r="B270" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="2:4" s="6" customFormat="1">
+      <c r="B273" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" s="6" customFormat="1">
+      <c r="B274" s="22"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="2:4" s="6" customFormat="1">
+      <c r="B275" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="2:4" s="6" customFormat="1">
+      <c r="B276" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" t="s">
+        <v>148</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="22"/>
+      <c r="C279" s="7"/>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="2:4" s="6" customFormat="1">
+      <c r="B281" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="C282" s="7"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="22"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="22"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C287" s="7"/>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" s="6" customFormat="1">
+      <c r="B288" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" s="6" customFormat="1">
+      <c r="B290" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="2:4" s="6" customFormat="1">
+      <c r="B291" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="22"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="22"/>
+      <c r="C298" s="7"/>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="22"/>
+      <c r="C299" s="7"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="2:4" s="6" customFormat="1">
+      <c r="B300" s="22"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="22"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" s="6" customFormat="1">
+      <c r="B302" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C302" s="7"/>
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="2:4" s="6" customFormat="1">
+      <c r="B303" s="22"/>
+      <c r="C303" s="7"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="2:4" s="6" customFormat="1">
+      <c r="B304" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="2:4" s="6" customFormat="1">
+      <c r="B305" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="2:4" s="6" customFormat="1">
+      <c r="B306" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" s="6" customFormat="1">
+      <c r="B307" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" s="6" customFormat="1">
+      <c r="B308" s="22"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" s="6" customFormat="1">
+      <c r="B310" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" s="4"/>
+    </row>
+    <row r="313" spans="2:4" s="6" customFormat="1">
+      <c r="B313" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" s="6" customFormat="1">
+      <c r="B314" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="22"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C316" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="22"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C318" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="4"/>
-    </row>
-    <row r="232" spans="2:4" s="6" customFormat="1">
-      <c r="B232" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C232" s="7" t="s">
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" s="6" customFormat="1">
+      <c r="B319" s="22"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" s="6" customFormat="1">
+      <c r="B320" s="22"/>
+      <c r="C320" s="7"/>
+      <c r="D320" s="4"/>
+    </row>
+    <row r="321" spans="2:4" s="6" customFormat="1">
+      <c r="B321" s="22"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="2:4" s="6" customFormat="1">
+      <c r="B322" s="22"/>
+      <c r="C322" s="7"/>
+      <c r="D322" s="4"/>
+    </row>
+    <row r="323" spans="2:4" s="6" customFormat="1">
+      <c r="B323" s="22"/>
+      <c r="C323" s="7"/>
+      <c r="D323" s="4"/>
+    </row>
+    <row r="324" spans="2:4" s="6" customFormat="1">
+      <c r="B324" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C324" s="7"/>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" s="6" customFormat="1">
+      <c r="B325" s="22"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C326" s="7"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C327" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="4"/>
-    </row>
-    <row r="233" spans="2:4" s="6" customFormat="1">
-      <c r="B233" s="20" t="s">
+      <c r="D327" s="4"/>
+    </row>
+    <row r="328" spans="2:4" s="6" customFormat="1">
+      <c r="B328" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D328" s="4"/>
+    </row>
+    <row r="329" spans="2:4" s="6" customFormat="1">
+      <c r="B329" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D329" s="4"/>
+    </row>
+    <row r="330" spans="2:4" s="6" customFormat="1">
+      <c r="B330" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="22"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" s="7"/>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="22"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C233" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D233" s="4"/>
-    </row>
-    <row r="234" spans="2:4" s="6" customFormat="1">
-      <c r="B234" s="22" t="s">
+      <c r="C336" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C234" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="2:4" s="6" customFormat="1">
-      <c r="B235" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="4"/>
-    </row>
-    <row r="236" spans="2:4" s="6" customFormat="1">
-      <c r="B236" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="2:4" s="6" customFormat="1">
-      <c r="B237" s="20"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="2:4" s="6" customFormat="1">
-      <c r="B238" s="20"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="4"/>
-    </row>
-    <row r="239" spans="2:4" s="6" customFormat="1">
-      <c r="B239" s="20"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="4"/>
-    </row>
-    <row r="240" spans="2:4" s="6" customFormat="1">
-      <c r="B240" s="20"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="4"/>
-    </row>
-    <row r="241" spans="2:4" s="6" customFormat="1">
-      <c r="B241" s="20"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="4"/>
-    </row>
-    <row r="242" spans="2:4" s="6" customFormat="1">
-      <c r="B242" s="20"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="4"/>
-    </row>
-    <row r="243" spans="2:4" s="6" customFormat="1">
-      <c r="B243" s="20"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="2:4" s="6" customFormat="1">
-      <c r="B244" s="20"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="2:4" s="6" customFormat="1">
-      <c r="B245" s="22"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="2:4" s="6" customFormat="1">
-      <c r="B246" s="20"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="2:4" s="6" customFormat="1">
-      <c r="B247" s="19"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="2:4" s="6" customFormat="1">
-      <c r="B248" s="4"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="4"/>
-    </row>
-    <row r="249" spans="2:4" s="6" customFormat="1">
-      <c r="B249" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C249" s="7"/>
-      <c r="D249" s="4"/>
-    </row>
-    <row r="250" spans="2:4">
-      <c r="C250" s="7"/>
-    </row>
-    <row r="251" spans="2:4">
-      <c r="B251" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C251" s="7"/>
-    </row>
-    <row r="252" spans="2:4">
-      <c r="C252" s="7"/>
-    </row>
-    <row r="253" spans="2:4">
-      <c r="B253" t="s">
-        <v>86</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4">
-      <c r="B254" t="s">
-        <v>87</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4">
-      <c r="B255" t="s">
-        <v>88</v>
-      </c>
-      <c r="C255" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="B256" t="s">
-        <v>89</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3">
-      <c r="B257" t="s">
-        <v>90</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="B258" t="s">
-        <v>91</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3">
-      <c r="B259" t="s">
-        <v>92</v>
-      </c>
-      <c r="C259" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3">
-      <c r="B260" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C260" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3">
-      <c r="B261" t="s">
-        <v>93</v>
-      </c>
-      <c r="C261" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" t="s">
-        <v>97</v>
-      </c>
-      <c r="C263" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="C264" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C265" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="B266" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="C266" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3">
-      <c r="B267" s="44"/>
-      <c r="C267" s="9"/>
-    </row>
-    <row r="268" spans="2:3">
-      <c r="B268" s="44"/>
-      <c r="C268" s="9"/>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="B269" s="44"/>
-      <c r="C269" s="9"/>
-    </row>
-    <row r="270" spans="2:3">
-      <c r="C270" s="9"/>
-    </row>
-    <row r="271" spans="2:3">
-      <c r="C271" s="9"/>
-    </row>
-    <row r="272" spans="2:3">
-      <c r="C272" s="9"/>
-    </row>
-    <row r="273" spans="2:3">
-      <c r="C273" s="9"/>
-    </row>
-    <row r="274" spans="2:3">
-      <c r="B274" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C274" s="9"/>
-    </row>
-    <row r="275" spans="2:3">
-      <c r="C275" s="9"/>
-    </row>
-    <row r="276" spans="2:3">
-      <c r="B276" t="s">
-        <v>116</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3">
-      <c r="B277" t="s">
-        <v>117</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3">
-      <c r="B278" t="s">
-        <v>118</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3">
-      <c r="B279" t="s">
-        <v>119</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3">
-      <c r="B280" t="s">
-        <v>120</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3">
-      <c r="B281" t="s">
-        <v>121</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3">
-      <c r="B282" t="s">
-        <v>154</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3">
-      <c r="C283" s="9"/>
-    </row>
-    <row r="284" spans="2:3">
-      <c r="C284" s="9"/>
-    </row>
-    <row r="285" spans="2:3">
-      <c r="C285" s="9"/>
-    </row>
-    <row r="286" spans="2:3">
-      <c r="B286" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="C286" s="9"/>
-    </row>
-    <row r="287" spans="2:3">
-      <c r="C287" s="9"/>
-    </row>
-    <row r="288" spans="2:3">
-      <c r="B288" t="s">
-        <v>141</v>
-      </c>
-      <c r="C288" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="2:3">
-      <c r="B289" t="s">
-        <v>107</v>
-      </c>
-      <c r="C289" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="291" spans="2:3">
-      <c r="B291" t="s">
-        <v>85</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3">
-      <c r="B292" t="s">
-        <v>99</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="293" spans="2:3">
-      <c r="B293" t="s">
-        <v>100</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3">
-      <c r="C294" s="9"/>
-    </row>
-    <row r="295" spans="2:3">
-      <c r="B295" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="C295" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="296" spans="2:3">
-      <c r="C296" s="9"/>
-    </row>
-    <row r="297" spans="2:3">
-      <c r="B297" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="298" spans="2:3">
-      <c r="B298" t="s">
-        <v>105</v>
-      </c>
-      <c r="C298" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3">
-      <c r="C299" s="9"/>
-    </row>
-    <row r="300" spans="2:3">
-      <c r="B300" t="s">
-        <v>193</v>
-      </c>
-      <c r="C300" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3">
-      <c r="C301" s="9"/>
-    </row>
-    <row r="302" spans="2:3">
-      <c r="C302" s="9"/>
-    </row>
-    <row r="303" spans="2:3">
-      <c r="C303" s="9"/>
-    </row>
-    <row r="304" spans="2:3">
-      <c r="C304" s="9"/>
-    </row>
-    <row r="305" spans="3:3">
-      <c r="C305" s="9"/>
-    </row>
-    <row r="306" spans="3:3">
-      <c r="C306" s="9"/>
-    </row>
-    <row r="307" spans="3:3">
-      <c r="C307" s="9"/>
-    </row>
-    <row r="308" spans="3:3">
-      <c r="C308" s="9"/>
-    </row>
-    <row r="309" spans="3:3">
-      <c r="C309" s="9"/>
-    </row>
-    <row r="310" spans="3:3">
-      <c r="C310" s="9"/>
-    </row>
-    <row r="311" spans="3:3">
-      <c r="C311" s="9"/>
-    </row>
-    <row r="312" spans="3:3">
-      <c r="C312" s="9"/>
-    </row>
-    <row r="313" spans="3:3">
-      <c r="C313" s="9"/>
-    </row>
-    <row r="314" spans="3:3">
-      <c r="C314" s="9"/>
-    </row>
-    <row r="315" spans="3:3">
-      <c r="C315" s="9"/>
-    </row>
-    <row r="316" spans="3:3">
-      <c r="C316" s="9"/>
-    </row>
-    <row r="317" spans="3:3">
-      <c r="C317" s="9"/>
-    </row>
-    <row r="318" spans="3:3">
-      <c r="C318" s="9"/>
-    </row>
-    <row r="319" spans="3:3">
-      <c r="C319" s="9"/>
-    </row>
-    <row r="320" spans="3:3">
-      <c r="C320" s="9"/>
-    </row>
-    <row r="321" spans="2:3">
-      <c r="B321" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C321" s="9"/>
-    </row>
-    <row r="322" spans="2:3">
-      <c r="B322" t="s">
-        <v>49</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3">
-      <c r="B323" t="s">
-        <v>50</v>
-      </c>
-      <c r="C323" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3">
-      <c r="B324" t="s">
-        <v>51</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3">
-      <c r="C325" s="9"/>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" t="s">
-        <v>102</v>
-      </c>
-      <c r="C326" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="B327" t="s">
-        <v>103</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3">
-      <c r="C328" s="9"/>
-    </row>
-    <row r="329" spans="2:3">
-      <c r="B329" t="s">
-        <v>154</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3">
-      <c r="C330" s="9"/>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="C331" s="9"/>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="C332" s="9"/>
-    </row>
-    <row r="333" spans="2:3">
-      <c r="C333" s="9"/>
-    </row>
-    <row r="334" spans="2:3">
-      <c r="C334" s="9"/>
-    </row>
-    <row r="335" spans="2:3">
-      <c r="C335" s="9"/>
-    </row>
-    <row r="336" spans="2:3">
-      <c r="C336" s="9"/>
-    </row>
-    <row r="337" spans="2:4">
-      <c r="C337" s="9"/>
+      <c r="C337" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="22"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C339" s="7"/>
+      <c r="B339" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
@@ -4762,35 +5006,23 @@
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B341" s="22"/>
+      <c r="C341" s="7"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B342" s="22"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B343" s="22"/>
+      <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
       <c r="B344" s="22" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="C344" s="7" t="s">
         <v>14</v>
@@ -4798,13 +5030,17 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22"/>
-      <c r="C345" s="7"/>
+      <c r="B345" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>102</v>
+      <c r="B346" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
@@ -4812,22 +5048,26 @@
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>103</v>
+      <c r="B347" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22"/>
-      <c r="C348" s="7"/>
+      <c r="B348" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" t="s">
-        <v>154</v>
+      <c r="B349" s="20" t="s">
+        <v>210</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -4840,671 +5080,155 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B352" s="22"/>
+      <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
+    <row r="353" spans="1:4" s="6" customFormat="1">
+      <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="354" spans="1:4" s="6" customFormat="1">
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
+    <row r="355" spans="1:4" s="6" customFormat="1">
       <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="356" spans="1:4" s="6" customFormat="1">
+      <c r="B356" s="22"/>
+      <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
+    <row r="357" spans="1:4" s="6" customFormat="1">
       <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>184</v>
-      </c>
+    <row r="358" spans="1:4" s="6" customFormat="1">
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="359" spans="1:4" s="6" customFormat="1">
+      <c r="B359" s="22"/>
+      <c r="C359" s="7"/>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="360" spans="1:4" s="6" customFormat="1">
+      <c r="B360" s="22"/>
+      <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="361" spans="1:4" s="6" customFormat="1">
+      <c r="B361" s="22"/>
+      <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="362" spans="1:4" s="6" customFormat="1">
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C363" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="363" spans="1:4" s="6" customFormat="1">
+      <c r="B363" s="22"/>
+      <c r="C363" s="4"/>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="7"/>
+    <row r="364" spans="1:4" s="6" customFormat="1">
+      <c r="B364" s="19"/>
+      <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="365" spans="1:4" s="6" customFormat="1">
+      <c r="B365" s="21"/>
+      <c r="C365" s="4"/>
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C366" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="366" spans="1:4" s="6" customFormat="1">
+      <c r="B366" s="21"/>
+      <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="7"/>
-      <c r="D367" s="4"/>
-    </row>
-    <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D368" s="4"/>
-    </row>
-    <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="7"/>
-      <c r="D369" s="4"/>
-    </row>
-    <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="22"/>
-      <c r="C370" s="7"/>
-      <c r="D370" s="4"/>
-    </row>
-    <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="22"/>
-      <c r="C371" s="7"/>
-      <c r="D371" s="4"/>
-    </row>
-    <row r="372" spans="2:4" s="6" customFormat="1">
-      <c r="B372" s="22"/>
-      <c r="C372" s="7"/>
-      <c r="D372" s="4"/>
-    </row>
-    <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C373" s="7"/>
-      <c r="D373" s="4"/>
-    </row>
-    <row r="374" spans="2:4" s="6" customFormat="1">
-      <c r="B374" s="22"/>
-      <c r="C374" s="7"/>
-      <c r="D374" s="4"/>
-    </row>
-    <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C375" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D375" s="4"/>
-    </row>
-    <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C376" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D376" s="4"/>
-    </row>
-    <row r="377" spans="2:4" s="6" customFormat="1">
-      <c r="B377" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C377" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D377" s="4"/>
-    </row>
-    <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C378" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D378" s="4"/>
-    </row>
-    <row r="379" spans="2:4" s="6" customFormat="1">
-      <c r="B379" s="22"/>
-      <c r="C379" s="7"/>
-      <c r="D379" s="4"/>
-    </row>
-    <row r="380" spans="2:4" s="6" customFormat="1">
-      <c r="B380" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D380" s="4"/>
-    </row>
-    <row r="381" spans="2:4" s="6" customFormat="1">
-      <c r="B381" s="22" t="s">
+    <row r="367" spans="1:4">
+      <c r="A367" s="3"/>
+      <c r="B367" s="11"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="3"/>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="3"/>
+      <c r="B368" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" s="6">
+        <f>COUNTIF(C5:C367,"y")</f>
         <v>48</v>
       </c>
-      <c r="C381" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D381" s="4"/>
-    </row>
-    <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="22"/>
-      <c r="C382" s="7"/>
-      <c r="D382" s="4"/>
-    </row>
-    <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D383" s="4"/>
-    </row>
-    <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C384" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D384" s="4"/>
-    </row>
-    <row r="385" spans="2:4" s="6" customFormat="1">
-      <c r="B385" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D385" s="4"/>
-    </row>
-    <row r="386" spans="2:4" s="6" customFormat="1">
-      <c r="B386" s="22"/>
-      <c r="C386" s="7"/>
-      <c r="D386" s="4"/>
-    </row>
-    <row r="387" spans="2:4" s="6" customFormat="1">
-      <c r="B387" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C387" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D387" s="4"/>
-    </row>
-    <row r="388" spans="2:4" s="6" customFormat="1">
-      <c r="B388" s="22"/>
-      <c r="C388" s="7"/>
-      <c r="D388" s="4"/>
-    </row>
-    <row r="389" spans="2:4" s="6" customFormat="1">
-      <c r="B389" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C389" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D389" s="4"/>
-    </row>
-    <row r="390" spans="2:4" s="6" customFormat="1">
-      <c r="B390" s="22"/>
-      <c r="C390" s="7"/>
-      <c r="D390" s="4"/>
-    </row>
-    <row r="391" spans="2:4" s="6" customFormat="1">
-      <c r="B391" s="22"/>
-      <c r="C391" s="7"/>
-      <c r="D391" s="4"/>
-    </row>
-    <row r="392" spans="2:4" s="6" customFormat="1">
-      <c r="B392" s="22"/>
-      <c r="C392" s="7"/>
-      <c r="D392" s="4"/>
-    </row>
-    <row r="393" spans="2:4" s="6" customFormat="1">
-      <c r="B393" s="22"/>
-      <c r="C393" s="7"/>
-      <c r="D393" s="4"/>
-    </row>
-    <row r="394" spans="2:4" s="6" customFormat="1">
-      <c r="B394" s="22"/>
-      <c r="C394" s="7"/>
-      <c r="D394" s="4"/>
-    </row>
-    <row r="395" spans="2:4" s="6" customFormat="1">
-      <c r="B395" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C395" s="7"/>
-      <c r="D395" s="4"/>
-    </row>
-    <row r="396" spans="2:4" s="6" customFormat="1">
-      <c r="B396" s="22"/>
-      <c r="C396" s="7"/>
-      <c r="D396" s="4"/>
-    </row>
-    <row r="397" spans="2:4" s="6" customFormat="1">
-      <c r="B397" s="22" t="s">
+      <c r="D368" s="2"/>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="3"/>
+      <c r="B369" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="6">
+        <f>COUNTIF(C5:C367,"n")</f>
         <v>159</v>
       </c>
-      <c r="C397" s="7"/>
-      <c r="D397" s="4"/>
-    </row>
-    <row r="398" spans="2:4" s="6" customFormat="1">
-      <c r="B398" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C398" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D398" s="4"/>
-    </row>
-    <row r="399" spans="2:4" s="6" customFormat="1">
-      <c r="B399" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C399" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D399" s="4"/>
-    </row>
-    <row r="400" spans="2:4" s="6" customFormat="1">
-      <c r="B400" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C400" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D400" s="4"/>
-    </row>
-    <row r="401" spans="2:4" s="6" customFormat="1">
-      <c r="B401" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C401" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D401" s="4"/>
-    </row>
-    <row r="402" spans="2:4" s="6" customFormat="1">
-      <c r="B402" s="22"/>
-      <c r="C402" s="7"/>
-      <c r="D402" s="4"/>
-    </row>
-    <row r="403" spans="2:4" s="6" customFormat="1">
-      <c r="B403" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C403" s="7"/>
-      <c r="D403" s="4"/>
-    </row>
-    <row r="404" spans="2:4" s="6" customFormat="1">
-      <c r="B404" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D404" s="4"/>
-    </row>
-    <row r="405" spans="2:4" s="6" customFormat="1">
-      <c r="B405" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C405" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D405" s="4"/>
-    </row>
-    <row r="406" spans="2:4" s="6" customFormat="1">
-      <c r="B406" s="22"/>
-      <c r="C406" s="7"/>
-      <c r="D406" s="4"/>
-    </row>
-    <row r="407" spans="2:4" s="6" customFormat="1">
-      <c r="B407" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C407" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D407" s="4"/>
-    </row>
-    <row r="408" spans="2:4" s="6" customFormat="1">
-      <c r="B408" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C408" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D408" s="4"/>
-    </row>
-    <row r="409" spans="2:4" s="6" customFormat="1">
-      <c r="B409" s="22"/>
-      <c r="C409" s="7"/>
-      <c r="D409" s="4"/>
-    </row>
-    <row r="410" spans="2:4" s="6" customFormat="1">
-      <c r="B410" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="C410" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D410" s="4"/>
-    </row>
-    <row r="411" spans="2:4" s="6" customFormat="1">
-      <c r="B411" s="22"/>
-      <c r="C411" s="7"/>
-      <c r="D411" s="4"/>
-    </row>
-    <row r="412" spans="2:4" s="6" customFormat="1">
-      <c r="B412" s="22"/>
-      <c r="C412" s="7"/>
-      <c r="D412" s="4"/>
-    </row>
-    <row r="413" spans="2:4" s="6" customFormat="1">
-      <c r="B413" s="22"/>
-      <c r="C413" s="7"/>
-      <c r="D413" s="4"/>
-    </row>
-    <row r="414" spans="2:4" s="6" customFormat="1">
-      <c r="B414" s="22"/>
-      <c r="C414" s="7"/>
-      <c r="D414" s="4"/>
-    </row>
-    <row r="415" spans="2:4" s="6" customFormat="1">
-      <c r="B415" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D415" s="4"/>
-    </row>
-    <row r="416" spans="2:4" s="6" customFormat="1">
-      <c r="B416" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C416" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D416" s="4"/>
-    </row>
-    <row r="417" spans="2:4" s="6" customFormat="1">
-      <c r="B417" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C417" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D417" s="4"/>
-    </row>
-    <row r="418" spans="2:4" s="6" customFormat="1">
-      <c r="B418" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C418" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D418" s="4"/>
-    </row>
-    <row r="419" spans="2:4" s="6" customFormat="1">
-      <c r="B419" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C419" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D419" s="4"/>
-    </row>
-    <row r="420" spans="2:4" s="6" customFormat="1">
-      <c r="B420" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D420" s="4"/>
-    </row>
-    <row r="421" spans="2:4" s="6" customFormat="1">
-      <c r="B421" s="22"/>
-      <c r="C421" s="7"/>
-      <c r="D421" s="4"/>
-    </row>
-    <row r="422" spans="2:4" s="6" customFormat="1">
-      <c r="B422" s="22"/>
-      <c r="C422" s="7"/>
-      <c r="D422" s="4"/>
-    </row>
-    <row r="423" spans="2:4" s="6" customFormat="1">
-      <c r="B423" s="22"/>
-      <c r="C423" s="7"/>
-      <c r="D423" s="4"/>
-    </row>
-    <row r="424" spans="2:4" s="6" customFormat="1">
-      <c r="B424" s="22"/>
-      <c r="C424" s="7"/>
-      <c r="D424" s="4"/>
-    </row>
-    <row r="425" spans="2:4" s="6" customFormat="1">
-      <c r="B425" s="22"/>
-      <c r="C425" s="7"/>
-      <c r="D425" s="4"/>
-    </row>
-    <row r="426" spans="2:4" s="6" customFormat="1">
-      <c r="B426" s="22"/>
-      <c r="C426" s="7"/>
-      <c r="D426" s="4"/>
-    </row>
-    <row r="427" spans="2:4" s="6" customFormat="1">
-      <c r="B427" s="22"/>
-      <c r="C427" s="7"/>
-      <c r="D427" s="4"/>
-    </row>
-    <row r="428" spans="2:4" s="6" customFormat="1">
-      <c r="B428" s="22"/>
-      <c r="C428" s="7"/>
-      <c r="D428" s="4"/>
-    </row>
-    <row r="429" spans="2:4" s="6" customFormat="1">
-      <c r="B429" s="22"/>
-      <c r="C429" s="7"/>
-      <c r="D429" s="4"/>
-    </row>
-    <row r="430" spans="2:4" s="6" customFormat="1">
-      <c r="B430" s="22"/>
-      <c r="C430" s="7"/>
-      <c r="D430" s="4"/>
-    </row>
-    <row r="431" spans="2:4" s="6" customFormat="1">
-      <c r="B431" s="22"/>
-      <c r="C431" s="7"/>
-      <c r="D431" s="4"/>
-    </row>
-    <row r="432" spans="2:4" s="6" customFormat="1">
-      <c r="B432" s="22"/>
-      <c r="C432" s="7"/>
-      <c r="D432" s="4"/>
-    </row>
-    <row r="433" spans="1:4" s="6" customFormat="1">
-      <c r="B433" s="22"/>
-      <c r="C433" s="7"/>
-      <c r="D433" s="4"/>
-    </row>
-    <row r="434" spans="1:4" s="6" customFormat="1">
-      <c r="B434" s="22"/>
-      <c r="C434" s="4"/>
-      <c r="D434" s="4"/>
-    </row>
-    <row r="435" spans="1:4" s="6" customFormat="1">
-      <c r="B435" s="19"/>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-    </row>
-    <row r="436" spans="1:4" s="6" customFormat="1">
-      <c r="B436" s="21"/>
-      <c r="C436" s="4"/>
-      <c r="D436" s="4"/>
-    </row>
-    <row r="437" spans="1:4" s="6" customFormat="1">
-      <c r="B437" s="21"/>
-      <c r="C437" s="4"/>
-      <c r="D437" s="4"/>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="3"/>
-      <c r="B438" s="11"/>
-      <c r="C438" s="11"/>
-      <c r="D438" s="3"/>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="3"/>
-      <c r="B439" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C439" s="6">
-        <f>COUNTIF(C5:C438,"y")</f>
-        <v>48</v>
-      </c>
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="3"/>
-      <c r="B440" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C440" s="6">
-        <f>COUNTIF(C5:C438,"n")</f>
-        <v>158</v>
-      </c>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="3"/>
-      <c r="B441" s="8" t="s">
+      <c r="D369" s="2"/>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="3"/>
+      <c r="B370" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C441" s="7">
-        <f>COUNTIF(C5:C438,"TBD")</f>
-        <v>1</v>
-      </c>
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="3"/>
-      <c r="B442" s="8" t="s">
+      <c r="C370" s="7">
+        <f>COUNTIF(C5:C367,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D370" s="2"/>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="3"/>
+      <c r="B371" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C442">
-        <f>SUM(C439:C441)</f>
+      <c r="C371">
+        <f>SUM(C368:C370)</f>
         <v>207</v>
       </c>
-      <c r="D442" s="2"/>
-    </row>
-    <row r="443" spans="1:4" ht="18">
-      <c r="A443" s="3"/>
-      <c r="B443" s="10"/>
-      <c r="C443" s="10" t="s">
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4" ht="18">
+      <c r="A372" s="3"/>
+      <c r="B372" s="10"/>
+      <c r="C372" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D443" s="41">
-        <f>C439/(C440+C439 + C441)</f>
+      <c r="D372" s="41">
+        <f>C368/(C369+C368 + C370)</f>
         <v>0.2318840579710145</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="3"/>
-      <c r="B444" s="11"/>
-      <c r="C444" s="11"/>
-      <c r="D444" s="3"/>
+    <row r="373" spans="1:4">
+      <c r="A373" s="3"/>
+      <c r="B373" s="11"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C291:C337 C339:C65192 C6:C289 C1:C3">
+  <conditionalFormatting sqref="C268:C65121 C238:C266 C1:C3 C6:C236">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5526,11 +5250,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT868"/>
+  <dimension ref="A1:IT869"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5853,7 +5577,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G53" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G54" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5922,19 +5646,32 @@
       </c>
       <c r="F54" s="48"/>
       <c r="G54" s="30">
-        <f t="shared" ref="G54" si="3">B54/SUM(B54:E54)</f>
+        <f t="shared" si="2"/>
         <v>0.22966507177033493</v>
       </c>
       <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="47"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
+      <c r="A55" s="47">
+        <v>42910</v>
+      </c>
+      <c r="B55" s="4">
+        <v>48</v>
+      </c>
+      <c r="C55" s="4">
+        <v>159</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="30">
+        <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
+        <v>0.22966507177033493</v>
+      </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
@@ -5943,84 +5680,84 @@
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="31"/>
+      <c r="F56" s="28"/>
       <c r="G56" s="30"/>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F58" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="38">
-        <f>MIN(G54)</f>
+      <c r="G58" s="38">
+        <f>MIN(G55)</f>
         <v>0.22966507177033493</v>
       </c>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="39">
-        <f>SUM(B58:D58)</f>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="39">
+        <f>SUM(B59:D59)</f>
         <v>207</v>
       </c>
-      <c r="B58" s="15">
-        <f>Features!C439</f>
+      <c r="B59" s="15">
+        <f>Features!C368</f>
         <v>48</v>
       </c>
-      <c r="C58" s="16">
-        <f>Features!C440</f>
-        <v>158</v>
-      </c>
-      <c r="D58" s="17">
-        <f>Features!C441</f>
-        <v>1</v>
-      </c>
-      <c r="E58" s="18">
-        <f>MIN(E54)</f>
+      <c r="C59" s="16">
+        <f>Features!C369</f>
+        <v>159</v>
+      </c>
+      <c r="D59" s="17">
+        <f>Features!C370</f>
+        <v>0</v>
+      </c>
+      <c r="E59" s="18">
+        <f>MIN(E55)</f>
         <v>2</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
-      <c r="J59" s="36"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
+      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6029,13 +5766,8 @@
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="49">
-        <f>(A54-A48)*A58/B58 +A48</f>
-        <v>43552.875</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -6044,8 +5776,13 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="49">
+        <f>(A55-A48)*A59/B59 +A48</f>
+        <v>43608.9375</v>
+      </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6055,7 +5792,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -6075,7 +5812,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6095,7 +5832,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="7"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6105,7 +5842,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="20"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6124,7 +5861,7 @@
       <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="7"/>
+      <c r="A71" s="4"/>
       <c r="B71" s="20"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
@@ -6135,7 +5872,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -6266,7 +6003,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
+      <c r="C85" s="4"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
@@ -6275,7 +6012,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
-      <c r="B86" s="6"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -6283,15 +6020,15 @@
       <c r="G86" s="30"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="4"/>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="7"/>
     </row>
     <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="4"/>
@@ -6465,7 +6202,7 @@
     </row>
     <row r="105" spans="1:8" s="2" customFormat="1">
       <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
+      <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
@@ -6475,7 +6212,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
+      <c r="B106" s="6"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6505,7 +6242,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6545,7 +6282,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="21"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6555,7 +6292,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6565,7 +6302,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
+      <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6575,7 +6312,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="6"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6585,7 +6322,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6605,7 +6342,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6665,7 +6402,7 @@
     </row>
     <row r="125" spans="1:8" s="2" customFormat="1">
       <c r="A125" s="4"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
@@ -6765,7 +6502,7 @@
     </row>
     <row r="135" spans="1:8" s="2" customFormat="1">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6815,7 +6552,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6835,7 +6572,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6874,284 +6611,284 @@
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
-      <c r="A146" s="21"/>
-      <c r="B146" s="21"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="35"/>
-      <c r="H146" s="21"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-      <c r="AA146" s="5"/>
-      <c r="AB146" s="5"/>
-      <c r="AC146" s="5"/>
-      <c r="AD146" s="5"/>
-      <c r="AE146" s="5"/>
-      <c r="AF146" s="5"/>
-      <c r="AG146" s="5"/>
-      <c r="AH146" s="5"/>
-      <c r="AI146" s="5"/>
-      <c r="AJ146" s="5"/>
-      <c r="AK146" s="5"/>
-      <c r="AL146" s="5"/>
-      <c r="AM146" s="5"/>
-      <c r="AN146" s="5"/>
-      <c r="AO146" s="5"/>
-      <c r="AP146" s="5"/>
-      <c r="AQ146" s="5"/>
-      <c r="AR146" s="5"/>
-      <c r="AS146" s="5"/>
-      <c r="AT146" s="5"/>
-      <c r="AU146" s="5"/>
-      <c r="AV146" s="5"/>
-      <c r="AW146" s="5"/>
-      <c r="AX146" s="5"/>
-      <c r="AY146" s="5"/>
-      <c r="AZ146" s="5"/>
-      <c r="BA146" s="5"/>
-      <c r="BB146" s="5"/>
-      <c r="BC146" s="5"/>
-      <c r="BD146" s="5"/>
-      <c r="BE146" s="5"/>
-      <c r="BF146" s="5"/>
-      <c r="BG146" s="5"/>
-      <c r="BH146" s="5"/>
-      <c r="BI146" s="5"/>
-      <c r="BJ146" s="5"/>
-      <c r="BK146" s="5"/>
-      <c r="BL146" s="5"/>
-      <c r="BM146" s="5"/>
-      <c r="BN146" s="5"/>
-      <c r="BO146" s="5"/>
-      <c r="BP146" s="5"/>
-      <c r="BQ146" s="5"/>
-      <c r="BR146" s="5"/>
-      <c r="BS146" s="5"/>
-      <c r="BT146" s="5"/>
-      <c r="BU146" s="5"/>
-      <c r="BV146" s="5"/>
-      <c r="BW146" s="5"/>
-      <c r="BX146" s="5"/>
-      <c r="BY146" s="5"/>
-      <c r="BZ146" s="5"/>
-      <c r="CA146" s="5"/>
-      <c r="CB146" s="5"/>
-      <c r="CC146" s="5"/>
-      <c r="CD146" s="5"/>
-      <c r="CE146" s="5"/>
-      <c r="CF146" s="5"/>
-      <c r="CG146" s="5"/>
-      <c r="CH146" s="5"/>
-      <c r="CI146" s="5"/>
-      <c r="CJ146" s="5"/>
-      <c r="CK146" s="5"/>
-      <c r="CL146" s="5"/>
-      <c r="CM146" s="5"/>
-      <c r="CN146" s="5"/>
-      <c r="CO146" s="5"/>
-      <c r="CP146" s="5"/>
-      <c r="CQ146" s="5"/>
-      <c r="CR146" s="5"/>
-      <c r="CS146" s="5"/>
-      <c r="CT146" s="5"/>
-      <c r="CU146" s="5"/>
-      <c r="CV146" s="5"/>
-      <c r="CW146" s="5"/>
-      <c r="CX146" s="5"/>
-      <c r="CY146" s="5"/>
-      <c r="CZ146" s="5"/>
-      <c r="DA146" s="5"/>
-      <c r="DB146" s="5"/>
-      <c r="DC146" s="5"/>
-      <c r="DD146" s="5"/>
-      <c r="DE146" s="5"/>
-      <c r="DF146" s="5"/>
-      <c r="DG146" s="5"/>
-      <c r="DH146" s="5"/>
-      <c r="DI146" s="5"/>
-      <c r="DJ146" s="5"/>
-      <c r="DK146" s="5"/>
-      <c r="DL146" s="5"/>
-      <c r="DM146" s="5"/>
-      <c r="DN146" s="5"/>
-      <c r="DO146" s="5"/>
-      <c r="DP146" s="5"/>
-      <c r="DQ146" s="5"/>
-      <c r="DR146" s="5"/>
-      <c r="DS146" s="5"/>
-      <c r="DT146" s="5"/>
-      <c r="DU146" s="5"/>
-      <c r="DV146" s="5"/>
-      <c r="DW146" s="5"/>
-      <c r="DX146" s="5"/>
-      <c r="DY146" s="5"/>
-      <c r="DZ146" s="5"/>
-      <c r="EA146" s="5"/>
-      <c r="EB146" s="5"/>
-      <c r="EC146" s="5"/>
-      <c r="ED146" s="5"/>
-      <c r="EE146" s="5"/>
-      <c r="EF146" s="5"/>
-      <c r="EG146" s="5"/>
-      <c r="EH146" s="5"/>
-      <c r="EI146" s="5"/>
-      <c r="EJ146" s="5"/>
-      <c r="EK146" s="5"/>
-      <c r="EL146" s="5"/>
-      <c r="EM146" s="5"/>
-      <c r="EN146" s="5"/>
-      <c r="EO146" s="5"/>
-      <c r="EP146" s="5"/>
-      <c r="EQ146" s="5"/>
-      <c r="ER146" s="5"/>
-      <c r="ES146" s="5"/>
-      <c r="ET146" s="5"/>
-      <c r="EU146" s="5"/>
-      <c r="EV146" s="5"/>
-      <c r="EW146" s="5"/>
-      <c r="EX146" s="5"/>
-      <c r="EY146" s="5"/>
-      <c r="EZ146" s="5"/>
-      <c r="FA146" s="5"/>
-      <c r="FB146" s="5"/>
-      <c r="FC146" s="5"/>
-      <c r="FD146" s="5"/>
-      <c r="FE146" s="5"/>
-      <c r="FF146" s="5"/>
-      <c r="FG146" s="5"/>
-      <c r="FH146" s="5"/>
-      <c r="FI146" s="5"/>
-      <c r="FJ146" s="5"/>
-      <c r="FK146" s="5"/>
-      <c r="FL146" s="5"/>
-      <c r="FM146" s="5"/>
-      <c r="FN146" s="5"/>
-      <c r="FO146" s="5"/>
-      <c r="FP146" s="5"/>
-      <c r="FQ146" s="5"/>
-      <c r="FR146" s="5"/>
-      <c r="FS146" s="5"/>
-      <c r="FT146" s="5"/>
-      <c r="FU146" s="5"/>
-      <c r="FV146" s="5"/>
-      <c r="FW146" s="5"/>
-      <c r="FX146" s="5"/>
-      <c r="FY146" s="5"/>
-      <c r="FZ146" s="5"/>
-      <c r="GA146" s="5"/>
-      <c r="GB146" s="5"/>
-      <c r="GC146" s="5"/>
-      <c r="GD146" s="5"/>
-      <c r="GE146" s="5"/>
-      <c r="GF146" s="5"/>
-      <c r="GG146" s="5"/>
-      <c r="GH146" s="5"/>
-      <c r="GI146" s="5"/>
-      <c r="GJ146" s="5"/>
-      <c r="GK146" s="5"/>
-      <c r="GL146" s="5"/>
-      <c r="GM146" s="5"/>
-      <c r="GN146" s="5"/>
-      <c r="GO146" s="5"/>
-      <c r="GP146" s="5"/>
-      <c r="GQ146" s="5"/>
-      <c r="GR146" s="5"/>
-      <c r="GS146" s="5"/>
-      <c r="GT146" s="5"/>
-      <c r="GU146" s="5"/>
-      <c r="GV146" s="5"/>
-      <c r="GW146" s="5"/>
-      <c r="GX146" s="5"/>
-      <c r="GY146" s="5"/>
-      <c r="GZ146" s="5"/>
-      <c r="HA146" s="5"/>
-      <c r="HB146" s="5"/>
-      <c r="HC146" s="5"/>
-      <c r="HD146" s="5"/>
-      <c r="HE146" s="5"/>
-      <c r="HF146" s="5"/>
-      <c r="HG146" s="5"/>
-      <c r="HH146" s="5"/>
-      <c r="HI146" s="5"/>
-      <c r="HJ146" s="5"/>
-      <c r="HK146" s="5"/>
-      <c r="HL146" s="5"/>
-      <c r="HM146" s="5"/>
-      <c r="HN146" s="5"/>
-      <c r="HO146" s="5"/>
-      <c r="HP146" s="5"/>
-      <c r="HQ146" s="5"/>
-      <c r="HR146" s="5"/>
-      <c r="HS146" s="5"/>
-      <c r="HT146" s="5"/>
-      <c r="HU146" s="5"/>
-      <c r="HV146" s="5"/>
-      <c r="HW146" s="5"/>
-      <c r="HX146" s="5"/>
-      <c r="HY146" s="5"/>
-      <c r="HZ146" s="5"/>
-      <c r="IA146" s="5"/>
-      <c r="IB146" s="5"/>
-      <c r="IC146" s="5"/>
-      <c r="ID146" s="5"/>
-      <c r="IE146" s="5"/>
-      <c r="IF146" s="5"/>
-      <c r="IG146" s="5"/>
-      <c r="IH146" s="5"/>
-      <c r="II146" s="5"/>
-      <c r="IJ146" s="5"/>
-      <c r="IK146" s="5"/>
-      <c r="IL146" s="5"/>
-      <c r="IM146" s="5"/>
-      <c r="IN146" s="5"/>
-      <c r="IO146" s="5"/>
-      <c r="IP146" s="5"/>
-      <c r="IQ146" s="5"/>
-      <c r="IR146" s="5"/>
-      <c r="IS146" s="5"/>
-      <c r="IT146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="34"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:254">
-      <c r="A148" s="7"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="30"/>
-      <c r="H148" s="7"/>
+      <c r="A147" s="21"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="21"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="5"/>
+      <c r="N147" s="5"/>
+      <c r="O147" s="5"/>
+      <c r="P147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="5"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="5"/>
+      <c r="W147" s="5"/>
+      <c r="X147" s="5"/>
+      <c r="Y147" s="5"/>
+      <c r="Z147" s="5"/>
+      <c r="AA147" s="5"/>
+      <c r="AB147" s="5"/>
+      <c r="AC147" s="5"/>
+      <c r="AD147" s="5"/>
+      <c r="AE147" s="5"/>
+      <c r="AF147" s="5"/>
+      <c r="AG147" s="5"/>
+      <c r="AH147" s="5"/>
+      <c r="AI147" s="5"/>
+      <c r="AJ147" s="5"/>
+      <c r="AK147" s="5"/>
+      <c r="AL147" s="5"/>
+      <c r="AM147" s="5"/>
+      <c r="AN147" s="5"/>
+      <c r="AO147" s="5"/>
+      <c r="AP147" s="5"/>
+      <c r="AQ147" s="5"/>
+      <c r="AR147" s="5"/>
+      <c r="AS147" s="5"/>
+      <c r="AT147" s="5"/>
+      <c r="AU147" s="5"/>
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+      <c r="AX147" s="5"/>
+      <c r="AY147" s="5"/>
+      <c r="AZ147" s="5"/>
+      <c r="BA147" s="5"/>
+      <c r="BB147" s="5"/>
+      <c r="BC147" s="5"/>
+      <c r="BD147" s="5"/>
+      <c r="BE147" s="5"/>
+      <c r="BF147" s="5"/>
+      <c r="BG147" s="5"/>
+      <c r="BH147" s="5"/>
+      <c r="BI147" s="5"/>
+      <c r="BJ147" s="5"/>
+      <c r="BK147" s="5"/>
+      <c r="BL147" s="5"/>
+      <c r="BM147" s="5"/>
+      <c r="BN147" s="5"/>
+      <c r="BO147" s="5"/>
+      <c r="BP147" s="5"/>
+      <c r="BQ147" s="5"/>
+      <c r="BR147" s="5"/>
+      <c r="BS147" s="5"/>
+      <c r="BT147" s="5"/>
+      <c r="BU147" s="5"/>
+      <c r="BV147" s="5"/>
+      <c r="BW147" s="5"/>
+      <c r="BX147" s="5"/>
+      <c r="BY147" s="5"/>
+      <c r="BZ147" s="5"/>
+      <c r="CA147" s="5"/>
+      <c r="CB147" s="5"/>
+      <c r="CC147" s="5"/>
+      <c r="CD147" s="5"/>
+      <c r="CE147" s="5"/>
+      <c r="CF147" s="5"/>
+      <c r="CG147" s="5"/>
+      <c r="CH147" s="5"/>
+      <c r="CI147" s="5"/>
+      <c r="CJ147" s="5"/>
+      <c r="CK147" s="5"/>
+      <c r="CL147" s="5"/>
+      <c r="CM147" s="5"/>
+      <c r="CN147" s="5"/>
+      <c r="CO147" s="5"/>
+      <c r="CP147" s="5"/>
+      <c r="CQ147" s="5"/>
+      <c r="CR147" s="5"/>
+      <c r="CS147" s="5"/>
+      <c r="CT147" s="5"/>
+      <c r="CU147" s="5"/>
+      <c r="CV147" s="5"/>
+      <c r="CW147" s="5"/>
+      <c r="CX147" s="5"/>
+      <c r="CY147" s="5"/>
+      <c r="CZ147" s="5"/>
+      <c r="DA147" s="5"/>
+      <c r="DB147" s="5"/>
+      <c r="DC147" s="5"/>
+      <c r="DD147" s="5"/>
+      <c r="DE147" s="5"/>
+      <c r="DF147" s="5"/>
+      <c r="DG147" s="5"/>
+      <c r="DH147" s="5"/>
+      <c r="DI147" s="5"/>
+      <c r="DJ147" s="5"/>
+      <c r="DK147" s="5"/>
+      <c r="DL147" s="5"/>
+      <c r="DM147" s="5"/>
+      <c r="DN147" s="5"/>
+      <c r="DO147" s="5"/>
+      <c r="DP147" s="5"/>
+      <c r="DQ147" s="5"/>
+      <c r="DR147" s="5"/>
+      <c r="DS147" s="5"/>
+      <c r="DT147" s="5"/>
+      <c r="DU147" s="5"/>
+      <c r="DV147" s="5"/>
+      <c r="DW147" s="5"/>
+      <c r="DX147" s="5"/>
+      <c r="DY147" s="5"/>
+      <c r="DZ147" s="5"/>
+      <c r="EA147" s="5"/>
+      <c r="EB147" s="5"/>
+      <c r="EC147" s="5"/>
+      <c r="ED147" s="5"/>
+      <c r="EE147" s="5"/>
+      <c r="EF147" s="5"/>
+      <c r="EG147" s="5"/>
+      <c r="EH147" s="5"/>
+      <c r="EI147" s="5"/>
+      <c r="EJ147" s="5"/>
+      <c r="EK147" s="5"/>
+      <c r="EL147" s="5"/>
+      <c r="EM147" s="5"/>
+      <c r="EN147" s="5"/>
+      <c r="EO147" s="5"/>
+      <c r="EP147" s="5"/>
+      <c r="EQ147" s="5"/>
+      <c r="ER147" s="5"/>
+      <c r="ES147" s="5"/>
+      <c r="ET147" s="5"/>
+      <c r="EU147" s="5"/>
+      <c r="EV147" s="5"/>
+      <c r="EW147" s="5"/>
+      <c r="EX147" s="5"/>
+      <c r="EY147" s="5"/>
+      <c r="EZ147" s="5"/>
+      <c r="FA147" s="5"/>
+      <c r="FB147" s="5"/>
+      <c r="FC147" s="5"/>
+      <c r="FD147" s="5"/>
+      <c r="FE147" s="5"/>
+      <c r="FF147" s="5"/>
+      <c r="FG147" s="5"/>
+      <c r="FH147" s="5"/>
+      <c r="FI147" s="5"/>
+      <c r="FJ147" s="5"/>
+      <c r="FK147" s="5"/>
+      <c r="FL147" s="5"/>
+      <c r="FM147" s="5"/>
+      <c r="FN147" s="5"/>
+      <c r="FO147" s="5"/>
+      <c r="FP147" s="5"/>
+      <c r="FQ147" s="5"/>
+      <c r="FR147" s="5"/>
+      <c r="FS147" s="5"/>
+      <c r="FT147" s="5"/>
+      <c r="FU147" s="5"/>
+      <c r="FV147" s="5"/>
+      <c r="FW147" s="5"/>
+      <c r="FX147" s="5"/>
+      <c r="FY147" s="5"/>
+      <c r="FZ147" s="5"/>
+      <c r="GA147" s="5"/>
+      <c r="GB147" s="5"/>
+      <c r="GC147" s="5"/>
+      <c r="GD147" s="5"/>
+      <c r="GE147" s="5"/>
+      <c r="GF147" s="5"/>
+      <c r="GG147" s="5"/>
+      <c r="GH147" s="5"/>
+      <c r="GI147" s="5"/>
+      <c r="GJ147" s="5"/>
+      <c r="GK147" s="5"/>
+      <c r="GL147" s="5"/>
+      <c r="GM147" s="5"/>
+      <c r="GN147" s="5"/>
+      <c r="GO147" s="5"/>
+      <c r="GP147" s="5"/>
+      <c r="GQ147" s="5"/>
+      <c r="GR147" s="5"/>
+      <c r="GS147" s="5"/>
+      <c r="GT147" s="5"/>
+      <c r="GU147" s="5"/>
+      <c r="GV147" s="5"/>
+      <c r="GW147" s="5"/>
+      <c r="GX147" s="5"/>
+      <c r="GY147" s="5"/>
+      <c r="GZ147" s="5"/>
+      <c r="HA147" s="5"/>
+      <c r="HB147" s="5"/>
+      <c r="HC147" s="5"/>
+      <c r="HD147" s="5"/>
+      <c r="HE147" s="5"/>
+      <c r="HF147" s="5"/>
+      <c r="HG147" s="5"/>
+      <c r="HH147" s="5"/>
+      <c r="HI147" s="5"/>
+      <c r="HJ147" s="5"/>
+      <c r="HK147" s="5"/>
+      <c r="HL147" s="5"/>
+      <c r="HM147" s="5"/>
+      <c r="HN147" s="5"/>
+      <c r="HO147" s="5"/>
+      <c r="HP147" s="5"/>
+      <c r="HQ147" s="5"/>
+      <c r="HR147" s="5"/>
+      <c r="HS147" s="5"/>
+      <c r="HT147" s="5"/>
+      <c r="HU147" s="5"/>
+      <c r="HV147" s="5"/>
+      <c r="HW147" s="5"/>
+      <c r="HX147" s="5"/>
+      <c r="HY147" s="5"/>
+      <c r="HZ147" s="5"/>
+      <c r="IA147" s="5"/>
+      <c r="IB147" s="5"/>
+      <c r="IC147" s="5"/>
+      <c r="ID147" s="5"/>
+      <c r="IE147" s="5"/>
+      <c r="IF147" s="5"/>
+      <c r="IG147" s="5"/>
+      <c r="IH147" s="5"/>
+      <c r="II147" s="5"/>
+      <c r="IJ147" s="5"/>
+      <c r="IK147" s="5"/>
+      <c r="IL147" s="5"/>
+      <c r="IM147" s="5"/>
+      <c r="IN147" s="5"/>
+      <c r="IO147" s="5"/>
+      <c r="IP147" s="5"/>
+      <c r="IQ147" s="5"/>
+      <c r="IR147" s="5"/>
+      <c r="IS147" s="5"/>
+      <c r="IT147" s="5"/>
+    </row>
+    <row r="148" spans="1:254" s="2" customFormat="1">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254">
       <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
       <c r="E149" s="7"/>
@@ -7161,7 +6898,7 @@
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -7171,7 +6908,7 @@
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -7182,7 +6919,7 @@
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
@@ -7222,7 +6959,7 @@
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="C156" s="4"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -7231,7 +6968,7 @@
     </row>
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
-      <c r="B157" s="22"/>
+      <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
@@ -7251,7 +6988,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7261,7 +6998,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7281,7 +7018,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7301,7 +7038,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7321,7 +7058,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7341,7 +7078,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7361,7 +7098,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7401,7 +7138,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="6"/>
+      <c r="B174" s="7"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7411,8 +7148,8 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
@@ -7421,7 +7158,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7491,7 +7228,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="7"/>
-      <c r="B183" s="4"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="4"/>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
@@ -7501,7 +7238,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="19"/>
+      <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7511,7 +7248,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="21"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7531,7 +7268,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="21"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7572,7 +7309,7 @@
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
       <c r="B191" s="19"/>
-      <c r="C191" s="7"/>
+      <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
@@ -7581,7 +7318,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="4"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7601,7 +7338,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="4"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7661,7 +7398,7 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="7"/>
-      <c r="B200" s="21"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7"/>
       <c r="E200" s="7"/>
@@ -7701,7 +7438,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="21"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7711,7 +7448,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="6"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7721,7 +7458,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="6"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7731,7 +7468,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="19"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7781,7 +7518,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="21"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -7791,7 +7528,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="19"/>
+      <c r="B213" s="21"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7841,7 +7578,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="21"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -7901,7 +7638,7 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
@@ -7911,7 +7648,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="6"/>
+      <c r="B225" s="4"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7921,8 +7658,8 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
@@ -7931,7 +7668,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="19"/>
+      <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7941,7 +7678,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7951,7 +7688,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="20"/>
+      <c r="B229" s="7"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7991,7 +7728,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8001,7 +7738,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8011,7 +7748,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="23"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -8031,7 +7768,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8071,7 +7808,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8081,7 +7818,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="7"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8131,7 +7868,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="7"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8141,8 +7878,8 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="20"/>
-      <c r="C248" s="7"/>
+      <c r="B248" s="7"/>
+      <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -8151,7 +7888,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -8161,7 +7898,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -8171,7 +7908,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="23"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -8221,8 +7958,8 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="20"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="23"/>
+      <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
@@ -8231,7 +7968,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="23"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="4"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
@@ -8241,7 +7978,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="24"/>
+      <c r="B258" s="23"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8269,9 +8006,9 @@
       <c r="G260" s="30"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261" spans="1:8" ht="11.25">
+    <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="25"/>
+      <c r="B261" s="24"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -8279,9 +8016,9 @@
       <c r="G261" s="30"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="11.25">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8321,7 +8058,7 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="24"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8351,7 +8088,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="23"/>
+      <c r="B269" s="24"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -8361,7 +8098,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8369,15 +8106,15 @@
       <c r="G270" s="30"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271" spans="1:8" s="2" customFormat="1">
-      <c r="A271" s="4"/>
+    <row r="271" spans="1:8">
+      <c r="A271" s="7"/>
       <c r="B271" s="24"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
-      <c r="E271" s="4"/>
-      <c r="F271" s="4"/>
-      <c r="G271" s="34"/>
-      <c r="H271" s="4"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="7"/>
+      <c r="F271" s="7"/>
+      <c r="G271" s="30"/>
+      <c r="H271" s="7"/>
     </row>
     <row r="272" spans="1:8" s="2" customFormat="1">
       <c r="A272" s="4"/>
@@ -8389,19 +8126,19 @@
       <c r="G272" s="34"/>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:8">
-      <c r="A273" s="7"/>
+    <row r="273" spans="1:8" s="2" customFormat="1">
+      <c r="A273" s="4"/>
       <c r="B273" s="24"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="30"/>
-      <c r="H273" s="7"/>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
+      <c r="G273" s="34"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8411,7 +8148,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8441,7 +8178,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="22"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8451,7 +8188,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="7"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8471,7 +8208,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="20"/>
+      <c r="B281" s="7"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8491,7 +8228,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8522,7 +8259,7 @@
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
-      <c r="C286" s="7"/>
+      <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="7"/>
@@ -8531,7 +8268,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="6"/>
+      <c r="B287" s="7"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8541,7 +8278,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="6"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8621,7 +8358,7 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="7"/>
-      <c r="B296" s="6"/>
+      <c r="B296" s="7"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
@@ -8631,8 +8368,8 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="4"/>
-      <c r="C297" s="4"/>
+      <c r="B297" s="6"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
@@ -8641,7 +8378,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="19"/>
+      <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8671,7 +8408,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="4"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8731,7 +8468,7 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="7"/>
-      <c r="B307" s="19"/>
+      <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="7"/>
       <c r="E307" s="7"/>
@@ -8751,7 +8488,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="21"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8761,8 +8498,8 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="7"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="21"/>
+      <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
       <c r="F310" s="7"/>
@@ -8771,7 +8508,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8779,15 +8516,15 @@
       <c r="G311" s="30"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8" s="2" customFormat="1">
-      <c r="A312" s="4"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="4"/>
-      <c r="F312" s="4"/>
-      <c r="G312" s="34"/>
-      <c r="H312" s="4"/>
+    <row r="312" spans="1:8">
+      <c r="A312" s="7"/>
+      <c r="B312" s="6"/>
+      <c r="C312" s="7"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="7"/>
+      <c r="F312" s="7"/>
+      <c r="G312" s="30"/>
+      <c r="H312" s="7"/>
     </row>
     <row r="313" spans="1:8" s="2" customFormat="1">
       <c r="A313" s="4"/>
@@ -8811,7 +8548,7 @@
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
-      <c r="B315" s="19"/>
+      <c r="B315" s="4"/>
       <c r="C315" s="9"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
@@ -8861,8 +8598,8 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="26"/>
-      <c r="C320" s="4"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="9"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
@@ -8911,7 +8648,7 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="21"/>
+      <c r="B325" s="26"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
@@ -8961,7 +8698,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="19"/>
+      <c r="B330" s="21"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -8971,7 +8708,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="21"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -8981,7 +8718,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="4"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -8989,20 +8726,20 @@
       <c r="G332" s="34"/>
       <c r="H332" s="4"/>
     </row>
-    <row r="333" spans="1:8">
-      <c r="A333" s="7"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="30"/>
-      <c r="H333" s="7"/>
+    <row r="333" spans="1:8" s="2" customFormat="1">
+      <c r="A333" s="4"/>
+      <c r="B333" s="4"/>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4"/>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+      <c r="G333" s="34"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="7"/>
-      <c r="B334" s="7"/>
-      <c r="C334" s="4"/>
+      <c r="B334" s="6"/>
+      <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
@@ -9071,7 +8808,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" s="7"/>
-      <c r="B341" s="4"/>
+      <c r="B341" s="7"/>
       <c r="C341" s="4"/>
       <c r="D341" s="7"/>
       <c r="E341" s="7"/>
@@ -9082,7 +8819,7 @@
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
       <c r="B342" s="4"/>
-      <c r="C342" s="7"/>
+      <c r="C342" s="4"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
       <c r="F342" s="7"/>
@@ -9091,7 +8828,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="6"/>
+      <c r="B343" s="4"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -9101,7 +8838,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="7"/>
+      <c r="B344" s="6"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -9111,7 +8848,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="22"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -9121,7 +8858,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="22"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9161,7 +8898,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9171,7 +8908,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="6"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9181,7 +8918,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="20"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -9211,7 +8948,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="22"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9221,7 +8958,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9241,7 +8978,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9251,7 +8988,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9261,7 +8998,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9271,7 +9008,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9301,7 +9038,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="7"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9311,7 +9048,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="27"/>
+      <c r="B365" s="7"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9321,7 +9058,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="22"/>
+      <c r="B366" s="27"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9331,8 +9068,8 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
       <c r="F367" s="7"/>
@@ -9341,7 +9078,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="20"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="4"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9371,7 +9108,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
+      <c r="B371" s="20"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9401,7 +9138,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="20"/>
+      <c r="B374" s="7"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9421,8 +9158,8 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
       <c r="F376" s="7"/>
@@ -9431,7 +9168,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="6"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -9441,7 +9178,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
+      <c r="B378" s="6"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9501,7 +9238,7 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" s="7"/>
-      <c r="B384" s="6"/>
+      <c r="B384" s="7"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -9511,7 +9248,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9532,7 +9269,7 @@
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
-      <c r="C387" s="4"/>
+      <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
       <c r="F387" s="7"/>
@@ -9541,7 +9278,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="20"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="4"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9552,7 +9289,7 @@
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
       <c r="B389" s="20"/>
-      <c r="C389" s="7"/>
+      <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -9561,7 +9298,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="27"/>
+      <c r="B390" s="20"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9571,7 +9308,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="22"/>
+      <c r="B391" s="27"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9621,7 +9358,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="7"/>
+      <c r="B396" s="22"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9631,7 +9368,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="6"/>
+      <c r="B397" s="7"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9641,7 +9378,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9651,7 +9388,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="20"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9661,7 +9398,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="22"/>
+      <c r="B400" s="20"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9681,7 +9418,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="22"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9721,7 +9458,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="7"/>
+      <c r="B406" s="20"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9731,7 +9468,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="7"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9751,7 +9488,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="22"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9761,7 +9498,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="22"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9771,7 +9508,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="6"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9781,7 +9518,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9801,7 +9538,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9811,7 +9548,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9821,7 +9558,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="20"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9841,7 +9578,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="20"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9851,7 +9588,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9861,7 +9598,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9911,7 +9648,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="7"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -9921,7 +9658,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -9981,7 +9718,7 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" s="7"/>
-      <c r="B432" s="6"/>
+      <c r="B432" s="7"/>
       <c r="C432" s="7"/>
       <c r="D432" s="7"/>
       <c r="E432" s="7"/>
@@ -9991,7 +9728,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -10011,7 +9748,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -10021,7 +9758,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="4"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -10041,7 +9778,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="4"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -10071,7 +9808,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="7"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -10081,8 +9818,8 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
-      <c r="C442" s="4"/>
+      <c r="B442" s="6"/>
+      <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
       <c r="F442" s="7"/>
@@ -10132,7 +9869,7 @@
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
-      <c r="C447" s="7"/>
+      <c r="C447" s="4"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -10141,7 +9878,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="7"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -10151,8 +9888,8 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="7"/>
-      <c r="C449" s="4"/>
+      <c r="B449" s="6"/>
+      <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -10192,7 +9929,7 @@
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
-      <c r="C453" s="7"/>
+      <c r="C453" s="4"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -10201,7 +9938,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="6"/>
+      <c r="B454" s="7"/>
       <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
@@ -10211,7 +9948,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="22"/>
+      <c r="B455" s="6"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -10271,7 +10008,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
+      <c r="B461" s="22"/>
       <c r="C461" s="7"/>
       <c r="D461" s="7"/>
       <c r="E461" s="7"/>
@@ -10281,7 +10018,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="7"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10291,7 +10028,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="22"/>
+      <c r="B463" s="6"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10320,8 +10057,8 @@
       <c r="H465" s="7"/>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="6"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="7"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10330,7 +10067,7 @@
       <c r="H466" s="7"/>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="7"/>
+      <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
@@ -10371,7 +10108,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10401,7 +10138,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="7"/>
+      <c r="B474" s="28"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10411,7 +10148,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10421,7 +10158,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10431,21 +10168,21 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="29"/>
-      <c r="C477" s="30"/>
+      <c r="B477" s="7"/>
+      <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
-      <c r="F477" s="29"/>
+      <c r="F477" s="7"/>
       <c r="G477" s="30"/>
       <c r="H477" s="7"/>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
-      <c r="C478" s="7"/>
+      <c r="B478" s="29"/>
+      <c r="C478" s="30"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
-      <c r="F478" s="7"/>
+      <c r="F478" s="29"/>
       <c r="G478" s="30"/>
       <c r="H478" s="7"/>
     </row>
@@ -14349,6 +14086,16 @@
       <c r="G868" s="30"/>
       <c r="H868" s="7"/>
     </row>
+    <row r="869" spans="1:8">
+      <c r="A869" s="7"/>
+      <c r="B869" s="7"/>
+      <c r="C869" s="7"/>
+      <c r="D869" s="7"/>
+      <c r="E869" s="7"/>
+      <c r="F869" s="7"/>
+      <c r="G869" s="30"/>
+      <c r="H869" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955091"/>
+          <c:w val="0.91978071330955102"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -987,7 +987,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1079,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1171,7 +1171,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1263,7 +1263,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,23 +1296,23 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="175222144"/>
-        <c:axId val="174920832"/>
+        <c:axId val="122596736"/>
+        <c:axId val="122295424"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="175222144"/>
+        <c:axId val="122596736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174920832"/>
+        <c:crossAx val="122295424"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1355,7 +1355,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174920832"/>
+        <c:axId val="122295424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1397,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175222144"/>
+        <c:crossAx val="122596736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1420,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218336"/>
+          <c:y val="0.33819556996218342"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1487,7 +1487,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1541,7 +1541,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127456E-2"/>
+          <c:x val="4.4510450248127477E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1602,7 +1602,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,17 +1635,17 @@
                   <c:v>0.22966507177033493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22966507177033493</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174952832"/>
-        <c:axId val="174954368"/>
+        <c:axId val="122327424"/>
+        <c:axId val="122328960"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174952832"/>
+        <c:axId val="122327424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,13 +1653,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="174954368"/>
+        <c:crossAx val="122328960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174954368"/>
+        <c:axId val="122328960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1702,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174952832"/>
+        <c:crossAx val="122327424"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,7 +1751,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1828,7 +1828,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,7 +1920,7 @@
                   <c:v>42897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42910</c:v>
+                  <c:v>42911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,11 +1959,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="174975232"/>
-        <c:axId val="174977024"/>
+        <c:axId val="122349824"/>
+        <c:axId val="122351616"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="174975232"/>
+        <c:axId val="122349824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174977024"/>
+        <c:crossAx val="122351616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2005,7 +2005,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174977024"/>
+        <c:axId val="122351616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2047,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174975232"/>
+        <c:crossAx val="122349824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,7 +2096,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001288" r="0.75000000000001288" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2556,7 +2556,7 @@
   </sheetPr>
   <dimension ref="A1:D373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="A265" sqref="A265:XFD268"/>
     </sheetView>
   </sheetViews>
@@ -5252,9 +5252,9 @@
   </sheetPr>
   <dimension ref="A1:IT869"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="47">
-        <v>42910</v>
+        <v>42911</v>
       </c>
       <c r="B55" s="4">
         <v>48</v>
@@ -5665,12 +5665,12 @@
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.22966507177033493</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.22966507177033493</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="H58" s="7"/>
     </row>
@@ -5738,7 +5738,7 @@
       </c>
       <c r="E59" s="18">
         <f>MIN(E55)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="30"/>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>43608.9375</v>
+        <v>43613.25</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="218">
   <si>
     <t>Feature</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>shift right mouse click shows a popup menu</t>
+  </si>
+  <si>
+    <t>all but last line: line:0..(line+1):0, last line: line:0..line:max-1</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955102"/>
+          <c:w val="0.91978071330955113"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1020,7 +1023,7 @@
                   <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1112,7 +1115,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,11 +1311,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122596736"/>
-        <c:axId val="122295424"/>
+        <c:axId val="166374784"/>
+        <c:axId val="166204544"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122596736"/>
+        <c:axId val="166374784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122295424"/>
+        <c:crossAx val="166204544"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1355,7 +1358,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122295424"/>
+        <c:axId val="166204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122596736"/>
+        <c:crossAx val="166374784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,7 +1423,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218342"/>
+          <c:y val="0.33819556996218347"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1487,7 +1490,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1541,7 +1544,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127477E-2"/>
+          <c:x val="4.4510450248127491E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1635,17 +1638,17 @@
                   <c:v>0.22966507177033493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23076923076923078</c:v>
+                  <c:v>0.23923444976076555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122327424"/>
-        <c:axId val="122328960"/>
+        <c:axId val="166228352"/>
+        <c:axId val="166229888"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122327424"/>
+        <c:axId val="166228352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,13 +1656,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="122328960"/>
+        <c:crossAx val="166229888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122328960"/>
+        <c:axId val="166229888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1702,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122327424"/>
+        <c:crossAx val="166228352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1751,7 +1754,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1861,7 +1864,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,11 +1962,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="122349824"/>
-        <c:axId val="122351616"/>
+        <c:axId val="166250752"/>
+        <c:axId val="166256640"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="122349824"/>
+        <c:axId val="166250752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122351616"/>
+        <c:crossAx val="166256640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2005,7 +2008,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122351616"/>
+        <c:axId val="166256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122349824"/>
+        <c:crossAx val="166250752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2096,7 +2099,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001299" r="0.75000000000001299" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2554,10 +2557,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D373"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:XFD268"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3538,50 +3541,50 @@
         <v>169</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20"/>
-      <c r="C128" s="7"/>
+      <c r="B128" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="20"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="23" t="s">
+      <c r="C130" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C131" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="22"/>
-      <c r="C131" s="7"/>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="22"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>14</v>
@@ -3590,30 +3593,30 @@
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20"/>
-      <c r="C135" s="7"/>
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="20"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>2</v>
@@ -3622,53 +3625,53 @@
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
       <c r="B138" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C138" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="22"/>
-      <c r="C139" s="7"/>
+      <c r="C139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="22"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C140" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="23" t="s">
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" s="6" customFormat="1">
+      <c r="B142" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="22"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" s="6" customFormat="1">
+      <c r="B144" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>14</v>
@@ -3677,67 +3680,67 @@
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
       <c r="B145" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" s="6" customFormat="1">
+      <c r="B146" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="22"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" s="6" customFormat="1">
+      <c r="B148" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C147" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
+      <c r="C148" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="22"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="2:4" s="6" customFormat="1">
+      <c r="B150" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C149" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="23" t="s">
+      <c r="C150" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" s="6" customFormat="1">
+      <c r="B151" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="20"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3746,30 +3749,30 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="22"/>
-      <c r="C155" s="7"/>
+      <c r="C155" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="22"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" s="6" customFormat="1">
+      <c r="B157" s="20" t="s">
         <v>129</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3778,30 +3781,30 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" s="6" customFormat="1">
+      <c r="B159" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20"/>
-      <c r="C159" s="7"/>
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="20"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3810,30 +3813,30 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20"/>
-      <c r="C163" s="7"/>
+      <c r="C163" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="20"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" s="6" customFormat="1">
+      <c r="B165" s="20" t="s">
         <v>132</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -3842,51 +3845,51 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="23"/>
-      <c r="C167" s="7"/>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="23"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" s="6" customFormat="1">
+      <c r="B169" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C168" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20"/>
-      <c r="C169" s="7"/>
+      <c r="C169" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="23" t="s">
-        <v>214</v>
+      <c r="B172" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>14</v>
@@ -3895,94 +3898,98 @@
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
       <c r="B173" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" s="6" customFormat="1">
+      <c r="B174" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="20" t="s">
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="22"/>
-      <c r="C175" s="7"/>
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="20" t="s">
+      <c r="B176" s="22"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23" t="s">
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="22"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="23" t="s">
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" s="6" customFormat="1">
+      <c r="B181" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22"/>
-      <c r="C181" s="7"/>
+      <c r="C181" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="22"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="23" t="s">
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" s="6" customFormat="1">
+      <c r="B184" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="20"/>
-      <c r="C184" s="7"/>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
@@ -3991,17 +3998,13 @@
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="20"/>
+      <c r="C186" s="7"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20" t="s">
-        <v>163</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>2</v>
@@ -4010,7 +4013,7 @@
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
       <c r="B188" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>2</v>
@@ -4018,8 +4021,8 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="22" t="s">
-        <v>165</v>
+      <c r="B189" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4027,8 +4030,8 @@
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>85</v>
+      <c r="B190" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4037,7 +4040,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4045,55 +4048,56 @@
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="22"/>
-      <c r="C192" s="7"/>
+      <c r="B192" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="7"/>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="4"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B196" s="4"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="2:4">
+    <row r="197" spans="2:4" s="6" customFormat="1">
+      <c r="B197" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C197" s="7"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4">
-      <c r="B198" s="43" t="s">
+      <c r="C198" s="7"/>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C198" s="7"/>
-    </row>
-    <row r="199" spans="2:4">
       <c r="C199" s="7"/>
     </row>
     <row r="200" spans="2:4">
-      <c r="B200" t="s">
-        <v>81</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C200" s="7"/>
     </row>
     <row r="201" spans="2:4">
       <c r="B201" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>14</v>
@@ -4101,7 +4105,7 @@
     </row>
     <row r="202" spans="2:4">
       <c r="B202" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>14</v>
@@ -4109,7 +4113,7 @@
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>14</v>
@@ -4117,15 +4121,15 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>85</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>2</v>
@@ -4133,55 +4137,55 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" t="s">
         <v>87</v>
       </c>
-      <c r="C206" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="B207" s="44" t="s">
+      <c r="C207" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C207" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" t="s">
+      <c r="C208" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
         <v>88</v>
       </c>
-      <c r="C208" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="B209" s="44" t="s">
+      <c r="C209" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" t="s">
+      <c r="C210" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" t="s">
         <v>92</v>
       </c>
-      <c r="C210" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" s="44" t="s">
+      <c r="C211" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="44" t="s">
         <v>93</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="45" t="s">
-        <v>103</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>14</v>
@@ -4189,15 +4193,19 @@
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="44"/>
-      <c r="C214" s="9"/>
+      <c r="C214" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="44"/>
@@ -4208,6 +4216,7 @@
       <c r="C216" s="9"/>
     </row>
     <row r="217" spans="2:3">
+      <c r="B217" s="44"/>
       <c r="C217" s="9"/>
     </row>
     <row r="218" spans="2:3">
@@ -4220,25 +4229,20 @@
       <c r="C220" s="9"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="43" t="s">
+      <c r="C221" s="9"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C221" s="9"/>
-    </row>
-    <row r="222" spans="2:3">
       <c r="C222" s="9"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" t="s">
-        <v>111</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>14</v>
@@ -4246,7 +4250,7 @@
     </row>
     <row r="225" spans="2:3">
       <c r="B225" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>14</v>
@@ -4254,7 +4258,7 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>14</v>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4270,7 +4274,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4278,14 +4282,19 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" t="s">
+        <v>116</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" t="s">
         <v>148</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C230" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3">
       <c r="C231" s="9"/>
@@ -4294,97 +4303,97 @@
       <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="43" t="s">
+      <c r="C233" s="9"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C233" s="9"/>
-    </row>
-    <row r="234" spans="2:3">
       <c r="C234" s="9"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" t="s">
-        <v>135</v>
-      </c>
-      <c r="C235" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" t="s">
+        <v>135</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
         <v>102</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="B238" t="s">
-        <v>80</v>
-      </c>
-      <c r="C238" s="9" t="s">
+      <c r="C237" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
-        <v>94</v>
-      </c>
-      <c r="C239" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" t="s">
+        <v>94</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" t="s">
         <v>95</v>
       </c>
-      <c r="C240" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="C241" s="9"/>
+      <c r="C241" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="45" t="s">
+      <c r="C242" s="9"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="C243" s="9"/>
+      <c r="C243" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="45" t="s">
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C244" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" t="s">
+      <c r="C245" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
         <v>100</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="C246" s="9"/>
+      <c r="C246" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" t="s">
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" t="s">
         <v>187</v>
       </c>
-      <c r="C247" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="C248" s="9"/>
+      <c r="C248" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="249" spans="2:3">
       <c r="C249" s="9"/>
@@ -4402,67 +4411,67 @@
       <c r="C253" s="9"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="3" t="s">
+      <c r="C254" s="9"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C254" s="9"/>
-    </row>
-    <row r="255" spans="2:3">
-      <c r="B255" t="s">
-        <v>49</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="2:4">
       <c r="B257" t="s">
+        <v>50</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" t="s">
         <v>51</v>
       </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="C258" s="9"/>
+      <c r="C258" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="259" spans="2:4">
-      <c r="B259" t="s">
-        <v>97</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
+        <v>97</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
         <v>98</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="C261" s="9"/>
+      <c r="C261" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" t="s">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="2:4">
+      <c r="B263" t="s">
         <v>148</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="C263" s="9"/>
     </row>
     <row r="264" spans="2:4">
       <c r="C264" s="9"/>
@@ -4473,30 +4482,24 @@
     <row r="266" spans="2:4">
       <c r="C266" s="9"/>
     </row>
-    <row r="268" spans="2:4" s="6" customFormat="1">
-      <c r="B268" s="3" t="s">
+    <row r="267" spans="2:4">
+      <c r="C267" s="9"/>
+    </row>
+    <row r="269" spans="2:4" s="6" customFormat="1">
+      <c r="B269" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C268" s="7"/>
-      <c r="D268" s="4"/>
-    </row>
-    <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="22"/>
       <c r="C269" s="7"/>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B270" s="22"/>
+      <c r="C270" s="7"/>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="2:4" s="6" customFormat="1">
       <c r="B271" s="22" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>2</v>
@@ -4505,133 +4508,133 @@
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
       <c r="B272" s="22" t="s">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="2:4" s="6" customFormat="1">
+      <c r="B274" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C273" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22"/>
-      <c r="C274" s="7"/>
+      <c r="C274" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B275" s="22"/>
+      <c r="C275" s="7"/>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22"/>
-      <c r="C277" s="7"/>
+      <c r="C277" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" t="s">
+      <c r="B278" s="22"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" t="s">
         <v>148</v>
       </c>
-      <c r="C278" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22"/>
-      <c r="C279" s="7"/>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B280" s="22"/>
+      <c r="C280" s="7"/>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="C282" s="7"/>
+      <c r="C282" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="9" t="s">
+      <c r="C283" s="7"/>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C283" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22"/>
-      <c r="C284" s="7"/>
+      <c r="C284" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22" t="s">
+      <c r="B285" s="22"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C285" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="7"/>
+      <c r="C286" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22" t="s">
-        <v>178</v>
-      </c>
+      <c r="B287" s="22"/>
       <c r="C287" s="7"/>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B288" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C288" s="7"/>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>14</v>
@@ -4640,7 +4643,7 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>14</v>
@@ -4649,7 +4652,7 @@
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>14</v>
@@ -4658,53 +4661,57 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="2:4" s="6" customFormat="1">
+      <c r="B293" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C292" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22"/>
-      <c r="C293" s="7"/>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B294" s="22"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22"/>
-      <c r="C296" s="7"/>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22" t="s">
+      <c r="B297" s="22"/>
+      <c r="C297" s="7"/>
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="2:4" s="6" customFormat="1">
+      <c r="B298" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D297" s="4"/>
-    </row>
-    <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22"/>
-      <c r="C298" s="7"/>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
@@ -4723,38 +4730,34 @@
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B302" s="22"/>
       <c r="C302" s="7"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22"/>
+      <c r="B303" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C304" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B304" s="22"/>
+      <c r="C304" s="7"/>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
       <c r="B305" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
       <c r="B306" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C306" s="7" t="s">
         <v>2</v>
@@ -4763,53 +4766,53 @@
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="2:4" s="6" customFormat="1">
+      <c r="B308" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D307" s="4"/>
-    </row>
-    <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22"/>
-      <c r="C308" s="7"/>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B309" s="22"/>
+      <c r="C309" s="7"/>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
-      <c r="C311" s="7"/>
+      <c r="C311" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B312" s="22"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>14</v>
@@ -4818,44 +4821,48 @@
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C314" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22"/>
-      <c r="C315" s="7"/>
+      <c r="C315" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22" t="s">
+      <c r="B316" s="22"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C316" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="7"/>
+      <c r="C317" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22" t="s">
+      <c r="B318" s="22"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="4"/>
+    </row>
+    <row r="319" spans="2:4" s="6" customFormat="1">
+      <c r="B319" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="C318" s="7" t="s">
+      <c r="C319" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22"/>
-      <c r="C319" s="7"/>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
@@ -4879,36 +4886,32 @@
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="B324" s="22"/>
       <c r="C324" s="7"/>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22"/>
+      <c r="B325" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="C325" s="7"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22" t="s">
-        <v>153</v>
-      </c>
+      <c r="B326" s="22"/>
       <c r="C326" s="7"/>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B327" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
       <c r="B328" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C328" s="7" t="s">
         <v>2</v>
@@ -4917,46 +4920,46 @@
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D330" s="4"/>
+    </row>
+    <row r="331" spans="2:4" s="6" customFormat="1">
+      <c r="B331" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C331" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22"/>
-      <c r="C331" s="7"/>
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="B332" s="22"/>
       <c r="C332" s="7"/>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B333" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" s="7"/>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
       <c r="B334" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C334" s="7" t="s">
         <v>2</v>
@@ -4964,45 +4967,49 @@
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="7"/>
+      <c r="B335" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B336" s="22"/>
+      <c r="C336" s="7"/>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C337" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22"/>
-      <c r="C338" s="7"/>
+      <c r="C338" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22" t="s">
+      <c r="B339" s="22"/>
+      <c r="C339" s="7"/>
+      <c r="D339" s="4"/>
+    </row>
+    <row r="340" spans="2:4" s="6" customFormat="1">
+      <c r="B340" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C339" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D339" s="4"/>
-    </row>
-    <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="22"/>
-      <c r="C340" s="7"/>
+      <c r="C340" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
@@ -5021,17 +5028,13 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="22"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="20" t="s">
-        <v>206</v>
       </c>
       <c r="C345" s="7" t="s">
         <v>14</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
       <c r="B346" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>14</v>
@@ -5049,34 +5052,38 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22"/>
-      <c r="C350" s="7"/>
+      <c r="C350" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
@@ -5141,16 +5148,16 @@
     </row>
     <row r="363" spans="1:4" s="6" customFormat="1">
       <c r="B363" s="22"/>
-      <c r="C363" s="4"/>
+      <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="1:4" s="6" customFormat="1">
-      <c r="B364" s="19"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="1:4" s="6" customFormat="1">
-      <c r="B365" s="21"/>
+      <c r="B365" s="19"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
     </row>
@@ -5159,76 +5166,81 @@
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="3"/>
-      <c r="B367" s="11"/>
-      <c r="C367" s="11"/>
-      <c r="D367" s="3"/>
+    <row r="367" spans="1:4" s="6" customFormat="1">
+      <c r="B367" s="21"/>
+      <c r="C367" s="4"/>
+      <c r="D367" s="4"/>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="3"/>
-      <c r="B368" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C368" s="6">
-        <f>COUNTIF(C5:C367,"y")</f>
-        <v>48</v>
-      </c>
-      <c r="D368" s="2"/>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="3"/>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="3"/>
       <c r="B369" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C369" s="6">
-        <f>COUNTIF(C5:C367,"n")</f>
-        <v>159</v>
+        <f>COUNTIF(C5:C368,"y")</f>
+        <v>50</v>
       </c>
       <c r="D369" s="2"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="3"/>
       <c r="B370" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C370" s="7">
-        <f>COUNTIF(C5:C367,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C370" s="6">
+        <f>COUNTIF(C5:C368,"n")</f>
+        <v>158</v>
       </c>
       <c r="D370" s="2"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="3"/>
       <c r="B371" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C371" s="7">
+        <f>COUNTIF(C5:C368,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D371" s="2"/>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="3"/>
+      <c r="B372" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C371">
-        <f>SUM(C368:C370)</f>
-        <v>207</v>
-      </c>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4" ht="18">
-      <c r="A372" s="3"/>
-      <c r="B372" s="10"/>
-      <c r="C372" s="10" t="s">
+      <c r="C372">
+        <f>SUM(C369:C371)</f>
+        <v>208</v>
+      </c>
+      <c r="D372" s="2"/>
+    </row>
+    <row r="373" spans="1:4" ht="18">
+      <c r="A373" s="3"/>
+      <c r="B373" s="10"/>
+      <c r="C373" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D372" s="41">
-        <f>C368/(C369+C368 + C370)</f>
-        <v>0.2318840579710145</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="3"/>
-      <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
-      <c r="D373" s="3"/>
+      <c r="D373" s="41">
+        <f>C369/(C370+C369 + C371)</f>
+        <v>0.24038461538461539</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="3"/>
+      <c r="B374" s="11"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C268:C65121 C238:C266 C1:C3 C6:C236">
+  <conditionalFormatting sqref="C269:C65122 C239:C267 C1:C3 C6:C237">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5254,7 +5266,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5656,10 +5668,10 @@
         <v>42911</v>
       </c>
       <c r="B55" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -5670,7 +5682,7 @@
       <c r="F55" s="48"/>
       <c r="G55" s="30">
         <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
-        <v>0.23076923076923078</v>
+        <v>0.23923444976076555</v>
       </c>
       <c r="H55" s="7"/>
     </row>
@@ -5715,25 +5727,25 @@
       </c>
       <c r="G58" s="38">
         <f>MIN(G55)</f>
-        <v>0.23076923076923078</v>
+        <v>0.23923444976076555</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="39">
         <f>SUM(B59:D59)</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B59" s="15">
-        <f>Features!C368</f>
-        <v>48</v>
+        <f>Features!C369</f>
+        <v>50</v>
       </c>
       <c r="C59" s="16">
-        <f>Features!C369</f>
-        <v>159</v>
+        <f>Features!C370</f>
+        <v>158</v>
       </c>
       <c r="D59" s="17">
-        <f>Features!C370</f>
+        <f>Features!C371</f>
         <v>0</v>
       </c>
       <c r="E59" s="18">
@@ -5781,7 +5793,7 @@
       </c>
       <c r="B63" s="49">
         <f>(A55-A48)*A59/B59 +A48</f>
-        <v>43613.25</v>
+        <v>43580.92</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="217">
   <si>
     <t>Feature</t>
   </si>
@@ -651,9 +651,6 @@
   </si>
   <si>
     <t>line markers</t>
-  </si>
-  <si>
-    <t>editable plain text model</t>
   </si>
   <si>
     <t>right click: invokes a popup</t>
@@ -931,7 +928,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955113"/>
+          <c:w val="0.91978071330955125"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -964,10 +961,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -992,15 +989,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$55</c:f>
+              <c:f>Progress!$B$48:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1024,6 +1024,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,10 +1059,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1084,15 +1087,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1115,6 +1121,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -1148,10 +1157,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1176,15 +1185,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1207,6 +1219,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1240,10 +1255,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1268,15 +1283,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$59</c:f>
+              <c:f>Progress!$E$48:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1301,21 +1319,24 @@
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166374784"/>
-        <c:axId val="166204544"/>
+        <c:axId val="116956544"/>
+        <c:axId val="116786304"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166374784"/>
+        <c:axId val="116956544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1369,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166204544"/>
+        <c:crossAx val="116786304"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1358,7 +1379,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166204544"/>
+        <c:axId val="116786304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1421,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166374784"/>
+        <c:crossAx val="116956544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1423,7 +1444,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218347"/>
+          <c:y val="0.33819556996218353"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1490,7 +1511,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1544,7 +1565,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127491E-2"/>
+          <c:x val="4.4510450248127505E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1579,10 +1600,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1607,15 +1628,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$55</c:f>
+              <c:f>Progress!$G$48:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1640,15 +1664,18 @@
                 <c:pt idx="7">
                   <c:v>0.23923444976076555</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24401913875598086</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166228352"/>
-        <c:axId val="166229888"/>
+        <c:axId val="116810112"/>
+        <c:axId val="116811648"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166228352"/>
+        <c:axId val="116810112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1656,13 +1683,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="166229888"/>
+        <c:crossAx val="116811648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166229888"/>
+        <c:axId val="116811648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1705,7 +1732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166228352"/>
+        <c:crossAx val="116810112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1781,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1805,10 +1832,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1833,15 +1860,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$55</c:f>
+              <c:f>Progress!$C$48:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1864,6 +1894,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -1897,10 +1930,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$55</c:f>
+              <c:f>Progress!$A$48:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1925,15 +1958,18 @@
                 <c:pt idx="7">
                   <c:v>42911</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>42938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$55</c:f>
+              <c:f>Progress!$D$48:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1958,15 +1994,18 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="166250752"/>
-        <c:axId val="166256640"/>
+        <c:axId val="116832512"/>
+        <c:axId val="116842496"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="166250752"/>
+        <c:axId val="116832512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +2038,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166256640"/>
+        <c:crossAx val="116842496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2008,7 +2047,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="166256640"/>
+        <c:axId val="116842496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="166250752"/>
+        <c:crossAx val="116832512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2099,7 +2138,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000131" r="0.7500000000000131" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2149,7 +2188,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2557,10 +2596,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D374"/>
+  <dimension ref="A1:D376"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2662,26 +2701,30 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
-      <c r="B14" s="22" t="s">
-        <v>28</v>
+      <c r="B14" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
       <c r="B15" s="22" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" s="6" customFormat="1">
@@ -2695,47 +2738,43 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B19" s="22"/>
       <c r="C19" s="7"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="22"/>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C20" s="7"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="2:4" s="6" customFormat="1">
-      <c r="B21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
       <c r="B23" s="22" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2744,7 +2783,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2753,30 +2792,30 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" s="6" customFormat="1">
+      <c r="B27" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2785,7 +2824,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2794,7 +2833,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2803,16 +2842,20 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="2:4" s="6" customFormat="1">
+      <c r="B33" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
@@ -2826,120 +2869,116 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="22"/>
+      <c r="B37" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" s="6" customFormat="1">
+      <c r="B40" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" s="6" customFormat="1">
+      <c r="B42" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="20" t="s">
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="2:4" s="6" customFormat="1">
+      <c r="B43" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="22" t="s">
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="2:4" s="6" customFormat="1">
+      <c r="B44" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="C45" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" s="6" customFormat="1">
+      <c r="B48" s="22"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" s="6" customFormat="1">
+      <c r="B49" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="20" t="s">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="2:4" s="6" customFormat="1">
+      <c r="B50" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="22" t="s">
-        <v>39</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -2947,35 +2986,31 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="20" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -2984,7 +3019,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="22" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -2992,8 +3027,8 @@
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22" t="s">
-        <v>107</v>
+      <c r="B56" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>14</v>
@@ -3002,7 +3037,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3011,66 +3046,66 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="2:4" s="6" customFormat="1">
+      <c r="B59" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="2:4" s="6" customFormat="1">
+      <c r="B60" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="20" t="s">
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" s="6" customFormat="1">
+      <c r="B61" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" s="6" customFormat="1">
-      <c r="B60" s="20" t="s">
+      <c r="C61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="2:4" s="6" customFormat="1">
+      <c r="B62" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="22" t="s">
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" s="6" customFormat="1">
+      <c r="B63" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="27" t="s">
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="22"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:4" s="6" customFormat="1">
+      <c r="B65" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>2</v>
@@ -3079,7 +3114,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="20" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3088,39 +3123,39 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="2:4" s="6" customFormat="1">
+      <c r="B69" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="27" t="s">
+      <c r="C69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3129,7 +3164,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3138,21 +3173,29 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="2:4" s="6" customFormat="1">
+      <c r="B75" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="7"/>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
@@ -3166,26 +3209,18 @@
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="2:4" s="6" customFormat="1">
+      <c r="B79" s="22"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="2:4" s="6" customFormat="1">
+      <c r="B80" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>2</v>
@@ -3194,7 +3229,7 @@
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
       <c r="B81" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2</v>
@@ -3203,7 +3238,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -3212,66 +3247,66 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="2:4" s="6" customFormat="1">
+      <c r="B85" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" s="6" customFormat="1">
-      <c r="B85" s="20"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="22" t="s">
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="20"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>14</v>
@@ -3280,21 +3315,29 @@
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="2:4" s="6" customFormat="1">
+      <c r="B92" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="2:4" s="6" customFormat="1">
+      <c r="B93" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C91" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" s="6" customFormat="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="7"/>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
@@ -3318,12 +3361,8 @@
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
@@ -3332,8 +3371,8 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="22" t="s">
-        <v>196</v>
+      <c r="B100" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3347,7 +3386,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3355,17 +3394,13 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3373,36 +3408,40 @@
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22"/>
-      <c r="C105" s="7"/>
+      <c r="B105" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="22"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="2:4" s="6" customFormat="1">
+      <c r="B108" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="7"/>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3415,8 +3454,12 @@
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
-      <c r="C111" s="7"/>
+      <c r="B111" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
@@ -3425,9 +3468,7 @@
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B113" s="22"/>
       <c r="C113" s="7"/>
       <c r="D113" s="4"/>
     </row>
@@ -3437,33 +3478,27 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22" t="s">
-        <v>118</v>
+      <c r="B115" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B117" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="7"/>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3472,7 +3507,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3480,56 +3515,56 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22"/>
-      <c r="C120" s="7"/>
+      <c r="B120" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="27" t="s">
+      <c r="B121" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" s="6" customFormat="1">
+      <c r="B123" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
+      <c r="C123" s="7"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="23" t="s">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C125" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="23" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>14</v>
@@ -3538,172 +3573,176 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="23" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20"/>
-      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="2:4" s="6" customFormat="1">
+      <c r="B131" s="20"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="2:4" s="6" customFormat="1">
+      <c r="B132" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C131" s="7" t="s">
+      <c r="C132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="22"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="20" t="s">
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="22"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C133" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
+      <c r="C135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="23" t="s">
+      <c r="C136" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="2:4" s="6" customFormat="1">
+      <c r="B137" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="20" t="s">
+      <c r="C137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="20"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="23" t="s">
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C140" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="23" t="s">
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C139" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="22"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20" t="s">
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" s="6" customFormat="1">
+      <c r="B142" s="22"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="2:4" s="6" customFormat="1">
+      <c r="B143" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="23" t="s">
+      <c r="C143" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" s="6" customFormat="1">
+      <c r="B144" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C142" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20" t="s">
+      <c r="C144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" s="6" customFormat="1">
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" s="6" customFormat="1">
+      <c r="B146" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="23" t="s">
+      <c r="C146" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C145" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="23" t="s">
+      <c r="C147" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="2:4" s="6" customFormat="1">
+      <c r="B148" s="23" t="s">
         <v>77</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="22"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="20" t="s">
-        <v>122</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>14</v>
@@ -3717,312 +3756,308 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" s="6" customFormat="1">
+      <c r="B151" s="22"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="2:4" s="6" customFormat="1">
+      <c r="B152" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="23" t="s">
+      <c r="C152" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
+      <c r="C153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="20"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="23" t="s">
+      <c r="C155" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" s="6" customFormat="1">
+      <c r="B156" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C154" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="23" t="s">
+      <c r="C156" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" s="6" customFormat="1">
+      <c r="B157" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="22"/>
-      <c r="C156" s="7"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20" t="s">
+      <c r="C157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="22"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="2:4" s="6" customFormat="1">
+      <c r="B159" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="23" t="s">
+      <c r="C159" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" s="6" customFormat="1">
+      <c r="B160" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="23" t="s">
+      <c r="C160" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="20" t="s">
+      <c r="C161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="20"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="2:4" s="6" customFormat="1">
+      <c r="B163" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="23" t="s">
+      <c r="C163" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" s="6" customFormat="1">
+      <c r="B164" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="23" t="s">
+      <c r="C164" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="2:4" s="6" customFormat="1">
+      <c r="B165" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20" t="s">
+      <c r="C165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" s="6" customFormat="1">
+      <c r="B166" s="20"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="2:4" s="6" customFormat="1">
+      <c r="B167" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="23" t="s">
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="C166" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="23" t="s">
+      <c r="C168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="2:4" s="6" customFormat="1">
+      <c r="B169" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="23"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20" t="s">
-        <v>128</v>
-      </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20"/>
+      <c r="B170" s="23"/>
       <c r="C170" s="7"/>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="27" t="s">
+      <c r="B171" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="20"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" s="6" customFormat="1">
+      <c r="B173" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C171" s="7"/>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
+      <c r="C173" s="7"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" s="6" customFormat="1">
+      <c r="B174" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C172" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="23" t="s">
+      <c r="C174" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="22"/>
-      <c r="C176" s="7"/>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="22"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" s="6" customFormat="1">
+      <c r="B179" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="23" t="s">
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20" t="s">
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" s="6" customFormat="1">
+      <c r="B181" s="22"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="2:4" s="6" customFormat="1">
+      <c r="B182" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="23" t="s">
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C181" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20" t="s">
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" s="6" customFormat="1">
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" s="6" customFormat="1">
+      <c r="B185" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="23" t="s">
+      <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20"/>
-      <c r="C186" s="7"/>
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="20"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="20"/>
+      <c r="C188" s="7"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20" t="s">
-        <v>164</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4030,8 +4065,8 @@
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="22" t="s">
-        <v>165</v>
+      <c r="B190" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4040,7 +4075,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4048,8 +4083,8 @@
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>86</v>
+      <c r="B192" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4057,63 +4092,65 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22"/>
-      <c r="C193" s="7"/>
+      <c r="B193" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20"/>
-      <c r="C194" s="7"/>
+      <c r="B194" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="19"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="7"/>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="4"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="2:4">
+    <row r="198" spans="2:4" s="6" customFormat="1">
+      <c r="B198" s="4"/>
       <c r="C198" s="7"/>
-    </row>
-    <row r="199" spans="2:4">
-      <c r="B199" s="43" t="s">
-        <v>137</v>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="2:4" s="6" customFormat="1">
+      <c r="B199" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C199" s="7"/>
+      <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4">
       <c r="C200" s="7"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" t="s">
-        <v>81</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B201" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C201" s="7"/>
     </row>
     <row r="202" spans="2:4">
-      <c r="B202" t="s">
-        <v>82</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C202" s="7"/>
     </row>
     <row r="203" spans="2:4">
       <c r="B203" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C203" s="9" t="s">
         <v>14</v>
@@ -4121,7 +4158,7 @@
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>14</v>
@@ -4129,39 +4166,39 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>85</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>86</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>87</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>14</v>
+      <c r="B208" t="s">
+        <v>86</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>14</v>
@@ -4169,7 +4206,7 @@
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>14</v>
@@ -4177,7 +4214,7 @@
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>14</v>
@@ -4185,44 +4222,54 @@
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" t="s">
+        <v>92</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C212" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" s="45" t="s">
+      <c r="C214" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C213" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="45" t="s">
+      <c r="C215" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C214" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="44"/>
-      <c r="C215" s="9"/>
-    </row>
-    <row r="216" spans="2:3">
-      <c r="B216" s="44"/>
-      <c r="C216" s="9"/>
+      <c r="C216" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="44"/>
       <c r="C217" s="9"/>
     </row>
     <row r="218" spans="2:3">
+      <c r="B218" s="44"/>
       <c r="C218" s="9"/>
     </row>
     <row r="219" spans="2:3">
+      <c r="B219" s="44"/>
       <c r="C219" s="9"/>
     </row>
     <row r="220" spans="2:3">
@@ -4232,33 +4279,23 @@
       <c r="C221" s="9"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="43" t="s">
-        <v>138</v>
-      </c>
       <c r="C222" s="9"/>
     </row>
     <row r="223" spans="2:3">
       <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" t="s">
-        <v>111</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B224" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C224" s="9"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" t="s">
-        <v>112</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C225" s="9"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>14</v>
@@ -4266,7 +4303,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4274,7 +4311,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4282,7 +4319,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -4290,78 +4327,83 @@
     </row>
     <row r="230" spans="2:3">
       <c r="B230" t="s">
+        <v>115</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" t="s">
+        <v>116</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" t="s">
         <v>148</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C232" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3">
       <c r="C233" s="9"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="43" t="s">
-        <v>139</v>
-      </c>
       <c r="C234" s="9"/>
     </row>
     <row r="235" spans="2:3">
       <c r="C235" s="9"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" t="s">
+      <c r="B236" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C236" s="9"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="C237" s="9"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
         <v>135</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" t="s">
-        <v>102</v>
-      </c>
-      <c r="C237" s="9" t="s">
+      <c r="C238" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3">
-      <c r="B240" t="s">
-        <v>94</v>
-      </c>
-      <c r="C240" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" t="s">
+        <v>80</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
+        <v>94</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" t="s">
         <v>95</v>
       </c>
-      <c r="C241" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3">
-      <c r="C242" s="9"/>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C243" s="9" t="s">
+      <c r="C243" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4370,28 +4412,28 @@
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="B246" t="s">
-        <v>100</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="C247" s="9"/>
+      <c r="C247" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" t="s">
-        <v>187</v>
-      </c>
-      <c r="C248" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C248" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4399,7 +4441,12 @@
       <c r="C249" s="9"/>
     </row>
     <row r="250" spans="2:3">
-      <c r="C250" s="9"/>
+      <c r="B250" t="s">
+        <v>187</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="2:3">
       <c r="C251" s="9"/>
@@ -4414,70 +4461,70 @@
       <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="3" t="s">
+      <c r="C255" s="9"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="C256" s="9"/>
+    </row>
+    <row r="257" spans="2:4">
+      <c r="B257" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C255" s="9"/>
-    </row>
-    <row r="256" spans="2:3">
-      <c r="B256" t="s">
-        <v>49</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4">
-      <c r="B257" t="s">
-        <v>50</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="2:4">
       <c r="B258" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="2:4">
-      <c r="C259" s="9"/>
+      <c r="B259" t="s">
+        <v>50</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
+        <v>51</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="2:4">
+      <c r="B262" t="s">
         <v>97</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="B261" t="s">
-        <v>98</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="C262" s="9"/>
+      <c r="C262" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="2:4">
       <c r="C264" s="9"/>
     </row>
     <row r="265" spans="2:4">
-      <c r="C265" s="9"/>
+      <c r="B265" t="s">
+        <v>148</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="266" spans="2:4">
       <c r="C266" s="9"/>
@@ -4485,85 +4532,77 @@
     <row r="267" spans="2:4">
       <c r="C267" s="9"/>
     </row>
-    <row r="269" spans="2:4" s="6" customFormat="1">
-      <c r="B269" s="3" t="s">
+    <row r="268" spans="2:4">
+      <c r="C268" s="9"/>
+    </row>
+    <row r="269" spans="2:4">
+      <c r="C269" s="9"/>
+    </row>
+    <row r="271" spans="2:4" s="6" customFormat="1">
+      <c r="B271" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C269" s="7"/>
-      <c r="D269" s="4"/>
-    </row>
-    <row r="270" spans="2:4" s="6" customFormat="1">
-      <c r="B270" s="22"/>
-      <c r="C270" s="7"/>
-      <c r="D270" s="4"/>
-    </row>
-    <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C271" s="7"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B272" s="22"/>
+      <c r="C272" s="7"/>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
       <c r="B273" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="22" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22"/>
-      <c r="C275" s="7"/>
+      <c r="B275" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22" t="s">
+      <c r="C278" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="2:4" s="6" customFormat="1">
+      <c r="B279" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" t="s">
-        <v>148</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4576,44 +4615,44 @@
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22" t="s">
+      <c r="B281" t="s">
+        <v>148</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" s="22"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22" t="s">
+      <c r="C283" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="2:4" s="6" customFormat="1">
+      <c r="B284" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C282" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="C283" s="7"/>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="C284" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22"/>
       <c r="C285" s="7"/>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22" t="s">
-        <v>186</v>
+      <c r="B286" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>14</v>
@@ -4627,32 +4666,28 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="22"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="2:4" s="6" customFormat="1">
+      <c r="B290" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C288" s="7"/>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C289" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>14</v>
@@ -4661,7 +4696,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>14</v>
@@ -4670,44 +4705,48 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="2:4" s="6" customFormat="1">
+      <c r="B295" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22" t="s">
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="22"/>
+      <c r="C296" s="7"/>
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="2:4" s="6" customFormat="1">
+      <c r="B297" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296" s="4"/>
-    </row>
-    <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22"/>
-      <c r="C297" s="7"/>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="22" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>14</v>
@@ -4720,8 +4759,12 @@
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22"/>
-      <c r="C300" s="7"/>
+      <c r="B300" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
@@ -4735,9 +4778,7 @@
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B303" s="22"/>
       <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
@@ -4747,72 +4788,70 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C305" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B305" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C306" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B306" s="22"/>
+      <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
       <c r="B307" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="7"/>
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>14</v>
@@ -4820,17 +4859,13 @@
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B314" s="22"/>
+      <c r="C314" s="7"/>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C315" s="7" t="s">
         <v>14</v>
@@ -4838,13 +4873,17 @@
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="7"/>
+      <c r="B316" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C316" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="22" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>14</v>
@@ -4858,10 +4897,10 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="22" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D319" s="4"/>
     </row>
@@ -4871,8 +4910,12 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22"/>
-      <c r="C321" s="7"/>
+      <c r="B321" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
@@ -4891,9 +4934,7 @@
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="B325" s="22"/>
       <c r="C325" s="7"/>
       <c r="D325" s="4"/>
     </row>
@@ -4903,42 +4944,36 @@
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22" t="s">
-        <v>153</v>
+      <c r="B327" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C328" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B328" s="22"/>
+      <c r="C328" s="7"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B329" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>2</v>
@@ -4946,66 +4981,70 @@
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="22"/>
-      <c r="C332" s="7"/>
+      <c r="B332" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22" t="s">
+      <c r="B333" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="22"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C333" s="7"/>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="20" t="s">
+      <c r="C335" s="7"/>
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C336" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="20" t="s">
+      <c r="D336" s="4"/>
+    </row>
+    <row r="337" spans="2:4" s="6" customFormat="1">
+      <c r="B337" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C337" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22"/>
-      <c r="C336" s="7"/>
-      <c r="D336" s="4"/>
-    </row>
-    <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="22" t="s">
+      <c r="D337" s="4"/>
+    </row>
+    <row r="338" spans="2:4" s="6" customFormat="1">
+      <c r="B338" s="22"/>
+      <c r="C338" s="7"/>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="C337" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D337" s="4"/>
-    </row>
-    <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22"/>
-      <c r="C339" s="7"/>
+      <c r="C339" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
       <c r="B340" s="22" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>14</v>
@@ -5018,8 +5057,12 @@
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22"/>
-      <c r="C342" s="7"/>
+      <c r="B342" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
@@ -5033,26 +5076,18 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
+      <c r="B345" s="22"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="22" t="s">
         <v>204</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -5061,16 +5096,16 @@
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -5079,168 +5114,186 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C350" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C350" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="7"/>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22"/>
-      <c r="C352" s="7"/>
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="1:4" s="6" customFormat="1">
+    <row r="353" spans="2:4" s="6" customFormat="1">
       <c r="B353" s="22"/>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
-    <row r="354" spans="1:4" s="6" customFormat="1">
+    <row r="354" spans="2:4" s="6" customFormat="1">
       <c r="B354" s="22"/>
       <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="1:4" s="6" customFormat="1">
+    <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="22"/>
       <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="1:4" s="6" customFormat="1">
+    <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="22"/>
       <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="1:4" s="6" customFormat="1">
+    <row r="357" spans="2:4" s="6" customFormat="1">
       <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="1:4" s="6" customFormat="1">
+    <row r="358" spans="2:4" s="6" customFormat="1">
       <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="1:4" s="6" customFormat="1">
+    <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="1:4" s="6" customFormat="1">
+    <row r="360" spans="2:4" s="6" customFormat="1">
       <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="1:4" s="6" customFormat="1">
+    <row r="361" spans="2:4" s="6" customFormat="1">
       <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="1:4" s="6" customFormat="1">
+    <row r="362" spans="2:4" s="6" customFormat="1">
       <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="1:4" s="6" customFormat="1">
+    <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="1:4" s="6" customFormat="1">
+    <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="22"/>
-      <c r="C364" s="4"/>
+      <c r="C364" s="7"/>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="1:4" s="6" customFormat="1">
-      <c r="B365" s="19"/>
-      <c r="C365" s="4"/>
+    <row r="365" spans="2:4" s="6" customFormat="1">
+      <c r="B365" s="22"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="1:4" s="6" customFormat="1">
-      <c r="B366" s="21"/>
+    <row r="366" spans="2:4" s="6" customFormat="1">
+      <c r="B366" s="22"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="1:4" s="6" customFormat="1">
-      <c r="B367" s="21"/>
+    <row r="367" spans="2:4" s="6" customFormat="1">
+      <c r="B367" s="19"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="3"/>
-      <c r="B368" s="11"/>
-      <c r="C368" s="11"/>
-      <c r="D368" s="3"/>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="3"/>
-      <c r="B369" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C369" s="6">
-        <f>COUNTIF(C5:C368,"y")</f>
-        <v>50</v>
-      </c>
-      <c r="D369" s="2"/>
+    <row r="368" spans="2:4" s="6" customFormat="1">
+      <c r="B368" s="21"/>
+      <c r="C368" s="4"/>
+      <c r="D368" s="4"/>
+    </row>
+    <row r="369" spans="1:4" s="6" customFormat="1">
+      <c r="B369" s="21"/>
+      <c r="C369" s="4"/>
+      <c r="D369" s="4"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="3"/>
-      <c r="B370" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C370" s="6">
-        <f>COUNTIF(C5:C368,"n")</f>
-        <v>158</v>
-      </c>
-      <c r="D370" s="2"/>
+      <c r="B370" s="11"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="3"/>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="3"/>
       <c r="B371" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C371" s="7">
-        <f>COUNTIF(C5:C368,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C371" s="6">
+        <f>COUNTIF(C5:C370,"y")</f>
+        <v>51</v>
       </c>
       <c r="D371" s="2"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="3"/>
       <c r="B372" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C372">
-        <f>SUM(C369:C371)</f>
-        <v>208</v>
+        <v>7</v>
+      </c>
+      <c r="C372" s="6">
+        <f>COUNTIF(C5:C370,"n")</f>
+        <v>158</v>
       </c>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" ht="18">
+    <row r="373" spans="1:4">
       <c r="A373" s="3"/>
-      <c r="B373" s="10"/>
-      <c r="C373" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D373" s="41">
-        <f>C369/(C370+C369 + C371)</f>
-        <v>0.24038461538461539</v>
-      </c>
+      <c r="B373" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" s="7">
+        <f>COUNTIF(C5:C370,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D373" s="2"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="3"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
-      <c r="D374" s="3"/>
+      <c r="B374" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <f>SUM(C371:C373)</f>
+        <v>209</v>
+      </c>
+      <c r="D374" s="2"/>
+    </row>
+    <row r="375" spans="1:4" ht="18">
+      <c r="A375" s="3"/>
+      <c r="B375" s="10"/>
+      <c r="C375" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D375" s="41">
+        <f>C371/(C372+C371 + C373)</f>
+        <v>0.24401913875598086</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="3"/>
+      <c r="B376" s="11"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C269:C65122 C239:C267 C1:C3 C6:C237">
+  <conditionalFormatting sqref="C271:C65124 C241:C269 C1:C3 C6:C239">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5262,11 +5315,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT869"/>
+  <dimension ref="A1:IT870"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5589,7 +5642,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G54" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G55" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5681,19 +5734,32 @@
       </c>
       <c r="F55" s="48"/>
       <c r="G55" s="30">
-        <f t="shared" ref="G55" si="3">B55/SUM(B55:E55)</f>
+        <f t="shared" si="2"/>
         <v>0.23923444976076555</v>
       </c>
       <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="47"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="30"/>
+      <c r="A56" s="47">
+        <v>42938</v>
+      </c>
+      <c r="B56" s="4">
+        <v>51</v>
+      </c>
+      <c r="C56" s="4">
+        <v>158</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="30">
+        <f t="shared" ref="G56" si="3">B56/SUM(B56:E56)</f>
+        <v>0.24401913875598086</v>
+      </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
@@ -5702,84 +5768,84 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="31"/>
+      <c r="F57" s="28"/>
       <c r="G57" s="30"/>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="38">
-        <f>MIN(G55)</f>
-        <v>0.23923444976076555</v>
-      </c>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="39">
-        <f>SUM(B59:D59)</f>
-        <v>208</v>
-      </c>
-      <c r="B59" s="15">
-        <f>Features!C369</f>
-        <v>50</v>
-      </c>
-      <c r="C59" s="16">
-        <f>Features!C370</f>
+      <c r="G59" s="38">
+        <f>MIN(G56)</f>
+        <v>0.24401913875598086</v>
+      </c>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="39">
+        <f>SUM(B60:D60)</f>
+        <v>209</v>
+      </c>
+      <c r="B60" s="15">
+        <f>Features!C371</f>
+        <v>51</v>
+      </c>
+      <c r="C60" s="16">
+        <f>Features!C372</f>
         <v>158</v>
       </c>
-      <c r="D59" s="17">
-        <f>Features!C371</f>
+      <c r="D60" s="17">
+        <f>Features!C373</f>
         <v>0</v>
       </c>
-      <c r="E59" s="18">
-        <f>MIN(E55)</f>
-        <v>1</v>
-      </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="E60" s="18">
+        <f>MIN(E56)</f>
+        <v>0</v>
+      </c>
       <c r="F60" s="7"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
-      <c r="J60" s="36"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="4"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
+      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -5788,13 +5854,8 @@
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="49">
-        <f>(A55-A48)*A59/B59 +A48</f>
-        <v>43580.92</v>
-      </c>
+      <c r="A63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5803,8 +5864,13 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="A64" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="49">
+        <f>(A56-A48)*A60/B60 +A48</f>
+        <v>43678.431372549021</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5814,7 +5880,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5834,7 +5900,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -5854,7 +5920,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="7"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -5864,7 +5930,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="20"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5883,7 +5949,7 @@
       <c r="H71" s="7"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="7"/>
+      <c r="A72" s="4"/>
       <c r="B72" s="20"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
@@ -5894,7 +5960,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -6025,7 +6091,7 @@
     <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+      <c r="C86" s="4"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -6034,7 +6100,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="7"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6042,15 +6108,15 @@
       <c r="G87" s="30"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="4"/>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8" s="2" customFormat="1">
       <c r="A89" s="4"/>
@@ -6224,7 +6290,7 @@
     </row>
     <row r="106" spans="1:8" s="2" customFormat="1">
       <c r="A106" s="4"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -6234,7 +6300,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
+      <c r="B107" s="6"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6264,7 +6330,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6304,7 +6370,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="21"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6314,7 +6380,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6324,7 +6390,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="6"/>
+      <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6334,7 +6400,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="6"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6344,7 +6410,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6364,7 +6430,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6424,7 +6490,7 @@
     </row>
     <row r="126" spans="1:8" s="2" customFormat="1">
       <c r="A126" s="4"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -6524,7 +6590,7 @@
     </row>
     <row r="136" spans="1:8" s="2" customFormat="1">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -6574,7 +6640,7 @@
     </row>
     <row r="141" spans="1:8" s="2" customFormat="1">
       <c r="A141" s="4"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -6594,7 +6660,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -6633,284 +6699,284 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
-      <c r="A147" s="21"/>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="35"/>
-      <c r="H147" s="21"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-      <c r="AA147" s="5"/>
-      <c r="AB147" s="5"/>
-      <c r="AC147" s="5"/>
-      <c r="AD147" s="5"/>
-      <c r="AE147" s="5"/>
-      <c r="AF147" s="5"/>
-      <c r="AG147" s="5"/>
-      <c r="AH147" s="5"/>
-      <c r="AI147" s="5"/>
-      <c r="AJ147" s="5"/>
-      <c r="AK147" s="5"/>
-      <c r="AL147" s="5"/>
-      <c r="AM147" s="5"/>
-      <c r="AN147" s="5"/>
-      <c r="AO147" s="5"/>
-      <c r="AP147" s="5"/>
-      <c r="AQ147" s="5"/>
-      <c r="AR147" s="5"/>
-      <c r="AS147" s="5"/>
-      <c r="AT147" s="5"/>
-      <c r="AU147" s="5"/>
-      <c r="AV147" s="5"/>
-      <c r="AW147" s="5"/>
-      <c r="AX147" s="5"/>
-      <c r="AY147" s="5"/>
-      <c r="AZ147" s="5"/>
-      <c r="BA147" s="5"/>
-      <c r="BB147" s="5"/>
-      <c r="BC147" s="5"/>
-      <c r="BD147" s="5"/>
-      <c r="BE147" s="5"/>
-      <c r="BF147" s="5"/>
-      <c r="BG147" s="5"/>
-      <c r="BH147" s="5"/>
-      <c r="BI147" s="5"/>
-      <c r="BJ147" s="5"/>
-      <c r="BK147" s="5"/>
-      <c r="BL147" s="5"/>
-      <c r="BM147" s="5"/>
-      <c r="BN147" s="5"/>
-      <c r="BO147" s="5"/>
-      <c r="BP147" s="5"/>
-      <c r="BQ147" s="5"/>
-      <c r="BR147" s="5"/>
-      <c r="BS147" s="5"/>
-      <c r="BT147" s="5"/>
-      <c r="BU147" s="5"/>
-      <c r="BV147" s="5"/>
-      <c r="BW147" s="5"/>
-      <c r="BX147" s="5"/>
-      <c r="BY147" s="5"/>
-      <c r="BZ147" s="5"/>
-      <c r="CA147" s="5"/>
-      <c r="CB147" s="5"/>
-      <c r="CC147" s="5"/>
-      <c r="CD147" s="5"/>
-      <c r="CE147" s="5"/>
-      <c r="CF147" s="5"/>
-      <c r="CG147" s="5"/>
-      <c r="CH147" s="5"/>
-      <c r="CI147" s="5"/>
-      <c r="CJ147" s="5"/>
-      <c r="CK147" s="5"/>
-      <c r="CL147" s="5"/>
-      <c r="CM147" s="5"/>
-      <c r="CN147" s="5"/>
-      <c r="CO147" s="5"/>
-      <c r="CP147" s="5"/>
-      <c r="CQ147" s="5"/>
-      <c r="CR147" s="5"/>
-      <c r="CS147" s="5"/>
-      <c r="CT147" s="5"/>
-      <c r="CU147" s="5"/>
-      <c r="CV147" s="5"/>
-      <c r="CW147" s="5"/>
-      <c r="CX147" s="5"/>
-      <c r="CY147" s="5"/>
-      <c r="CZ147" s="5"/>
-      <c r="DA147" s="5"/>
-      <c r="DB147" s="5"/>
-      <c r="DC147" s="5"/>
-      <c r="DD147" s="5"/>
-      <c r="DE147" s="5"/>
-      <c r="DF147" s="5"/>
-      <c r="DG147" s="5"/>
-      <c r="DH147" s="5"/>
-      <c r="DI147" s="5"/>
-      <c r="DJ147" s="5"/>
-      <c r="DK147" s="5"/>
-      <c r="DL147" s="5"/>
-      <c r="DM147" s="5"/>
-      <c r="DN147" s="5"/>
-      <c r="DO147" s="5"/>
-      <c r="DP147" s="5"/>
-      <c r="DQ147" s="5"/>
-      <c r="DR147" s="5"/>
-      <c r="DS147" s="5"/>
-      <c r="DT147" s="5"/>
-      <c r="DU147" s="5"/>
-      <c r="DV147" s="5"/>
-      <c r="DW147" s="5"/>
-      <c r="DX147" s="5"/>
-      <c r="DY147" s="5"/>
-      <c r="DZ147" s="5"/>
-      <c r="EA147" s="5"/>
-      <c r="EB147" s="5"/>
-      <c r="EC147" s="5"/>
-      <c r="ED147" s="5"/>
-      <c r="EE147" s="5"/>
-      <c r="EF147" s="5"/>
-      <c r="EG147" s="5"/>
-      <c r="EH147" s="5"/>
-      <c r="EI147" s="5"/>
-      <c r="EJ147" s="5"/>
-      <c r="EK147" s="5"/>
-      <c r="EL147" s="5"/>
-      <c r="EM147" s="5"/>
-      <c r="EN147" s="5"/>
-      <c r="EO147" s="5"/>
-      <c r="EP147" s="5"/>
-      <c r="EQ147" s="5"/>
-      <c r="ER147" s="5"/>
-      <c r="ES147" s="5"/>
-      <c r="ET147" s="5"/>
-      <c r="EU147" s="5"/>
-      <c r="EV147" s="5"/>
-      <c r="EW147" s="5"/>
-      <c r="EX147" s="5"/>
-      <c r="EY147" s="5"/>
-      <c r="EZ147" s="5"/>
-      <c r="FA147" s="5"/>
-      <c r="FB147" s="5"/>
-      <c r="FC147" s="5"/>
-      <c r="FD147" s="5"/>
-      <c r="FE147" s="5"/>
-      <c r="FF147" s="5"/>
-      <c r="FG147" s="5"/>
-      <c r="FH147" s="5"/>
-      <c r="FI147" s="5"/>
-      <c r="FJ147" s="5"/>
-      <c r="FK147" s="5"/>
-      <c r="FL147" s="5"/>
-      <c r="FM147" s="5"/>
-      <c r="FN147" s="5"/>
-      <c r="FO147" s="5"/>
-      <c r="FP147" s="5"/>
-      <c r="FQ147" s="5"/>
-      <c r="FR147" s="5"/>
-      <c r="FS147" s="5"/>
-      <c r="FT147" s="5"/>
-      <c r="FU147" s="5"/>
-      <c r="FV147" s="5"/>
-      <c r="FW147" s="5"/>
-      <c r="FX147" s="5"/>
-      <c r="FY147" s="5"/>
-      <c r="FZ147" s="5"/>
-      <c r="GA147" s="5"/>
-      <c r="GB147" s="5"/>
-      <c r="GC147" s="5"/>
-      <c r="GD147" s="5"/>
-      <c r="GE147" s="5"/>
-      <c r="GF147" s="5"/>
-      <c r="GG147" s="5"/>
-      <c r="GH147" s="5"/>
-      <c r="GI147" s="5"/>
-      <c r="GJ147" s="5"/>
-      <c r="GK147" s="5"/>
-      <c r="GL147" s="5"/>
-      <c r="GM147" s="5"/>
-      <c r="GN147" s="5"/>
-      <c r="GO147" s="5"/>
-      <c r="GP147" s="5"/>
-      <c r="GQ147" s="5"/>
-      <c r="GR147" s="5"/>
-      <c r="GS147" s="5"/>
-      <c r="GT147" s="5"/>
-      <c r="GU147" s="5"/>
-      <c r="GV147" s="5"/>
-      <c r="GW147" s="5"/>
-      <c r="GX147" s="5"/>
-      <c r="GY147" s="5"/>
-      <c r="GZ147" s="5"/>
-      <c r="HA147" s="5"/>
-      <c r="HB147" s="5"/>
-      <c r="HC147" s="5"/>
-      <c r="HD147" s="5"/>
-      <c r="HE147" s="5"/>
-      <c r="HF147" s="5"/>
-      <c r="HG147" s="5"/>
-      <c r="HH147" s="5"/>
-      <c r="HI147" s="5"/>
-      <c r="HJ147" s="5"/>
-      <c r="HK147" s="5"/>
-      <c r="HL147" s="5"/>
-      <c r="HM147" s="5"/>
-      <c r="HN147" s="5"/>
-      <c r="HO147" s="5"/>
-      <c r="HP147" s="5"/>
-      <c r="HQ147" s="5"/>
-      <c r="HR147" s="5"/>
-      <c r="HS147" s="5"/>
-      <c r="HT147" s="5"/>
-      <c r="HU147" s="5"/>
-      <c r="HV147" s="5"/>
-      <c r="HW147" s="5"/>
-      <c r="HX147" s="5"/>
-      <c r="HY147" s="5"/>
-      <c r="HZ147" s="5"/>
-      <c r="IA147" s="5"/>
-      <c r="IB147" s="5"/>
-      <c r="IC147" s="5"/>
-      <c r="ID147" s="5"/>
-      <c r="IE147" s="5"/>
-      <c r="IF147" s="5"/>
-      <c r="IG147" s="5"/>
-      <c r="IH147" s="5"/>
-      <c r="II147" s="5"/>
-      <c r="IJ147" s="5"/>
-      <c r="IK147" s="5"/>
-      <c r="IL147" s="5"/>
-      <c r="IM147" s="5"/>
-      <c r="IN147" s="5"/>
-      <c r="IO147" s="5"/>
-      <c r="IP147" s="5"/>
-      <c r="IQ147" s="5"/>
-      <c r="IR147" s="5"/>
-      <c r="IS147" s="5"/>
-      <c r="IT147" s="5"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="34"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="34"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="1:254">
-      <c r="A149" s="7"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="30"/>
-      <c r="H149" s="7"/>
+      <c r="A148" s="21"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="21"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="21"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="5"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="5"/>
+      <c r="W148" s="5"/>
+      <c r="X148" s="5"/>
+      <c r="Y148" s="5"/>
+      <c r="Z148" s="5"/>
+      <c r="AA148" s="5"/>
+      <c r="AB148" s="5"/>
+      <c r="AC148" s="5"/>
+      <c r="AD148" s="5"/>
+      <c r="AE148" s="5"/>
+      <c r="AF148" s="5"/>
+      <c r="AG148" s="5"/>
+      <c r="AH148" s="5"/>
+      <c r="AI148" s="5"/>
+      <c r="AJ148" s="5"/>
+      <c r="AK148" s="5"/>
+      <c r="AL148" s="5"/>
+      <c r="AM148" s="5"/>
+      <c r="AN148" s="5"/>
+      <c r="AO148" s="5"/>
+      <c r="AP148" s="5"/>
+      <c r="AQ148" s="5"/>
+      <c r="AR148" s="5"/>
+      <c r="AS148" s="5"/>
+      <c r="AT148" s="5"/>
+      <c r="AU148" s="5"/>
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="5"/>
+      <c r="AX148" s="5"/>
+      <c r="AY148" s="5"/>
+      <c r="AZ148" s="5"/>
+      <c r="BA148" s="5"/>
+      <c r="BB148" s="5"/>
+      <c r="BC148" s="5"/>
+      <c r="BD148" s="5"/>
+      <c r="BE148" s="5"/>
+      <c r="BF148" s="5"/>
+      <c r="BG148" s="5"/>
+      <c r="BH148" s="5"/>
+      <c r="BI148" s="5"/>
+      <c r="BJ148" s="5"/>
+      <c r="BK148" s="5"/>
+      <c r="BL148" s="5"/>
+      <c r="BM148" s="5"/>
+      <c r="BN148" s="5"/>
+      <c r="BO148" s="5"/>
+      <c r="BP148" s="5"/>
+      <c r="BQ148" s="5"/>
+      <c r="BR148" s="5"/>
+      <c r="BS148" s="5"/>
+      <c r="BT148" s="5"/>
+      <c r="BU148" s="5"/>
+      <c r="BV148" s="5"/>
+      <c r="BW148" s="5"/>
+      <c r="BX148" s="5"/>
+      <c r="BY148" s="5"/>
+      <c r="BZ148" s="5"/>
+      <c r="CA148" s="5"/>
+      <c r="CB148" s="5"/>
+      <c r="CC148" s="5"/>
+      <c r="CD148" s="5"/>
+      <c r="CE148" s="5"/>
+      <c r="CF148" s="5"/>
+      <c r="CG148" s="5"/>
+      <c r="CH148" s="5"/>
+      <c r="CI148" s="5"/>
+      <c r="CJ148" s="5"/>
+      <c r="CK148" s="5"/>
+      <c r="CL148" s="5"/>
+      <c r="CM148" s="5"/>
+      <c r="CN148" s="5"/>
+      <c r="CO148" s="5"/>
+      <c r="CP148" s="5"/>
+      <c r="CQ148" s="5"/>
+      <c r="CR148" s="5"/>
+      <c r="CS148" s="5"/>
+      <c r="CT148" s="5"/>
+      <c r="CU148" s="5"/>
+      <c r="CV148" s="5"/>
+      <c r="CW148" s="5"/>
+      <c r="CX148" s="5"/>
+      <c r="CY148" s="5"/>
+      <c r="CZ148" s="5"/>
+      <c r="DA148" s="5"/>
+      <c r="DB148" s="5"/>
+      <c r="DC148" s="5"/>
+      <c r="DD148" s="5"/>
+      <c r="DE148" s="5"/>
+      <c r="DF148" s="5"/>
+      <c r="DG148" s="5"/>
+      <c r="DH148" s="5"/>
+      <c r="DI148" s="5"/>
+      <c r="DJ148" s="5"/>
+      <c r="DK148" s="5"/>
+      <c r="DL148" s="5"/>
+      <c r="DM148" s="5"/>
+      <c r="DN148" s="5"/>
+      <c r="DO148" s="5"/>
+      <c r="DP148" s="5"/>
+      <c r="DQ148" s="5"/>
+      <c r="DR148" s="5"/>
+      <c r="DS148" s="5"/>
+      <c r="DT148" s="5"/>
+      <c r="DU148" s="5"/>
+      <c r="DV148" s="5"/>
+      <c r="DW148" s="5"/>
+      <c r="DX148" s="5"/>
+      <c r="DY148" s="5"/>
+      <c r="DZ148" s="5"/>
+      <c r="EA148" s="5"/>
+      <c r="EB148" s="5"/>
+      <c r="EC148" s="5"/>
+      <c r="ED148" s="5"/>
+      <c r="EE148" s="5"/>
+      <c r="EF148" s="5"/>
+      <c r="EG148" s="5"/>
+      <c r="EH148" s="5"/>
+      <c r="EI148" s="5"/>
+      <c r="EJ148" s="5"/>
+      <c r="EK148" s="5"/>
+      <c r="EL148" s="5"/>
+      <c r="EM148" s="5"/>
+      <c r="EN148" s="5"/>
+      <c r="EO148" s="5"/>
+      <c r="EP148" s="5"/>
+      <c r="EQ148" s="5"/>
+      <c r="ER148" s="5"/>
+      <c r="ES148" s="5"/>
+      <c r="ET148" s="5"/>
+      <c r="EU148" s="5"/>
+      <c r="EV148" s="5"/>
+      <c r="EW148" s="5"/>
+      <c r="EX148" s="5"/>
+      <c r="EY148" s="5"/>
+      <c r="EZ148" s="5"/>
+      <c r="FA148" s="5"/>
+      <c r="FB148" s="5"/>
+      <c r="FC148" s="5"/>
+      <c r="FD148" s="5"/>
+      <c r="FE148" s="5"/>
+      <c r="FF148" s="5"/>
+      <c r="FG148" s="5"/>
+      <c r="FH148" s="5"/>
+      <c r="FI148" s="5"/>
+      <c r="FJ148" s="5"/>
+      <c r="FK148" s="5"/>
+      <c r="FL148" s="5"/>
+      <c r="FM148" s="5"/>
+      <c r="FN148" s="5"/>
+      <c r="FO148" s="5"/>
+      <c r="FP148" s="5"/>
+      <c r="FQ148" s="5"/>
+      <c r="FR148" s="5"/>
+      <c r="FS148" s="5"/>
+      <c r="FT148" s="5"/>
+      <c r="FU148" s="5"/>
+      <c r="FV148" s="5"/>
+      <c r="FW148" s="5"/>
+      <c r="FX148" s="5"/>
+      <c r="FY148" s="5"/>
+      <c r="FZ148" s="5"/>
+      <c r="GA148" s="5"/>
+      <c r="GB148" s="5"/>
+      <c r="GC148" s="5"/>
+      <c r="GD148" s="5"/>
+      <c r="GE148" s="5"/>
+      <c r="GF148" s="5"/>
+      <c r="GG148" s="5"/>
+      <c r="GH148" s="5"/>
+      <c r="GI148" s="5"/>
+      <c r="GJ148" s="5"/>
+      <c r="GK148" s="5"/>
+      <c r="GL148" s="5"/>
+      <c r="GM148" s="5"/>
+      <c r="GN148" s="5"/>
+      <c r="GO148" s="5"/>
+      <c r="GP148" s="5"/>
+      <c r="GQ148" s="5"/>
+      <c r="GR148" s="5"/>
+      <c r="GS148" s="5"/>
+      <c r="GT148" s="5"/>
+      <c r="GU148" s="5"/>
+      <c r="GV148" s="5"/>
+      <c r="GW148" s="5"/>
+      <c r="GX148" s="5"/>
+      <c r="GY148" s="5"/>
+      <c r="GZ148" s="5"/>
+      <c r="HA148" s="5"/>
+      <c r="HB148" s="5"/>
+      <c r="HC148" s="5"/>
+      <c r="HD148" s="5"/>
+      <c r="HE148" s="5"/>
+      <c r="HF148" s="5"/>
+      <c r="HG148" s="5"/>
+      <c r="HH148" s="5"/>
+      <c r="HI148" s="5"/>
+      <c r="HJ148" s="5"/>
+      <c r="HK148" s="5"/>
+      <c r="HL148" s="5"/>
+      <c r="HM148" s="5"/>
+      <c r="HN148" s="5"/>
+      <c r="HO148" s="5"/>
+      <c r="HP148" s="5"/>
+      <c r="HQ148" s="5"/>
+      <c r="HR148" s="5"/>
+      <c r="HS148" s="5"/>
+      <c r="HT148" s="5"/>
+      <c r="HU148" s="5"/>
+      <c r="HV148" s="5"/>
+      <c r="HW148" s="5"/>
+      <c r="HX148" s="5"/>
+      <c r="HY148" s="5"/>
+      <c r="HZ148" s="5"/>
+      <c r="IA148" s="5"/>
+      <c r="IB148" s="5"/>
+      <c r="IC148" s="5"/>
+      <c r="ID148" s="5"/>
+      <c r="IE148" s="5"/>
+      <c r="IF148" s="5"/>
+      <c r="IG148" s="5"/>
+      <c r="IH148" s="5"/>
+      <c r="II148" s="5"/>
+      <c r="IJ148" s="5"/>
+      <c r="IK148" s="5"/>
+      <c r="IL148" s="5"/>
+      <c r="IM148" s="5"/>
+      <c r="IN148" s="5"/>
+      <c r="IO148" s="5"/>
+      <c r="IP148" s="5"/>
+      <c r="IQ148" s="5"/>
+      <c r="IR148" s="5"/>
+      <c r="IS148" s="5"/>
+      <c r="IT148" s="5"/>
+    </row>
+    <row r="149" spans="1:254" s="2" customFormat="1">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254">
       <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="B150" s="6"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -6920,7 +6986,7 @@
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="20"/>
+      <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -6930,7 +6996,7 @@
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -6941,7 +7007,7 @@
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
@@ -6981,7 +7047,7 @@
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="C157" s="4"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -6990,7 +7056,7 @@
     </row>
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
-      <c r="B158" s="22"/>
+      <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
@@ -7010,7 +7076,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7020,7 +7086,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="20"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7040,7 +7106,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7060,7 +7126,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7080,7 +7146,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7100,7 +7166,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7120,7 +7186,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7160,7 +7226,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="7"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7170,8 +7236,8 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
@@ -7180,7 +7246,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="19"/>
+      <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7250,7 +7316,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="7"/>
-      <c r="B184" s="4"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
@@ -7260,7 +7326,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="19"/>
+      <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7270,7 +7336,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="21"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7290,7 +7356,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7331,7 +7397,7 @@
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
       <c r="B192" s="19"/>
-      <c r="C192" s="7"/>
+      <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -7340,7 +7406,7 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
-      <c r="B193" s="4"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
@@ -7360,7 +7426,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="19"/>
+      <c r="B195" s="4"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7420,7 +7486,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="7"/>
-      <c r="B201" s="21"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="7"/>
@@ -7460,7 +7526,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="21"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7470,7 +7536,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="6"/>
+      <c r="B206" s="4"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7480,7 +7546,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="6"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7490,7 +7556,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="19"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7540,7 +7606,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="7"/>
-      <c r="B213" s="21"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
@@ -7550,7 +7616,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="19"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -7600,7 +7666,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="7"/>
-      <c r="B219" s="21"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7"/>
       <c r="E219" s="7"/>
@@ -7660,7 +7726,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
+      <c r="B225" s="21"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
@@ -7670,7 +7736,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="6"/>
+      <c r="B226" s="4"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7680,8 +7746,8 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="7"/>
@@ -7690,7 +7756,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="19"/>
+      <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7700,7 +7766,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7710,7 +7776,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="20"/>
+      <c r="B230" s="7"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7750,7 +7816,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="7"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -7760,7 +7826,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="20"/>
+      <c r="B235" s="7"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -7770,7 +7836,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="23"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -7790,7 +7856,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7830,7 +7896,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="7"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -7840,7 +7906,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="20"/>
+      <c r="B243" s="7"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7890,7 +7956,7 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="7"/>
-      <c r="B248" s="7"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
@@ -7900,8 +7966,8 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="20"/>
-      <c r="C249" s="7"/>
+      <c r="B249" s="7"/>
+      <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -7910,7 +7976,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -7920,7 +7986,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -7930,7 +7996,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="23"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -7980,8 +8046,8 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="7"/>
-      <c r="B257" s="20"/>
-      <c r="C257" s="4"/>
+      <c r="B257" s="23"/>
+      <c r="C257" s="7"/>
       <c r="D257" s="7"/>
       <c r="E257" s="7"/>
       <c r="F257" s="7"/>
@@ -7990,7 +8056,7 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="23"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="4"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
@@ -8000,7 +8066,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="24"/>
+      <c r="B259" s="23"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8028,9 +8094,9 @@
       <c r="G261" s="30"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262" spans="1:8" ht="11.25">
+    <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="25"/>
+      <c r="B262" s="24"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8038,9 +8104,9 @@
       <c r="G262" s="30"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="11.25">
       <c r="A263" s="7"/>
-      <c r="B263" s="23"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8080,7 +8146,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="7"/>
-      <c r="B267" s="24"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8110,7 +8176,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="23"/>
+      <c r="B270" s="24"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8120,7 +8186,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8128,15 +8194,15 @@
       <c r="G271" s="30"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272" spans="1:8" s="2" customFormat="1">
-      <c r="A272" s="4"/>
+    <row r="272" spans="1:8">
+      <c r="A272" s="7"/>
       <c r="B272" s="24"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="4"/>
-      <c r="G272" s="34"/>
-      <c r="H272" s="4"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="7"/>
+      <c r="F272" s="7"/>
+      <c r="G272" s="30"/>
+      <c r="H272" s="7"/>
     </row>
     <row r="273" spans="1:8" s="2" customFormat="1">
       <c r="A273" s="4"/>
@@ -8148,19 +8214,19 @@
       <c r="G273" s="34"/>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="1:8">
-      <c r="A274" s="7"/>
+    <row r="274" spans="1:8" s="2" customFormat="1">
+      <c r="A274" s="4"/>
       <c r="B274" s="24"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="7"/>
-      <c r="F274" s="7"/>
-      <c r="G274" s="30"/>
-      <c r="H274" s="7"/>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
+      <c r="G274" s="34"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="23"/>
+      <c r="B275" s="24"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8170,7 +8236,7 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="24"/>
+      <c r="B276" s="23"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8200,7 +8266,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="22"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8210,7 +8276,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="7"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8230,7 +8296,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="20"/>
+      <c r="B282" s="7"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8250,7 +8316,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8281,7 +8347,7 @@
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
-      <c r="C287" s="7"/>
+      <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
@@ -8290,7 +8356,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="6"/>
+      <c r="B288" s="7"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8300,7 +8366,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
+      <c r="B289" s="6"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -8380,7 +8446,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="7"/>
-      <c r="B297" s="6"/>
+      <c r="B297" s="7"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
@@ -8390,8 +8456,8 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="4"/>
-      <c r="C298" s="4"/>
+      <c r="B298" s="6"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
@@ -8400,7 +8466,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="19"/>
+      <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8430,7 +8496,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="4"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -8490,7 +8556,7 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="7"/>
-      <c r="B308" s="19"/>
+      <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="7"/>
       <c r="E308" s="7"/>
@@ -8510,7 +8576,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="21"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -8520,8 +8586,8 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="7"/>
-      <c r="C311" s="7"/>
+      <c r="B311" s="21"/>
+      <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
       <c r="F311" s="7"/>
@@ -8530,7 +8596,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="7"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -8538,15 +8604,15 @@
       <c r="G312" s="30"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8" s="2" customFormat="1">
-      <c r="A313" s="4"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="4"/>
-      <c r="F313" s="4"/>
-      <c r="G313" s="34"/>
-      <c r="H313" s="4"/>
+    <row r="313" spans="1:8">
+      <c r="A313" s="7"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="7"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="7"/>
+      <c r="F313" s="7"/>
+      <c r="G313" s="30"/>
+      <c r="H313" s="7"/>
     </row>
     <row r="314" spans="1:8" s="2" customFormat="1">
       <c r="A314" s="4"/>
@@ -8570,7 +8636,7 @@
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
-      <c r="B316" s="19"/>
+      <c r="B316" s="4"/>
       <c r="C316" s="9"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
@@ -8620,8 +8686,8 @@
     </row>
     <row r="321" spans="1:8" s="2" customFormat="1">
       <c r="A321" s="4"/>
-      <c r="B321" s="26"/>
-      <c r="C321" s="4"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="9"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
@@ -8670,7 +8736,7 @@
     </row>
     <row r="326" spans="1:8" s="2" customFormat="1">
       <c r="A326" s="4"/>
-      <c r="B326" s="21"/>
+      <c r="B326" s="26"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
@@ -8720,7 +8786,7 @@
     </row>
     <row r="331" spans="1:8" s="2" customFormat="1">
       <c r="A331" s="4"/>
-      <c r="B331" s="19"/>
+      <c r="B331" s="21"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
@@ -8730,7 +8796,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="21"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -8740,7 +8806,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="4"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -8748,20 +8814,20 @@
       <c r="G333" s="34"/>
       <c r="H333" s="4"/>
     </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="7"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
-      <c r="G334" s="30"/>
-      <c r="H334" s="7"/>
+    <row r="334" spans="1:8" s="2" customFormat="1">
+      <c r="A334" s="4"/>
+      <c r="B334" s="4"/>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4"/>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+      <c r="G334" s="34"/>
+      <c r="H334" s="4"/>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="7"/>
-      <c r="B335" s="7"/>
-      <c r="C335" s="4"/>
+      <c r="B335" s="6"/>
+      <c r="C335" s="7"/>
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
@@ -8830,7 +8896,7 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" s="7"/>
-      <c r="B342" s="4"/>
+      <c r="B342" s="7"/>
       <c r="C342" s="4"/>
       <c r="D342" s="7"/>
       <c r="E342" s="7"/>
@@ -8841,7 +8907,7 @@
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
       <c r="B343" s="4"/>
-      <c r="C343" s="7"/>
+      <c r="C343" s="4"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
       <c r="F343" s="7"/>
@@ -8850,7 +8916,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="6"/>
+      <c r="B344" s="4"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -8860,7 +8926,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="7"/>
+      <c r="B345" s="6"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -8870,7 +8936,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="22"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8880,7 +8946,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="22"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8920,7 +8986,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="6"/>
+      <c r="B351" s="7"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -8930,7 +8996,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="7"/>
+      <c r="B352" s="6"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -8940,7 +9006,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="20"/>
+      <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -8970,7 +9036,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="22"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -8980,7 +9046,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="22"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9000,7 +9066,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9010,7 +9076,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9020,7 +9086,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9030,7 +9096,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9060,7 +9126,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9070,7 +9136,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="27"/>
+      <c r="B366" s="7"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9080,7 +9146,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="22"/>
+      <c r="B367" s="27"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9090,8 +9156,8 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
       <c r="F368" s="7"/>
@@ -9100,7 +9166,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="20"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="4"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9130,7 +9196,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
+      <c r="B372" s="20"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -9160,7 +9226,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="20"/>
+      <c r="B375" s="7"/>
       <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9180,8 +9246,8 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="7"/>
-      <c r="C377" s="7"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
       <c r="F377" s="7"/>
@@ -9190,7 +9256,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="6"/>
+      <c r="B378" s="7"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9200,7 +9266,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
+      <c r="B379" s="6"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9260,7 +9326,7 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" s="7"/>
-      <c r="B385" s="6"/>
+      <c r="B385" s="7"/>
       <c r="C385" s="7"/>
       <c r="D385" s="7"/>
       <c r="E385" s="7"/>
@@ -9270,7 +9336,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="7"/>
+      <c r="B386" s="6"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9291,7 +9357,7 @@
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
-      <c r="C388" s="4"/>
+      <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
       <c r="F388" s="7"/>
@@ -9300,7 +9366,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="20"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="4"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9311,7 +9377,7 @@
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
       <c r="B390" s="20"/>
-      <c r="C390" s="7"/>
+      <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
@@ -9320,7 +9386,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="27"/>
+      <c r="B391" s="20"/>
       <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9330,7 +9396,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="22"/>
+      <c r="B392" s="27"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9380,7 +9446,7 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
+      <c r="B397" s="22"/>
       <c r="C397" s="7"/>
       <c r="D397" s="7"/>
       <c r="E397" s="7"/>
@@ -9390,7 +9456,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="7"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9400,7 +9466,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="6"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9410,7 +9476,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="20"/>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9420,7 +9486,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="22"/>
+      <c r="B401" s="20"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9440,7 +9506,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="22"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9480,7 +9546,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="7"/>
+      <c r="B407" s="20"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9490,7 +9556,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="20"/>
+      <c r="B408" s="7"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9510,7 +9576,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="22"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9520,7 +9586,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="22"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9530,7 +9596,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9540,7 +9606,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9560,7 +9626,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9570,7 +9636,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9580,7 +9646,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="20"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9600,7 +9666,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="20"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9610,7 +9676,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9620,7 +9686,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9670,7 +9736,7 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" s="7"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="7"/>
       <c r="C426" s="7"/>
       <c r="D426" s="7"/>
       <c r="E426" s="7"/>
@@ -9680,7 +9746,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9740,7 +9806,7 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" s="7"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="7"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -9750,7 +9816,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9770,7 +9836,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -9780,7 +9846,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="4"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -9800,7 +9866,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="7"/>
+      <c r="B439" s="4"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9830,7 +9896,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="6"/>
+      <c r="B442" s="7"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -9840,8 +9906,8 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
-      <c r="C443" s="4"/>
+      <c r="B443" s="6"/>
+      <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
       <c r="F443" s="7"/>
@@ -9891,7 +9957,7 @@
     <row r="448" spans="1:8">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
-      <c r="C448" s="7"/>
+      <c r="C448" s="4"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
       <c r="F448" s="7"/>
@@ -9900,7 +9966,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="7"/>
       <c r="C449" s="7"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
@@ -9910,8 +9976,8 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="7"/>
-      <c r="C450" s="4"/>
+      <c r="B450" s="6"/>
+      <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -9951,7 +10017,7 @@
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
-      <c r="C454" s="7"/>
+      <c r="C454" s="4"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
@@ -9960,7 +10026,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="7"/>
       <c r="C455" s="7"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
@@ -9970,7 +10036,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="22"/>
+      <c r="B456" s="6"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -10030,7 +10096,7 @@
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="7"/>
-      <c r="B462" s="7"/>
+      <c r="B462" s="22"/>
       <c r="C462" s="7"/>
       <c r="D462" s="7"/>
       <c r="E462" s="7"/>
@@ -10040,7 +10106,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="7"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10050,7 +10116,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="22"/>
+      <c r="B464" s="6"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -10079,8 +10145,8 @@
       <c r="H466" s="7"/>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="6"/>
-      <c r="B467" s="7"/>
+      <c r="A467" s="7"/>
+      <c r="B467" s="22"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10089,7 +10155,7 @@
       <c r="H467" s="7"/>
     </row>
     <row r="468" spans="1:8">
-      <c r="A468" s="7"/>
+      <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
@@ -10130,7 +10196,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
       <c r="E472" s="7"/>
@@ -10160,7 +10226,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="7"/>
+      <c r="B475" s="28"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10170,7 +10236,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="28"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10180,7 +10246,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="28"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10190,21 +10256,21 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="29"/>
-      <c r="C478" s="30"/>
+      <c r="B478" s="7"/>
+      <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
-      <c r="F478" s="29"/>
+      <c r="F478" s="7"/>
       <c r="G478" s="30"/>
       <c r="H478" s="7"/>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
-      <c r="C479" s="7"/>
+      <c r="B479" s="29"/>
+      <c r="C479" s="30"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
-      <c r="F479" s="7"/>
+      <c r="F479" s="29"/>
       <c r="G479" s="30"/>
       <c r="H479" s="7"/>
     </row>
@@ -14108,6 +14174,16 @@
       <c r="G869" s="30"/>
       <c r="H869" s="7"/>
     </row>
+    <row r="870" spans="1:8">
+      <c r="A870" s="7"/>
+      <c r="B870" s="7"/>
+      <c r="C870" s="7"/>
+      <c r="D870" s="7"/>
+      <c r="E870" s="7"/>
+      <c r="F870" s="7"/>
+      <c r="G870" s="30"/>
+      <c r="H870" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -293,9 +293,6 @@
     <t>configurable: end of line, end of text on line</t>
   </si>
   <si>
-    <t>home/end: start of line or text</t>
-  </si>
-  <si>
     <t>move caret word left</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>all but last line: line:0..(line+1):0, last line: line:0..line:max-1</t>
+  </si>
+  <si>
+    <t>expand selection shape of the first/last line to the left/right border, considering LTR/RTL</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955125"/>
+          <c:w val="0.91978071330955136"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -961,10 +961,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -991,16 +991,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$56</c:f>
+              <c:f>Progress!$B$48:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1026,6 +1029,9 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
@@ -1059,10 +1065,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1089,16 +1095,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$56</c:f>
+              <c:f>Progress!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1124,6 +1133,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -1157,10 +1169,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1187,16 +1199,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$56</c:f>
+              <c:f>Progress!$D$48:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1222,6 +1237,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1255,10 +1273,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1285,16 +1303,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$60</c:f>
+              <c:f>Progress!$E$48:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1322,21 +1343,24 @@
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="116956544"/>
-        <c:axId val="116786304"/>
+        <c:axId val="133340544"/>
+        <c:axId val="133104768"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="116956544"/>
+        <c:axId val="133340544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116786304"/>
+        <c:crossAx val="133104768"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1379,7 +1403,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116786304"/>
+        <c:axId val="133104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116956544"/>
+        <c:crossAx val="133340544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,7 +1468,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218353"/>
+          <c:y val="0.33819556996218364"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1511,7 +1535,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1565,7 +1589,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127505E-2"/>
+          <c:x val="4.4510450248127519E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1600,10 +1624,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1630,16 +1654,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$56</c:f>
+              <c:f>Progress!$G$48:$G$57</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1665,17 +1692,20 @@
                   <c:v>0.23923444976076555</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.24401913875598086</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.24401913875598086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="116810112"/>
-        <c:axId val="116811648"/>
+        <c:axId val="133128576"/>
+        <c:axId val="133130112"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="116810112"/>
+        <c:axId val="133128576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1683,13 +1713,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="116811648"/>
+        <c:crossAx val="133130112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116811648"/>
+        <c:axId val="133130112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1732,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116810112"/>
+        <c:crossAx val="133128576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,7 +1811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1832,10 +1862,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1862,16 +1892,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$56</c:f>
+              <c:f>Progress!$C$48:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1897,6 +1930,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
@@ -1930,10 +1966,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$56</c:f>
+              <c:f>Progress!$A$48:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1960,16 +1996,19 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>42938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$56</c:f>
+              <c:f>Progress!$D$48:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1995,17 +2034,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="116832512"/>
-        <c:axId val="116842496"/>
+        <c:axId val="133155072"/>
+        <c:axId val="133160960"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="116832512"/>
+        <c:axId val="133155072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116842496"/>
+        <c:crossAx val="133160960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2047,7 +2089,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="116842496"/>
+        <c:axId val="133160960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116832512"/>
+        <c:crossAx val="133155072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,7 +2180,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001321" r="0.75000000000001321" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2188,7 +2230,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2598,14 +2640,14 @@
   </sheetPr>
   <dimension ref="A1:D376"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
     <col min="1" max="1" width="2.5" style="43" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" customWidth="1"/>
+    <col min="2" max="2" width="77.83203125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="45.83203125" style="42" customWidth="1"/>
   </cols>
@@ -2702,7 +2744,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2720,7 +2762,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2756,7 +2798,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2774,7 +2816,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2783,7 +2825,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2800,22 +2842,22 @@
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
-      <c r="B28" s="22"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
       <c r="B29" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>14</v>
@@ -2824,7 +2866,7 @@
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2833,7 +2875,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2842,7 +2884,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2850,12 +2892,8 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
@@ -2869,20 +2907,24 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="22"/>
+      <c r="B36" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="2:4" s="6" customFormat="1">
-      <c r="B37" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B37" s="22"/>
       <c r="C37" s="7"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="7"/>
+      <c r="B38" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
@@ -2895,21 +2937,21 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="7"/>
+      <c r="B41" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="20" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -2918,57 +2960,57 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
-      <c r="B43" s="20" t="s">
-        <v>183</v>
+      <c r="B43" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="22" t="s">
-        <v>35</v>
+      <c r="B44" s="20" t="s">
+        <v>144</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="2:4" s="6" customFormat="1">
+      <c r="B45" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="22" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:4" s="6" customFormat="1">
+      <c r="B47" s="22"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="2:4" s="6" customFormat="1">
+      <c r="B48" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -2978,10 +3020,10 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="20" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D50" s="4"/>
     </row>
@@ -3010,7 +3052,7 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>14</v>
@@ -3037,7 +3079,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3046,7 +3088,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3055,7 +3097,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -3064,7 +3106,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3073,7 +3115,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3082,7 +3124,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -3091,7 +3133,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3114,7 +3156,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3123,7 +3165,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3132,7 +3174,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -3141,7 +3183,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>14</v>
@@ -3164,7 +3206,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3191,7 +3233,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>14</v>
@@ -3274,7 +3316,7 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3372,7 +3414,7 @@
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
       <c r="B100" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -3386,7 +3428,7 @@
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
       <c r="B102" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -3400,7 +3442,7 @@
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
       <c r="B104" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>14</v>
@@ -3409,7 +3451,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3418,7 +3460,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3432,7 +3474,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3441,7 +3483,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3455,7 +3497,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3491,14 +3533,14 @@
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
       <c r="B117" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
       <c r="B118" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>14</v>
@@ -3507,7 +3549,7 @@
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3516,7 +3558,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3525,7 +3567,7 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>14</v>
@@ -3564,7 +3606,7 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>14</v>
@@ -3573,7 +3615,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3582,7 +3624,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3591,7 +3633,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>2</v>
@@ -3600,7 +3642,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3623,7 +3665,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3687,7 +3729,7 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>14</v>
@@ -3756,7 +3798,7 @@
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
       <c r="B150" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>14</v>
@@ -3770,7 +3812,7 @@
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
       <c r="B152" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>14</v>
@@ -3779,7 +3821,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3793,7 +3835,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3802,7 +3844,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>14</v>
@@ -3811,7 +3853,7 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>14</v>
@@ -3825,7 +3867,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>14</v>
@@ -3843,7 +3885,7 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>14</v>
@@ -3857,7 +3899,7 @@
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C163" s="7" t="s">
         <v>14</v>
@@ -3875,7 +3917,7 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>14</v>
@@ -3889,7 +3931,7 @@
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C167" s="7" t="s">
         <v>14</v>
@@ -3898,7 +3940,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -3907,7 +3949,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3921,7 +3963,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>14</v>
@@ -3951,7 +3993,7 @@
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
       <c r="B175" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>14</v>
@@ -3969,7 +4011,7 @@
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
       <c r="B177" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>14</v>
@@ -4057,7 +4099,7 @@
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
       <c r="B189" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>2</v>
@@ -4066,7 +4108,7 @@
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
       <c r="B190" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4075,7 +4117,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4084,7 +4126,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4141,7 +4183,7 @@
     </row>
     <row r="201" spans="2:4">
       <c r="B201" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C201" s="7"/>
     </row>
@@ -4230,7 +4272,7 @@
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>14</v>
@@ -4238,7 +4280,7 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>14</v>
@@ -4246,7 +4288,7 @@
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>14</v>
@@ -4254,7 +4296,7 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
@@ -4286,7 +4328,7 @@
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C224" s="9"/>
     </row>
@@ -4295,7 +4337,7 @@
     </row>
     <row r="226" spans="2:3">
       <c r="B226" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>14</v>
@@ -4303,7 +4345,7 @@
     </row>
     <row r="227" spans="2:3">
       <c r="B227" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4311,7 +4353,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4319,7 +4361,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -4327,7 +4369,7 @@
     </row>
     <row r="230" spans="2:3">
       <c r="B230" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>14</v>
@@ -4335,7 +4377,7 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>14</v>
@@ -4343,7 +4385,7 @@
     </row>
     <row r="232" spans="2:3">
       <c r="B232" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>2</v>
@@ -4360,7 +4402,7 @@
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C236" s="9"/>
     </row>
@@ -4369,7 +4411,7 @@
     </row>
     <row r="238" spans="2:3">
       <c r="B238" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C238" s="9" t="s">
         <v>14</v>
@@ -4377,7 +4419,7 @@
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C239" s="9" t="s">
         <v>14</v>
@@ -4393,7 +4435,7 @@
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>14</v>
@@ -4401,7 +4443,7 @@
     </row>
     <row r="243" spans="2:3">
       <c r="B243" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C243" s="7" t="s">
         <v>14</v>
@@ -4412,7 +4454,7 @@
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>14</v>
@@ -4423,7 +4465,7 @@
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C247" s="9" t="s">
         <v>14</v>
@@ -4431,7 +4473,7 @@
     </row>
     <row r="248" spans="2:3">
       <c r="B248" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>14</v>
@@ -4442,7 +4484,7 @@
     </row>
     <row r="250" spans="2:3">
       <c r="B250" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>14</v>
@@ -4468,7 +4510,7 @@
     </row>
     <row r="257" spans="2:4">
       <c r="B257" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C257" s="9"/>
     </row>
@@ -4501,7 +4543,7 @@
     </row>
     <row r="262" spans="2:4">
       <c r="B262" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C262" s="7" t="s">
         <v>14</v>
@@ -4509,7 +4551,7 @@
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C263" s="7" t="s">
         <v>14</v>
@@ -4520,7 +4562,7 @@
     </row>
     <row r="265" spans="2:4">
       <c r="B265" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C265" s="7" t="s">
         <v>2</v>
@@ -4561,7 +4603,7 @@
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>2</v>
@@ -4593,7 +4635,7 @@
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
       <c r="B278" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>14</v>
@@ -4602,7 +4644,7 @@
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>14</v>
@@ -4616,7 +4658,7 @@
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>14</v>
@@ -4630,7 +4672,7 @@
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
       <c r="B283" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C283" s="7" t="s">
         <v>14</v>
@@ -4639,7 +4681,7 @@
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>14</v>
@@ -4652,7 +4694,7 @@
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
       <c r="B286" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C286" s="7" t="s">
         <v>14</v>
@@ -4666,7 +4708,7 @@
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
       <c r="B288" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C288" s="7" t="s">
         <v>14</v>
@@ -4680,14 +4722,14 @@
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
       <c r="B290" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
       <c r="B291" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C291" s="7" t="s">
         <v>14</v>
@@ -4696,7 +4738,7 @@
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>14</v>
@@ -4705,7 +4747,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>14</v>
@@ -4714,7 +4756,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>14</v>
@@ -4723,7 +4765,7 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C295" s="7" t="s">
         <v>14</v>
@@ -4737,7 +4779,7 @@
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>14</v>
@@ -4746,7 +4788,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>14</v>
@@ -4760,7 +4802,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>14</v>
@@ -4897,7 +4939,7 @@
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
       <c r="B319" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>14</v>
@@ -4911,7 +4953,7 @@
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>2</v>
@@ -4945,7 +4987,7 @@
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
       <c r="B327" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C327" s="7"/>
       <c r="D327" s="4"/>
@@ -4957,14 +4999,14 @@
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
       <c r="B329" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
       <c r="B330" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C330" s="7" t="s">
         <v>2</v>
@@ -4973,7 +5015,7 @@
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>2</v>
@@ -4982,7 +5024,7 @@
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
       <c r="B332" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C332" s="7" t="s">
         <v>14</v>
@@ -4991,7 +5033,7 @@
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>2</v>
@@ -5012,7 +5054,7 @@
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>2</v>
@@ -5021,7 +5063,7 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>2</v>
@@ -5035,7 +5077,7 @@
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>14</v>
@@ -5044,7 +5086,7 @@
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
       <c r="B340" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C340" s="7" t="s">
         <v>14</v>
@@ -5058,7 +5100,7 @@
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>14</v>
@@ -5087,7 +5129,7 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -5096,7 +5138,7 @@
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>14</v>
@@ -5105,7 +5147,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>14</v>
@@ -5114,7 +5156,7 @@
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
       <c r="B350" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>2</v>
@@ -5123,7 +5165,7 @@
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
       <c r="B351" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C351" s="7" t="s">
         <v>14</v>
@@ -5132,7 +5174,7 @@
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
       <c r="B352" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C352" s="7" t="s">
         <v>14</v>
@@ -5315,11 +5357,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT870"/>
+  <dimension ref="A1:IT871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5642,7 +5684,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G55" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G56" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5757,19 +5799,32 @@
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="30">
-        <f t="shared" ref="G56" si="3">B56/SUM(B56:E56)</f>
+        <f t="shared" si="2"/>
         <v>0.24401913875598086</v>
       </c>
       <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="47"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
+      <c r="A57" s="47">
+        <v>42945</v>
+      </c>
+      <c r="B57" s="4">
+        <v>51</v>
+      </c>
+      <c r="C57" s="4">
+        <v>158</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="30">
+        <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
+        <v>0.24401913875598086</v>
+      </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
@@ -5778,84 +5833,84 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="31"/>
+      <c r="F58" s="28"/>
       <c r="G58" s="30"/>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B60" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="E60" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F59" s="14" t="s">
+      <c r="F60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="38">
-        <f>MIN(G56)</f>
+      <c r="G60" s="38">
+        <f>MIN(G57)</f>
         <v>0.24401913875598086</v>
       </c>
-      <c r="H59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="39">
-        <f>SUM(B60:D60)</f>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="39">
+        <f>SUM(B61:D61)</f>
         <v>209</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B61" s="15">
         <f>Features!C371</f>
         <v>51</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C61" s="16">
         <f>Features!C372</f>
         <v>158</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="17">
         <f>Features!C373</f>
         <v>0</v>
       </c>
-      <c r="E60" s="18">
-        <f>MIN(E56)</f>
+      <c r="E61" s="18">
+        <f>MIN(E57)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
-      <c r="J61" s="36"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
+      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -5864,13 +5919,8 @@
       <c r="H63" s="7"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="49">
-        <f>(A56-A48)*A60/B60 +A48</f>
-        <v>43678.431372549021</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5879,8 +5929,13 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="A65" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" s="49">
+        <f>(A57-A48)*A61/B61 +A48</f>
+        <v>43707.117647058825</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5890,7 +5945,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -5910,7 +5965,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -5930,7 +5985,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="7"/>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -5940,7 +5995,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
-      <c r="B71" s="20"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -5959,7 +6014,7 @@
       <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="7"/>
+      <c r="A73" s="4"/>
       <c r="B73" s="20"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
@@ -5970,7 +6025,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -6101,7 +6156,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
@@ -6110,7 +6165,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="7"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6118,15 +6173,15 @@
       <c r="G88" s="30"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="4"/>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="7"/>
     </row>
     <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="4"/>
@@ -6300,7 +6355,7 @@
     </row>
     <row r="107" spans="1:8" s="2" customFormat="1">
       <c r="A107" s="4"/>
-      <c r="B107" s="6"/>
+      <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
@@ -6310,7 +6365,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
+      <c r="B108" s="6"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6340,7 +6395,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6380,7 +6435,7 @@
     </row>
     <row r="115" spans="1:8" s="2" customFormat="1">
       <c r="A115" s="4"/>
-      <c r="B115" s="21"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -6390,7 +6445,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6400,7 +6455,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="6"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6410,7 +6465,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="6"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6420,7 +6475,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6440,7 +6495,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6500,7 +6555,7 @@
     </row>
     <row r="127" spans="1:8" s="2" customFormat="1">
       <c r="A127" s="4"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -6600,7 +6655,7 @@
     </row>
     <row r="137" spans="1:8" s="2" customFormat="1">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -6650,7 +6705,7 @@
     </row>
     <row r="142" spans="1:8" s="2" customFormat="1">
       <c r="A142" s="4"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -6670,7 +6725,7 @@
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6709,284 +6764,284 @@
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:254" s="2" customFormat="1">
-      <c r="A148" s="21"/>
-      <c r="B148" s="21"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="35"/>
-      <c r="H148" s="21"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
-      <c r="AA148" s="5"/>
-      <c r="AB148" s="5"/>
-      <c r="AC148" s="5"/>
-      <c r="AD148" s="5"/>
-      <c r="AE148" s="5"/>
-      <c r="AF148" s="5"/>
-      <c r="AG148" s="5"/>
-      <c r="AH148" s="5"/>
-      <c r="AI148" s="5"/>
-      <c r="AJ148" s="5"/>
-      <c r="AK148" s="5"/>
-      <c r="AL148" s="5"/>
-      <c r="AM148" s="5"/>
-      <c r="AN148" s="5"/>
-      <c r="AO148" s="5"/>
-      <c r="AP148" s="5"/>
-      <c r="AQ148" s="5"/>
-      <c r="AR148" s="5"/>
-      <c r="AS148" s="5"/>
-      <c r="AT148" s="5"/>
-      <c r="AU148" s="5"/>
-      <c r="AV148" s="5"/>
-      <c r="AW148" s="5"/>
-      <c r="AX148" s="5"/>
-      <c r="AY148" s="5"/>
-      <c r="AZ148" s="5"/>
-      <c r="BA148" s="5"/>
-      <c r="BB148" s="5"/>
-      <c r="BC148" s="5"/>
-      <c r="BD148" s="5"/>
-      <c r="BE148" s="5"/>
-      <c r="BF148" s="5"/>
-      <c r="BG148" s="5"/>
-      <c r="BH148" s="5"/>
-      <c r="BI148" s="5"/>
-      <c r="BJ148" s="5"/>
-      <c r="BK148" s="5"/>
-      <c r="BL148" s="5"/>
-      <c r="BM148" s="5"/>
-      <c r="BN148" s="5"/>
-      <c r="BO148" s="5"/>
-      <c r="BP148" s="5"/>
-      <c r="BQ148" s="5"/>
-      <c r="BR148" s="5"/>
-      <c r="BS148" s="5"/>
-      <c r="BT148" s="5"/>
-      <c r="BU148" s="5"/>
-      <c r="BV148" s="5"/>
-      <c r="BW148" s="5"/>
-      <c r="BX148" s="5"/>
-      <c r="BY148" s="5"/>
-      <c r="BZ148" s="5"/>
-      <c r="CA148" s="5"/>
-      <c r="CB148" s="5"/>
-      <c r="CC148" s="5"/>
-      <c r="CD148" s="5"/>
-      <c r="CE148" s="5"/>
-      <c r="CF148" s="5"/>
-      <c r="CG148" s="5"/>
-      <c r="CH148" s="5"/>
-      <c r="CI148" s="5"/>
-      <c r="CJ148" s="5"/>
-      <c r="CK148" s="5"/>
-      <c r="CL148" s="5"/>
-      <c r="CM148" s="5"/>
-      <c r="CN148" s="5"/>
-      <c r="CO148" s="5"/>
-      <c r="CP148" s="5"/>
-      <c r="CQ148" s="5"/>
-      <c r="CR148" s="5"/>
-      <c r="CS148" s="5"/>
-      <c r="CT148" s="5"/>
-      <c r="CU148" s="5"/>
-      <c r="CV148" s="5"/>
-      <c r="CW148" s="5"/>
-      <c r="CX148" s="5"/>
-      <c r="CY148" s="5"/>
-      <c r="CZ148" s="5"/>
-      <c r="DA148" s="5"/>
-      <c r="DB148" s="5"/>
-      <c r="DC148" s="5"/>
-      <c r="DD148" s="5"/>
-      <c r="DE148" s="5"/>
-      <c r="DF148" s="5"/>
-      <c r="DG148" s="5"/>
-      <c r="DH148" s="5"/>
-      <c r="DI148" s="5"/>
-      <c r="DJ148" s="5"/>
-      <c r="DK148" s="5"/>
-      <c r="DL148" s="5"/>
-      <c r="DM148" s="5"/>
-      <c r="DN148" s="5"/>
-      <c r="DO148" s="5"/>
-      <c r="DP148" s="5"/>
-      <c r="DQ148" s="5"/>
-      <c r="DR148" s="5"/>
-      <c r="DS148" s="5"/>
-      <c r="DT148" s="5"/>
-      <c r="DU148" s="5"/>
-      <c r="DV148" s="5"/>
-      <c r="DW148" s="5"/>
-      <c r="DX148" s="5"/>
-      <c r="DY148" s="5"/>
-      <c r="DZ148" s="5"/>
-      <c r="EA148" s="5"/>
-      <c r="EB148" s="5"/>
-      <c r="EC148" s="5"/>
-      <c r="ED148" s="5"/>
-      <c r="EE148" s="5"/>
-      <c r="EF148" s="5"/>
-      <c r="EG148" s="5"/>
-      <c r="EH148" s="5"/>
-      <c r="EI148" s="5"/>
-      <c r="EJ148" s="5"/>
-      <c r="EK148" s="5"/>
-      <c r="EL148" s="5"/>
-      <c r="EM148" s="5"/>
-      <c r="EN148" s="5"/>
-      <c r="EO148" s="5"/>
-      <c r="EP148" s="5"/>
-      <c r="EQ148" s="5"/>
-      <c r="ER148" s="5"/>
-      <c r="ES148" s="5"/>
-      <c r="ET148" s="5"/>
-      <c r="EU148" s="5"/>
-      <c r="EV148" s="5"/>
-      <c r="EW148" s="5"/>
-      <c r="EX148" s="5"/>
-      <c r="EY148" s="5"/>
-      <c r="EZ148" s="5"/>
-      <c r="FA148" s="5"/>
-      <c r="FB148" s="5"/>
-      <c r="FC148" s="5"/>
-      <c r="FD148" s="5"/>
-      <c r="FE148" s="5"/>
-      <c r="FF148" s="5"/>
-      <c r="FG148" s="5"/>
-      <c r="FH148" s="5"/>
-      <c r="FI148" s="5"/>
-      <c r="FJ148" s="5"/>
-      <c r="FK148" s="5"/>
-      <c r="FL148" s="5"/>
-      <c r="FM148" s="5"/>
-      <c r="FN148" s="5"/>
-      <c r="FO148" s="5"/>
-      <c r="FP148" s="5"/>
-      <c r="FQ148" s="5"/>
-      <c r="FR148" s="5"/>
-      <c r="FS148" s="5"/>
-      <c r="FT148" s="5"/>
-      <c r="FU148" s="5"/>
-      <c r="FV148" s="5"/>
-      <c r="FW148" s="5"/>
-      <c r="FX148" s="5"/>
-      <c r="FY148" s="5"/>
-      <c r="FZ148" s="5"/>
-      <c r="GA148" s="5"/>
-      <c r="GB148" s="5"/>
-      <c r="GC148" s="5"/>
-      <c r="GD148" s="5"/>
-      <c r="GE148" s="5"/>
-      <c r="GF148" s="5"/>
-      <c r="GG148" s="5"/>
-      <c r="GH148" s="5"/>
-      <c r="GI148" s="5"/>
-      <c r="GJ148" s="5"/>
-      <c r="GK148" s="5"/>
-      <c r="GL148" s="5"/>
-      <c r="GM148" s="5"/>
-      <c r="GN148" s="5"/>
-      <c r="GO148" s="5"/>
-      <c r="GP148" s="5"/>
-      <c r="GQ148" s="5"/>
-      <c r="GR148" s="5"/>
-      <c r="GS148" s="5"/>
-      <c r="GT148" s="5"/>
-      <c r="GU148" s="5"/>
-      <c r="GV148" s="5"/>
-      <c r="GW148" s="5"/>
-      <c r="GX148" s="5"/>
-      <c r="GY148" s="5"/>
-      <c r="GZ148" s="5"/>
-      <c r="HA148" s="5"/>
-      <c r="HB148" s="5"/>
-      <c r="HC148" s="5"/>
-      <c r="HD148" s="5"/>
-      <c r="HE148" s="5"/>
-      <c r="HF148" s="5"/>
-      <c r="HG148" s="5"/>
-      <c r="HH148" s="5"/>
-      <c r="HI148" s="5"/>
-      <c r="HJ148" s="5"/>
-      <c r="HK148" s="5"/>
-      <c r="HL148" s="5"/>
-      <c r="HM148" s="5"/>
-      <c r="HN148" s="5"/>
-      <c r="HO148" s="5"/>
-      <c r="HP148" s="5"/>
-      <c r="HQ148" s="5"/>
-      <c r="HR148" s="5"/>
-      <c r="HS148" s="5"/>
-      <c r="HT148" s="5"/>
-      <c r="HU148" s="5"/>
-      <c r="HV148" s="5"/>
-      <c r="HW148" s="5"/>
-      <c r="HX148" s="5"/>
-      <c r="HY148" s="5"/>
-      <c r="HZ148" s="5"/>
-      <c r="IA148" s="5"/>
-      <c r="IB148" s="5"/>
-      <c r="IC148" s="5"/>
-      <c r="ID148" s="5"/>
-      <c r="IE148" s="5"/>
-      <c r="IF148" s="5"/>
-      <c r="IG148" s="5"/>
-      <c r="IH148" s="5"/>
-      <c r="II148" s="5"/>
-      <c r="IJ148" s="5"/>
-      <c r="IK148" s="5"/>
-      <c r="IL148" s="5"/>
-      <c r="IM148" s="5"/>
-      <c r="IN148" s="5"/>
-      <c r="IO148" s="5"/>
-      <c r="IP148" s="5"/>
-      <c r="IQ148" s="5"/>
-      <c r="IR148" s="5"/>
-      <c r="IS148" s="5"/>
-      <c r="IT148" s="5"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="1:254">
-      <c r="A150" s="7"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="7"/>
+      <c r="A149" s="21"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="21"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="21"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="5"/>
+      <c r="W149" s="5"/>
+      <c r="X149" s="5"/>
+      <c r="Y149" s="5"/>
+      <c r="Z149" s="5"/>
+      <c r="AA149" s="5"/>
+      <c r="AB149" s="5"/>
+      <c r="AC149" s="5"/>
+      <c r="AD149" s="5"/>
+      <c r="AE149" s="5"/>
+      <c r="AF149" s="5"/>
+      <c r="AG149" s="5"/>
+      <c r="AH149" s="5"/>
+      <c r="AI149" s="5"/>
+      <c r="AJ149" s="5"/>
+      <c r="AK149" s="5"/>
+      <c r="AL149" s="5"/>
+      <c r="AM149" s="5"/>
+      <c r="AN149" s="5"/>
+      <c r="AO149" s="5"/>
+      <c r="AP149" s="5"/>
+      <c r="AQ149" s="5"/>
+      <c r="AR149" s="5"/>
+      <c r="AS149" s="5"/>
+      <c r="AT149" s="5"/>
+      <c r="AU149" s="5"/>
+      <c r="AV149" s="5"/>
+      <c r="AW149" s="5"/>
+      <c r="AX149" s="5"/>
+      <c r="AY149" s="5"/>
+      <c r="AZ149" s="5"/>
+      <c r="BA149" s="5"/>
+      <c r="BB149" s="5"/>
+      <c r="BC149" s="5"/>
+      <c r="BD149" s="5"/>
+      <c r="BE149" s="5"/>
+      <c r="BF149" s="5"/>
+      <c r="BG149" s="5"/>
+      <c r="BH149" s="5"/>
+      <c r="BI149" s="5"/>
+      <c r="BJ149" s="5"/>
+      <c r="BK149" s="5"/>
+      <c r="BL149" s="5"/>
+      <c r="BM149" s="5"/>
+      <c r="BN149" s="5"/>
+      <c r="BO149" s="5"/>
+      <c r="BP149" s="5"/>
+      <c r="BQ149" s="5"/>
+      <c r="BR149" s="5"/>
+      <c r="BS149" s="5"/>
+      <c r="BT149" s="5"/>
+      <c r="BU149" s="5"/>
+      <c r="BV149" s="5"/>
+      <c r="BW149" s="5"/>
+      <c r="BX149" s="5"/>
+      <c r="BY149" s="5"/>
+      <c r="BZ149" s="5"/>
+      <c r="CA149" s="5"/>
+      <c r="CB149" s="5"/>
+      <c r="CC149" s="5"/>
+      <c r="CD149" s="5"/>
+      <c r="CE149" s="5"/>
+      <c r="CF149" s="5"/>
+      <c r="CG149" s="5"/>
+      <c r="CH149" s="5"/>
+      <c r="CI149" s="5"/>
+      <c r="CJ149" s="5"/>
+      <c r="CK149" s="5"/>
+      <c r="CL149" s="5"/>
+      <c r="CM149" s="5"/>
+      <c r="CN149" s="5"/>
+      <c r="CO149" s="5"/>
+      <c r="CP149" s="5"/>
+      <c r="CQ149" s="5"/>
+      <c r="CR149" s="5"/>
+      <c r="CS149" s="5"/>
+      <c r="CT149" s="5"/>
+      <c r="CU149" s="5"/>
+      <c r="CV149" s="5"/>
+      <c r="CW149" s="5"/>
+      <c r="CX149" s="5"/>
+      <c r="CY149" s="5"/>
+      <c r="CZ149" s="5"/>
+      <c r="DA149" s="5"/>
+      <c r="DB149" s="5"/>
+      <c r="DC149" s="5"/>
+      <c r="DD149" s="5"/>
+      <c r="DE149" s="5"/>
+      <c r="DF149" s="5"/>
+      <c r="DG149" s="5"/>
+      <c r="DH149" s="5"/>
+      <c r="DI149" s="5"/>
+      <c r="DJ149" s="5"/>
+      <c r="DK149" s="5"/>
+      <c r="DL149" s="5"/>
+      <c r="DM149" s="5"/>
+      <c r="DN149" s="5"/>
+      <c r="DO149" s="5"/>
+      <c r="DP149" s="5"/>
+      <c r="DQ149" s="5"/>
+      <c r="DR149" s="5"/>
+      <c r="DS149" s="5"/>
+      <c r="DT149" s="5"/>
+      <c r="DU149" s="5"/>
+      <c r="DV149" s="5"/>
+      <c r="DW149" s="5"/>
+      <c r="DX149" s="5"/>
+      <c r="DY149" s="5"/>
+      <c r="DZ149" s="5"/>
+      <c r="EA149" s="5"/>
+      <c r="EB149" s="5"/>
+      <c r="EC149" s="5"/>
+      <c r="ED149" s="5"/>
+      <c r="EE149" s="5"/>
+      <c r="EF149" s="5"/>
+      <c r="EG149" s="5"/>
+      <c r="EH149" s="5"/>
+      <c r="EI149" s="5"/>
+      <c r="EJ149" s="5"/>
+      <c r="EK149" s="5"/>
+      <c r="EL149" s="5"/>
+      <c r="EM149" s="5"/>
+      <c r="EN149" s="5"/>
+      <c r="EO149" s="5"/>
+      <c r="EP149" s="5"/>
+      <c r="EQ149" s="5"/>
+      <c r="ER149" s="5"/>
+      <c r="ES149" s="5"/>
+      <c r="ET149" s="5"/>
+      <c r="EU149" s="5"/>
+      <c r="EV149" s="5"/>
+      <c r="EW149" s="5"/>
+      <c r="EX149" s="5"/>
+      <c r="EY149" s="5"/>
+      <c r="EZ149" s="5"/>
+      <c r="FA149" s="5"/>
+      <c r="FB149" s="5"/>
+      <c r="FC149" s="5"/>
+      <c r="FD149" s="5"/>
+      <c r="FE149" s="5"/>
+      <c r="FF149" s="5"/>
+      <c r="FG149" s="5"/>
+      <c r="FH149" s="5"/>
+      <c r="FI149" s="5"/>
+      <c r="FJ149" s="5"/>
+      <c r="FK149" s="5"/>
+      <c r="FL149" s="5"/>
+      <c r="FM149" s="5"/>
+      <c r="FN149" s="5"/>
+      <c r="FO149" s="5"/>
+      <c r="FP149" s="5"/>
+      <c r="FQ149" s="5"/>
+      <c r="FR149" s="5"/>
+      <c r="FS149" s="5"/>
+      <c r="FT149" s="5"/>
+      <c r="FU149" s="5"/>
+      <c r="FV149" s="5"/>
+      <c r="FW149" s="5"/>
+      <c r="FX149" s="5"/>
+      <c r="FY149" s="5"/>
+      <c r="FZ149" s="5"/>
+      <c r="GA149" s="5"/>
+      <c r="GB149" s="5"/>
+      <c r="GC149" s="5"/>
+      <c r="GD149" s="5"/>
+      <c r="GE149" s="5"/>
+      <c r="GF149" s="5"/>
+      <c r="GG149" s="5"/>
+      <c r="GH149" s="5"/>
+      <c r="GI149" s="5"/>
+      <c r="GJ149" s="5"/>
+      <c r="GK149" s="5"/>
+      <c r="GL149" s="5"/>
+      <c r="GM149" s="5"/>
+      <c r="GN149" s="5"/>
+      <c r="GO149" s="5"/>
+      <c r="GP149" s="5"/>
+      <c r="GQ149" s="5"/>
+      <c r="GR149" s="5"/>
+      <c r="GS149" s="5"/>
+      <c r="GT149" s="5"/>
+      <c r="GU149" s="5"/>
+      <c r="GV149" s="5"/>
+      <c r="GW149" s="5"/>
+      <c r="GX149" s="5"/>
+      <c r="GY149" s="5"/>
+      <c r="GZ149" s="5"/>
+      <c r="HA149" s="5"/>
+      <c r="HB149" s="5"/>
+      <c r="HC149" s="5"/>
+      <c r="HD149" s="5"/>
+      <c r="HE149" s="5"/>
+      <c r="HF149" s="5"/>
+      <c r="HG149" s="5"/>
+      <c r="HH149" s="5"/>
+      <c r="HI149" s="5"/>
+      <c r="HJ149" s="5"/>
+      <c r="HK149" s="5"/>
+      <c r="HL149" s="5"/>
+      <c r="HM149" s="5"/>
+      <c r="HN149" s="5"/>
+      <c r="HO149" s="5"/>
+      <c r="HP149" s="5"/>
+      <c r="HQ149" s="5"/>
+      <c r="HR149" s="5"/>
+      <c r="HS149" s="5"/>
+      <c r="HT149" s="5"/>
+      <c r="HU149" s="5"/>
+      <c r="HV149" s="5"/>
+      <c r="HW149" s="5"/>
+      <c r="HX149" s="5"/>
+      <c r="HY149" s="5"/>
+      <c r="HZ149" s="5"/>
+      <c r="IA149" s="5"/>
+      <c r="IB149" s="5"/>
+      <c r="IC149" s="5"/>
+      <c r="ID149" s="5"/>
+      <c r="IE149" s="5"/>
+      <c r="IF149" s="5"/>
+      <c r="IG149" s="5"/>
+      <c r="IH149" s="5"/>
+      <c r="II149" s="5"/>
+      <c r="IJ149" s="5"/>
+      <c r="IK149" s="5"/>
+      <c r="IL149" s="5"/>
+      <c r="IM149" s="5"/>
+      <c r="IN149" s="5"/>
+      <c r="IO149" s="5"/>
+      <c r="IP149" s="5"/>
+      <c r="IQ149" s="5"/>
+      <c r="IR149" s="5"/>
+      <c r="IS149" s="5"/>
+      <c r="IT149" s="5"/>
+    </row>
+    <row r="150" spans="1:254" s="2" customFormat="1">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254">
       <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
@@ -6996,7 +7051,7 @@
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="20"/>
+      <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -7006,7 +7061,7 @@
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7017,7 +7072,7 @@
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
@@ -7057,7 +7112,7 @@
     <row r="158" spans="1:254">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="C158" s="4"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
@@ -7066,7 +7121,7 @@
     </row>
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
-      <c r="B159" s="22"/>
+      <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
@@ -7086,7 +7141,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7096,7 +7151,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="20"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7116,7 +7171,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7136,7 +7191,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="20"/>
+      <c r="B166" s="7"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7156,7 +7211,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7176,7 +7231,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="20"/>
+      <c r="B170" s="7"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7196,7 +7251,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7236,7 +7291,7 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="7"/>
-      <c r="B176" s="6"/>
+      <c r="B176" s="7"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
@@ -7246,8 +7301,8 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
@@ -7256,7 +7311,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="19"/>
+      <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7326,7 +7381,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="7"/>
-      <c r="B185" s="4"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="4"/>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
@@ -7336,7 +7391,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="19"/>
+      <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7346,7 +7401,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="21"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7366,7 +7421,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="21"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7407,7 +7462,7 @@
     <row r="193" spans="1:8">
       <c r="A193" s="7"/>
       <c r="B193" s="19"/>
-      <c r="C193" s="7"/>
+      <c r="C193" s="4"/>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -7416,7 +7471,7 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
-      <c r="B194" s="4"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -7436,7 +7491,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="19"/>
+      <c r="B196" s="4"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7496,7 +7551,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="7"/>
-      <c r="B202" s="21"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
@@ -7536,7 +7591,7 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="7"/>
-      <c r="B206" s="4"/>
+      <c r="B206" s="21"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -7546,7 +7601,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="6"/>
+      <c r="B207" s="4"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7556,7 +7611,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="6"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7566,7 +7621,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="19"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7616,7 +7671,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="7"/>
-      <c r="B214" s="21"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
@@ -7626,7 +7681,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="19"/>
+      <c r="B215" s="21"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7676,7 +7731,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="7"/>
-      <c r="B220" s="21"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
@@ -7736,7 +7791,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
+      <c r="B226" s="21"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -7746,7 +7801,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="6"/>
+      <c r="B227" s="4"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7756,8 +7811,8 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="7"/>
@@ -7766,7 +7821,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="19"/>
+      <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7776,7 +7831,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="7"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7786,7 +7841,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="20"/>
+      <c r="B231" s="7"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7826,7 +7881,7 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="7"/>
-      <c r="B235" s="7"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="4"/>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
@@ -7836,7 +7891,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="20"/>
+      <c r="B236" s="7"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -7846,7 +7901,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="23"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7866,7 +7921,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -7906,7 +7961,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="7"/>
-      <c r="B243" s="7"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="4"/>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
@@ -7916,7 +7971,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="20"/>
+      <c r="B244" s="7"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -7966,7 +8021,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="7"/>
-      <c r="B249" s="7"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="4"/>
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
@@ -7976,8 +8031,8 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="20"/>
-      <c r="C250" s="7"/>
+      <c r="B250" s="7"/>
+      <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
@@ -7986,7 +8041,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -7996,7 +8051,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
+      <c r="B252" s="7"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -8006,7 +8061,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="23"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -8056,8 +8111,8 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="7"/>
-      <c r="B258" s="20"/>
-      <c r="C258" s="4"/>
+      <c r="B258" s="23"/>
+      <c r="C258" s="7"/>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="7"/>
@@ -8066,7 +8121,7 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="23"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="4"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
@@ -8076,7 +8131,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="24"/>
+      <c r="B260" s="23"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8104,9 +8159,9 @@
       <c r="G262" s="30"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263" spans="1:8" ht="11.25">
+    <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="25"/>
+      <c r="B263" s="24"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8114,9 +8169,9 @@
       <c r="G263" s="30"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="11.25">
       <c r="A264" s="7"/>
-      <c r="B264" s="23"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -8156,7 +8211,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="7"/>
-      <c r="B268" s="24"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="4"/>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
@@ -8186,7 +8241,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="23"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8196,7 +8251,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="24"/>
+      <c r="B272" s="23"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8204,15 +8259,15 @@
       <c r="G272" s="30"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273" spans="1:8" s="2" customFormat="1">
-      <c r="A273" s="4"/>
+    <row r="273" spans="1:8">
+      <c r="A273" s="7"/>
       <c r="B273" s="24"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="4"/>
-      <c r="G273" s="34"/>
-      <c r="H273" s="4"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
+      <c r="F273" s="7"/>
+      <c r="G273" s="30"/>
+      <c r="H273" s="7"/>
     </row>
     <row r="274" spans="1:8" s="2" customFormat="1">
       <c r="A274" s="4"/>
@@ -8224,19 +8279,19 @@
       <c r="G274" s="34"/>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="1:8">
-      <c r="A275" s="7"/>
+    <row r="275" spans="1:8" s="2" customFormat="1">
+      <c r="A275" s="4"/>
       <c r="B275" s="24"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="7"/>
-      <c r="E275" s="7"/>
-      <c r="F275" s="7"/>
-      <c r="G275" s="30"/>
-      <c r="H275" s="7"/>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
+      <c r="G275" s="34"/>
+      <c r="H275" s="4"/>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="7"/>
-      <c r="B276" s="23"/>
+      <c r="B276" s="24"/>
       <c r="C276" s="4"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -8246,7 +8301,7 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="24"/>
+      <c r="B277" s="23"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8276,7 +8331,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="22"/>
+      <c r="B280" s="24"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8286,7 +8341,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="7"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8306,7 +8361,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="20"/>
+      <c r="B283" s="7"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8326,7 +8381,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="7"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8357,7 +8412,7 @@
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
-      <c r="C288" s="7"/>
+      <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
@@ -8366,7 +8421,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
-      <c r="B289" s="6"/>
+      <c r="B289" s="7"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
@@ -8376,7 +8431,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="7"/>
+      <c r="B290" s="6"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -8456,7 +8511,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="7"/>
-      <c r="B298" s="6"/>
+      <c r="B298" s="7"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
@@ -8466,8 +8521,8 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="4"/>
-      <c r="C299" s="4"/>
+      <c r="B299" s="6"/>
+      <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="7"/>
@@ -8476,7 +8531,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="19"/>
+      <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -8506,7 +8561,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="4"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -8566,7 +8621,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="7"/>
-      <c r="B309" s="19"/>
+      <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -8586,7 +8641,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="21"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8596,8 +8651,8 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="7"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="21"/>
+      <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
       <c r="F312" s="7"/>
@@ -8606,7 +8661,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="6"/>
+      <c r="B313" s="7"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -8614,15 +8669,15 @@
       <c r="G313" s="30"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8" s="2" customFormat="1">
-      <c r="A314" s="4"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="4"/>
-      <c r="F314" s="4"/>
-      <c r="G314" s="34"/>
-      <c r="H314" s="4"/>
+    <row r="314" spans="1:8">
+      <c r="A314" s="7"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="7"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="7"/>
+      <c r="F314" s="7"/>
+      <c r="G314" s="30"/>
+      <c r="H314" s="7"/>
     </row>
     <row r="315" spans="1:8" s="2" customFormat="1">
       <c r="A315" s="4"/>
@@ -8646,7 +8701,7 @@
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
-      <c r="B317" s="19"/>
+      <c r="B317" s="4"/>
       <c r="C317" s="9"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
@@ -8696,8 +8751,8 @@
     </row>
     <row r="322" spans="1:8" s="2" customFormat="1">
       <c r="A322" s="4"/>
-      <c r="B322" s="26"/>
-      <c r="C322" s="4"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="9"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
@@ -8746,7 +8801,7 @@
     </row>
     <row r="327" spans="1:8" s="2" customFormat="1">
       <c r="A327" s="4"/>
-      <c r="B327" s="21"/>
+      <c r="B327" s="26"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
@@ -8796,7 +8851,7 @@
     </row>
     <row r="332" spans="1:8" s="2" customFormat="1">
       <c r="A332" s="4"/>
-      <c r="B332" s="19"/>
+      <c r="B332" s="21"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
@@ -8806,7 +8861,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="21"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -8816,7 +8871,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="4"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -8824,20 +8879,20 @@
       <c r="G334" s="34"/>
       <c r="H334" s="4"/>
     </row>
-    <row r="335" spans="1:8">
-      <c r="A335" s="7"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="7"/>
-      <c r="F335" s="7"/>
-      <c r="G335" s="30"/>
-      <c r="H335" s="7"/>
+    <row r="335" spans="1:8" s="2" customFormat="1">
+      <c r="A335" s="4"/>
+      <c r="B335" s="4"/>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+      <c r="G335" s="34"/>
+      <c r="H335" s="4"/>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" s="7"/>
-      <c r="B336" s="7"/>
-      <c r="C336" s="4"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="7"/>
       <c r="D336" s="7"/>
       <c r="E336" s="7"/>
       <c r="F336" s="7"/>
@@ -8906,7 +8961,7 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" s="7"/>
-      <c r="B343" s="4"/>
+      <c r="B343" s="7"/>
       <c r="C343" s="4"/>
       <c r="D343" s="7"/>
       <c r="E343" s="7"/>
@@ -8917,7 +8972,7 @@
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
       <c r="B344" s="4"/>
-      <c r="C344" s="7"/>
+      <c r="C344" s="4"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
@@ -8926,7 +8981,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="6"/>
+      <c r="B345" s="4"/>
       <c r="C345" s="7"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -8936,7 +8991,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -8946,7 +9001,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="22"/>
+      <c r="B347" s="7"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -8956,7 +9011,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="22"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -8996,7 +9051,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" s="7"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="7"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7"/>
       <c r="E352" s="7"/>
@@ -9006,7 +9061,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="7"/>
+      <c r="B353" s="6"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -9016,7 +9071,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="20"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -9046,7 +9101,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="22"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9056,7 +9111,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="20"/>
+      <c r="B358" s="22"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9076,7 +9131,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9086,7 +9141,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9096,7 +9151,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9106,7 +9161,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9136,7 +9191,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="7"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9146,7 +9201,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="27"/>
+      <c r="B367" s="7"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9156,7 +9211,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="22"/>
+      <c r="B368" s="27"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9166,8 +9221,8 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
       <c r="F369" s="7"/>
@@ -9176,7 +9231,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="20"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="4"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9206,7 +9261,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9236,7 +9291,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="20"/>
+      <c r="B376" s="7"/>
       <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9256,8 +9311,8 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="7"/>
-      <c r="C378" s="7"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="4"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
       <c r="F378" s="7"/>
@@ -9266,7 +9321,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="6"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9276,7 +9331,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9336,7 +9391,7 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" s="7"/>
-      <c r="B386" s="6"/>
+      <c r="B386" s="7"/>
       <c r="C386" s="7"/>
       <c r="D386" s="7"/>
       <c r="E386" s="7"/>
@@ -9346,7 +9401,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="7"/>
+      <c r="B387" s="6"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9367,7 +9422,7 @@
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
-      <c r="C389" s="4"/>
+      <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
       <c r="F389" s="7"/>
@@ -9376,7 +9431,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="20"/>
+      <c r="B390" s="7"/>
       <c r="C390" s="4"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9387,7 +9442,7 @@
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
       <c r="B391" s="20"/>
-      <c r="C391" s="7"/>
+      <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
@@ -9396,7 +9451,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="27"/>
+      <c r="B392" s="20"/>
       <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9406,7 +9461,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="22"/>
+      <c r="B393" s="27"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9456,7 +9511,7 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" s="7"/>
-      <c r="B398" s="7"/>
+      <c r="B398" s="22"/>
       <c r="C398" s="7"/>
       <c r="D398" s="7"/>
       <c r="E398" s="7"/>
@@ -9466,7 +9521,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="6"/>
+      <c r="B399" s="7"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9476,7 +9531,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="6"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9486,7 +9541,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="20"/>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9496,7 +9551,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="22"/>
+      <c r="B402" s="20"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9516,7 +9571,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="22"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9556,7 +9611,7 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" s="7"/>
-      <c r="B408" s="7"/>
+      <c r="B408" s="20"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -9566,7 +9621,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="20"/>
+      <c r="B409" s="7"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9586,7 +9641,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="22"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9596,7 +9651,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="7"/>
+      <c r="B412" s="22"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9606,7 +9661,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="6"/>
+      <c r="B413" s="7"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9616,7 +9671,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9636,7 +9691,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9646,7 +9701,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9656,7 +9711,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="20"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9676,7 +9731,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="20"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9686,7 +9741,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9696,7 +9751,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9746,7 +9801,7 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" s="7"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="7"/>
       <c r="C427" s="7"/>
       <c r="D427" s="7"/>
       <c r="E427" s="7"/>
@@ -9756,7 +9811,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9816,7 +9871,7 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" s="7"/>
-      <c r="B434" s="6"/>
+      <c r="B434" s="7"/>
       <c r="C434" s="7"/>
       <c r="D434" s="7"/>
       <c r="E434" s="7"/>
@@ -9826,7 +9881,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9846,7 +9901,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -9856,7 +9911,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="4"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -9876,7 +9931,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="7"/>
+      <c r="B440" s="4"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -9906,7 +9961,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="7"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -9916,8 +9971,8 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="7"/>
-      <c r="C444" s="4"/>
+      <c r="B444" s="6"/>
+      <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
       <c r="F444" s="7"/>
@@ -9967,7 +10022,7 @@
     <row r="449" spans="1:8">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
-      <c r="C449" s="7"/>
+      <c r="C449" s="4"/>
       <c r="D449" s="7"/>
       <c r="E449" s="7"/>
       <c r="F449" s="7"/>
@@ -9976,7 +10031,7 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="7"/>
       <c r="C450" s="7"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
@@ -9986,8 +10041,8 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="7"/>
-      <c r="C451" s="4"/>
+      <c r="B451" s="6"/>
+      <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -10027,7 +10082,7 @@
     <row r="455" spans="1:8">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
-      <c r="C455" s="7"/>
+      <c r="C455" s="4"/>
       <c r="D455" s="7"/>
       <c r="E455" s="7"/>
       <c r="F455" s="7"/>
@@ -10036,7 +10091,7 @@
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="7"/>
       <c r="C456" s="7"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
@@ -10046,7 +10101,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="22"/>
+      <c r="B457" s="6"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -10106,7 +10161,7 @@
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="7"/>
-      <c r="B463" s="7"/>
+      <c r="B463" s="22"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -10116,7 +10171,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="6"/>
+      <c r="B464" s="7"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -10126,7 +10181,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="22"/>
+      <c r="B465" s="6"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -10155,8 +10210,8 @@
       <c r="H467" s="7"/>
     </row>
     <row r="468" spans="1:8">
-      <c r="A468" s="6"/>
-      <c r="B468" s="7"/>
+      <c r="A468" s="7"/>
+      <c r="B468" s="22"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -10165,7 +10220,7 @@
       <c r="H468" s="7"/>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="7"/>
+      <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
@@ -10206,7 +10261,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="7"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -10236,7 +10291,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="7"/>
+      <c r="B476" s="28"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10246,7 +10301,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="28"/>
+      <c r="B477" s="7"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10256,7 +10311,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="28"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -10266,21 +10321,21 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="29"/>
-      <c r="C479" s="30"/>
+      <c r="B479" s="7"/>
+      <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
-      <c r="F479" s="29"/>
+      <c r="F479" s="7"/>
       <c r="G479" s="30"/>
       <c r="H479" s="7"/>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
-      <c r="C480" s="7"/>
+      <c r="B480" s="29"/>
+      <c r="C480" s="30"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
-      <c r="F480" s="7"/>
+      <c r="F480" s="29"/>
       <c r="G480" s="30"/>
       <c r="H480" s="7"/>
     </row>
@@ -14184,6 +14239,16 @@
       <c r="G870" s="30"/>
       <c r="H870" s="7"/>
     </row>
+    <row r="871" spans="1:8">
+      <c r="A871" s="7"/>
+      <c r="B871" s="7"/>
+      <c r="C871" s="7"/>
+      <c r="D871" s="7"/>
+      <c r="E871" s="7"/>
+      <c r="F871" s="7"/>
+      <c r="G871" s="30"/>
+      <c r="H871" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -928,7 +928,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955136"/>
+          <c:w val="0.91978071330955158"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1341,26 +1341,26 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133340544"/>
-        <c:axId val="133104768"/>
+        <c:axId val="168861056"/>
+        <c:axId val="168690816"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133340544"/>
+        <c:axId val="168861056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133104768"/>
+        <c:crossAx val="168690816"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1403,7 +1403,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133104768"/>
+        <c:axId val="168690816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133340544"/>
+        <c:crossAx val="168861056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,7 +1468,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218364"/>
+          <c:y val="0.33819556996218375"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1535,7 +1535,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,7 +1589,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127519E-2"/>
+          <c:x val="4.4510450248127532E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1692,20 +1692,20 @@
                   <c:v>0.23923444976076555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24401913875598086</c:v>
+                  <c:v>0.24285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24401913875598086</c:v>
+                  <c:v>0.24285714285714285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133128576"/>
-        <c:axId val="133130112"/>
+        <c:axId val="168714624"/>
+        <c:axId val="168716160"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133128576"/>
+        <c:axId val="168714624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,13 +1713,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="133130112"/>
+        <c:crossAx val="168716160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133130112"/>
+        <c:axId val="168716160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1762,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133128576"/>
+        <c:crossAx val="168714624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +1811,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2043,11 +2043,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="133155072"/>
-        <c:axId val="133160960"/>
+        <c:axId val="168741120"/>
+        <c:axId val="168747008"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="133155072"/>
+        <c:axId val="168741120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133160960"/>
+        <c:crossAx val="168747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2089,7 +2089,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="133160960"/>
+        <c:axId val="168747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133155072"/>
+        <c:crossAx val="168741120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,7 +2180,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001332" r="0.75000000000001332" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5361,7 +5361,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5795,12 +5795,12 @@
         <v>0</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="48"/>
       <c r="G56" s="30">
         <f t="shared" si="2"/>
-        <v>0.24401913875598086</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="H56" s="7"/>
     </row>
@@ -5818,12 +5818,12 @@
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="30">
         <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
-        <v>0.24401913875598086</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="G60" s="38">
         <f>MIN(G57)</f>
-        <v>0.24401913875598086</v>
+        <v>0.24285714285714285</v>
       </c>
       <c r="H60" s="7"/>
     </row>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="E61" s="18">
         <f>MIN(E57)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
   <si>
     <t>Feature</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>expand selection shape of the first/last line to the left/right border, considering LTR/RTL</t>
+  </si>
+  <si>
+    <t>show line numbers property</t>
   </si>
 </sst>
 </file>
@@ -928,7 +931,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955158"/>
+          <c:w val="0.91978071330955191"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1032,7 +1035,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,7 +1139,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,23 +1347,23 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="168861056"/>
-        <c:axId val="168690816"/>
+        <c:axId val="173579648"/>
+        <c:axId val="173343872"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="168861056"/>
+        <c:axId val="173579648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1393,7 +1396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168690816"/>
+        <c:crossAx val="173343872"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1403,7 +1406,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168690816"/>
+        <c:axId val="173343872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168861056"/>
+        <c:crossAx val="173579648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1468,7 +1471,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218375"/>
+          <c:y val="0.33819556996218392"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1535,7 +1538,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1589,7 +1592,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127532E-2"/>
+          <c:x val="4.4510450248127546E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1695,17 +1698,17 @@
                   <c:v>0.24285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24285714285714285</c:v>
+                  <c:v>0.26190476190476192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="168714624"/>
-        <c:axId val="168716160"/>
+        <c:axId val="173367680"/>
+        <c:axId val="173369216"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="168714624"/>
+        <c:axId val="173367680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,13 +1716,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="168716160"/>
+        <c:crossAx val="173369216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168716160"/>
+        <c:axId val="173369216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1762,7 +1765,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168714624"/>
+        <c:crossAx val="173367680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,7 +1814,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1933,7 +1936,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,11 +2046,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="168741120"/>
-        <c:axId val="168747008"/>
+        <c:axId val="173394176"/>
+        <c:axId val="173404160"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="168741120"/>
+        <c:axId val="173394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,7 +2083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168747008"/>
+        <c:crossAx val="173404160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2089,7 +2092,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="168747008"/>
+        <c:axId val="173404160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168741120"/>
+        <c:crossAx val="173394176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2180,7 +2183,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001343" r="0.75000000000001343" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2638,10 +2641,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D376"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2819,7 +2822,7 @@
         <v>104</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4"/>
     </row>
@@ -2946,7 +2949,7 @@
         <v>181</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D41" s="4"/>
     </row>
@@ -2955,7 +2958,7 @@
         <v>182</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4"/>
     </row>
@@ -5071,40 +5074,32 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="22"/>
+      <c r="B338" s="20"/>
       <c r="C338" s="7"/>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
       <c r="B339" s="22" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="7"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22"/>
+      <c r="B341" s="20"/>
       <c r="C341" s="7"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="7"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
@@ -5113,13 +5108,21 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22"/>
-      <c r="C344" s="7"/>
+      <c r="B344" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22"/>
-      <c r="C345" s="7"/>
+      <c r="B345" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
@@ -5129,81 +5132,85 @@
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D347" s="4"/>
+    </row>
+    <row r="348" spans="2:4" s="6" customFormat="1">
+      <c r="B348" s="22"/>
+      <c r="C348" s="7"/>
+      <c r="D348" s="4"/>
+    </row>
+    <row r="349" spans="2:4" s="6" customFormat="1">
+      <c r="B349" s="22"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="22"/>
+      <c r="C350" s="7"/>
+      <c r="D350" s="4"/>
+    </row>
+    <row r="351" spans="2:4" s="6" customFormat="1">
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="4"/>
+    </row>
+    <row r="352" spans="2:4" s="6" customFormat="1">
+      <c r="B352" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="20" t="s">
+      <c r="C352" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C348" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D348" s="4"/>
-    </row>
-    <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="20" t="s">
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C349" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="20" t="s">
+      <c r="C354" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D354" s="4"/>
+    </row>
+    <row r="355" spans="2:4" s="6" customFormat="1">
+      <c r="B355" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C350" s="7" t="s">
+      <c r="C355" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D350" s="4"/>
-    </row>
-    <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20" t="s">
+      <c r="D355" s="4"/>
+    </row>
+    <row r="356" spans="2:4" s="6" customFormat="1">
+      <c r="B356" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20" t="s">
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D356" s="4"/>
+    </row>
+    <row r="357" spans="2:4" s="6" customFormat="1">
+      <c r="B357" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
-      <c r="C353" s="7"/>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="7"/>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22"/>
-      <c r="C355" s="7"/>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="7"/>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="7"/>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
@@ -5248,94 +5255,119 @@
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
       <c r="B366" s="22"/>
-      <c r="C366" s="4"/>
+      <c r="C366" s="7"/>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="19"/>
-      <c r="C367" s="4"/>
+      <c r="B367" s="22"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="21"/>
-      <c r="C368" s="4"/>
+      <c r="B368" s="22"/>
+      <c r="C368" s="7"/>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="1:4" s="6" customFormat="1">
-      <c r="B369" s="21"/>
-      <c r="C369" s="4"/>
+      <c r="B369" s="22"/>
+      <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="3"/>
-      <c r="B370" s="11"/>
-      <c r="C370" s="11"/>
-      <c r="D370" s="3"/>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="3"/>
-      <c r="B371" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C371" s="6">
-        <f>COUNTIF(C5:C370,"y")</f>
-        <v>51</v>
-      </c>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="3"/>
-      <c r="B372" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C372" s="6">
-        <f>COUNTIF(C5:C370,"n")</f>
-        <v>158</v>
-      </c>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="3"/>
-      <c r="B373" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C373" s="7">
-        <f>COUNTIF(C5:C370,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="3"/>
-      <c r="B374" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C374">
-        <f>SUM(C371:C373)</f>
-        <v>209</v>
-      </c>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="1:4" ht="18">
+    <row r="370" spans="1:4" s="6" customFormat="1">
+      <c r="B370" s="22"/>
+      <c r="C370" s="7"/>
+      <c r="D370" s="4"/>
+    </row>
+    <row r="371" spans="1:4" s="6" customFormat="1">
+      <c r="B371" s="22"/>
+      <c r="C371" s="4"/>
+      <c r="D371" s="4"/>
+    </row>
+    <row r="372" spans="1:4" s="6" customFormat="1">
+      <c r="B372" s="19"/>
+      <c r="C372" s="4"/>
+      <c r="D372" s="4"/>
+    </row>
+    <row r="373" spans="1:4" s="6" customFormat="1">
+      <c r="B373" s="21"/>
+      <c r="C373" s="4"/>
+      <c r="D373" s="4"/>
+    </row>
+    <row r="374" spans="1:4" s="6" customFormat="1">
+      <c r="B374" s="21"/>
+      <c r="C374" s="4"/>
+      <c r="D374" s="4"/>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="3"/>
-      <c r="B375" s="10"/>
-      <c r="C375" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D375" s="41">
-        <f>C371/(C372+C371 + C373)</f>
-        <v>0.24401913875598086</v>
-      </c>
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="3"/>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="3"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="11"/>
-      <c r="D376" s="3"/>
+      <c r="B376" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" s="6">
+        <f>COUNTIF(C5:C375,"y")</f>
+        <v>55</v>
+      </c>
+      <c r="D376" s="2"/>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="3"/>
+      <c r="B377" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" s="6">
+        <f>COUNTIF(C5:C375,"n")</f>
+        <v>155</v>
+      </c>
+      <c r="D377" s="2"/>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="3"/>
+      <c r="B378" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C378" s="7">
+        <f>COUNTIF(C5:C375,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D378" s="2"/>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="3"/>
+      <c r="B379" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <f>SUM(C376:C378)</f>
+        <v>210</v>
+      </c>
+      <c r="D379" s="2"/>
+    </row>
+    <row r="380" spans="1:4" ht="18">
+      <c r="A380" s="3"/>
+      <c r="B380" s="10"/>
+      <c r="C380" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D380" s="41">
+        <f>C376/(C377+C376 + C378)</f>
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="3"/>
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C271:C65124 C241:C269 C1:C3 C6:C239">
+  <conditionalFormatting sqref="C271:C65129 C241:C269 C1:C3 C6:C239">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5361,7 +5393,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5809,21 +5841,21 @@
         <v>42945</v>
       </c>
       <c r="B57" s="4">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C57" s="4">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="30">
         <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
-        <v>0.24285714285714285</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -5868,30 +5900,30 @@
       </c>
       <c r="G60" s="38">
         <f>MIN(G57)</f>
-        <v>0.24285714285714285</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="39">
         <f>SUM(B61:D61)</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="15">
-        <f>Features!C371</f>
-        <v>51</v>
+        <f>Features!C376</f>
+        <v>55</v>
       </c>
       <c r="C61" s="16">
-        <f>Features!C372</f>
-        <v>158</v>
+        <f>Features!C377</f>
+        <v>155</v>
       </c>
       <c r="D61" s="17">
-        <f>Features!C373</f>
+        <f>Features!C378</f>
         <v>0</v>
       </c>
       <c r="E61" s="18">
         <f>MIN(E57)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="30"/>
@@ -5934,7 +5966,7 @@
       </c>
       <c r="B65" s="49">
         <f>(A57-A48)*A61/B61 +A48</f>
-        <v>43707.117647058825</v>
+        <v>43638.272727272728</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="219">
   <si>
     <t>Feature</t>
   </si>
@@ -672,6 +672,9 @@
   </si>
   <si>
     <t>show line numbers property</t>
+  </si>
+  <si>
+    <t>highlight caret line property</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955191"/>
+          <c:w val="0.91978071330955202"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1035,7 +1038,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1142,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,11 +1362,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="173579648"/>
-        <c:axId val="173343872"/>
+        <c:axId val="163945856"/>
+        <c:axId val="163710080"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="173579648"/>
+        <c:axId val="163945856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1399,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173343872"/>
+        <c:crossAx val="163710080"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1406,7 +1409,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173343872"/>
+        <c:axId val="163710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173579648"/>
+        <c:crossAx val="163945856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1471,7 +1474,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218392"/>
+          <c:y val="0.33819556996218397"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1538,7 +1541,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1592,7 +1595,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127546E-2"/>
+          <c:x val="4.4510450248127567E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1698,17 +1701,17 @@
                   <c:v>0.24285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26190476190476192</c:v>
+                  <c:v>0.29383886255924169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="173367680"/>
-        <c:axId val="173369216"/>
+        <c:axId val="163733888"/>
+        <c:axId val="163735424"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="173367680"/>
+        <c:axId val="163733888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,13 +1719,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="173369216"/>
+        <c:crossAx val="163735424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173369216"/>
+        <c:axId val="163735424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1765,7 +1768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173367680"/>
+        <c:crossAx val="163733888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,7 +1817,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1936,7 +1939,7 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,11 +2049,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="173394176"/>
-        <c:axId val="173404160"/>
+        <c:axId val="163760384"/>
+        <c:axId val="163770368"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="173394176"/>
+        <c:axId val="163760384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2083,7 +2086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173404160"/>
+        <c:crossAx val="163770368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2092,7 +2095,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173404160"/>
+        <c:axId val="163770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173394176"/>
+        <c:crossAx val="163760384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2183,7 +2186,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001366" r="0.75000000000001366" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2641,10 +2644,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:D383"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C340" sqref="C340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2990,31 +2993,27 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:4" s="6" customFormat="1">
+      <c r="B47" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:4" s="6" customFormat="1">
+      <c r="B49" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="20" t="s">
-        <v>188</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3023,30 +3022,30 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="22"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>42</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>2</v>
@@ -3055,34 +3054,34 @@
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
       <c r="B54" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" s="6" customFormat="1">
+      <c r="B55" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22" t="s">
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" s="6" customFormat="1">
+      <c r="B56" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="20" t="s">
+      <c r="C56" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="2:4" s="6" customFormat="1">
+      <c r="B57" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3091,7 +3090,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3100,7 +3099,7 @@
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
       <c r="B59" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -3109,16 +3108,16 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="2:4" s="6" customFormat="1">
+      <c r="B61" s="22" t="s">
         <v>140</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="2:4" s="6" customFormat="1">
-      <c r="B61" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3127,39 +3126,39 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="2:4" s="6" customFormat="1">
+      <c r="B63" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="22" t="s">
+      <c r="C63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="2:4" s="6" customFormat="1">
+      <c r="B64" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="2:4" s="6" customFormat="1">
+      <c r="B66" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="20" t="s">
-        <v>150</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>2</v>
@@ -3168,7 +3167,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3177,7 +3176,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -3186,66 +3185,70 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" s="6" customFormat="1">
+      <c r="B70" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="7"/>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="22"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="20" t="s">
-        <v>189</v>
-      </c>
       <c r="C72" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
       <c r="B74" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="2:4" s="6" customFormat="1">
+      <c r="B76" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:4" s="6" customFormat="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="7"/>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
@@ -3264,17 +3267,13 @@
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="22"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="2:4" s="6" customFormat="1">
+      <c r="B81" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C81" s="7" t="s">
         <v>2</v>
@@ -3283,7 +3282,7 @@
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
       <c r="B82" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>2</v>
@@ -3292,7 +3291,7 @@
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>2</v>
@@ -3301,7 +3300,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>2</v>
@@ -3310,39 +3309,39 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20"/>
-      <c r="C87" s="9"/>
+      <c r="C87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="20"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="22" t="s">
         <v>40</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="20" t="s">
-        <v>57</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>14</v>
@@ -3351,16 +3350,16 @@
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
       <c r="B90" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
       <c r="B91" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>14</v>
@@ -3369,7 +3368,7 @@
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>14</v>
@@ -3378,16 +3377,20 @@
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="2:4" s="6" customFormat="1">
+      <c r="B94" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="7"/>
+      <c r="C94" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
@@ -3416,45 +3419,41 @@
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" s="6" customFormat="1">
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="2:4" s="6" customFormat="1">
+      <c r="B101" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="7"/>
+      <c r="C101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
-      <c r="B102" s="22" t="s">
+      <c r="B102" s="22"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="2:4" s="6" customFormat="1">
+      <c r="B103" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22"/>
-      <c r="C103" s="7"/>
+      <c r="C103" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3463,53 +3462,57 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="2:4" s="6" customFormat="1">
+      <c r="B107" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22"/>
-      <c r="C107" s="7"/>
+      <c r="C107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B108" s="22"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="2:4" s="6" customFormat="1">
+      <c r="B110" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="C109" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="C110" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="22"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="2:4" s="6" customFormat="1">
+      <c r="B112" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22"/>
-      <c r="C112" s="7"/>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
@@ -3523,36 +3526,32 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B115" s="22"/>
       <c r="C115" s="7"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
+      <c r="B116" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
-      <c r="B117" s="22" t="s">
-        <v>117</v>
-      </c>
+      <c r="B117" s="22"/>
       <c r="C117" s="7"/>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B118" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
       <c r="B119" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>14</v>
@@ -3561,7 +3560,7 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>14</v>
@@ -3570,37 +3569,37 @@
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="2:4" s="6" customFormat="1">
+      <c r="B122" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="22"/>
-      <c r="C122" s="7"/>
+      <c r="C122" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="B123" s="22"/>
       <c r="C123" s="7"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C124" s="7"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="23" t="s">
-        <v>52</v>
+      <c r="B125" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>2</v>
@@ -3609,43 +3608,43 @@
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
       <c r="B126" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
+      <c r="C127" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="23" t="s">
+      <c r="C128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="2:4" s="6" customFormat="1">
+      <c r="B129" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="20" t="s">
+      <c r="C129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="2:4" s="6" customFormat="1">
+      <c r="B130" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3653,45 +3652,45 @@
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="20"/>
-      <c r="C131" s="7"/>
+      <c r="B131" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="20"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="2:4" s="6" customFormat="1">
+      <c r="B133" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C132" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23" t="s">
+      <c r="C133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="2:4" s="6" customFormat="1">
+      <c r="B134" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="22"/>
-      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="23" t="s">
-        <v>65</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>14</v>
@@ -3700,30 +3699,30 @@
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
       <c r="B137" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="2:4" s="6" customFormat="1">
+      <c r="B138" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C137" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20"/>
-      <c r="C138" s="7"/>
+      <c r="C138" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="20"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="23" t="s">
-        <v>67</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>2</v>
@@ -3732,53 +3731,53 @@
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
       <c r="B141" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="2:4" s="6" customFormat="1">
+      <c r="B142" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="22"/>
-      <c r="C142" s="7"/>
+      <c r="C142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="22"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="2:4" s="6" customFormat="1">
+      <c r="B144" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C143" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="23" t="s">
+      <c r="C144" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="2:4" s="6" customFormat="1">
+      <c r="B145" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C144" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="22"/>
-      <c r="C145" s="7"/>
+      <c r="C145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
+      <c r="B146" s="22"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="23" t="s">
-        <v>75</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>14</v>
@@ -3787,67 +3786,67 @@
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
       <c r="B148" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="2:4" s="6" customFormat="1">
+      <c r="B149" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C148" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="22"/>
-      <c r="C149" s="7"/>
+      <c r="C149" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="20" t="s">
+      <c r="B150" s="22"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="2:4" s="6" customFormat="1">
+      <c r="B151" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="22"/>
-      <c r="C151" s="7"/>
+      <c r="C151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="20" t="s">
+      <c r="B152" s="22"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="2:4" s="6" customFormat="1">
+      <c r="B153" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C152" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="23" t="s">
+      <c r="C153" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="20"/>
-      <c r="C154" s="7"/>
+      <c r="C154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="20"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" s="6" customFormat="1">
+      <c r="B156" s="20" t="s">
         <v>124</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>14</v>
@@ -3856,30 +3855,30 @@
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C157" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="22"/>
-      <c r="C158" s="7"/>
+      <c r="C158" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="2:4" s="6" customFormat="1">
+      <c r="B160" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3888,30 +3887,30 @@
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
       <c r="B161" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="20"/>
-      <c r="C162" s="7"/>
+      <c r="C162" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="20"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="2:4" s="6" customFormat="1">
+      <c r="B164" s="20" t="s">
         <v>130</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -3920,30 +3919,30 @@
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
       <c r="B165" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="2:4" s="6" customFormat="1">
+      <c r="B166" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C165" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="20"/>
-      <c r="C166" s="7"/>
+      <c r="C166" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="20"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:4" s="6" customFormat="1">
+      <c r="B168" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -3952,51 +3951,51 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="2:4" s="6" customFormat="1">
+      <c r="B170" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="23"/>
-      <c r="C170" s="7"/>
+      <c r="C170" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="20" t="s">
+      <c r="B171" s="23"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C171" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20"/>
-      <c r="C172" s="7"/>
+      <c r="C172" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="B173" s="20"/>
       <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C174" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C174" s="7"/>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="23" t="s">
-        <v>212</v>
+      <c r="B175" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C175" s="7" t="s">
         <v>14</v>
@@ -4005,94 +4004,98 @@
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C176" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20" t="s">
+      <c r="C177" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C177" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="22"/>
-      <c r="C178" s="7"/>
+      <c r="C178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="20" t="s">
+      <c r="B179" s="22"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="2:4" s="6" customFormat="1">
+      <c r="B180" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C179" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="23" t="s">
+      <c r="C180" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="2:4" s="6" customFormat="1">
+      <c r="B181" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C180" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="22"/>
-      <c r="C181" s="7"/>
+      <c r="C181" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="20" t="s">
+      <c r="B182" s="22"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="23" t="s">
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="2:4" s="6" customFormat="1">
+      <c r="B184" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C183" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20" t="s">
+      <c r="B185" s="22"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23" t="s">
+      <c r="C186" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="2:4" s="6" customFormat="1">
+      <c r="B187" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="20"/>
-      <c r="C187" s="7"/>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
@@ -4101,17 +4104,13 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="27" t="s">
+      <c r="B189" s="20"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="27" t="s">
         <v>133</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4120,7 +4119,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4128,8 +4127,8 @@
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="22" t="s">
-        <v>164</v>
+      <c r="B192" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4137,8 +4136,8 @@
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>85</v>
+      <c r="B193" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4147,7 +4146,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4155,55 +4154,56 @@
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="22"/>
-      <c r="C195" s="7"/>
+      <c r="B195" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="7"/>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="4"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="7"/>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B199" s="4"/>
       <c r="C199" s="7"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="2:4">
+    <row r="200" spans="2:4" s="6" customFormat="1">
+      <c r="B200" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C200" s="7"/>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4">
-      <c r="B201" s="43" t="s">
+      <c r="C201" s="7"/>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="C201" s="7"/>
-    </row>
-    <row r="202" spans="2:4">
       <c r="C202" s="7"/>
     </row>
     <row r="203" spans="2:4">
-      <c r="B203" t="s">
-        <v>81</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C203" s="7"/>
     </row>
     <row r="204" spans="2:4">
       <c r="B204" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C204" s="9" t="s">
         <v>14</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="205" spans="2:4">
       <c r="B205" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C205" s="9" t="s">
         <v>14</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="206" spans="2:4">
       <c r="B206" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>14</v>
@@ -4227,15 +4227,15 @@
     </row>
     <row r="207" spans="2:4">
       <c r="B207" t="s">
-        <v>85</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>2</v>
@@ -4243,55 +4243,55 @@
     </row>
     <row r="209" spans="2:3">
       <c r="B209" t="s">
+        <v>86</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
         <v>87</v>
       </c>
-      <c r="C209" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" s="44" t="s">
+      <c r="C210" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C210" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="211" spans="2:3">
-      <c r="B211" t="s">
+      <c r="C211" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" t="s">
         <v>88</v>
       </c>
-      <c r="C211" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3">
-      <c r="B212" s="44" t="s">
+      <c r="C212" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C212" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3">
-      <c r="B213" t="s">
+      <c r="C213" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
         <v>91</v>
       </c>
-      <c r="C213" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3">
-      <c r="B214" s="44" t="s">
+      <c r="C214" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3">
-      <c r="B215" s="45" t="s">
-        <v>102</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>14</v>
@@ -4299,15 +4299,19 @@
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C216" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="44"/>
-      <c r="C217" s="9"/>
+      <c r="C217" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="44"/>
@@ -4318,6 +4322,7 @@
       <c r="C219" s="9"/>
     </row>
     <row r="220" spans="2:3">
+      <c r="B220" s="44"/>
       <c r="C220" s="9"/>
     </row>
     <row r="221" spans="2:3">
@@ -4330,25 +4335,20 @@
       <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="43" t="s">
+      <c r="C224" s="9"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C224" s="9"/>
-    </row>
-    <row r="225" spans="2:3">
       <c r="C225" s="9"/>
     </row>
     <row r="226" spans="2:3">
-      <c r="B226" t="s">
-        <v>110</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C227" s="7" t="s">
         <v>14</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="228" spans="2:3">
       <c r="B228" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>14</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="229" spans="2:3">
       <c r="B229" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="230" spans="2:3">
       <c r="B230" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>14</v>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>14</v>
@@ -4388,14 +4388,19 @@
     </row>
     <row r="232" spans="2:3">
       <c r="B232" t="s">
+        <v>115</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" t="s">
         <v>147</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="2:3">
       <c r="C234" s="9"/>
@@ -4404,97 +4409,97 @@
       <c r="C235" s="9"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="43" t="s">
+      <c r="C236" s="9"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C236" s="9"/>
-    </row>
-    <row r="237" spans="2:3">
       <c r="C237" s="9"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" t="s">
-        <v>134</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
+        <v>134</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" t="s">
         <v>101</v>
       </c>
-      <c r="C239" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="B241" t="s">
-        <v>80</v>
-      </c>
-      <c r="C241" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>93</v>
-      </c>
-      <c r="C242" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C242" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" t="s">
+        <v>93</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" t="s">
         <v>94</v>
       </c>
-      <c r="C243" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="C244" s="9"/>
+      <c r="C244" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="45" t="s">
+      <c r="C245" s="9"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C245" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="C246" s="9"/>
+      <c r="C246" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="45" t="s">
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C247" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="B248" t="s">
+      <c r="C248" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
         <v>99</v>
       </c>
-      <c r="C248" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="C249" s="9"/>
+      <c r="C249" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="250" spans="2:3">
-      <c r="B250" t="s">
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" t="s">
         <v>186</v>
       </c>
-      <c r="C250" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="C251" s="9"/>
+      <c r="C251" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="252" spans="2:3">
       <c r="C252" s="9"/>
@@ -4512,67 +4517,67 @@
       <c r="C256" s="9"/>
     </row>
     <row r="257" spans="2:4">
-      <c r="B257" s="3" t="s">
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="2:4">
+      <c r="B258" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C257" s="9"/>
-    </row>
-    <row r="258" spans="2:4">
-      <c r="B258" t="s">
-        <v>49</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="2:4">
       <c r="B259" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="2:4">
       <c r="B260" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4">
+      <c r="B261" t="s">
         <v>51</v>
       </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="C261" s="9"/>
+      <c r="C261" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="262" spans="2:4">
-      <c r="B262" t="s">
-        <v>96</v>
-      </c>
-      <c r="C262" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C262" s="9"/>
     </row>
     <row r="263" spans="2:4">
       <c r="B263" t="s">
+        <v>96</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4">
+      <c r="B264" t="s">
         <v>97</v>
       </c>
-      <c r="C263" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="C264" s="9"/>
+      <c r="C264" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="265" spans="2:4">
-      <c r="B265" t="s">
+      <c r="C265" s="9"/>
+    </row>
+    <row r="266" spans="2:4">
+      <c r="B266" t="s">
         <v>147</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C266" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="2:4">
       <c r="C267" s="9"/>
@@ -4583,30 +4588,24 @@
     <row r="269" spans="2:4">
       <c r="C269" s="9"/>
     </row>
-    <row r="271" spans="2:4" s="6" customFormat="1">
-      <c r="B271" s="3" t="s">
+    <row r="270" spans="2:4">
+      <c r="C270" s="9"/>
+    </row>
+    <row r="272" spans="2:4" s="6" customFormat="1">
+      <c r="B272" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C271" s="7"/>
-      <c r="D271" s="4"/>
-    </row>
-    <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="22"/>
       <c r="C272" s="7"/>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B273" s="22"/>
+      <c r="C273" s="7"/>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" s="6" customFormat="1">
       <c r="B274" s="22" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C274" s="7" t="s">
         <v>2</v>
@@ -4615,133 +4614,133 @@
     </row>
     <row r="275" spans="2:4" s="6" customFormat="1">
       <c r="B275" s="22" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="2:4" s="6" customFormat="1">
       <c r="B276" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22"/>
-      <c r="C277" s="7"/>
+      <c r="C277" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="2:4" s="6" customFormat="1">
+      <c r="B280" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C279" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22"/>
-      <c r="C280" s="7"/>
+      <c r="C280" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" t="s">
+      <c r="B281" s="22"/>
+      <c r="C281" s="7"/>
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="2:4" s="6" customFormat="1">
+      <c r="B282" t="s">
         <v>147</v>
       </c>
-      <c r="C281" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22"/>
-      <c r="C282" s="7"/>
+      <c r="C282" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B283" s="22"/>
+      <c r="C283" s="7"/>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="2:4" s="6" customFormat="1">
+      <c r="B285" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="C284" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="C285" s="7"/>
+      <c r="C285" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="9" t="s">
+      <c r="C286" s="7"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C286" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22"/>
-      <c r="C287" s="7"/>
+      <c r="C287" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22" t="s">
+      <c r="B288" s="22"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="2:4" s="6" customFormat="1">
+      <c r="B289" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22"/>
-      <c r="C289" s="7"/>
+      <c r="C289" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="B290" s="22"/>
       <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B291" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C291" s="7"/>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
       <c r="B292" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C292" s="7" t="s">
         <v>14</v>
@@ -4750,7 +4749,7 @@
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
       <c r="B293" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>14</v>
@@ -4759,7 +4758,7 @@
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
       <c r="B294" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C294" s="7" t="s">
         <v>14</v>
@@ -4768,53 +4767,57 @@
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
       <c r="B295" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="2:4" s="6" customFormat="1">
+      <c r="B296" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22"/>
-      <c r="C296" s="7"/>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B297" s="22"/>
+      <c r="C297" s="7"/>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="2:4" s="6" customFormat="1">
+      <c r="B299" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="4"/>
-    </row>
-    <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22"/>
-      <c r="C299" s="7"/>
+      <c r="C299" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22" t="s">
+      <c r="B300" s="22"/>
+      <c r="C300" s="7"/>
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="2:4" s="6" customFormat="1">
+      <c r="B301" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C300" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D300" s="4"/>
-    </row>
-    <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="7"/>
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
@@ -4833,38 +4836,34 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B305" s="22"/>
       <c r="C305" s="7"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22"/>
+      <c r="B306" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B307" s="22"/>
+      <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
       <c r="B308" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
       <c r="B309" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C309" s="7" t="s">
         <v>2</v>
@@ -4873,53 +4872,53 @@
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
       <c r="B310" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C310" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
-      <c r="C311" s="7"/>
+      <c r="C311" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B312" s="22"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C313" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D313" s="4"/>
+    </row>
+    <row r="314" spans="2:4" s="6" customFormat="1">
+      <c r="B314" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C313" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D313" s="4"/>
-    </row>
-    <row r="314" spans="2:4" s="6" customFormat="1">
-      <c r="B314" s="22"/>
-      <c r="C314" s="7"/>
+      <c r="C314" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B315" s="22"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C316" s="7" t="s">
         <v>14</v>
@@ -4928,44 +4927,48 @@
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D317" s="4"/>
+    </row>
+    <row r="318" spans="2:4" s="6" customFormat="1">
+      <c r="B318" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C317" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D317" s="4"/>
-    </row>
-    <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22"/>
-      <c r="C318" s="7"/>
+      <c r="C318" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22" t="s">
+      <c r="B319" s="22"/>
+      <c r="C319" s="7"/>
+      <c r="D319" s="4"/>
+    </row>
+    <row r="320" spans="2:4" s="6" customFormat="1">
+      <c r="B320" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C319" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22"/>
-      <c r="C320" s="7"/>
+      <c r="C320" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22" t="s">
+      <c r="B321" s="22"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="4"/>
+    </row>
+    <row r="322" spans="2:4" s="6" customFormat="1">
+      <c r="B322" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C321" s="7" t="s">
+      <c r="C322" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D321" s="4"/>
-    </row>
-    <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="22"/>
-      <c r="C322" s="7"/>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
@@ -4989,36 +4992,32 @@
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="B327" s="22"/>
       <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="22"/>
+      <c r="B328" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C328" s="7"/>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="2:4" s="6" customFormat="1">
-      <c r="B329" s="22" t="s">
-        <v>152</v>
-      </c>
+      <c r="B329" s="22"/>
       <c r="C329" s="7"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B330" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C330" s="7"/>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
       <c r="B331" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C331" s="7" t="s">
         <v>2</v>
@@ -5027,46 +5026,46 @@
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
       <c r="B332" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
       <c r="B333" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C333" s="7" t="s">
+      <c r="C334" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="B335" s="22"/>
       <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C336" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B336" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C336" s="7"/>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>2</v>
@@ -5074,13 +5073,17 @@
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="20"/>
-      <c r="C338" s="7"/>
+      <c r="B338" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22" t="s">
-        <v>217</v>
+      <c r="B339" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="C339" s="7" t="s">
         <v>2</v>
@@ -5093,8 +5096,12 @@
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="20"/>
-      <c r="C341" s="7"/>
+      <c r="B341" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
@@ -5103,36 +5110,32 @@
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="22"/>
+      <c r="B343" s="20"/>
       <c r="C343" s="7"/>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="22" t="s">
+      <c r="B344" s="20"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C344" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C345" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
       <c r="B347" s="22" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -5145,8 +5148,12 @@
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22"/>
-      <c r="C349" s="7"/>
+      <c r="B349" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
@@ -5160,26 +5167,18 @@
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22" t="s">
+      <c r="B352" s="22"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="4"/>
+    </row>
+    <row r="353" spans="2:4" s="6" customFormat="1">
+      <c r="B353" s="22"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22" t="s">
         <v>203</v>
-      </c>
-      <c r="C352" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C353" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="20" t="s">
-        <v>206</v>
       </c>
       <c r="C354" s="7" t="s">
         <v>14</v>
@@ -5188,16 +5187,16 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
       <c r="B356" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C356" s="7" t="s">
         <v>14</v>
@@ -5206,21 +5205,29 @@
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
       <c r="B357" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C358" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C357" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="7"/>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="7"/>
+      <c r="C359" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
@@ -5280,94 +5287,104 @@
     </row>
     <row r="371" spans="1:4" s="6" customFormat="1">
       <c r="B371" s="22"/>
-      <c r="C371" s="4"/>
+      <c r="C371" s="7"/>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="1:4" s="6" customFormat="1">
-      <c r="B372" s="19"/>
-      <c r="C372" s="4"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="1:4" s="6" customFormat="1">
-      <c r="B373" s="21"/>
+      <c r="B373" s="22"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:4" s="6" customFormat="1">
-      <c r="B374" s="21"/>
+      <c r="B374" s="19"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="3"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="11"/>
-      <c r="D375" s="3"/>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="3"/>
-      <c r="B376" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C376" s="6">
-        <f>COUNTIF(C5:C375,"y")</f>
-        <v>55</v>
-      </c>
-      <c r="D376" s="2"/>
+    <row r="375" spans="1:4" s="6" customFormat="1">
+      <c r="B375" s="21"/>
+      <c r="C375" s="4"/>
+      <c r="D375" s="4"/>
+    </row>
+    <row r="376" spans="1:4" s="6" customFormat="1">
+      <c r="B376" s="21"/>
+      <c r="C376" s="4"/>
+      <c r="D376" s="4"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="3"/>
-      <c r="B377" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C377" s="6">
-        <f>COUNTIF(C5:C375,"n")</f>
-        <v>155</v>
-      </c>
-      <c r="D377" s="2"/>
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="3"/>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="3"/>
       <c r="B378" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C378" s="7">
-        <f>COUNTIF(C5:C375,"TBD")</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C378" s="6">
+        <f>COUNTIF(C5:C377,"y")</f>
+        <v>62</v>
       </c>
       <c r="D378" s="2"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="3"/>
       <c r="B379" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379">
-        <f>SUM(C376:C378)</f>
-        <v>210</v>
+        <v>7</v>
+      </c>
+      <c r="C379" s="6">
+        <f>COUNTIF(C5:C377,"n")</f>
+        <v>149</v>
       </c>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4" ht="18">
+    <row r="380" spans="1:4">
       <c r="A380" s="3"/>
-      <c r="B380" s="10"/>
-      <c r="C380" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D380" s="41">
-        <f>C376/(C377+C376 + C378)</f>
-        <v>0.26190476190476192</v>
-      </c>
+      <c r="B380" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C380" s="7">
+        <f>COUNTIF(C5:C377,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D380" s="2"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="3"/>
-      <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
-      <c r="D381" s="3"/>
+      <c r="B381" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <f>SUM(C378:C380)</f>
+        <v>211</v>
+      </c>
+      <c r="D381" s="2"/>
+    </row>
+    <row r="382" spans="1:4" ht="18">
+      <c r="A382" s="3"/>
+      <c r="B382" s="10"/>
+      <c r="C382" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D382" s="41">
+        <f>C378/(C379+C378 + C380)</f>
+        <v>0.29383886255924169</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="3"/>
+      <c r="B383" s="11"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C271:C65129 C241:C269 C1:C3 C6:C239">
+  <conditionalFormatting sqref="C272:C65131 C242:C270 C1:C3 C6:C240">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5393,7 +5410,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5841,10 +5858,10 @@
         <v>42945</v>
       </c>
       <c r="B57" s="4">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C57" s="4">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -5855,7 +5872,7 @@
       <c r="F57" s="48"/>
       <c r="G57" s="30">
         <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
-        <v>0.26190476190476192</v>
+        <v>0.29383886255924169</v>
       </c>
       <c r="H57" s="7"/>
     </row>
@@ -5900,25 +5917,25 @@
       </c>
       <c r="G60" s="38">
         <f>MIN(G57)</f>
-        <v>0.26190476190476192</v>
+        <v>0.29383886255924169</v>
       </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="39">
         <f>SUM(B61:D61)</f>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B61" s="15">
-        <f>Features!C376</f>
-        <v>55</v>
+        <f>Features!C378</f>
+        <v>62</v>
       </c>
       <c r="C61" s="16">
-        <f>Features!C377</f>
-        <v>155</v>
+        <f>Features!C379</f>
+        <v>149</v>
       </c>
       <c r="D61" s="17">
-        <f>Features!C378</f>
+        <f>Features!C380</f>
         <v>0</v>
       </c>
       <c r="E61" s="18">
@@ -5966,7 +5983,7 @@
       </c>
       <c r="B65" s="49">
         <f>(A57-A48)*A61/B61 +A48</f>
-        <v>43638.272727272728</v>
+        <v>43536.193548387098</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="223">
   <si>
     <t>Feature</t>
   </si>
@@ -383,9 +383,6 @@
     <t>alt: mimics rectangular selection</t>
   </si>
   <si>
-    <t>alt + click: ignored</t>
-  </si>
-  <si>
     <t>alt + shift click</t>
   </si>
   <si>
@@ -675,6 +672,21 @@
   </si>
   <si>
     <t>highlight caret line property</t>
+  </si>
+  <si>
+    <t>dragging</t>
+  </si>
+  <si>
+    <t>auto scroll</t>
+  </si>
+  <si>
+    <t>scroll caret to visible on mouse release</t>
+  </si>
+  <si>
+    <t>alt + click: same as click</t>
+  </si>
+  <si>
+    <t>goes faster if moved further from the boundary</t>
   </si>
 </sst>
 </file>
@@ -934,7 +946,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955202"/>
+          <c:w val="0.91978071330955213"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -967,10 +979,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1000,16 +1012,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$57</c:f>
+              <c:f>Progress!$B$48:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1039,6 +1054,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1071,10 +1089,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1104,16 +1122,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$57</c:f>
+              <c:f>Progress!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1143,6 +1164,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1175,10 +1199,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1208,16 +1232,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$57</c:f>
+              <c:f>Progress!$D$48:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1246,6 +1273,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1279,10 +1309,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1312,16 +1342,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$61</c:f>
+              <c:f>Progress!$E$48:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,21 +1385,24 @@
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163945856"/>
-        <c:axId val="163710080"/>
+        <c:axId val="145272192"/>
+        <c:axId val="145101952"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="163945856"/>
+        <c:axId val="145272192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163710080"/>
+        <c:crossAx val="145101952"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1409,7 +1445,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163710080"/>
+        <c:axId val="145101952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1487,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163945856"/>
+        <c:crossAx val="145272192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +1510,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218397"/>
+          <c:y val="0.33819556996218403"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1541,7 +1577,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1595,7 +1631,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127567E-2"/>
+          <c:x val="4.4510450248127581E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1630,10 +1666,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1663,16 +1699,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$57</c:f>
+              <c:f>Progress!$G$48:$G$58</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1702,16 +1741,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.29383886255924169</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39069767441860465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163733888"/>
-        <c:axId val="163735424"/>
+        <c:axId val="145125760"/>
+        <c:axId val="145127296"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="163733888"/>
+        <c:axId val="145125760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,13 +1761,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="163735424"/>
+        <c:crossAx val="145127296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163735424"/>
+        <c:axId val="145127296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1768,7 +1810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163733888"/>
+        <c:crossAx val="145125760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1859,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1868,10 +1910,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1901,16 +1943,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$57</c:f>
+              <c:f>Progress!$C$48:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1940,6 +1985,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,10 +2020,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$57</c:f>
+              <c:f>Progress!$A$48:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -2005,16 +2053,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42945</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$57</c:f>
+              <c:f>Progress!$D$48:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2043,17 +2094,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="163760384"/>
-        <c:axId val="163770368"/>
+        <c:axId val="145152256"/>
+        <c:axId val="145158144"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="163760384"/>
+        <c:axId val="145152256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163770368"/>
+        <c:crossAx val="145158144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2095,7 +2149,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="163770368"/>
+        <c:axId val="145158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2137,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163760384"/>
+        <c:crossAx val="145152256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,7 +2240,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001377" r="0.75000000000001377" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2236,7 +2290,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2644,10 +2698,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="C340" sqref="C340"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2750,7 +2804,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2768,7 +2822,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2804,7 +2858,7 @@
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>14</v>
@@ -2831,7 +2885,7 @@
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>14</v>
@@ -2840,7 +2894,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>14</v>
@@ -2926,7 +2980,7 @@
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
       <c r="B38" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2935,7 +2989,7 @@
     </row>
     <row r="39" spans="2:4" s="6" customFormat="1">
       <c r="B39" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>14</v>
@@ -2949,7 +3003,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>2</v>
@@ -2958,7 +3012,7 @@
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
       <c r="B42" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>2</v>
@@ -2976,7 +3030,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2999,7 +3053,7 @@
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -3013,7 +3067,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3022,7 +3076,7 @@
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
       <c r="B50" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>2</v>
@@ -3031,7 +3085,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>14</v>
@@ -3063,7 +3117,7 @@
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
       <c r="B55" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>14</v>
@@ -3117,7 +3171,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3126,7 +3180,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -3135,7 +3189,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3144,7 +3198,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3167,7 +3221,7 @@
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
       <c r="B67" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>2</v>
@@ -3176,7 +3230,7 @@
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
       <c r="B68" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -3185,7 +3239,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -3194,7 +3248,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3217,7 +3271,7 @@
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
       <c r="B73" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>2</v>
@@ -3244,7 +3298,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -3327,7 +3381,7 @@
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>14</v>
@@ -3425,7 +3479,7 @@
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
       <c r="B101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>14</v>
@@ -3439,7 +3493,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3453,7 +3507,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3462,7 +3516,7 @@
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
       <c r="B106" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>14</v>
@@ -3471,7 +3525,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3485,7 +3539,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3494,7 +3548,7 @@
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
       <c r="B110" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>14</v>
@@ -3508,7 +3562,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3554,7 +3608,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D119" s="4"/>
     </row>
@@ -3563,7 +3617,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D120" s="4"/>
     </row>
@@ -3578,7 +3632,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>14</v>
@@ -3617,7 +3671,7 @@
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
       <c r="B127" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>14</v>
@@ -3626,7 +3680,7 @@
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
       <c r="B128" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>14</v>
@@ -3635,7 +3689,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3644,7 +3698,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3653,7 +3707,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -3670,13 +3724,13 @@
         <v>56</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
       <c r="B134" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>2</v>
@@ -3693,7 +3747,7 @@
         <v>64</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D136" s="4"/>
     </row>
@@ -3702,7 +3756,7 @@
         <v>65</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D137" s="4"/>
     </row>
@@ -3711,7 +3765,7 @@
         <v>66</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D138" s="4"/>
     </row>
@@ -3740,10 +3794,10 @@
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D142" s="4"/>
     </row>
@@ -3757,7 +3811,7 @@
         <v>71</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D144" s="4"/>
     </row>
@@ -3766,7 +3820,7 @@
         <v>76</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D145" s="4"/>
     </row>
@@ -3780,7 +3834,7 @@
         <v>73</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D147" s="4"/>
     </row>
@@ -3789,7 +3843,7 @@
         <v>75</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" s="4"/>
     </row>
@@ -3798,7 +3852,7 @@
         <v>77</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D149" s="4"/>
     </row>
@@ -3809,10 +3863,10 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="20" t="s">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D151" s="4"/>
     </row>
@@ -3823,7 +3877,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>14</v>
@@ -3832,7 +3886,7 @@
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
       <c r="B154" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>14</v>
@@ -3846,28 +3900,28 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
       <c r="B157" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D158" s="4"/>
     </row>
@@ -3878,7 +3932,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>14</v>
@@ -3896,7 +3950,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -3910,7 +3964,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -3928,7 +3982,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -3942,7 +3996,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -3951,7 +4005,7 @@
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
       <c r="B169" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="7" t="s">
         <v>14</v>
@@ -3960,7 +4014,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -3974,10 +4028,10 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D172" s="4"/>
     </row>
@@ -3998,16 +4052,16 @@
         <v>54</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="2:4" s="6" customFormat="1">
       <c r="B176" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D176" s="4"/>
     </row>
@@ -4022,7 +4076,7 @@
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
       <c r="B178" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>14</v>
@@ -4104,13 +4158,17 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="20"/>
-      <c r="C189" s="7"/>
+      <c r="B189" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="27" t="s">
-        <v>133</v>
+      <c r="B190" s="20" t="s">
+        <v>219</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>2</v>
@@ -4119,7 +4177,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="20" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4128,25 +4186,21 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B193" s="20"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="20" t="s">
-        <v>85</v>
+      <c r="B194" s="27" t="s">
+        <v>132</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>2</v>
@@ -4155,7 +4209,7 @@
     </row>
     <row r="195" spans="2:4" s="6" customFormat="1">
       <c r="B195" s="20" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>2</v>
@@ -4163,103 +4217,107 @@
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="22"/>
-      <c r="C196" s="7"/>
+      <c r="B196" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="20"/>
-      <c r="C197" s="7"/>
+      <c r="B197" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="19"/>
-      <c r="C198" s="7"/>
+      <c r="B198" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="4"/>
-      <c r="C199" s="7"/>
+      <c r="B199" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B200" s="22"/>
       <c r="C200" s="7"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="2:4">
+    <row r="201" spans="2:4" s="6" customFormat="1">
+      <c r="B201" s="20"/>
       <c r="C201" s="7"/>
-    </row>
-    <row r="202" spans="2:4">
-      <c r="B202" s="43" t="s">
-        <v>136</v>
-      </c>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="2:4" s="6" customFormat="1">
+      <c r="B202" s="19"/>
       <c r="C202" s="7"/>
-    </row>
-    <row r="203" spans="2:4">
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="2:4" s="6" customFormat="1">
+      <c r="B203" s="4"/>
       <c r="C203" s="7"/>
-    </row>
-    <row r="204" spans="2:4">
-      <c r="B204" t="s">
-        <v>81</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="2:4" s="6" customFormat="1">
+      <c r="B204" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" s="7"/>
+      <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4">
-      <c r="B205" t="s">
-        <v>82</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C205" s="7"/>
     </row>
     <row r="206" spans="2:4">
-      <c r="B206" t="s">
-        <v>83</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B206" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C206" s="7"/>
     </row>
     <row r="207" spans="2:4">
-      <c r="B207" t="s">
-        <v>84</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C207" s="7"/>
     </row>
     <row r="208" spans="2:4">
       <c r="B208" t="s">
-        <v>85</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" t="s">
-        <v>86</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="44" t="s">
-        <v>89</v>
+      <c r="B211" t="s">
+        <v>84</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>14</v>
@@ -4267,23 +4325,23 @@
     </row>
     <row r="212" spans="2:3">
       <c r="B212" t="s">
-        <v>88</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>14</v>
+      <c r="B213" t="s">
+        <v>86</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>14</v>
@@ -4291,96 +4349,96 @@
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="45" t="s">
-        <v>102</v>
+      <c r="B216" t="s">
+        <v>88</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="45" t="s">
-        <v>116</v>
+      <c r="B217" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="44"/>
-      <c r="C218" s="9"/>
+      <c r="B218" t="s">
+        <v>91</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="44"/>
-      <c r="C219" s="9"/>
+      <c r="B219" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="44"/>
-      <c r="C220" s="9"/>
+      <c r="B220" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="C221" s="9"/>
+      <c r="B221" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="222" spans="2:3">
+      <c r="B222" s="44"/>
       <c r="C222" s="9"/>
     </row>
     <row r="223" spans="2:3">
+      <c r="B223" s="44"/>
       <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:3">
+      <c r="B224" s="44"/>
       <c r="C224" s="9"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="43" t="s">
-        <v>137</v>
-      </c>
       <c r="C225" s="9"/>
     </row>
     <row r="226" spans="2:3">
       <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
-      <c r="B227" t="s">
-        <v>110</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="2:3">
-      <c r="B228" t="s">
-        <v>111</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" t="s">
-        <v>112</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B229" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="2:3">
-      <c r="B230" t="s">
-        <v>113</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>14</v>
@@ -4388,7 +4446,7 @@
     </row>
     <row r="232" spans="2:3">
       <c r="B232" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>14</v>
@@ -4396,266 +4454,266 @@
     </row>
     <row r="233" spans="2:3">
       <c r="B233" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C233" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" t="s">
+        <v>113</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" t="s">
+        <v>114</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" t="s">
+        <v>115</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" t="s">
+        <v>146</v>
+      </c>
+      <c r="C237" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="C234" s="9"/>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="C235" s="9"/>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="C236" s="9"/>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="2:3">
       <c r="C238" s="9"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" t="s">
-        <v>134</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" t="s">
-        <v>101</v>
-      </c>
-      <c r="C240" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C240" s="9"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" t="s">
-        <v>80</v>
-      </c>
-      <c r="C242" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" t="s">
-        <v>93</v>
-      </c>
-      <c r="C243" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C243" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" t="s">
-        <v>94</v>
-      </c>
-      <c r="C244" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C244" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="245" spans="2:3">
-      <c r="C245" s="9"/>
-    </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="45" t="s">
-        <v>100</v>
+      <c r="B246" t="s">
+        <v>80</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="247" spans="2:3">
-      <c r="C247" s="9"/>
+      <c r="B247" t="s">
+        <v>93</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="45" t="s">
+      <c r="B248" t="s">
+        <v>94</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C248" s="9" t="s">
+      <c r="C252" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
-      <c r="B249" t="s">
+    <row r="253" spans="2:3">
+      <c r="B253" t="s">
         <v>99</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C253" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="C250" s="9"/>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" t="s">
-        <v>186</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="C252" s="9"/>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="C253" s="9"/>
     </row>
     <row r="254" spans="2:3">
       <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="C255" s="9"/>
+      <c r="B255" t="s">
+        <v>185</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="256" spans="2:3">
       <c r="C256" s="9"/>
     </row>
-    <row r="257" spans="2:4">
+    <row r="257" spans="2:3">
       <c r="C257" s="9"/>
     </row>
-    <row r="258" spans="2:4">
-      <c r="B258" s="3" t="s">
+    <row r="258" spans="2:3">
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="C259" s="9"/>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="C260" s="9"/>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C258" s="9"/>
-    </row>
-    <row r="259" spans="2:4">
-      <c r="B259" t="s">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" t="s">
         <v>49</v>
       </c>
-      <c r="C259" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="2:4">
-      <c r="B260" t="s">
+    <row r="264" spans="2:3">
+      <c r="B264" t="s">
         <v>50</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4">
-      <c r="B261" t="s">
-        <v>51</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4">
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="2:4">
-      <c r="B263" t="s">
-        <v>96</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4">
-      <c r="B264" t="s">
-        <v>97</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="2:4">
-      <c r="C265" s="9"/>
-    </row>
-    <row r="266" spans="2:4">
-      <c r="B266" t="s">
-        <v>147</v>
-      </c>
-      <c r="C266" s="7" t="s">
+    <row r="265" spans="2:3">
+      <c r="B265" t="s">
+        <v>51</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="C266" s="9"/>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" t="s">
+        <v>96</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" t="s">
+        <v>97</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="C269" s="9"/>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" t="s">
+        <v>146</v>
+      </c>
+      <c r="C270" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="2:4">
-      <c r="C267" s="9"/>
-    </row>
-    <row r="268" spans="2:4">
-      <c r="C268" s="9"/>
-    </row>
-    <row r="269" spans="2:4">
-      <c r="C269" s="9"/>
-    </row>
-    <row r="270" spans="2:4">
-      <c r="C270" s="9"/>
-    </row>
-    <row r="272" spans="2:4" s="6" customFormat="1">
-      <c r="B272" s="3" t="s">
+    <row r="271" spans="2:3">
+      <c r="C271" s="9"/>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="C272" s="9"/>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="C273" s="9"/>
+    </row>
+    <row r="274" spans="2:4">
+      <c r="C274" s="9"/>
+    </row>
+    <row r="276" spans="2:4" s="6" customFormat="1">
+      <c r="B276" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C272" s="7"/>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="2:4" s="6" customFormat="1">
-      <c r="B273" s="22"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="2:4" s="6" customFormat="1">
-      <c r="B274" s="22" t="s">
+      <c r="C276" s="7"/>
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="22"/>
+      <c r="C277" s="7"/>
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="2:4" s="6" customFormat="1">
+      <c r="B278" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C274" s="7" t="s">
+      <c r="C278" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="2:4" s="6" customFormat="1">
-      <c r="B275" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D275" s="4"/>
-    </row>
-    <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="22" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="22" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C280" s="7" t="s">
         <v>14</v>
@@ -4663,27 +4721,31 @@
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22"/>
-      <c r="C281" s="7"/>
+      <c r="B281" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" t="s">
-        <v>147</v>
-      </c>
-      <c r="C282" s="7" t="s">
+      <c r="B282" s="22"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="2:4" s="6" customFormat="1">
+      <c r="B283" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C283" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="7"/>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="22" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>14</v>
@@ -4691,35 +4753,36 @@
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C285" s="7" t="s">
+      <c r="B285" s="22"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="2:4" s="6" customFormat="1">
+      <c r="B286" t="s">
+        <v>146</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="C286" s="7"/>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C287" s="7" t="s">
+      <c r="B287" s="22"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="2:4" s="6" customFormat="1">
+      <c r="B288" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C288" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22"/>
-      <c r="C288" s="7"/>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="22" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>14</v>
@@ -4727,29 +4790,26 @@
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22"/>
       <c r="C290" s="7"/>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="22" t="s">
+      <c r="B291" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C291" s="7"/>
+      <c r="C291" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B292" s="22"/>
+      <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="20" t="s">
-        <v>172</v>
+      <c r="B293" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="C293" s="7" t="s">
         <v>14</v>
@@ -4757,26 +4817,20 @@
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B294" s="22"/>
+      <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="20" t="s">
+      <c r="B295" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C295" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
       <c r="B296" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C296" s="7" t="s">
         <v>14</v>
@@ -4784,13 +4838,17 @@
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="22"/>
-      <c r="C297" s="7"/>
+      <c r="B297" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="22" t="s">
-        <v>183</v>
+      <c r="B298" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>14</v>
@@ -4798,8 +4856,8 @@
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="22" t="s">
-        <v>184</v>
+      <c r="B299" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>14</v>
@@ -4807,27 +4865,35 @@
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="22"/>
-      <c r="C300" s="7"/>
+      <c r="B300" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C301" s="7" t="s">
+      <c r="B301" s="22"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="2:4" s="6" customFormat="1">
+      <c r="B302" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C302" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D301" s="4"/>
-    </row>
-    <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22"/>
-      <c r="C302" s="7"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22"/>
-      <c r="C303" s="7"/>
+      <c r="B303" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
@@ -4836,14 +4902,16 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B306" s="22"/>
       <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
@@ -4853,81 +4921,71 @@
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
-      <c r="B308" s="22" t="s">
+      <c r="B308" s="22"/>
+      <c r="C308" s="7"/>
+      <c r="D308" s="4"/>
+    </row>
+    <row r="309" spans="2:4" s="6" customFormat="1">
+      <c r="B309" s="22"/>
+      <c r="C309" s="7"/>
+      <c r="D309" s="4"/>
+    </row>
+    <row r="310" spans="2:4" s="6" customFormat="1">
+      <c r="B310" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C310" s="7"/>
+      <c r="D310" s="4"/>
+    </row>
+    <row r="311" spans="2:4" s="6" customFormat="1">
+      <c r="B311" s="22"/>
+      <c r="C311" s="7"/>
+      <c r="D311" s="4"/>
+    </row>
+    <row r="312" spans="2:4" s="6" customFormat="1">
+      <c r="B312" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C308" s="7" t="s">
+      <c r="C312" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D308" s="4"/>
-    </row>
-    <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C310" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C314" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D314" s="4"/>
+    </row>
+    <row r="315" spans="2:4" s="6" customFormat="1">
+      <c r="B315" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D314" s="4"/>
-    </row>
-    <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22"/>
-      <c r="C315" s="7"/>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C316" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B316" s="22"/>
+      <c r="C316" s="7"/>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
       <c r="B317" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C317" s="7" t="s">
         <v>14</v>
@@ -4936,7 +4994,7 @@
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>14</v>
@@ -4950,7 +5008,7 @@
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
       <c r="B320" s="22" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="C320" s="7" t="s">
         <v>14</v>
@@ -4958,16 +5016,20 @@
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22"/>
-      <c r="C321" s="7"/>
+      <c r="B321" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="22" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D322" s="4"/>
     </row>
@@ -4977,8 +5039,12 @@
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22"/>
-      <c r="C324" s="7"/>
+      <c r="B324" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
@@ -4987,8 +5053,12 @@
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
+      <c r="B326" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C326" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
@@ -4997,9 +5067,7 @@
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
-      <c r="B328" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="B328" s="22"/>
       <c r="C328" s="7"/>
       <c r="D328" s="4"/>
     </row>
@@ -5009,72 +5077,64 @@
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="2:4" s="6" customFormat="1">
-      <c r="B330" s="22" t="s">
-        <v>152</v>
-      </c>
+      <c r="B330" s="22"/>
       <c r="C330" s="7"/>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C331" s="7" t="s">
+      <c r="B331" s="22"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="4"/>
+    </row>
+    <row r="332" spans="2:4" s="6" customFormat="1">
+      <c r="B332" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C332" s="7"/>
+      <c r="D332" s="4"/>
+    </row>
+    <row r="333" spans="2:4" s="6" customFormat="1">
+      <c r="B333" s="22"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="4"/>
+    </row>
+    <row r="334" spans="2:4" s="6" customFormat="1">
+      <c r="B334" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C334" s="7"/>
+      <c r="D334" s="4"/>
+    </row>
+    <row r="335" spans="2:4" s="6" customFormat="1">
+      <c r="B335" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C335" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C332" s="7" t="s">
+      <c r="D335" s="4"/>
+    </row>
+    <row r="336" spans="2:4" s="6" customFormat="1">
+      <c r="B336" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C336" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D332" s="4"/>
-    </row>
-    <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D333" s="4"/>
-    </row>
-    <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C334" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D334" s="4"/>
-    </row>
-    <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="22"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="4"/>
-    </row>
-    <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C336" s="7"/>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>2</v>
@@ -5082,22 +5142,20 @@
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B339" s="22"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="20"/>
+      <c r="B340" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C340" s="7"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="22" t="s">
-        <v>217</v>
+      <c r="B341" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="C341" s="7" t="s">
         <v>2</v>
@@ -5105,13 +5163,21 @@
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="20"/>
-      <c r="C342" s="7"/>
+      <c r="B342" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="20"/>
-      <c r="C343" s="7"/>
+      <c r="B343" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
@@ -5120,50 +5186,50 @@
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22"/>
-      <c r="C345" s="7"/>
+      <c r="B345" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="7"/>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22"/>
+      <c r="B348" s="20"/>
       <c r="C348" s="7"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C349" s="7" t="s">
+      <c r="B349" s="22"/>
+      <c r="C349" s="7"/>
+      <c r="D349" s="4"/>
+    </row>
+    <row r="350" spans="2:4" s="6" customFormat="1">
+      <c r="B350" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C350" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D349" s="4"/>
-    </row>
-    <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22"/>
-      <c r="C350" s="7"/>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
@@ -5172,49 +5238,37 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
-      <c r="C353" s="7"/>
+      <c r="B353" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C353" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B355" s="22"/>
+      <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B356" s="22"/>
+      <c r="C356" s="7"/>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B357" s="22"/>
+      <c r="C357" s="7"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="20" t="s">
-        <v>208</v>
+      <c r="B358" s="22" t="s">
+        <v>202</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5223,7 +5277,7 @@
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
       <c r="B359" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>14</v>
@@ -5231,23 +5285,39 @@
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="22"/>
-      <c r="C360" s="7"/>
+      <c r="B360" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C360" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22"/>
-      <c r="C361" s="7"/>
+      <c r="B361" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C361" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
+      <c r="B362" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22"/>
-      <c r="C363" s="7"/>
+      <c r="B363" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
@@ -5297,94 +5367,114 @@
     </row>
     <row r="373" spans="1:4" s="6" customFormat="1">
       <c r="B373" s="22"/>
-      <c r="C373" s="4"/>
+      <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:4" s="6" customFormat="1">
-      <c r="B374" s="19"/>
-      <c r="C374" s="4"/>
+      <c r="B374" s="22"/>
+      <c r="C374" s="7"/>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="1:4" s="6" customFormat="1">
-      <c r="B375" s="21"/>
-      <c r="C375" s="4"/>
+      <c r="B375" s="22"/>
+      <c r="C375" s="7"/>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="1:4" s="6" customFormat="1">
-      <c r="B376" s="21"/>
-      <c r="C376" s="4"/>
+      <c r="B376" s="22"/>
+      <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="3"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
-      <c r="D377" s="3"/>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="3"/>
-      <c r="B378" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C378" s="6">
-        <f>COUNTIF(C5:C377,"y")</f>
-        <v>62</v>
-      </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="3"/>
-      <c r="B379" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C379" s="6">
-        <f>COUNTIF(C5:C377,"n")</f>
-        <v>149</v>
-      </c>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="3"/>
-      <c r="B380" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C380" s="7">
-        <f>COUNTIF(C5:C377,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D380" s="2"/>
+    <row r="377" spans="1:4" s="6" customFormat="1">
+      <c r="B377" s="22"/>
+      <c r="C377" s="4"/>
+      <c r="D377" s="4"/>
+    </row>
+    <row r="378" spans="1:4" s="6" customFormat="1">
+      <c r="B378" s="19"/>
+      <c r="C378" s="4"/>
+      <c r="D378" s="4"/>
+    </row>
+    <row r="379" spans="1:4" s="6" customFormat="1">
+      <c r="B379" s="21"/>
+      <c r="C379" s="4"/>
+      <c r="D379" s="4"/>
+    </row>
+    <row r="380" spans="1:4" s="6" customFormat="1">
+      <c r="B380" s="21"/>
+      <c r="C380" s="4"/>
+      <c r="D380" s="4"/>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="3"/>
-      <c r="B381" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381">
-        <f>SUM(C378:C380)</f>
-        <v>211</v>
-      </c>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:4" ht="18">
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="3"/>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="3"/>
-      <c r="B382" s="10"/>
-      <c r="C382" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D382" s="41">
-        <f>C378/(C379+C378 + C380)</f>
-        <v>0.29383886255924169</v>
-      </c>
+      <c r="B382" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C382" s="6">
+        <f>COUNTIF(C5:C381,"y")</f>
+        <v>84</v>
+      </c>
+      <c r="D382" s="2"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="3"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="11"/>
-      <c r="D383" s="3"/>
+      <c r="B383" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" s="6">
+        <f>COUNTIF(C5:C381,"n")</f>
+        <v>131</v>
+      </c>
+      <c r="D383" s="2"/>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="3"/>
+      <c r="B384" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C384" s="7">
+        <f>COUNTIF(C5:C381,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D384" s="2"/>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="3"/>
+      <c r="B385" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <f>SUM(C382:C384)</f>
+        <v>215</v>
+      </c>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4" ht="18">
+      <c r="A386" s="3"/>
+      <c r="B386" s="10"/>
+      <c r="C386" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="41">
+        <f>C382/(C383+C382 + C384)</f>
+        <v>0.39069767441860465</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="3"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C272:C65131 C242:C270 C1:C3 C6:C240">
+  <conditionalFormatting sqref="C276:C65135 C246:C274 C1:C3 C6:C244">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5406,11 +5496,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT871"/>
+  <dimension ref="A1:IT872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5733,7 +5823,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G56" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G57" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5871,19 +5961,32 @@
       </c>
       <c r="F57" s="48"/>
       <c r="G57" s="30">
-        <f t="shared" ref="G57" si="3">B57/SUM(B57:E57)</f>
+        <f t="shared" si="2"/>
         <v>0.29383886255924169</v>
       </c>
       <c r="H57" s="7"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="47"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
+      <c r="A58" s="47">
+        <v>42952</v>
+      </c>
+      <c r="B58" s="4">
+        <v>84</v>
+      </c>
+      <c r="C58" s="4">
+        <v>131</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="30">
+        <f t="shared" ref="G58" si="3">B58/SUM(B58:E58)</f>
+        <v>0.39069767441860465</v>
+      </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
@@ -5892,84 +5995,84 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="31"/>
+      <c r="F59" s="28"/>
       <c r="G59" s="30"/>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="14" t="s">
+      <c r="E61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="14" t="s">
+      <c r="F61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="38">
-        <f>MIN(G57)</f>
-        <v>0.29383886255924169</v>
-      </c>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="39">
-        <f>SUM(B61:D61)</f>
-        <v>211</v>
-      </c>
-      <c r="B61" s="15">
-        <f>Features!C378</f>
-        <v>62</v>
-      </c>
-      <c r="C61" s="16">
-        <f>Features!C379</f>
-        <v>149</v>
-      </c>
-      <c r="D61" s="17">
-        <f>Features!C380</f>
+      <c r="G61" s="38">
+        <f>MIN(G58)</f>
+        <v>0.39069767441860465</v>
+      </c>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="39">
+        <f>SUM(B62:D62)</f>
+        <v>215</v>
+      </c>
+      <c r="B62" s="15">
+        <f>Features!C382</f>
+        <v>84</v>
+      </c>
+      <c r="C62" s="16">
+        <f>Features!C383</f>
+        <v>131</v>
+      </c>
+      <c r="D62" s="17">
+        <f>Features!C384</f>
         <v>0</v>
       </c>
-      <c r="E61" s="18">
-        <f>MIN(E57)</f>
+      <c r="E62" s="18">
+        <f>MIN(E58)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="7"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="30"/>
       <c r="H62" s="7"/>
-      <c r="J62" s="36"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="4"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
+      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
+      <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -5978,13 +6081,8 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B65" s="49">
-        <f>(A57-A48)*A61/B61 +A48</f>
-        <v>43536.193548387098</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -5993,8 +6091,13 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
+      <c r="A66" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="49">
+        <f>(A58-A48)*A62/B62 +A48</f>
+        <v>43346.559523809527</v>
+      </c>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6004,7 +6107,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
-      <c r="B67" s="19"/>
+      <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -6024,7 +6127,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6044,7 +6147,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
-      <c r="B71" s="7"/>
+      <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -6054,7 +6157,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
-      <c r="B72" s="20"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -6073,7 +6176,7 @@
       <c r="H73" s="7"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="7"/>
+      <c r="A74" s="4"/>
       <c r="B74" s="20"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
@@ -6084,7 +6187,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -6215,7 +6318,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -6224,7 +6327,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="7"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -6232,15 +6335,15 @@
       <c r="G89" s="30"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="4"/>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8" s="2" customFormat="1">
       <c r="A91" s="4"/>
@@ -6414,7 +6517,7 @@
     </row>
     <row r="108" spans="1:8" s="2" customFormat="1">
       <c r="A108" s="4"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -6424,7 +6527,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
+      <c r="B109" s="6"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6454,7 +6557,7 @@
     </row>
     <row r="112" spans="1:8" s="2" customFormat="1">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -6494,7 +6597,7 @@
     </row>
     <row r="116" spans="1:8" s="2" customFormat="1">
       <c r="A116" s="4"/>
-      <c r="B116" s="21"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
@@ -6504,7 +6607,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6514,7 +6617,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6524,7 +6627,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="6"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6534,7 +6637,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6554,7 +6657,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6614,7 +6717,7 @@
     </row>
     <row r="128" spans="1:8" s="2" customFormat="1">
       <c r="A128" s="4"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -6714,7 +6817,7 @@
     </row>
     <row r="138" spans="1:8" s="2" customFormat="1">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -6764,7 +6867,7 @@
     </row>
     <row r="143" spans="1:8" s="2" customFormat="1">
       <c r="A143" s="4"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -6784,7 +6887,7 @@
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -6823,284 +6926,284 @@
       <c r="H148" s="4"/>
     </row>
     <row r="149" spans="1:254" s="2" customFormat="1">
-      <c r="A149" s="21"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
-      <c r="G149" s="35"/>
-      <c r="H149" s="21"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-      <c r="AA149" s="5"/>
-      <c r="AB149" s="5"/>
-      <c r="AC149" s="5"/>
-      <c r="AD149" s="5"/>
-      <c r="AE149" s="5"/>
-      <c r="AF149" s="5"/>
-      <c r="AG149" s="5"/>
-      <c r="AH149" s="5"/>
-      <c r="AI149" s="5"/>
-      <c r="AJ149" s="5"/>
-      <c r="AK149" s="5"/>
-      <c r="AL149" s="5"/>
-      <c r="AM149" s="5"/>
-      <c r="AN149" s="5"/>
-      <c r="AO149" s="5"/>
-      <c r="AP149" s="5"/>
-      <c r="AQ149" s="5"/>
-      <c r="AR149" s="5"/>
-      <c r="AS149" s="5"/>
-      <c r="AT149" s="5"/>
-      <c r="AU149" s="5"/>
-      <c r="AV149" s="5"/>
-      <c r="AW149" s="5"/>
-      <c r="AX149" s="5"/>
-      <c r="AY149" s="5"/>
-      <c r="AZ149" s="5"/>
-      <c r="BA149" s="5"/>
-      <c r="BB149" s="5"/>
-      <c r="BC149" s="5"/>
-      <c r="BD149" s="5"/>
-      <c r="BE149" s="5"/>
-      <c r="BF149" s="5"/>
-      <c r="BG149" s="5"/>
-      <c r="BH149" s="5"/>
-      <c r="BI149" s="5"/>
-      <c r="BJ149" s="5"/>
-      <c r="BK149" s="5"/>
-      <c r="BL149" s="5"/>
-      <c r="BM149" s="5"/>
-      <c r="BN149" s="5"/>
-      <c r="BO149" s="5"/>
-      <c r="BP149" s="5"/>
-      <c r="BQ149" s="5"/>
-      <c r="BR149" s="5"/>
-      <c r="BS149" s="5"/>
-      <c r="BT149" s="5"/>
-      <c r="BU149" s="5"/>
-      <c r="BV149" s="5"/>
-      <c r="BW149" s="5"/>
-      <c r="BX149" s="5"/>
-      <c r="BY149" s="5"/>
-      <c r="BZ149" s="5"/>
-      <c r="CA149" s="5"/>
-      <c r="CB149" s="5"/>
-      <c r="CC149" s="5"/>
-      <c r="CD149" s="5"/>
-      <c r="CE149" s="5"/>
-      <c r="CF149" s="5"/>
-      <c r="CG149" s="5"/>
-      <c r="CH149" s="5"/>
-      <c r="CI149" s="5"/>
-      <c r="CJ149" s="5"/>
-      <c r="CK149" s="5"/>
-      <c r="CL149" s="5"/>
-      <c r="CM149" s="5"/>
-      <c r="CN149" s="5"/>
-      <c r="CO149" s="5"/>
-      <c r="CP149" s="5"/>
-      <c r="CQ149" s="5"/>
-      <c r="CR149" s="5"/>
-      <c r="CS149" s="5"/>
-      <c r="CT149" s="5"/>
-      <c r="CU149" s="5"/>
-      <c r="CV149" s="5"/>
-      <c r="CW149" s="5"/>
-      <c r="CX149" s="5"/>
-      <c r="CY149" s="5"/>
-      <c r="CZ149" s="5"/>
-      <c r="DA149" s="5"/>
-      <c r="DB149" s="5"/>
-      <c r="DC149" s="5"/>
-      <c r="DD149" s="5"/>
-      <c r="DE149" s="5"/>
-      <c r="DF149" s="5"/>
-      <c r="DG149" s="5"/>
-      <c r="DH149" s="5"/>
-      <c r="DI149" s="5"/>
-      <c r="DJ149" s="5"/>
-      <c r="DK149" s="5"/>
-      <c r="DL149" s="5"/>
-      <c r="DM149" s="5"/>
-      <c r="DN149" s="5"/>
-      <c r="DO149" s="5"/>
-      <c r="DP149" s="5"/>
-      <c r="DQ149" s="5"/>
-      <c r="DR149" s="5"/>
-      <c r="DS149" s="5"/>
-      <c r="DT149" s="5"/>
-      <c r="DU149" s="5"/>
-      <c r="DV149" s="5"/>
-      <c r="DW149" s="5"/>
-      <c r="DX149" s="5"/>
-      <c r="DY149" s="5"/>
-      <c r="DZ149" s="5"/>
-      <c r="EA149" s="5"/>
-      <c r="EB149" s="5"/>
-      <c r="EC149" s="5"/>
-      <c r="ED149" s="5"/>
-      <c r="EE149" s="5"/>
-      <c r="EF149" s="5"/>
-      <c r="EG149" s="5"/>
-      <c r="EH149" s="5"/>
-      <c r="EI149" s="5"/>
-      <c r="EJ149" s="5"/>
-      <c r="EK149" s="5"/>
-      <c r="EL149" s="5"/>
-      <c r="EM149" s="5"/>
-      <c r="EN149" s="5"/>
-      <c r="EO149" s="5"/>
-      <c r="EP149" s="5"/>
-      <c r="EQ149" s="5"/>
-      <c r="ER149" s="5"/>
-      <c r="ES149" s="5"/>
-      <c r="ET149" s="5"/>
-      <c r="EU149" s="5"/>
-      <c r="EV149" s="5"/>
-      <c r="EW149" s="5"/>
-      <c r="EX149" s="5"/>
-      <c r="EY149" s="5"/>
-      <c r="EZ149" s="5"/>
-      <c r="FA149" s="5"/>
-      <c r="FB149" s="5"/>
-      <c r="FC149" s="5"/>
-      <c r="FD149" s="5"/>
-      <c r="FE149" s="5"/>
-      <c r="FF149" s="5"/>
-      <c r="FG149" s="5"/>
-      <c r="FH149" s="5"/>
-      <c r="FI149" s="5"/>
-      <c r="FJ149" s="5"/>
-      <c r="FK149" s="5"/>
-      <c r="FL149" s="5"/>
-      <c r="FM149" s="5"/>
-      <c r="FN149" s="5"/>
-      <c r="FO149" s="5"/>
-      <c r="FP149" s="5"/>
-      <c r="FQ149" s="5"/>
-      <c r="FR149" s="5"/>
-      <c r="FS149" s="5"/>
-      <c r="FT149" s="5"/>
-      <c r="FU149" s="5"/>
-      <c r="FV149" s="5"/>
-      <c r="FW149" s="5"/>
-      <c r="FX149" s="5"/>
-      <c r="FY149" s="5"/>
-      <c r="FZ149" s="5"/>
-      <c r="GA149" s="5"/>
-      <c r="GB149" s="5"/>
-      <c r="GC149" s="5"/>
-      <c r="GD149" s="5"/>
-      <c r="GE149" s="5"/>
-      <c r="GF149" s="5"/>
-      <c r="GG149" s="5"/>
-      <c r="GH149" s="5"/>
-      <c r="GI149" s="5"/>
-      <c r="GJ149" s="5"/>
-      <c r="GK149" s="5"/>
-      <c r="GL149" s="5"/>
-      <c r="GM149" s="5"/>
-      <c r="GN149" s="5"/>
-      <c r="GO149" s="5"/>
-      <c r="GP149" s="5"/>
-      <c r="GQ149" s="5"/>
-      <c r="GR149" s="5"/>
-      <c r="GS149" s="5"/>
-      <c r="GT149" s="5"/>
-      <c r="GU149" s="5"/>
-      <c r="GV149" s="5"/>
-      <c r="GW149" s="5"/>
-      <c r="GX149" s="5"/>
-      <c r="GY149" s="5"/>
-      <c r="GZ149" s="5"/>
-      <c r="HA149" s="5"/>
-      <c r="HB149" s="5"/>
-      <c r="HC149" s="5"/>
-      <c r="HD149" s="5"/>
-      <c r="HE149" s="5"/>
-      <c r="HF149" s="5"/>
-      <c r="HG149" s="5"/>
-      <c r="HH149" s="5"/>
-      <c r="HI149" s="5"/>
-      <c r="HJ149" s="5"/>
-      <c r="HK149" s="5"/>
-      <c r="HL149" s="5"/>
-      <c r="HM149" s="5"/>
-      <c r="HN149" s="5"/>
-      <c r="HO149" s="5"/>
-      <c r="HP149" s="5"/>
-      <c r="HQ149" s="5"/>
-      <c r="HR149" s="5"/>
-      <c r="HS149" s="5"/>
-      <c r="HT149" s="5"/>
-      <c r="HU149" s="5"/>
-      <c r="HV149" s="5"/>
-      <c r="HW149" s="5"/>
-      <c r="HX149" s="5"/>
-      <c r="HY149" s="5"/>
-      <c r="HZ149" s="5"/>
-      <c r="IA149" s="5"/>
-      <c r="IB149" s="5"/>
-      <c r="IC149" s="5"/>
-      <c r="ID149" s="5"/>
-      <c r="IE149" s="5"/>
-      <c r="IF149" s="5"/>
-      <c r="IG149" s="5"/>
-      <c r="IH149" s="5"/>
-      <c r="II149" s="5"/>
-      <c r="IJ149" s="5"/>
-      <c r="IK149" s="5"/>
-      <c r="IL149" s="5"/>
-      <c r="IM149" s="5"/>
-      <c r="IN149" s="5"/>
-      <c r="IO149" s="5"/>
-      <c r="IP149" s="5"/>
-      <c r="IQ149" s="5"/>
-      <c r="IR149" s="5"/>
-      <c r="IS149" s="5"/>
-      <c r="IT149" s="5"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="34"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254" s="2" customFormat="1">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="34"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:254">
-      <c r="A151" s="7"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="7"/>
+      <c r="A150" s="21"/>
+      <c r="B150" s="21"/>
+      <c r="C150" s="21"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="21"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="5"/>
+      <c r="W150" s="5"/>
+      <c r="X150" s="5"/>
+      <c r="Y150" s="5"/>
+      <c r="Z150" s="5"/>
+      <c r="AA150" s="5"/>
+      <c r="AB150" s="5"/>
+      <c r="AC150" s="5"/>
+      <c r="AD150" s="5"/>
+      <c r="AE150" s="5"/>
+      <c r="AF150" s="5"/>
+      <c r="AG150" s="5"/>
+      <c r="AH150" s="5"/>
+      <c r="AI150" s="5"/>
+      <c r="AJ150" s="5"/>
+      <c r="AK150" s="5"/>
+      <c r="AL150" s="5"/>
+      <c r="AM150" s="5"/>
+      <c r="AN150" s="5"/>
+      <c r="AO150" s="5"/>
+      <c r="AP150" s="5"/>
+      <c r="AQ150" s="5"/>
+      <c r="AR150" s="5"/>
+      <c r="AS150" s="5"/>
+      <c r="AT150" s="5"/>
+      <c r="AU150" s="5"/>
+      <c r="AV150" s="5"/>
+      <c r="AW150" s="5"/>
+      <c r="AX150" s="5"/>
+      <c r="AY150" s="5"/>
+      <c r="AZ150" s="5"/>
+      <c r="BA150" s="5"/>
+      <c r="BB150" s="5"/>
+      <c r="BC150" s="5"/>
+      <c r="BD150" s="5"/>
+      <c r="BE150" s="5"/>
+      <c r="BF150" s="5"/>
+      <c r="BG150" s="5"/>
+      <c r="BH150" s="5"/>
+      <c r="BI150" s="5"/>
+      <c r="BJ150" s="5"/>
+      <c r="BK150" s="5"/>
+      <c r="BL150" s="5"/>
+      <c r="BM150" s="5"/>
+      <c r="BN150" s="5"/>
+      <c r="BO150" s="5"/>
+      <c r="BP150" s="5"/>
+      <c r="BQ150" s="5"/>
+      <c r="BR150" s="5"/>
+      <c r="BS150" s="5"/>
+      <c r="BT150" s="5"/>
+      <c r="BU150" s="5"/>
+      <c r="BV150" s="5"/>
+      <c r="BW150" s="5"/>
+      <c r="BX150" s="5"/>
+      <c r="BY150" s="5"/>
+      <c r="BZ150" s="5"/>
+      <c r="CA150" s="5"/>
+      <c r="CB150" s="5"/>
+      <c r="CC150" s="5"/>
+      <c r="CD150" s="5"/>
+      <c r="CE150" s="5"/>
+      <c r="CF150" s="5"/>
+      <c r="CG150" s="5"/>
+      <c r="CH150" s="5"/>
+      <c r="CI150" s="5"/>
+      <c r="CJ150" s="5"/>
+      <c r="CK150" s="5"/>
+      <c r="CL150" s="5"/>
+      <c r="CM150" s="5"/>
+      <c r="CN150" s="5"/>
+      <c r="CO150" s="5"/>
+      <c r="CP150" s="5"/>
+      <c r="CQ150" s="5"/>
+      <c r="CR150" s="5"/>
+      <c r="CS150" s="5"/>
+      <c r="CT150" s="5"/>
+      <c r="CU150" s="5"/>
+      <c r="CV150" s="5"/>
+      <c r="CW150" s="5"/>
+      <c r="CX150" s="5"/>
+      <c r="CY150" s="5"/>
+      <c r="CZ150" s="5"/>
+      <c r="DA150" s="5"/>
+      <c r="DB150" s="5"/>
+      <c r="DC150" s="5"/>
+      <c r="DD150" s="5"/>
+      <c r="DE150" s="5"/>
+      <c r="DF150" s="5"/>
+      <c r="DG150" s="5"/>
+      <c r="DH150" s="5"/>
+      <c r="DI150" s="5"/>
+      <c r="DJ150" s="5"/>
+      <c r="DK150" s="5"/>
+      <c r="DL150" s="5"/>
+      <c r="DM150" s="5"/>
+      <c r="DN150" s="5"/>
+      <c r="DO150" s="5"/>
+      <c r="DP150" s="5"/>
+      <c r="DQ150" s="5"/>
+      <c r="DR150" s="5"/>
+      <c r="DS150" s="5"/>
+      <c r="DT150" s="5"/>
+      <c r="DU150" s="5"/>
+      <c r="DV150" s="5"/>
+      <c r="DW150" s="5"/>
+      <c r="DX150" s="5"/>
+      <c r="DY150" s="5"/>
+      <c r="DZ150" s="5"/>
+      <c r="EA150" s="5"/>
+      <c r="EB150" s="5"/>
+      <c r="EC150" s="5"/>
+      <c r="ED150" s="5"/>
+      <c r="EE150" s="5"/>
+      <c r="EF150" s="5"/>
+      <c r="EG150" s="5"/>
+      <c r="EH150" s="5"/>
+      <c r="EI150" s="5"/>
+      <c r="EJ150" s="5"/>
+      <c r="EK150" s="5"/>
+      <c r="EL150" s="5"/>
+      <c r="EM150" s="5"/>
+      <c r="EN150" s="5"/>
+      <c r="EO150" s="5"/>
+      <c r="EP150" s="5"/>
+      <c r="EQ150" s="5"/>
+      <c r="ER150" s="5"/>
+      <c r="ES150" s="5"/>
+      <c r="ET150" s="5"/>
+      <c r="EU150" s="5"/>
+      <c r="EV150" s="5"/>
+      <c r="EW150" s="5"/>
+      <c r="EX150" s="5"/>
+      <c r="EY150" s="5"/>
+      <c r="EZ150" s="5"/>
+      <c r="FA150" s="5"/>
+      <c r="FB150" s="5"/>
+      <c r="FC150" s="5"/>
+      <c r="FD150" s="5"/>
+      <c r="FE150" s="5"/>
+      <c r="FF150" s="5"/>
+      <c r="FG150" s="5"/>
+      <c r="FH150" s="5"/>
+      <c r="FI150" s="5"/>
+      <c r="FJ150" s="5"/>
+      <c r="FK150" s="5"/>
+      <c r="FL150" s="5"/>
+      <c r="FM150" s="5"/>
+      <c r="FN150" s="5"/>
+      <c r="FO150" s="5"/>
+      <c r="FP150" s="5"/>
+      <c r="FQ150" s="5"/>
+      <c r="FR150" s="5"/>
+      <c r="FS150" s="5"/>
+      <c r="FT150" s="5"/>
+      <c r="FU150" s="5"/>
+      <c r="FV150" s="5"/>
+      <c r="FW150" s="5"/>
+      <c r="FX150" s="5"/>
+      <c r="FY150" s="5"/>
+      <c r="FZ150" s="5"/>
+      <c r="GA150" s="5"/>
+      <c r="GB150" s="5"/>
+      <c r="GC150" s="5"/>
+      <c r="GD150" s="5"/>
+      <c r="GE150" s="5"/>
+      <c r="GF150" s="5"/>
+      <c r="GG150" s="5"/>
+      <c r="GH150" s="5"/>
+      <c r="GI150" s="5"/>
+      <c r="GJ150" s="5"/>
+      <c r="GK150" s="5"/>
+      <c r="GL150" s="5"/>
+      <c r="GM150" s="5"/>
+      <c r="GN150" s="5"/>
+      <c r="GO150" s="5"/>
+      <c r="GP150" s="5"/>
+      <c r="GQ150" s="5"/>
+      <c r="GR150" s="5"/>
+      <c r="GS150" s="5"/>
+      <c r="GT150" s="5"/>
+      <c r="GU150" s="5"/>
+      <c r="GV150" s="5"/>
+      <c r="GW150" s="5"/>
+      <c r="GX150" s="5"/>
+      <c r="GY150" s="5"/>
+      <c r="GZ150" s="5"/>
+      <c r="HA150" s="5"/>
+      <c r="HB150" s="5"/>
+      <c r="HC150" s="5"/>
+      <c r="HD150" s="5"/>
+      <c r="HE150" s="5"/>
+      <c r="HF150" s="5"/>
+      <c r="HG150" s="5"/>
+      <c r="HH150" s="5"/>
+      <c r="HI150" s="5"/>
+      <c r="HJ150" s="5"/>
+      <c r="HK150" s="5"/>
+      <c r="HL150" s="5"/>
+      <c r="HM150" s="5"/>
+      <c r="HN150" s="5"/>
+      <c r="HO150" s="5"/>
+      <c r="HP150" s="5"/>
+      <c r="HQ150" s="5"/>
+      <c r="HR150" s="5"/>
+      <c r="HS150" s="5"/>
+      <c r="HT150" s="5"/>
+      <c r="HU150" s="5"/>
+      <c r="HV150" s="5"/>
+      <c r="HW150" s="5"/>
+      <c r="HX150" s="5"/>
+      <c r="HY150" s="5"/>
+      <c r="HZ150" s="5"/>
+      <c r="IA150" s="5"/>
+      <c r="IB150" s="5"/>
+      <c r="IC150" s="5"/>
+      <c r="ID150" s="5"/>
+      <c r="IE150" s="5"/>
+      <c r="IF150" s="5"/>
+      <c r="IG150" s="5"/>
+      <c r="IH150" s="5"/>
+      <c r="II150" s="5"/>
+      <c r="IJ150" s="5"/>
+      <c r="IK150" s="5"/>
+      <c r="IL150" s="5"/>
+      <c r="IM150" s="5"/>
+      <c r="IN150" s="5"/>
+      <c r="IO150" s="5"/>
+      <c r="IP150" s="5"/>
+      <c r="IQ150" s="5"/>
+      <c r="IR150" s="5"/>
+      <c r="IS150" s="5"/>
+      <c r="IT150" s="5"/>
+    </row>
+    <row r="151" spans="1:254" s="2" customFormat="1">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:254">
       <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
@@ -7110,7 +7213,7 @@
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="20"/>
+      <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7120,7 +7223,7 @@
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7131,7 +7234,7 @@
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
@@ -7171,7 +7274,7 @@
     <row r="159" spans="1:254">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
+      <c r="C159" s="4"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
@@ -7180,7 +7283,7 @@
     </row>
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
-      <c r="B160" s="22"/>
+      <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -7200,7 +7303,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7210,7 +7313,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7230,7 +7333,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7250,7 +7353,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="20"/>
+      <c r="B167" s="7"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7270,7 +7373,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7290,7 +7393,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="20"/>
+      <c r="B171" s="7"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7310,7 +7413,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7350,7 +7453,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="7"/>
-      <c r="B177" s="6"/>
+      <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
@@ -7360,8 +7463,8 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
@@ -7370,7 +7473,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="19"/>
+      <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7440,7 +7543,7 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="7"/>
-      <c r="B186" s="4"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
@@ -7450,7 +7553,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="19"/>
+      <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7460,7 +7563,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="21"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7480,7 +7583,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="19"/>
+      <c r="B190" s="21"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7521,7 +7624,7 @@
     <row r="194" spans="1:8">
       <c r="A194" s="7"/>
       <c r="B194" s="19"/>
-      <c r="C194" s="7"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -7530,7 +7633,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
-      <c r="B195" s="4"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
@@ -7550,7 +7653,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="19"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7610,7 +7713,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="7"/>
-      <c r="B203" s="21"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
@@ -7650,7 +7753,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="7"/>
-      <c r="B207" s="4"/>
+      <c r="B207" s="21"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
@@ -7660,7 +7763,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="6"/>
+      <c r="B208" s="4"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7670,7 +7773,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="6"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7680,7 +7783,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="19"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7730,7 +7833,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="7"/>
-      <c r="B215" s="21"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
@@ -7740,7 +7843,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="19"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7790,7 +7893,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="7"/>
-      <c r="B221" s="21"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -7850,7 +7953,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="7"/>
-      <c r="B227" s="4"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
@@ -7860,7 +7963,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="6"/>
+      <c r="B228" s="4"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7870,8 +7973,8 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="7"/>
@@ -7880,7 +7983,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="19"/>
+      <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -7890,7 +7993,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="7"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -7900,7 +8003,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="20"/>
+      <c r="B232" s="7"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -7940,7 +8043,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -7950,7 +8053,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="20"/>
+      <c r="B237" s="7"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -7960,7 +8063,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="23"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -7980,7 +8083,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="23"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8020,7 +8123,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
@@ -8030,7 +8133,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="20"/>
+      <c r="B245" s="7"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8080,7 +8183,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="7"/>
-      <c r="B250" s="7"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="4"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
@@ -8090,8 +8193,8 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="7"/>
+      <c r="B251" s="7"/>
+      <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
@@ -8100,7 +8203,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -8110,7 +8213,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
+      <c r="B253" s="7"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -8120,7 +8223,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="23"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -8170,8 +8273,8 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="7"/>
-      <c r="B259" s="20"/>
-      <c r="C259" s="4"/>
+      <c r="B259" s="23"/>
+      <c r="C259" s="7"/>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="7"/>
@@ -8180,7 +8283,7 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="23"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="4"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
@@ -8190,7 +8293,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="24"/>
+      <c r="B261" s="23"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -8218,9 +8321,9 @@
       <c r="G263" s="30"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264" spans="1:8" ht="11.25">
+    <row r="264" spans="1:8">
       <c r="A264" s="7"/>
-      <c r="B264" s="25"/>
+      <c r="B264" s="24"/>
       <c r="C264" s="4"/>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
@@ -8228,9 +8331,9 @@
       <c r="G264" s="30"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" ht="11.25">
       <c r="A265" s="7"/>
-      <c r="B265" s="23"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8270,7 +8373,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="7"/>
-      <c r="B269" s="24"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="4"/>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
@@ -8300,7 +8403,7 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="7"/>
-      <c r="B272" s="23"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="4"/>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
@@ -8310,7 +8413,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="24"/>
+      <c r="B273" s="23"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8318,15 +8421,15 @@
       <c r="G273" s="30"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274" spans="1:8" s="2" customFormat="1">
-      <c r="A274" s="4"/>
+    <row r="274" spans="1:8">
+      <c r="A274" s="7"/>
       <c r="B274" s="24"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="4"/>
-      <c r="G274" s="34"/>
-      <c r="H274" s="4"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
+      <c r="F274" s="7"/>
+      <c r="G274" s="30"/>
+      <c r="H274" s="7"/>
     </row>
     <row r="275" spans="1:8" s="2" customFormat="1">
       <c r="A275" s="4"/>
@@ -8338,19 +8441,19 @@
       <c r="G275" s="34"/>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="1:8">
-      <c r="A276" s="7"/>
+    <row r="276" spans="1:8" s="2" customFormat="1">
+      <c r="A276" s="4"/>
       <c r="B276" s="24"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="30"/>
-      <c r="H276" s="7"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
+      <c r="G276" s="34"/>
+      <c r="H276" s="4"/>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="7"/>
-      <c r="B277" s="23"/>
+      <c r="B277" s="24"/>
       <c r="C277" s="4"/>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
@@ -8360,7 +8463,7 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="24"/>
+      <c r="B278" s="23"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8390,7 +8493,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="7"/>
-      <c r="B281" s="22"/>
+      <c r="B281" s="24"/>
       <c r="C281" s="4"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -8400,7 +8503,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="7"/>
+      <c r="B282" s="22"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8420,7 +8523,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="20"/>
+      <c r="B284" s="7"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8440,7 +8543,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="7"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -8471,7 +8574,7 @@
     <row r="289" spans="1:8">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
+      <c r="C289" s="4"/>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="7"/>
@@ -8480,7 +8583,7 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
-      <c r="B290" s="6"/>
+      <c r="B290" s="7"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
@@ -8490,7 +8593,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="7"/>
+      <c r="B291" s="6"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -8570,7 +8673,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="7"/>
-      <c r="B299" s="6"/>
+      <c r="B299" s="7"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
@@ -8580,8 +8683,8 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="4"/>
-      <c r="C300" s="4"/>
+      <c r="B300" s="6"/>
+      <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="7"/>
@@ -8590,7 +8693,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="19"/>
+      <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8620,7 +8723,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="7"/>
-      <c r="B304" s="4"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -8680,7 +8783,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="7"/>
-      <c r="B310" s="19"/>
+      <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="7"/>
       <c r="E310" s="7"/>
@@ -8700,7 +8803,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="21"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -8710,8 +8813,8 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="7"/>
-      <c r="C313" s="7"/>
+      <c r="B313" s="21"/>
+      <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
       <c r="F313" s="7"/>
@@ -8720,7 +8823,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="6"/>
+      <c r="B314" s="7"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -8728,15 +8831,15 @@
       <c r="G314" s="30"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8" s="2" customFormat="1">
-      <c r="A315" s="4"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="4"/>
-      <c r="G315" s="34"/>
-      <c r="H315" s="4"/>
+    <row r="315" spans="1:8">
+      <c r="A315" s="7"/>
+      <c r="B315" s="6"/>
+      <c r="C315" s="7"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="7"/>
+      <c r="F315" s="7"/>
+      <c r="G315" s="30"/>
+      <c r="H315" s="7"/>
     </row>
     <row r="316" spans="1:8" s="2" customFormat="1">
       <c r="A316" s="4"/>
@@ -8760,7 +8863,7 @@
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
-      <c r="B318" s="19"/>
+      <c r="B318" s="4"/>
       <c r="C318" s="9"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
@@ -8810,8 +8913,8 @@
     </row>
     <row r="323" spans="1:8" s="2" customFormat="1">
       <c r="A323" s="4"/>
-      <c r="B323" s="26"/>
-      <c r="C323" s="4"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="9"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
@@ -8860,7 +8963,7 @@
     </row>
     <row r="328" spans="1:8" s="2" customFormat="1">
       <c r="A328" s="4"/>
-      <c r="B328" s="21"/>
+      <c r="B328" s="26"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
@@ -8910,7 +9013,7 @@
     </row>
     <row r="333" spans="1:8" s="2" customFormat="1">
       <c r="A333" s="4"/>
-      <c r="B333" s="19"/>
+      <c r="B333" s="21"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
@@ -8920,7 +9023,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="21"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -8930,7 +9033,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="4"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -8938,20 +9041,20 @@
       <c r="G335" s="34"/>
       <c r="H335" s="4"/>
     </row>
-    <row r="336" spans="1:8">
-      <c r="A336" s="7"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="7"/>
-      <c r="D336" s="7"/>
-      <c r="E336" s="7"/>
-      <c r="F336" s="7"/>
-      <c r="G336" s="30"/>
-      <c r="H336" s="7"/>
+    <row r="336" spans="1:8" s="2" customFormat="1">
+      <c r="A336" s="4"/>
+      <c r="B336" s="4"/>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+      <c r="G336" s="34"/>
+      <c r="H336" s="4"/>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" s="7"/>
-      <c r="B337" s="7"/>
-      <c r="C337" s="4"/>
+      <c r="B337" s="6"/>
+      <c r="C337" s="7"/>
       <c r="D337" s="7"/>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
@@ -9020,7 +9123,7 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" s="7"/>
-      <c r="B344" s="4"/>
+      <c r="B344" s="7"/>
       <c r="C344" s="4"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -9031,7 +9134,7 @@
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
       <c r="B345" s="4"/>
-      <c r="C345" s="7"/>
+      <c r="C345" s="4"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
       <c r="F345" s="7"/>
@@ -9040,7 +9143,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="4"/>
       <c r="C346" s="7"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9050,7 +9153,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -9060,7 +9163,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="22"/>
+      <c r="B348" s="7"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -9070,7 +9173,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="22"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -9110,7 +9213,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" s="7"/>
-      <c r="B353" s="6"/>
+      <c r="B353" s="7"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7"/>
       <c r="E353" s="7"/>
@@ -9120,7 +9223,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="7"/>
+      <c r="B354" s="6"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -9130,7 +9233,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="20"/>
+      <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9160,7 +9263,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" s="7"/>
-      <c r="B358" s="22"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7"/>
       <c r="E358" s="7"/>
@@ -9170,7 +9273,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="20"/>
+      <c r="B359" s="22"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9190,7 +9293,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="22"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9200,7 +9303,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="20"/>
+      <c r="B362" s="22"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9210,7 +9313,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9220,7 +9323,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9250,7 +9353,7 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="7"/>
-      <c r="B367" s="7"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7"/>
       <c r="E367" s="7"/>
@@ -9260,7 +9363,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="27"/>
+      <c r="B368" s="7"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9270,7 +9373,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="22"/>
+      <c r="B369" s="27"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9280,8 +9383,8 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="7"/>
-      <c r="C370" s="4"/>
+      <c r="B370" s="22"/>
+      <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
       <c r="F370" s="7"/>
@@ -9290,7 +9393,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="20"/>
+      <c r="B371" s="7"/>
       <c r="C371" s="4"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9320,7 +9423,7 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" s="7"/>
-      <c r="B374" s="7"/>
+      <c r="B374" s="20"/>
       <c r="C374" s="4"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -9350,7 +9453,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" s="7"/>
-      <c r="B377" s="20"/>
+      <c r="B377" s="7"/>
       <c r="C377" s="4"/>
       <c r="D377" s="7"/>
       <c r="E377" s="7"/>
@@ -9370,8 +9473,8 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="7"/>
-      <c r="C379" s="7"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="4"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
@@ -9380,7 +9483,7 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="7"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
@@ -9390,7 +9493,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9450,7 +9553,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" s="7"/>
-      <c r="B387" s="6"/>
+      <c r="B387" s="7"/>
       <c r="C387" s="7"/>
       <c r="D387" s="7"/>
       <c r="E387" s="7"/>
@@ -9460,7 +9563,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="7"/>
+      <c r="B388" s="6"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9481,7 +9584,7 @@
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
-      <c r="C390" s="4"/>
+      <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
       <c r="F390" s="7"/>
@@ -9490,7 +9593,7 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
-      <c r="B391" s="20"/>
+      <c r="B391" s="7"/>
       <c r="C391" s="4"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
@@ -9501,7 +9604,7 @@
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
       <c r="B392" s="20"/>
-      <c r="C392" s="7"/>
+      <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
@@ -9510,7 +9613,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="27"/>
+      <c r="B393" s="20"/>
       <c r="C393" s="7"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9520,7 +9623,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="22"/>
+      <c r="B394" s="27"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9570,7 +9673,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" s="7"/>
-      <c r="B399" s="7"/>
+      <c r="B399" s="22"/>
       <c r="C399" s="7"/>
       <c r="D399" s="7"/>
       <c r="E399" s="7"/>
@@ -9580,7 +9683,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="6"/>
+      <c r="B400" s="7"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9590,7 +9693,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="6"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9600,7 +9703,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="20"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9610,7 +9713,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="22"/>
+      <c r="B403" s="20"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9630,7 +9733,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="20"/>
+      <c r="B405" s="22"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9670,7 +9773,7 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="7"/>
-      <c r="B409" s="7"/>
+      <c r="B409" s="20"/>
       <c r="C409" s="7"/>
       <c r="D409" s="7"/>
       <c r="E409" s="7"/>
@@ -9680,7 +9783,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="20"/>
+      <c r="B410" s="7"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9700,7 +9803,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="22"/>
+      <c r="B412" s="20"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9710,7 +9813,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
+      <c r="B413" s="22"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9720,7 +9823,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="7"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9730,7 +9833,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9750,7 +9853,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="6"/>
+      <c r="B417" s="7"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9760,7 +9863,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9770,7 +9873,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="20"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9790,7 +9893,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
+      <c r="B421" s="20"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -9800,7 +9903,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="7"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9810,7 +9913,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9860,7 +9963,7 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" s="7"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="7"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -9870,7 +9973,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9930,7 +10033,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" s="7"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="7"/>
       <c r="C435" s="7"/>
       <c r="D435" s="7"/>
       <c r="E435" s="7"/>
@@ -9940,7 +10043,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="7"/>
+      <c r="B436" s="6"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -9960,7 +10063,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="6"/>
+      <c r="B438" s="7"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -9970,7 +10073,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="4"/>
+      <c r="B439" s="6"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -9990,7 +10093,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="7"/>
+      <c r="B441" s="4"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -10020,7 +10123,7 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" s="7"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="7"/>
       <c r="C444" s="7"/>
       <c r="D444" s="7"/>
       <c r="E444" s="7"/>
@@ -10030,8 +10133,8 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="4"/>
+      <c r="B445" s="6"/>
+      <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
       <c r="F445" s="7"/>
@@ -10081,7 +10184,7 @@
     <row r="450" spans="1:8">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
-      <c r="C450" s="7"/>
+      <c r="C450" s="4"/>
       <c r="D450" s="7"/>
       <c r="E450" s="7"/>
       <c r="F450" s="7"/>
@@ -10090,7 +10193,7 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="7"/>
       <c r="C451" s="7"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
@@ -10100,8 +10203,8 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="7"/>
-      <c r="C452" s="4"/>
+      <c r="B452" s="6"/>
+      <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -10141,7 +10244,7 @@
     <row r="456" spans="1:8">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
-      <c r="C456" s="7"/>
+      <c r="C456" s="4"/>
       <c r="D456" s="7"/>
       <c r="E456" s="7"/>
       <c r="F456" s="7"/>
@@ -10150,7 +10253,7 @@
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="7"/>
       <c r="C457" s="7"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
@@ -10160,7 +10263,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="22"/>
+      <c r="B458" s="6"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -10220,7 +10323,7 @@
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="7"/>
-      <c r="B464" s="7"/>
+      <c r="B464" s="22"/>
       <c r="C464" s="7"/>
       <c r="D464" s="7"/>
       <c r="E464" s="7"/>
@@ -10230,7 +10333,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="6"/>
+      <c r="B465" s="7"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -10240,7 +10343,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="22"/>
+      <c r="B466" s="6"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10269,8 +10372,8 @@
       <c r="H468" s="7"/>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="6"/>
-      <c r="B469" s="7"/>
+      <c r="A469" s="7"/>
+      <c r="B469" s="22"/>
       <c r="C469" s="7"/>
       <c r="D469" s="7"/>
       <c r="E469" s="7"/>
@@ -10279,7 +10382,7 @@
       <c r="H469" s="7"/>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="7"/>
+      <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
@@ -10320,7 +10423,7 @@
     </row>
     <row r="474" spans="1:8">
       <c r="A474" s="7"/>
-      <c r="B474" s="28"/>
+      <c r="B474" s="7"/>
       <c r="C474" s="7"/>
       <c r="D474" s="7"/>
       <c r="E474" s="7"/>
@@ -10350,7 +10453,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
+      <c r="B477" s="28"/>
       <c r="C477" s="7"/>
       <c r="D477" s="7"/>
       <c r="E477" s="7"/>
@@ -10360,7 +10463,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="28"/>
+      <c r="B478" s="7"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -10370,7 +10473,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="28"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -10380,21 +10483,21 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="29"/>
-      <c r="C480" s="30"/>
+      <c r="B480" s="7"/>
+      <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
-      <c r="F480" s="29"/>
+      <c r="F480" s="7"/>
       <c r="G480" s="30"/>
       <c r="H480" s="7"/>
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
-      <c r="C481" s="7"/>
+      <c r="B481" s="29"/>
+      <c r="C481" s="30"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
-      <c r="F481" s="7"/>
+      <c r="F481" s="29"/>
       <c r="G481" s="30"/>
       <c r="H481" s="7"/>
     </row>
@@ -14298,6 +14401,16 @@
       <c r="G871" s="30"/>
       <c r="H871" s="7"/>
     </row>
+    <row r="872" spans="1:8">
+      <c r="A872" s="7"/>
+      <c r="B872" s="7"/>
+      <c r="C872" s="7"/>
+      <c r="D872" s="7"/>
+      <c r="E872" s="7"/>
+      <c r="F872" s="7"/>
+      <c r="G872" s="30"/>
+      <c r="H872" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="226">
   <si>
     <t>Feature</t>
   </si>
@@ -687,6 +687,15 @@
   </si>
   <si>
     <t>goes faster if moved further from the boundary</t>
+  </si>
+  <si>
+    <t>select line</t>
+  </si>
+  <si>
+    <t>select word at marker</t>
+  </si>
+  <si>
+    <t>pluggable word selector</t>
   </si>
 </sst>
 </file>
@@ -946,7 +955,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955213"/>
+          <c:w val="0.91978071330955224"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -979,10 +988,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1015,16 +1024,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$58</c:f>
+              <c:f>Progress!$B$48:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1057,6 +1069,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,10 +1104,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1125,16 +1140,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$58</c:f>
+              <c:f>Progress!$C$48:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1167,6 +1185,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,10 +1220,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1235,16 +1256,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$58</c:f>
+              <c:f>Progress!$D$48:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1276,6 +1300,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1309,10 +1336,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1345,16 +1372,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$62</c:f>
+              <c:f>Progress!$E$48:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1388,21 +1418,24 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145272192"/>
-        <c:axId val="145101952"/>
+        <c:axId val="126266752"/>
+        <c:axId val="126030976"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="145272192"/>
+        <c:axId val="126266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145101952"/>
+        <c:crossAx val="126030976"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1445,7 +1478,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145101952"/>
+        <c:axId val="126030976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145272192"/>
+        <c:crossAx val="126266752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1543,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218403"/>
+          <c:y val="0.33819556996218414"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1577,7 +1610,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1631,7 +1664,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127581E-2"/>
+          <c:x val="4.4510450248127595E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1666,10 +1699,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1702,16 +1735,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$58</c:f>
+              <c:f>Progress!$G$48:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1744,16 +1780,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.39069767441860465</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41095890410958902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145125760"/>
-        <c:axId val="145127296"/>
+        <c:axId val="126054784"/>
+        <c:axId val="126056320"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="145125760"/>
+        <c:axId val="126054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1761,13 +1800,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="145127296"/>
+        <c:crossAx val="126056320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145127296"/>
+        <c:axId val="126056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1810,7 +1849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145125760"/>
+        <c:crossAx val="126054784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1859,7 +1898,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1910,10 +1949,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1946,16 +1985,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$58</c:f>
+              <c:f>Progress!$C$48:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1988,6 +2030,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,10 +2065,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$58</c:f>
+              <c:f>Progress!$A$48:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -2056,16 +2101,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>42952</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$58</c:f>
+              <c:f>Progress!$D$48:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2097,17 +2145,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145152256"/>
-        <c:axId val="145158144"/>
+        <c:axId val="126081280"/>
+        <c:axId val="126615552"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="145152256"/>
+        <c:axId val="126081280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2140,7 +2191,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145158144"/>
+        <c:crossAx val="126615552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2149,7 +2200,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="145158144"/>
+        <c:axId val="126615552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145152256"/>
+        <c:crossAx val="126081280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2240,7 +2291,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001388" r="0.75000000000001388" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2290,7 +2341,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2698,10 +2749,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView topLeftCell="A304" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3683,7 +3734,7 @@
         <v>165</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D128" s="4"/>
     </row>
@@ -3692,7 +3743,7 @@
         <v>166</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D129" s="4"/>
     </row>
@@ -5200,60 +5251,72 @@
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="20"/>
-      <c r="C347" s="7"/>
+      <c r="B347" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="20"/>
-      <c r="C348" s="7"/>
+      <c r="B348" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22"/>
-      <c r="C349" s="7"/>
+      <c r="B349" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C349" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22" t="s">
-        <v>168</v>
+      <c r="B350" s="20" t="s">
+        <v>225</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="22"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C353" s="7" t="s">
+      <c r="B353" s="22"/>
+      <c r="C353" s="7"/>
+      <c r="D353" s="4"/>
+    </row>
+    <row r="354" spans="2:4" s="6" customFormat="1">
+      <c r="B354" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C354" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22"/>
-      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
-      <c r="B355" s="22"/>
-      <c r="C355" s="7"/>
+      <c r="B355" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C355" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
@@ -5262,49 +5325,37 @@
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="7"/>
+      <c r="B357" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
+      <c r="B358" s="22"/>
+      <c r="C358" s="7"/>
+      <c r="D358" s="4"/>
+    </row>
+    <row r="359" spans="2:4" s="6" customFormat="1">
+      <c r="B359" s="22"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="4"/>
+    </row>
+    <row r="360" spans="2:4" s="6" customFormat="1">
+      <c r="B360" s="22"/>
+      <c r="C360" s="7"/>
+      <c r="D360" s="4"/>
+    </row>
+    <row r="361" spans="2:4" s="6" customFormat="1">
+      <c r="B361" s="22"/>
+      <c r="C361" s="7"/>
+      <c r="D361" s="4"/>
+    </row>
+    <row r="362" spans="2:4" s="6" customFormat="1">
+      <c r="B362" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="2:4" s="6" customFormat="1">
-      <c r="B360" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C360" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D360" s="4"/>
-    </row>
-    <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C361" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D361" s="4"/>
-    </row>
-    <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>14</v>
@@ -5313,7 +5364,7 @@
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
       <c r="B363" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>14</v>
@@ -5321,23 +5372,39 @@
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
-      <c r="B364" s="22"/>
-      <c r="C364" s="7"/>
+      <c r="B364" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C364" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="22"/>
-      <c r="C365" s="7"/>
+      <c r="B365" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="22"/>
-      <c r="C366" s="7"/>
+      <c r="B366" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C366" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="22"/>
-      <c r="C367" s="7"/>
+      <c r="B367" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C367" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
@@ -5345,136 +5412,156 @@
       <c r="C368" s="7"/>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="1:4" s="6" customFormat="1">
+    <row r="369" spans="2:4" s="6" customFormat="1">
       <c r="B369" s="22"/>
       <c r="C369" s="7"/>
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="1:4" s="6" customFormat="1">
+    <row r="370" spans="2:4" s="6" customFormat="1">
       <c r="B370" s="22"/>
       <c r="C370" s="7"/>
       <c r="D370" s="4"/>
     </row>
-    <row r="371" spans="1:4" s="6" customFormat="1">
+    <row r="371" spans="2:4" s="6" customFormat="1">
       <c r="B371" s="22"/>
       <c r="C371" s="7"/>
       <c r="D371" s="4"/>
     </row>
-    <row r="372" spans="1:4" s="6" customFormat="1">
+    <row r="372" spans="2:4" s="6" customFormat="1">
       <c r="B372" s="22"/>
       <c r="C372" s="7"/>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" s="6" customFormat="1">
+    <row r="373" spans="2:4" s="6" customFormat="1">
       <c r="B373" s="22"/>
       <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="1:4" s="6" customFormat="1">
+    <row r="374" spans="2:4" s="6" customFormat="1">
       <c r="B374" s="22"/>
       <c r="C374" s="7"/>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="1:4" s="6" customFormat="1">
+    <row r="375" spans="2:4" s="6" customFormat="1">
       <c r="B375" s="22"/>
       <c r="C375" s="7"/>
       <c r="D375" s="4"/>
     </row>
-    <row r="376" spans="1:4" s="6" customFormat="1">
+    <row r="376" spans="2:4" s="6" customFormat="1">
       <c r="B376" s="22"/>
       <c r="C376" s="7"/>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4" s="6" customFormat="1">
+    <row r="377" spans="2:4" s="6" customFormat="1">
       <c r="B377" s="22"/>
-      <c r="C377" s="4"/>
+      <c r="C377" s="7"/>
       <c r="D377" s="4"/>
     </row>
-    <row r="378" spans="1:4" s="6" customFormat="1">
-      <c r="B378" s="19"/>
-      <c r="C378" s="4"/>
+    <row r="378" spans="2:4" s="6" customFormat="1">
+      <c r="B378" s="22"/>
+      <c r="C378" s="7"/>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="1:4" s="6" customFormat="1">
-      <c r="B379" s="21"/>
-      <c r="C379" s="4"/>
+    <row r="379" spans="2:4" s="6" customFormat="1">
+      <c r="B379" s="22"/>
+      <c r="C379" s="7"/>
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="1:4" s="6" customFormat="1">
-      <c r="B380" s="21"/>
-      <c r="C380" s="4"/>
+    <row r="380" spans="2:4" s="6" customFormat="1">
+      <c r="B380" s="22"/>
+      <c r="C380" s="7"/>
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="3"/>
-      <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
-      <c r="D381" s="3"/>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="3"/>
-      <c r="B382" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C382" s="6">
-        <f>COUNTIF(C5:C381,"y")</f>
-        <v>84</v>
-      </c>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="3"/>
-      <c r="B383" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C383" s="6">
-        <f>COUNTIF(C5:C381,"n")</f>
-        <v>131</v>
-      </c>
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="3"/>
-      <c r="B384" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C384" s="7">
-        <f>COUNTIF(C5:C381,"TBD")</f>
-        <v>0</v>
-      </c>
-      <c r="D384" s="2"/>
+    <row r="381" spans="2:4" s="6" customFormat="1">
+      <c r="B381" s="22"/>
+      <c r="C381" s="4"/>
+      <c r="D381" s="4"/>
+    </row>
+    <row r="382" spans="2:4" s="6" customFormat="1">
+      <c r="B382" s="19"/>
+      <c r="C382" s="4"/>
+      <c r="D382" s="4"/>
+    </row>
+    <row r="383" spans="2:4" s="6" customFormat="1">
+      <c r="B383" s="21"/>
+      <c r="C383" s="4"/>
+      <c r="D383" s="4"/>
+    </row>
+    <row r="384" spans="2:4" s="6" customFormat="1">
+      <c r="B384" s="21"/>
+      <c r="C384" s="4"/>
+      <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="3"/>
-      <c r="B385" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385">
-        <f>SUM(C382:C384)</f>
-        <v>215</v>
-      </c>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="1:4" ht="18">
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="3"/>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="3"/>
-      <c r="B386" s="10"/>
-      <c r="C386" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D386" s="41">
-        <f>C382/(C383+C382 + C384)</f>
-        <v>0.39069767441860465</v>
-      </c>
+      <c r="B386" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" s="6">
+        <f>COUNTIF(C5:C385,"y")</f>
+        <v>90</v>
+      </c>
+      <c r="D386" s="2"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="3"/>
-      <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
-      <c r="D387" s="3"/>
+      <c r="B387" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" s="6">
+        <f>COUNTIF(C5:C385,"n")</f>
+        <v>129</v>
+      </c>
+      <c r="D387" s="2"/>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="3"/>
+      <c r="B388" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C388" s="7">
+        <f>COUNTIF(C5:C385,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D388" s="2"/>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="3"/>
+      <c r="B389" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <f>SUM(C386:C388)</f>
+        <v>219</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4" ht="18">
+      <c r="A390" s="3"/>
+      <c r="B390" s="10"/>
+      <c r="C390" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D390" s="41">
+        <f>C386/(C387+C386 + C388)</f>
+        <v>0.41095890410958902</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="3"/>
+      <c r="B391" s="11"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C276:C65135 C246:C274 C1:C3 C6:C244">
+  <conditionalFormatting sqref="C276:C65139 C246:C274 C1:C3 C6:C244">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5496,11 +5583,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT872"/>
+  <dimension ref="A1:IT873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5823,7 +5910,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G57" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G58" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -5984,19 +6071,32 @@
       </c>
       <c r="F58" s="48"/>
       <c r="G58" s="30">
-        <f t="shared" ref="G58" si="3">B58/SUM(B58:E58)</f>
+        <f t="shared" si="2"/>
         <v>0.39069767441860465</v>
       </c>
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="47"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
+      <c r="A59" s="47">
+        <v>42966</v>
+      </c>
+      <c r="B59" s="4">
+        <v>90</v>
+      </c>
+      <c r="C59" s="4">
+        <v>129</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="30">
+        <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
+        <v>0.41095890410958902</v>
+      </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
@@ -6005,84 +6105,84 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="31"/>
+      <c r="F60" s="28"/>
       <c r="G60" s="30"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D62" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="14" t="s">
+      <c r="E62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="38">
-        <f>MIN(G58)</f>
-        <v>0.39069767441860465</v>
-      </c>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="39">
-        <f>SUM(B62:D62)</f>
-        <v>215</v>
-      </c>
-      <c r="B62" s="15">
-        <f>Features!C382</f>
-        <v>84</v>
-      </c>
-      <c r="C62" s="16">
-        <f>Features!C383</f>
-        <v>131</v>
-      </c>
-      <c r="D62" s="17">
-        <f>Features!C384</f>
+      <c r="G62" s="38">
+        <f>MIN(G59)</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="39">
+        <f>SUM(B63:D63)</f>
+        <v>219</v>
+      </c>
+      <c r="B63" s="15">
+        <f>Features!C386</f>
+        <v>90</v>
+      </c>
+      <c r="C63" s="16">
+        <f>Features!C387</f>
+        <v>129</v>
+      </c>
+      <c r="D63" s="17">
+        <f>Features!C388</f>
         <v>0</v>
       </c>
-      <c r="E62" s="18">
-        <f>MIN(E58)</f>
+      <c r="E63" s="18">
+        <f>MIN(E59)</f>
         <v>0</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="30"/>
       <c r="H63" s="7"/>
-      <c r="J63" s="36"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="30"/>
       <c r="H64" s="7"/>
+      <c r="J64" s="36"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6091,13 +6191,8 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B66" s="49">
-        <f>(A58-A48)*A62/B62 +A48</f>
-        <v>43346.559523809527</v>
-      </c>
+      <c r="A66" s="4"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6106,8 +6201,13 @@
       <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="49">
+        <f>(A59-A48)*A63/B63 +A48</f>
+        <v>43348.7</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -6117,7 +6217,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="4"/>
-      <c r="B68" s="19"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6137,7 +6237,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -6157,7 +6257,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="4"/>
-      <c r="B72" s="7"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -6167,7 +6267,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="4"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -6186,7 +6286,7 @@
       <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="7"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
       <c r="D75" s="7"/>
@@ -6197,7 +6297,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -6328,7 +6428,7 @@
     <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -6337,7 +6437,7 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="7"/>
-      <c r="B90" s="6"/>
+      <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -6345,15 +6445,15 @@
       <c r="G90" s="30"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="4"/>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="7"/>
     </row>
     <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="4"/>
@@ -6527,7 +6627,7 @@
     </row>
     <row r="109" spans="1:8" s="2" customFormat="1">
       <c r="A109" s="4"/>
-      <c r="B109" s="6"/>
+      <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
@@ -6537,7 +6637,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="6"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6567,7 +6667,7 @@
     </row>
     <row r="113" spans="1:8" s="2" customFormat="1">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -6607,7 +6707,7 @@
     </row>
     <row r="117" spans="1:8" s="2" customFormat="1">
       <c r="A117" s="4"/>
-      <c r="B117" s="21"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -6617,7 +6717,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6627,7 +6727,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="6"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6637,7 +6737,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6647,7 +6747,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6667,7 +6767,7 @@
     </row>
     <row r="123" spans="1:8" s="2" customFormat="1">
       <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
@@ -6727,7 +6827,7 @@
     </row>
     <row r="129" spans="1:8" s="2" customFormat="1">
       <c r="A129" s="4"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -6827,7 +6927,7 @@
     </row>
     <row r="139" spans="1:8" s="2" customFormat="1">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -6877,7 +6977,7 @@
     </row>
     <row r="144" spans="1:8" s="2" customFormat="1">
       <c r="A144" s="4"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -6897,7 +6997,7 @@
     </row>
     <row r="146" spans="1:254" s="2" customFormat="1">
       <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -6936,284 +7036,284 @@
       <c r="H149" s="4"/>
     </row>
     <row r="150" spans="1:254" s="2" customFormat="1">
-      <c r="A150" s="21"/>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="35"/>
-      <c r="H150" s="21"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-      <c r="AA150" s="5"/>
-      <c r="AB150" s="5"/>
-      <c r="AC150" s="5"/>
-      <c r="AD150" s="5"/>
-      <c r="AE150" s="5"/>
-      <c r="AF150" s="5"/>
-      <c r="AG150" s="5"/>
-      <c r="AH150" s="5"/>
-      <c r="AI150" s="5"/>
-      <c r="AJ150" s="5"/>
-      <c r="AK150" s="5"/>
-      <c r="AL150" s="5"/>
-      <c r="AM150" s="5"/>
-      <c r="AN150" s="5"/>
-      <c r="AO150" s="5"/>
-      <c r="AP150" s="5"/>
-      <c r="AQ150" s="5"/>
-      <c r="AR150" s="5"/>
-      <c r="AS150" s="5"/>
-      <c r="AT150" s="5"/>
-      <c r="AU150" s="5"/>
-      <c r="AV150" s="5"/>
-      <c r="AW150" s="5"/>
-      <c r="AX150" s="5"/>
-      <c r="AY150" s="5"/>
-      <c r="AZ150" s="5"/>
-      <c r="BA150" s="5"/>
-      <c r="BB150" s="5"/>
-      <c r="BC150" s="5"/>
-      <c r="BD150" s="5"/>
-      <c r="BE150" s="5"/>
-      <c r="BF150" s="5"/>
-      <c r="BG150" s="5"/>
-      <c r="BH150" s="5"/>
-      <c r="BI150" s="5"/>
-      <c r="BJ150" s="5"/>
-      <c r="BK150" s="5"/>
-      <c r="BL150" s="5"/>
-      <c r="BM150" s="5"/>
-      <c r="BN150" s="5"/>
-      <c r="BO150" s="5"/>
-      <c r="BP150" s="5"/>
-      <c r="BQ150" s="5"/>
-      <c r="BR150" s="5"/>
-      <c r="BS150" s="5"/>
-      <c r="BT150" s="5"/>
-      <c r="BU150" s="5"/>
-      <c r="BV150" s="5"/>
-      <c r="BW150" s="5"/>
-      <c r="BX150" s="5"/>
-      <c r="BY150" s="5"/>
-      <c r="BZ150" s="5"/>
-      <c r="CA150" s="5"/>
-      <c r="CB150" s="5"/>
-      <c r="CC150" s="5"/>
-      <c r="CD150" s="5"/>
-      <c r="CE150" s="5"/>
-      <c r="CF150" s="5"/>
-      <c r="CG150" s="5"/>
-      <c r="CH150" s="5"/>
-      <c r="CI150" s="5"/>
-      <c r="CJ150" s="5"/>
-      <c r="CK150" s="5"/>
-      <c r="CL150" s="5"/>
-      <c r="CM150" s="5"/>
-      <c r="CN150" s="5"/>
-      <c r="CO150" s="5"/>
-      <c r="CP150" s="5"/>
-      <c r="CQ150" s="5"/>
-      <c r="CR150" s="5"/>
-      <c r="CS150" s="5"/>
-      <c r="CT150" s="5"/>
-      <c r="CU150" s="5"/>
-      <c r="CV150" s="5"/>
-      <c r="CW150" s="5"/>
-      <c r="CX150" s="5"/>
-      <c r="CY150" s="5"/>
-      <c r="CZ150" s="5"/>
-      <c r="DA150" s="5"/>
-      <c r="DB150" s="5"/>
-      <c r="DC150" s="5"/>
-      <c r="DD150" s="5"/>
-      <c r="DE150" s="5"/>
-      <c r="DF150" s="5"/>
-      <c r="DG150" s="5"/>
-      <c r="DH150" s="5"/>
-      <c r="DI150" s="5"/>
-      <c r="DJ150" s="5"/>
-      <c r="DK150" s="5"/>
-      <c r="DL150" s="5"/>
-      <c r="DM150" s="5"/>
-      <c r="DN150" s="5"/>
-      <c r="DO150" s="5"/>
-      <c r="DP150" s="5"/>
-      <c r="DQ150" s="5"/>
-      <c r="DR150" s="5"/>
-      <c r="DS150" s="5"/>
-      <c r="DT150" s="5"/>
-      <c r="DU150" s="5"/>
-      <c r="DV150" s="5"/>
-      <c r="DW150" s="5"/>
-      <c r="DX150" s="5"/>
-      <c r="DY150" s="5"/>
-      <c r="DZ150" s="5"/>
-      <c r="EA150" s="5"/>
-      <c r="EB150" s="5"/>
-      <c r="EC150" s="5"/>
-      <c r="ED150" s="5"/>
-      <c r="EE150" s="5"/>
-      <c r="EF150" s="5"/>
-      <c r="EG150" s="5"/>
-      <c r="EH150" s="5"/>
-      <c r="EI150" s="5"/>
-      <c r="EJ150" s="5"/>
-      <c r="EK150" s="5"/>
-      <c r="EL150" s="5"/>
-      <c r="EM150" s="5"/>
-      <c r="EN150" s="5"/>
-      <c r="EO150" s="5"/>
-      <c r="EP150" s="5"/>
-      <c r="EQ150" s="5"/>
-      <c r="ER150" s="5"/>
-      <c r="ES150" s="5"/>
-      <c r="ET150" s="5"/>
-      <c r="EU150" s="5"/>
-      <c r="EV150" s="5"/>
-      <c r="EW150" s="5"/>
-      <c r="EX150" s="5"/>
-      <c r="EY150" s="5"/>
-      <c r="EZ150" s="5"/>
-      <c r="FA150" s="5"/>
-      <c r="FB150" s="5"/>
-      <c r="FC150" s="5"/>
-      <c r="FD150" s="5"/>
-      <c r="FE150" s="5"/>
-      <c r="FF150" s="5"/>
-      <c r="FG150" s="5"/>
-      <c r="FH150" s="5"/>
-      <c r="FI150" s="5"/>
-      <c r="FJ150" s="5"/>
-      <c r="FK150" s="5"/>
-      <c r="FL150" s="5"/>
-      <c r="FM150" s="5"/>
-      <c r="FN150" s="5"/>
-      <c r="FO150" s="5"/>
-      <c r="FP150" s="5"/>
-      <c r="FQ150" s="5"/>
-      <c r="FR150" s="5"/>
-      <c r="FS150" s="5"/>
-      <c r="FT150" s="5"/>
-      <c r="FU150" s="5"/>
-      <c r="FV150" s="5"/>
-      <c r="FW150" s="5"/>
-      <c r="FX150" s="5"/>
-      <c r="FY150" s="5"/>
-      <c r="FZ150" s="5"/>
-      <c r="GA150" s="5"/>
-      <c r="GB150" s="5"/>
-      <c r="GC150" s="5"/>
-      <c r="GD150" s="5"/>
-      <c r="GE150" s="5"/>
-      <c r="GF150" s="5"/>
-      <c r="GG150" s="5"/>
-      <c r="GH150" s="5"/>
-      <c r="GI150" s="5"/>
-      <c r="GJ150" s="5"/>
-      <c r="GK150" s="5"/>
-      <c r="GL150" s="5"/>
-      <c r="GM150" s="5"/>
-      <c r="GN150" s="5"/>
-      <c r="GO150" s="5"/>
-      <c r="GP150" s="5"/>
-      <c r="GQ150" s="5"/>
-      <c r="GR150" s="5"/>
-      <c r="GS150" s="5"/>
-      <c r="GT150" s="5"/>
-      <c r="GU150" s="5"/>
-      <c r="GV150" s="5"/>
-      <c r="GW150" s="5"/>
-      <c r="GX150" s="5"/>
-      <c r="GY150" s="5"/>
-      <c r="GZ150" s="5"/>
-      <c r="HA150" s="5"/>
-      <c r="HB150" s="5"/>
-      <c r="HC150" s="5"/>
-      <c r="HD150" s="5"/>
-      <c r="HE150" s="5"/>
-      <c r="HF150" s="5"/>
-      <c r="HG150" s="5"/>
-      <c r="HH150" s="5"/>
-      <c r="HI150" s="5"/>
-      <c r="HJ150" s="5"/>
-      <c r="HK150" s="5"/>
-      <c r="HL150" s="5"/>
-      <c r="HM150" s="5"/>
-      <c r="HN150" s="5"/>
-      <c r="HO150" s="5"/>
-      <c r="HP150" s="5"/>
-      <c r="HQ150" s="5"/>
-      <c r="HR150" s="5"/>
-      <c r="HS150" s="5"/>
-      <c r="HT150" s="5"/>
-      <c r="HU150" s="5"/>
-      <c r="HV150" s="5"/>
-      <c r="HW150" s="5"/>
-      <c r="HX150" s="5"/>
-      <c r="HY150" s="5"/>
-      <c r="HZ150" s="5"/>
-      <c r="IA150" s="5"/>
-      <c r="IB150" s="5"/>
-      <c r="IC150" s="5"/>
-      <c r="ID150" s="5"/>
-      <c r="IE150" s="5"/>
-      <c r="IF150" s="5"/>
-      <c r="IG150" s="5"/>
-      <c r="IH150" s="5"/>
-      <c r="II150" s="5"/>
-      <c r="IJ150" s="5"/>
-      <c r="IK150" s="5"/>
-      <c r="IL150" s="5"/>
-      <c r="IM150" s="5"/>
-      <c r="IN150" s="5"/>
-      <c r="IO150" s="5"/>
-      <c r="IP150" s="5"/>
-      <c r="IQ150" s="5"/>
-      <c r="IR150" s="5"/>
-      <c r="IS150" s="5"/>
-      <c r="IT150" s="5"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254" s="2" customFormat="1">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="34"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="1:254">
-      <c r="A152" s="7"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="30"/>
-      <c r="H152" s="7"/>
+      <c r="A151" s="21"/>
+      <c r="B151" s="21"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="21"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="5"/>
+      <c r="W151" s="5"/>
+      <c r="X151" s="5"/>
+      <c r="Y151" s="5"/>
+      <c r="Z151" s="5"/>
+      <c r="AA151" s="5"/>
+      <c r="AB151" s="5"/>
+      <c r="AC151" s="5"/>
+      <c r="AD151" s="5"/>
+      <c r="AE151" s="5"/>
+      <c r="AF151" s="5"/>
+      <c r="AG151" s="5"/>
+      <c r="AH151" s="5"/>
+      <c r="AI151" s="5"/>
+      <c r="AJ151" s="5"/>
+      <c r="AK151" s="5"/>
+      <c r="AL151" s="5"/>
+      <c r="AM151" s="5"/>
+      <c r="AN151" s="5"/>
+      <c r="AO151" s="5"/>
+      <c r="AP151" s="5"/>
+      <c r="AQ151" s="5"/>
+      <c r="AR151" s="5"/>
+      <c r="AS151" s="5"/>
+      <c r="AT151" s="5"/>
+      <c r="AU151" s="5"/>
+      <c r="AV151" s="5"/>
+      <c r="AW151" s="5"/>
+      <c r="AX151" s="5"/>
+      <c r="AY151" s="5"/>
+      <c r="AZ151" s="5"/>
+      <c r="BA151" s="5"/>
+      <c r="BB151" s="5"/>
+      <c r="BC151" s="5"/>
+      <c r="BD151" s="5"/>
+      <c r="BE151" s="5"/>
+      <c r="BF151" s="5"/>
+      <c r="BG151" s="5"/>
+      <c r="BH151" s="5"/>
+      <c r="BI151" s="5"/>
+      <c r="BJ151" s="5"/>
+      <c r="BK151" s="5"/>
+      <c r="BL151" s="5"/>
+      <c r="BM151" s="5"/>
+      <c r="BN151" s="5"/>
+      <c r="BO151" s="5"/>
+      <c r="BP151" s="5"/>
+      <c r="BQ151" s="5"/>
+      <c r="BR151" s="5"/>
+      <c r="BS151" s="5"/>
+      <c r="BT151" s="5"/>
+      <c r="BU151" s="5"/>
+      <c r="BV151" s="5"/>
+      <c r="BW151" s="5"/>
+      <c r="BX151" s="5"/>
+      <c r="BY151" s="5"/>
+      <c r="BZ151" s="5"/>
+      <c r="CA151" s="5"/>
+      <c r="CB151" s="5"/>
+      <c r="CC151" s="5"/>
+      <c r="CD151" s="5"/>
+      <c r="CE151" s="5"/>
+      <c r="CF151" s="5"/>
+      <c r="CG151" s="5"/>
+      <c r="CH151" s="5"/>
+      <c r="CI151" s="5"/>
+      <c r="CJ151" s="5"/>
+      <c r="CK151" s="5"/>
+      <c r="CL151" s="5"/>
+      <c r="CM151" s="5"/>
+      <c r="CN151" s="5"/>
+      <c r="CO151" s="5"/>
+      <c r="CP151" s="5"/>
+      <c r="CQ151" s="5"/>
+      <c r="CR151" s="5"/>
+      <c r="CS151" s="5"/>
+      <c r="CT151" s="5"/>
+      <c r="CU151" s="5"/>
+      <c r="CV151" s="5"/>
+      <c r="CW151" s="5"/>
+      <c r="CX151" s="5"/>
+      <c r="CY151" s="5"/>
+      <c r="CZ151" s="5"/>
+      <c r="DA151" s="5"/>
+      <c r="DB151" s="5"/>
+      <c r="DC151" s="5"/>
+      <c r="DD151" s="5"/>
+      <c r="DE151" s="5"/>
+      <c r="DF151" s="5"/>
+      <c r="DG151" s="5"/>
+      <c r="DH151" s="5"/>
+      <c r="DI151" s="5"/>
+      <c r="DJ151" s="5"/>
+      <c r="DK151" s="5"/>
+      <c r="DL151" s="5"/>
+      <c r="DM151" s="5"/>
+      <c r="DN151" s="5"/>
+      <c r="DO151" s="5"/>
+      <c r="DP151" s="5"/>
+      <c r="DQ151" s="5"/>
+      <c r="DR151" s="5"/>
+      <c r="DS151" s="5"/>
+      <c r="DT151" s="5"/>
+      <c r="DU151" s="5"/>
+      <c r="DV151" s="5"/>
+      <c r="DW151" s="5"/>
+      <c r="DX151" s="5"/>
+      <c r="DY151" s="5"/>
+      <c r="DZ151" s="5"/>
+      <c r="EA151" s="5"/>
+      <c r="EB151" s="5"/>
+      <c r="EC151" s="5"/>
+      <c r="ED151" s="5"/>
+      <c r="EE151" s="5"/>
+      <c r="EF151" s="5"/>
+      <c r="EG151" s="5"/>
+      <c r="EH151" s="5"/>
+      <c r="EI151" s="5"/>
+      <c r="EJ151" s="5"/>
+      <c r="EK151" s="5"/>
+      <c r="EL151" s="5"/>
+      <c r="EM151" s="5"/>
+      <c r="EN151" s="5"/>
+      <c r="EO151" s="5"/>
+      <c r="EP151" s="5"/>
+      <c r="EQ151" s="5"/>
+      <c r="ER151" s="5"/>
+      <c r="ES151" s="5"/>
+      <c r="ET151" s="5"/>
+      <c r="EU151" s="5"/>
+      <c r="EV151" s="5"/>
+      <c r="EW151" s="5"/>
+      <c r="EX151" s="5"/>
+      <c r="EY151" s="5"/>
+      <c r="EZ151" s="5"/>
+      <c r="FA151" s="5"/>
+      <c r="FB151" s="5"/>
+      <c r="FC151" s="5"/>
+      <c r="FD151" s="5"/>
+      <c r="FE151" s="5"/>
+      <c r="FF151" s="5"/>
+      <c r="FG151" s="5"/>
+      <c r="FH151" s="5"/>
+      <c r="FI151" s="5"/>
+      <c r="FJ151" s="5"/>
+      <c r="FK151" s="5"/>
+      <c r="FL151" s="5"/>
+      <c r="FM151" s="5"/>
+      <c r="FN151" s="5"/>
+      <c r="FO151" s="5"/>
+      <c r="FP151" s="5"/>
+      <c r="FQ151" s="5"/>
+      <c r="FR151" s="5"/>
+      <c r="FS151" s="5"/>
+      <c r="FT151" s="5"/>
+      <c r="FU151" s="5"/>
+      <c r="FV151" s="5"/>
+      <c r="FW151" s="5"/>
+      <c r="FX151" s="5"/>
+      <c r="FY151" s="5"/>
+      <c r="FZ151" s="5"/>
+      <c r="GA151" s="5"/>
+      <c r="GB151" s="5"/>
+      <c r="GC151" s="5"/>
+      <c r="GD151" s="5"/>
+      <c r="GE151" s="5"/>
+      <c r="GF151" s="5"/>
+      <c r="GG151" s="5"/>
+      <c r="GH151" s="5"/>
+      <c r="GI151" s="5"/>
+      <c r="GJ151" s="5"/>
+      <c r="GK151" s="5"/>
+      <c r="GL151" s="5"/>
+      <c r="GM151" s="5"/>
+      <c r="GN151" s="5"/>
+      <c r="GO151" s="5"/>
+      <c r="GP151" s="5"/>
+      <c r="GQ151" s="5"/>
+      <c r="GR151" s="5"/>
+      <c r="GS151" s="5"/>
+      <c r="GT151" s="5"/>
+      <c r="GU151" s="5"/>
+      <c r="GV151" s="5"/>
+      <c r="GW151" s="5"/>
+      <c r="GX151" s="5"/>
+      <c r="GY151" s="5"/>
+      <c r="GZ151" s="5"/>
+      <c r="HA151" s="5"/>
+      <c r="HB151" s="5"/>
+      <c r="HC151" s="5"/>
+      <c r="HD151" s="5"/>
+      <c r="HE151" s="5"/>
+      <c r="HF151" s="5"/>
+      <c r="HG151" s="5"/>
+      <c r="HH151" s="5"/>
+      <c r="HI151" s="5"/>
+      <c r="HJ151" s="5"/>
+      <c r="HK151" s="5"/>
+      <c r="HL151" s="5"/>
+      <c r="HM151" s="5"/>
+      <c r="HN151" s="5"/>
+      <c r="HO151" s="5"/>
+      <c r="HP151" s="5"/>
+      <c r="HQ151" s="5"/>
+      <c r="HR151" s="5"/>
+      <c r="HS151" s="5"/>
+      <c r="HT151" s="5"/>
+      <c r="HU151" s="5"/>
+      <c r="HV151" s="5"/>
+      <c r="HW151" s="5"/>
+      <c r="HX151" s="5"/>
+      <c r="HY151" s="5"/>
+      <c r="HZ151" s="5"/>
+      <c r="IA151" s="5"/>
+      <c r="IB151" s="5"/>
+      <c r="IC151" s="5"/>
+      <c r="ID151" s="5"/>
+      <c r="IE151" s="5"/>
+      <c r="IF151" s="5"/>
+      <c r="IG151" s="5"/>
+      <c r="IH151" s="5"/>
+      <c r="II151" s="5"/>
+      <c r="IJ151" s="5"/>
+      <c r="IK151" s="5"/>
+      <c r="IL151" s="5"/>
+      <c r="IM151" s="5"/>
+      <c r="IN151" s="5"/>
+      <c r="IO151" s="5"/>
+      <c r="IP151" s="5"/>
+      <c r="IQ151" s="5"/>
+      <c r="IR151" s="5"/>
+      <c r="IS151" s="5"/>
+      <c r="IT151" s="5"/>
+    </row>
+    <row r="152" spans="1:254" s="2" customFormat="1">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="1:254">
       <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -7223,7 +7323,7 @@
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="20"/>
+      <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7233,7 +7333,7 @@
     </row>
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -7244,7 +7344,7 @@
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="7"/>
@@ -7284,7 +7384,7 @@
     <row r="160" spans="1:254">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
+      <c r="C160" s="4"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
@@ -7293,7 +7393,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
-      <c r="B161" s="22"/>
+      <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
@@ -7313,7 +7413,7 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
@@ -7323,7 +7423,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="20"/>
+      <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7343,7 +7443,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
@@ -7363,7 +7463,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="7"/>
-      <c r="B168" s="20"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
@@ -7383,7 +7483,7 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
@@ -7403,7 +7503,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="7"/>
-      <c r="B172" s="20"/>
+      <c r="B172" s="7"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
@@ -7423,7 +7523,7 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
@@ -7463,7 +7563,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="7"/>
-      <c r="B178" s="6"/>
+      <c r="B178" s="7"/>
       <c r="C178" s="7"/>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
@@ -7473,8 +7573,8 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -7483,7 +7583,7 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="19"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
@@ -7553,7 +7653,7 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="7"/>
-      <c r="B187" s="4"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="4"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -7563,7 +7663,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7573,7 +7673,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="21"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7593,7 +7693,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="7"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="4"/>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
@@ -7634,7 +7734,7 @@
     <row r="195" spans="1:8">
       <c r="A195" s="7"/>
       <c r="B195" s="19"/>
-      <c r="C195" s="7"/>
+      <c r="C195" s="4"/>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -7643,7 +7743,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
-      <c r="B196" s="4"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
@@ -7663,7 +7763,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="7"/>
-      <c r="B198" s="19"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
@@ -7723,7 +7823,7 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="7"/>
-      <c r="B204" s="21"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
@@ -7763,7 +7863,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="7"/>
-      <c r="B208" s="4"/>
+      <c r="B208" s="21"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
@@ -7773,7 +7873,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="6"/>
+      <c r="B209" s="4"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7783,7 +7883,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="4"/>
+      <c r="B210" s="6"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7793,7 +7893,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="19"/>
+      <c r="B211" s="4"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7843,7 +7943,7 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="7"/>
-      <c r="B216" s="21"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -7853,7 +7953,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="19"/>
+      <c r="B217" s="21"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -7903,7 +8003,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="7"/>
-      <c r="B222" s="21"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="7"/>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
@@ -7963,7 +8063,7 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
+      <c r="B228" s="21"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
@@ -7973,7 +8073,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="6"/>
+      <c r="B229" s="4"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -7983,8 +8083,8 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
@@ -7993,7 +8093,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="19"/>
+      <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -8003,7 +8103,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8013,7 +8113,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="20"/>
+      <c r="B233" s="7"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8053,7 +8153,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="7"/>
-      <c r="B237" s="7"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="4"/>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
@@ -8063,7 +8163,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="20"/>
+      <c r="B238" s="7"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -8073,7 +8173,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="23"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -8093,7 +8193,7 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="7"/>
-      <c r="B241" s="20"/>
+      <c r="B241" s="23"/>
       <c r="C241" s="4"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -8133,7 +8233,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="7"/>
-      <c r="B245" s="7"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="4"/>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
@@ -8143,7 +8243,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="20"/>
+      <c r="B246" s="7"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8193,7 +8293,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="7"/>
-      <c r="B251" s="7"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="4"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -8203,8 +8303,8 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="7"/>
+      <c r="B252" s="7"/>
+      <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
@@ -8213,7 +8313,7 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="7"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="7"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
@@ -8223,7 +8323,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="20"/>
+      <c r="B254" s="7"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -8233,7 +8333,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="23"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -8283,8 +8383,8 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="7"/>
-      <c r="B260" s="20"/>
-      <c r="C260" s="4"/>
+      <c r="B260" s="23"/>
+      <c r="C260" s="7"/>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
@@ -8293,7 +8393,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="23"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="4"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -8303,7 +8403,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="24"/>
+      <c r="B262" s="23"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8331,9 +8431,9 @@
       <c r="G264" s="30"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265" spans="1:8" ht="11.25">
+    <row r="265" spans="1:8">
       <c r="A265" s="7"/>
-      <c r="B265" s="25"/>
+      <c r="B265" s="24"/>
       <c r="C265" s="4"/>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
@@ -8341,9 +8441,9 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" ht="11.25">
       <c r="A266" s="7"/>
-      <c r="B266" s="23"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8383,7 +8483,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="7"/>
-      <c r="B270" s="24"/>
+      <c r="B270" s="23"/>
       <c r="C270" s="4"/>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
@@ -8413,7 +8513,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="7"/>
-      <c r="B273" s="23"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="4"/>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
@@ -8423,7 +8523,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="24"/>
+      <c r="B274" s="23"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8431,15 +8531,15 @@
       <c r="G274" s="30"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275" spans="1:8" s="2" customFormat="1">
-      <c r="A275" s="4"/>
+    <row r="275" spans="1:8">
+      <c r="A275" s="7"/>
       <c r="B275" s="24"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="4"/>
-      <c r="G275" s="34"/>
-      <c r="H275" s="4"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="7"/>
+      <c r="F275" s="7"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="7"/>
     </row>
     <row r="276" spans="1:8" s="2" customFormat="1">
       <c r="A276" s="4"/>
@@ -8451,19 +8551,19 @@
       <c r="G276" s="34"/>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="1:8">
-      <c r="A277" s="7"/>
+    <row r="277" spans="1:8" s="2" customFormat="1">
+      <c r="A277" s="4"/>
       <c r="B277" s="24"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="7"/>
-      <c r="E277" s="7"/>
-      <c r="F277" s="7"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="7"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
+      <c r="G277" s="34"/>
+      <c r="H277" s="4"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="7"/>
-      <c r="B278" s="23"/>
+      <c r="B278" s="24"/>
       <c r="C278" s="4"/>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
@@ -8473,7 +8573,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="24"/>
+      <c r="B279" s="23"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8503,7 +8603,7 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="7"/>
-      <c r="B282" s="22"/>
+      <c r="B282" s="24"/>
       <c r="C282" s="4"/>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
@@ -8513,7 +8613,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="7"/>
+      <c r="B283" s="22"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8533,7 +8633,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="7"/>
-      <c r="B285" s="20"/>
+      <c r="B285" s="7"/>
       <c r="C285" s="4"/>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
@@ -8553,7 +8653,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="7"/>
-      <c r="B287" s="7"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="4"/>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
@@ -8584,7 +8684,7 @@
     <row r="290" spans="1:8">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
-      <c r="C290" s="7"/>
+      <c r="C290" s="4"/>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="7"/>
@@ -8593,7 +8693,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="7"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
@@ -8603,7 +8703,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
+      <c r="B292" s="6"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8683,7 +8783,7 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="7"/>
-      <c r="B300" s="6"/>
+      <c r="B300" s="7"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
@@ -8693,8 +8793,8 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="4"/>
-      <c r="C301" s="4"/>
+      <c r="B301" s="6"/>
+      <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="7"/>
@@ -8703,7 +8803,7 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
@@ -8733,7 +8833,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="7"/>
-      <c r="B305" s="4"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="4"/>
       <c r="D305" s="7"/>
       <c r="E305" s="7"/>
@@ -8793,7 +8893,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="7"/>
-      <c r="B311" s="19"/>
+      <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="7"/>
       <c r="E311" s="7"/>
@@ -8813,7 +8913,7 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="7"/>
-      <c r="B313" s="21"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="4"/>
       <c r="D313" s="7"/>
       <c r="E313" s="7"/>
@@ -8823,8 +8923,8 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="7"/>
-      <c r="C314" s="7"/>
+      <c r="B314" s="21"/>
+      <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
       <c r="F314" s="7"/>
@@ -8833,7 +8933,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="6"/>
+      <c r="B315" s="7"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
@@ -8841,15 +8941,15 @@
       <c r="G315" s="30"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="1:8" s="2" customFormat="1">
-      <c r="A316" s="4"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="4"/>
-      <c r="G316" s="34"/>
-      <c r="H316" s="4"/>
+    <row r="316" spans="1:8">
+      <c r="A316" s="7"/>
+      <c r="B316" s="6"/>
+      <c r="C316" s="7"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="7"/>
+      <c r="F316" s="7"/>
+      <c r="G316" s="30"/>
+      <c r="H316" s="7"/>
     </row>
     <row r="317" spans="1:8" s="2" customFormat="1">
       <c r="A317" s="4"/>
@@ -8873,7 +8973,7 @@
     </row>
     <row r="319" spans="1:8" s="2" customFormat="1">
       <c r="A319" s="4"/>
-      <c r="B319" s="19"/>
+      <c r="B319" s="4"/>
       <c r="C319" s="9"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
@@ -8923,8 +9023,8 @@
     </row>
     <row r="324" spans="1:8" s="2" customFormat="1">
       <c r="A324" s="4"/>
-      <c r="B324" s="26"/>
-      <c r="C324" s="4"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="9"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
@@ -8973,7 +9073,7 @@
     </row>
     <row r="329" spans="1:8" s="2" customFormat="1">
       <c r="A329" s="4"/>
-      <c r="B329" s="21"/>
+      <c r="B329" s="26"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
@@ -9023,7 +9123,7 @@
     </row>
     <row r="334" spans="1:8" s="2" customFormat="1">
       <c r="A334" s="4"/>
-      <c r="B334" s="19"/>
+      <c r="B334" s="21"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
@@ -9033,7 +9133,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="21"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -9043,7 +9143,7 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="4"/>
+      <c r="B336" s="21"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -9051,20 +9151,20 @@
       <c r="G336" s="34"/>
       <c r="H336" s="4"/>
     </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="7"/>
-      <c r="B337" s="6"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7"/>
-      <c r="F337" s="7"/>
-      <c r="G337" s="30"/>
-      <c r="H337" s="7"/>
+    <row r="337" spans="1:8" s="2" customFormat="1">
+      <c r="A337" s="4"/>
+      <c r="B337" s="4"/>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+      <c r="G337" s="34"/>
+      <c r="H337" s="4"/>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" s="7"/>
-      <c r="B338" s="7"/>
-      <c r="C338" s="4"/>
+      <c r="B338" s="6"/>
+      <c r="C338" s="7"/>
       <c r="D338" s="7"/>
       <c r="E338" s="7"/>
       <c r="F338" s="7"/>
@@ -9133,7 +9233,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" s="7"/>
-      <c r="B345" s="4"/>
+      <c r="B345" s="7"/>
       <c r="C345" s="4"/>
       <c r="D345" s="7"/>
       <c r="E345" s="7"/>
@@ -9144,7 +9244,7 @@
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
       <c r="B346" s="4"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="4"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
       <c r="F346" s="7"/>
@@ -9153,7 +9253,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
-      <c r="B347" s="6"/>
+      <c r="B347" s="4"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
@@ -9163,7 +9263,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -9173,7 +9273,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="22"/>
+      <c r="B349" s="7"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -9183,7 +9283,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="7"/>
+      <c r="B350" s="22"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9223,7 +9323,7 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" s="7"/>
-      <c r="B354" s="6"/>
+      <c r="B354" s="7"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -9233,7 +9333,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="7"/>
+      <c r="B355" s="6"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9243,7 +9343,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="20"/>
+      <c r="B356" s="7"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9273,7 +9373,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" s="7"/>
-      <c r="B359" s="22"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -9283,7 +9383,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="20"/>
+      <c r="B360" s="22"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9303,7 +9403,7 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="7"/>
-      <c r="B362" s="22"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7"/>
       <c r="E362" s="7"/>
@@ -9313,7 +9413,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="20"/>
+      <c r="B363" s="22"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9323,7 +9423,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="22"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9333,7 +9433,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="20"/>
+      <c r="B365" s="22"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9363,7 +9463,7 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="7"/>
-      <c r="B368" s="7"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7"/>
       <c r="E368" s="7"/>
@@ -9373,7 +9473,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="27"/>
+      <c r="B369" s="7"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9383,7 +9483,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="22"/>
+      <c r="B370" s="27"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9393,8 +9493,8 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="7"/>
-      <c r="C371" s="4"/>
+      <c r="B371" s="22"/>
+      <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
       <c r="F371" s="7"/>
@@ -9403,7 +9503,7 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="20"/>
+      <c r="B372" s="7"/>
       <c r="C372" s="4"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
@@ -9433,7 +9533,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" s="7"/>
-      <c r="B375" s="7"/>
+      <c r="B375" s="20"/>
       <c r="C375" s="4"/>
       <c r="D375" s="7"/>
       <c r="E375" s="7"/>
@@ -9463,7 +9563,7 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" s="7"/>
-      <c r="B378" s="20"/>
+      <c r="B378" s="7"/>
       <c r="C378" s="4"/>
       <c r="D378" s="7"/>
       <c r="E378" s="7"/>
@@ -9483,8 +9583,8 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" s="7"/>
-      <c r="B380" s="7"/>
-      <c r="C380" s="7"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="4"/>
       <c r="D380" s="7"/>
       <c r="E380" s="7"/>
       <c r="F380" s="7"/>
@@ -9493,7 +9593,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="7"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
@@ -9503,7 +9603,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9563,7 +9663,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" s="7"/>
-      <c r="B388" s="6"/>
+      <c r="B388" s="7"/>
       <c r="C388" s="7"/>
       <c r="D388" s="7"/>
       <c r="E388" s="7"/>
@@ -9573,7 +9673,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
+      <c r="B389" s="6"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9594,7 +9694,7 @@
     <row r="391" spans="1:8">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
-      <c r="C391" s="4"/>
+      <c r="C391" s="7"/>
       <c r="D391" s="7"/>
       <c r="E391" s="7"/>
       <c r="F391" s="7"/>
@@ -9603,7 +9703,7 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
-      <c r="B392" s="20"/>
+      <c r="B392" s="7"/>
       <c r="C392" s="4"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
@@ -9614,7 +9714,7 @@
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
       <c r="B393" s="20"/>
-      <c r="C393" s="7"/>
+      <c r="C393" s="4"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
       <c r="F393" s="7"/>
@@ -9623,7 +9723,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
-      <c r="B394" s="27"/>
+      <c r="B394" s="20"/>
       <c r="C394" s="7"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
@@ -9633,7 +9733,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="22"/>
+      <c r="B395" s="27"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9683,7 +9783,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" s="7"/>
-      <c r="B400" s="7"/>
+      <c r="B400" s="22"/>
       <c r="C400" s="7"/>
       <c r="D400" s="7"/>
       <c r="E400" s="7"/>
@@ -9693,7 +9793,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="6"/>
+      <c r="B401" s="7"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9703,7 +9803,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="7"/>
+      <c r="B402" s="6"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9713,7 +9813,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="20"/>
+      <c r="B403" s="7"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9723,7 +9823,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="22"/>
+      <c r="B404" s="20"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9743,7 +9843,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" s="7"/>
-      <c r="B406" s="20"/>
+      <c r="B406" s="22"/>
       <c r="C406" s="7"/>
       <c r="D406" s="7"/>
       <c r="E406" s="7"/>
@@ -9783,7 +9883,7 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" s="7"/>
-      <c r="B410" s="7"/>
+      <c r="B410" s="20"/>
       <c r="C410" s="7"/>
       <c r="D410" s="7"/>
       <c r="E410" s="7"/>
@@ -9793,7 +9893,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="20"/>
+      <c r="B411" s="7"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9813,7 +9913,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" s="7"/>
-      <c r="B413" s="22"/>
+      <c r="B413" s="20"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -9823,7 +9923,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="7"/>
+      <c r="B414" s="22"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9833,7 +9933,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="7"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9843,7 +9943,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9863,7 +9963,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" s="7"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="7"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -9873,7 +9973,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9883,7 +9983,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="20"/>
+      <c r="B420" s="7"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -9903,7 +10003,7 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" s="7"/>
-      <c r="B422" s="7"/>
+      <c r="B422" s="20"/>
       <c r="C422" s="7"/>
       <c r="D422" s="7"/>
       <c r="E422" s="7"/>
@@ -9913,7 +10013,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="6"/>
+      <c r="B423" s="7"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -9923,7 +10023,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -9973,7 +10073,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" s="7"/>
-      <c r="B429" s="6"/>
+      <c r="B429" s="7"/>
       <c r="C429" s="7"/>
       <c r="D429" s="7"/>
       <c r="E429" s="7"/>
@@ -9983,7 +10083,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -10043,7 +10143,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" s="7"/>
-      <c r="B436" s="6"/>
+      <c r="B436" s="7"/>
       <c r="C436" s="7"/>
       <c r="D436" s="7"/>
       <c r="E436" s="7"/>
@@ -10053,7 +10153,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10073,7 +10173,7 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" s="7"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="7"/>
       <c r="C439" s="7"/>
       <c r="D439" s="7"/>
       <c r="E439" s="7"/>
@@ -10083,7 +10183,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="4"/>
+      <c r="B440" s="6"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -10103,7 +10203,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" s="7"/>
-      <c r="B442" s="7"/>
+      <c r="B442" s="4"/>
       <c r="C442" s="7"/>
       <c r="D442" s="7"/>
       <c r="E442" s="7"/>
@@ -10133,7 +10233,7 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" s="7"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="7"/>
       <c r="C445" s="7"/>
       <c r="D445" s="7"/>
       <c r="E445" s="7"/>
@@ -10143,8 +10243,8 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="7"/>
-      <c r="C446" s="4"/>
+      <c r="B446" s="6"/>
+      <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
       <c r="F446" s="7"/>
@@ -10194,7 +10294,7 @@
     <row r="451" spans="1:8">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
-      <c r="C451" s="7"/>
+      <c r="C451" s="4"/>
       <c r="D451" s="7"/>
       <c r="E451" s="7"/>
       <c r="F451" s="7"/>
@@ -10203,7 +10303,7 @@
     </row>
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="7"/>
       <c r="C452" s="7"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
@@ -10213,8 +10313,8 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
-      <c r="C453" s="4"/>
+      <c r="B453" s="6"/>
+      <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
       <c r="F453" s="7"/>
@@ -10254,7 +10354,7 @@
     <row r="457" spans="1:8">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
-      <c r="C457" s="7"/>
+      <c r="C457" s="4"/>
       <c r="D457" s="7"/>
       <c r="E457" s="7"/>
       <c r="F457" s="7"/>
@@ -10263,7 +10363,7 @@
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
-      <c r="B458" s="6"/>
+      <c r="B458" s="7"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -10273,7 +10373,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="22"/>
+      <c r="B459" s="6"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -10333,7 +10433,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" s="7"/>
-      <c r="B465" s="7"/>
+      <c r="B465" s="22"/>
       <c r="C465" s="7"/>
       <c r="D465" s="7"/>
       <c r="E465" s="7"/>
@@ -10343,7 +10443,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="6"/>
+      <c r="B466" s="7"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10353,7 +10453,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="22"/>
+      <c r="B467" s="6"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10382,8 +10482,8 @@
       <c r="H469" s="7"/>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="6"/>
-      <c r="B470" s="7"/>
+      <c r="A470" s="7"/>
+      <c r="B470" s="22"/>
       <c r="C470" s="7"/>
       <c r="D470" s="7"/>
       <c r="E470" s="7"/>
@@ -10392,7 +10492,7 @@
       <c r="H470" s="7"/>
     </row>
     <row r="471" spans="1:8">
-      <c r="A471" s="7"/>
+      <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
@@ -10433,7 +10533,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="7"/>
       <c r="C475" s="7"/>
       <c r="D475" s="7"/>
       <c r="E475" s="7"/>
@@ -10463,7 +10563,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" s="7"/>
-      <c r="B478" s="7"/>
+      <c r="B478" s="28"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -10473,7 +10573,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="28"/>
+      <c r="B479" s="7"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -10483,7 +10583,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="7"/>
+      <c r="B480" s="28"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -10493,21 +10593,21 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="29"/>
-      <c r="C481" s="30"/>
+      <c r="B481" s="7"/>
+      <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
-      <c r="F481" s="29"/>
+      <c r="F481" s="7"/>
       <c r="G481" s="30"/>
       <c r="H481" s="7"/>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="7"/>
-      <c r="C482" s="7"/>
+      <c r="B482" s="29"/>
+      <c r="C482" s="30"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
-      <c r="F482" s="7"/>
+      <c r="F482" s="29"/>
       <c r="G482" s="30"/>
       <c r="H482" s="7"/>
     </row>
@@ -14411,6 +14511,16 @@
       <c r="G872" s="30"/>
       <c r="H872" s="7"/>
     </row>
+    <row r="873" spans="1:8">
+      <c r="A873" s="7"/>
+      <c r="B873" s="7"/>
+      <c r="C873" s="7"/>
+      <c r="D873" s="7"/>
+      <c r="E873" s="7"/>
+      <c r="F873" s="7"/>
+      <c r="G873" s="30"/>
+      <c r="H873" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="227">
   <si>
     <t>Feature</t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>pluggable word selector</t>
+  </si>
+  <si>
+    <t>supports unicode beyond basic multilingual plane</t>
   </si>
 </sst>
 </file>
@@ -955,7 +958,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955224"/>
+          <c:w val="0.91978071330955236"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1026,7 +1029,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1145,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,7 +1190,7 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1261,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,7 +1377,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,11 +1434,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126266752"/>
-        <c:axId val="126030976"/>
+        <c:axId val="141536640"/>
+        <c:axId val="141366400"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="126266752"/>
+        <c:axId val="141536640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126030976"/>
+        <c:crossAx val="141366400"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1478,7 +1481,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126030976"/>
+        <c:axId val="141366400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,7 +1523,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126266752"/>
+        <c:crossAx val="141536640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1543,7 +1546,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218414"/>
+          <c:y val="0.33819556996218425"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1610,7 +1613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1664,7 +1667,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127595E-2"/>
+          <c:x val="4.4510450248127609E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1737,7 +1740,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,17 +1785,17 @@
                   <c:v>0.39069767441860465</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41095890410958902</c:v>
+                  <c:v>0.40909090909090912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126054784"/>
-        <c:axId val="126056320"/>
+        <c:axId val="141386112"/>
+        <c:axId val="141387648"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="126054784"/>
+        <c:axId val="141386112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,13 +1803,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="126056320"/>
+        <c:crossAx val="141387648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126056320"/>
+        <c:axId val="141387648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1849,7 +1852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126054784"/>
+        <c:crossAx val="141386112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1898,7 +1901,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1987,7 +1990,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +2035,7 @@
                   <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>129</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,7 +2106,7 @@
                   <c:v>42952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42966</c:v>
+                  <c:v>42967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,11 +2157,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126081280"/>
-        <c:axId val="126615552"/>
+        <c:axId val="141416704"/>
+        <c:axId val="141422592"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="126081280"/>
+        <c:axId val="141416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126615552"/>
+        <c:crossAx val="141422592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2200,7 +2203,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="126615552"/>
+        <c:axId val="141422592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2245,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126081280"/>
+        <c:crossAx val="141416704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2291,7 +2294,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001399" r="0.75000000000001399" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2751,8 +2754,8 @@
   </sheetPr>
   <dimension ref="A1:D391"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B350" sqref="B350"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2886,8 +2889,12 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="2:4" s="6" customFormat="1">
@@ -2896,9 +2903,7 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="2:4" s="6" customFormat="1">
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B20" s="22"/>
       <c r="C20" s="7"/>
       <c r="D20" s="4"/>
     </row>
@@ -2908,58 +2913,56 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" s="6" customFormat="1">
-      <c r="B22" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="2:4" s="6" customFormat="1">
-      <c r="B23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="2:4" s="6" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" s="6" customFormat="1">
+      <c r="B27" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" s="6" customFormat="1">
-      <c r="B27" s="22"/>
-      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2967,17 +2970,13 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:4" s="6" customFormat="1">
-      <c r="B29" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:4" s="6" customFormat="1">
       <c r="B30" s="22" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>14</v>
@@ -2986,7 +2985,7 @@
     </row>
     <row r="31" spans="2:4" s="6" customFormat="1">
       <c r="B31" s="22" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>14</v>
@@ -2995,7 +2994,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -3003,13 +3002,21 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="2:4" s="6" customFormat="1">
@@ -3018,9 +3025,7 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="2:4" s="6" customFormat="1">
-      <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B36" s="22"/>
       <c r="C36" s="7"/>
       <c r="D36" s="4"/>
     </row>
@@ -3030,49 +3035,43 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" s="6" customFormat="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" s="6" customFormat="1">
+      <c r="B40" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:4" s="6" customFormat="1">
-      <c r="B39" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -3081,16 +3080,16 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
       <c r="B45" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>2</v>
@@ -3098,13 +3097,17 @@
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="7"/>
+      <c r="B46" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
       <c r="B47" s="22" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>2</v>
@@ -3118,7 +3121,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3126,67 +3129,63 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="2:4" s="6" customFormat="1">
+      <c r="B51" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="2:4" s="6" customFormat="1">
+      <c r="B52" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="20" t="s">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="2:4" s="6" customFormat="1">
+      <c r="B53" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="22" t="s">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="2:4" s="6" customFormat="1">
+      <c r="B54" s="22"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="2:4" s="6" customFormat="1">
+      <c r="B55" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" s="6" customFormat="1">
-      <c r="B54" s="20" t="s">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="2:4" s="6" customFormat="1">
+      <c r="B56" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="20" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3195,7 +3194,7 @@
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
       <c r="B58" s="22" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3203,8 +3202,8 @@
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="22" t="s">
-        <v>106</v>
+      <c r="B59" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>14</v>
@@ -3213,7 +3212,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3222,7 +3221,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3230,8 +3229,8 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="20" t="s">
-        <v>140</v>
+      <c r="B62" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -3239,8 +3238,8 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
-      <c r="B63" s="20" t="s">
-        <v>203</v>
+      <c r="B63" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3248,8 +3247,8 @@
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
-      <c r="B64" s="22" t="s">
-        <v>142</v>
+      <c r="B64" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3257,31 +3256,31 @@
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="7"/>
+      <c r="B65" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="2:4" s="6" customFormat="1">
+      <c r="B67" s="22"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="2:4" s="6" customFormat="1">
+      <c r="B68" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>2</v>
@@ -3290,7 +3289,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -3299,39 +3298,39 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="2:4" s="6" customFormat="1">
+      <c r="B71" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="2:4" s="6" customFormat="1">
+      <c r="B72" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="2:4" s="6" customFormat="1">
-      <c r="B72" s="27" t="s">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="2:4" s="6" customFormat="1">
+      <c r="B73" s="22"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="2:4" s="6" customFormat="1">
+      <c r="B74" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>2</v>
@@ -3340,7 +3339,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3349,7 +3348,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -3357,13 +3356,21 @@
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="7"/>
+      <c r="B78" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
@@ -3377,26 +3384,18 @@
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="2:4" s="6" customFormat="1">
+      <c r="B82" s="22"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="2:4" s="6" customFormat="1">
+      <c r="B83" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" s="6" customFormat="1">
-      <c r="B83" s="20" t="s">
-        <v>59</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>2</v>
@@ -3405,7 +3404,7 @@
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>2</v>
@@ -3414,7 +3413,7 @@
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>2</v>
@@ -3423,66 +3422,66 @@
     </row>
     <row r="86" spans="2:4" s="6" customFormat="1">
       <c r="B86" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="2:4" s="6" customFormat="1">
       <c r="B87" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="2:4" s="6" customFormat="1">
+      <c r="B89" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="20"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" s="6" customFormat="1">
-      <c r="B89" s="22" t="s">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="2:4" s="6" customFormat="1">
+      <c r="B90" s="20"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="2:4" s="6" customFormat="1">
+      <c r="B91" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
       <c r="B93" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>14</v>
@@ -3491,7 +3490,7 @@
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
       <c r="B94" s="20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>14</v>
@@ -3499,13 +3498,21 @@
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="7"/>
+      <c r="B95" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="7"/>
+      <c r="B96" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
@@ -3529,12 +3536,8 @@
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" s="6" customFormat="1">
-      <c r="B101" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" s="6" customFormat="1">
@@ -3543,8 +3546,8 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="22" t="s">
-        <v>194</v>
+      <c r="B103" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3566,17 +3569,13 @@
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3584,13 +3583,17 @@
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22"/>
-      <c r="C108" s="7"/>
+      <c r="B108" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3598,22 +3601,22 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="C110" s="7" t="s">
+      <c r="B110" s="22"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="2:4" s="6" customFormat="1">
+      <c r="B111" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="2:4" s="6" customFormat="1">
-      <c r="B111" s="22"/>
-      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3626,8 +3629,12 @@
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22"/>
-      <c r="C114" s="7"/>
+      <c r="B114" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
@@ -3636,9 +3643,7 @@
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B116" s="22"/>
       <c r="C116" s="7"/>
       <c r="D116" s="4"/>
     </row>
@@ -3648,90 +3653,84 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="22" t="s">
-        <v>117</v>
+      <c r="B118" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="2:4" s="6" customFormat="1">
-      <c r="B119" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B119" s="22"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B120" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="2:4" s="6" customFormat="1">
+      <c r="B123" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="2:4" s="6" customFormat="1">
+      <c r="B124" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="22"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="27" t="s">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="2:4" s="6" customFormat="1">
+      <c r="B126" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="20" t="s">
+      <c r="C126" s="7"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="2:4" s="6" customFormat="1">
+      <c r="B127" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="23" t="s">
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="2:4" s="6" customFormat="1">
+      <c r="B128" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>2</v>
@@ -3740,16 +3739,16 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="23" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3758,7 +3757,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="23" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -3766,13 +3765,17 @@
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20"/>
-      <c r="C132" s="7"/>
+      <c r="B132" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="20" t="s">
-        <v>56</v>
+      <c r="B133" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3780,22 +3783,22 @@
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="23" t="s">
+      <c r="B134" s="20"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="2:4" s="6" customFormat="1">
+      <c r="B135" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="2:4" s="6" customFormat="1">
+      <c r="B136" s="23" t="s">
         <v>212</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="22"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="20" t="s">
-        <v>64</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -3803,17 +3806,13 @@
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
-      <c r="B137" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B137" s="22"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="23" t="s">
-        <v>66</v>
+      <c r="B138" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>2</v>
@@ -3821,13 +3820,17 @@
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="20"/>
-      <c r="C139" s="7"/>
+      <c r="B139" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="20" t="s">
-        <v>68</v>
+      <c r="B140" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>2</v>
@@ -3835,17 +3838,13 @@
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B141" s="20"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
-      <c r="B142" s="23" t="s">
-        <v>160</v>
+      <c r="B142" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>2</v>
@@ -3853,13 +3852,17 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="22"/>
-      <c r="C143" s="7"/>
+      <c r="B143" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="20" t="s">
-        <v>71</v>
+      <c r="B144" s="23" t="s">
+        <v>160</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -3867,22 +3870,22 @@
       <c r="D144" s="4"/>
     </row>
     <row r="145" spans="2:4" s="6" customFormat="1">
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="22"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="2:4" s="6" customFormat="1">
+      <c r="B146" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="2:4" s="6" customFormat="1">
+      <c r="B147" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="22"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>2</v>
@@ -3890,17 +3893,13 @@
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B148" s="22"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="23" t="s">
-        <v>77</v>
+      <c r="B149" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>2</v>
@@ -3908,13 +3907,17 @@
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="22"/>
-      <c r="C150" s="7"/>
+      <c r="B150" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
-      <c r="B151" s="20" t="s">
-        <v>221</v>
+      <c r="B151" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>2</v>
@@ -3928,48 +3931,44 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="2:4" s="6" customFormat="1">
+      <c r="B154" s="22"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="2:4" s="6" customFormat="1">
+      <c r="B155" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C153" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="23" t="s">
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="2:4" s="6" customFormat="1">
+      <c r="B156" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C154" s="7" t="s">
+      <c r="C156" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="2:4" s="6" customFormat="1">
-      <c r="B155" s="20"/>
-      <c r="C155" s="7"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="2:4" s="6" customFormat="1">
-      <c r="B156" s="20" t="s">
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="2:4" s="6" customFormat="1">
+      <c r="B157" s="20"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="2:4" s="6" customFormat="1">
+      <c r="B158" s="20" t="s">
         <v>123</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="2:4" s="6" customFormat="1">
-      <c r="B158" s="23" t="s">
-        <v>125</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3977,31 +3976,31 @@
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
-      <c r="B159" s="22"/>
-      <c r="C159" s="7"/>
+      <c r="B159" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="2:4" s="6" customFormat="1">
+      <c r="B161" s="22"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="2:4" s="6" customFormat="1">
+      <c r="B162" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="2:4" s="6" customFormat="1">
-      <c r="B162" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -4009,13 +4008,17 @@
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
-      <c r="B163" s="20"/>
-      <c r="C163" s="7"/>
+      <c r="B163" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
-      <c r="B164" s="20" t="s">
-        <v>129</v>
+      <c r="B164" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -4023,17 +4026,13 @@
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
-      <c r="B166" s="23" t="s">
-        <v>128</v>
+      <c r="B166" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -4041,13 +4040,17 @@
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
-      <c r="B167" s="20"/>
-      <c r="C167" s="7"/>
+      <c r="B167" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="20" t="s">
-        <v>130</v>
+      <c r="B168" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -4055,17 +4058,13 @@
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B169" s="20"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="23" t="s">
-        <v>125</v>
+      <c r="B170" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -4073,75 +4072,79 @@
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
-      <c r="B171" s="23"/>
-      <c r="C171" s="7"/>
+      <c r="B171" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="20" t="s">
-        <v>126</v>
+      <c r="B172" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="20"/>
+      <c r="B173" s="23"/>
       <c r="C173" s="7"/>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="20"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C174" s="7"/>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20" t="s">
+      <c r="C176" s="7"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="2:4" s="6" customFormat="1">
+      <c r="B177" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="23" t="s">
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="2:4" s="6" customFormat="1">
+      <c r="B178" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="23" t="s">
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="2:4" s="6" customFormat="1">
+      <c r="B179" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="2:4" s="6" customFormat="1">
-      <c r="B179" s="22"/>
-      <c r="C179" s="7"/>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="20" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -4149,22 +4152,22 @@
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="2:4" s="6" customFormat="1">
-      <c r="B181" s="23" t="s">
+      <c r="B181" s="22"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="2:4" s="6" customFormat="1">
+      <c r="B182" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="2:4" s="6" customFormat="1">
+      <c r="B183" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="2:4" s="6" customFormat="1">
-      <c r="B182" s="22"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="2:4" s="6" customFormat="1">
-      <c r="B183" s="20" t="s">
-        <v>72</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -4172,22 +4175,22 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="23" t="s">
+      <c r="B184" s="22"/>
+      <c r="C184" s="7"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="2:4" s="6" customFormat="1">
+      <c r="B185" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="2:4" s="6" customFormat="1">
+      <c r="B186" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="22"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -4195,40 +4198,36 @@
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="22"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="2:4" s="6" customFormat="1">
+      <c r="B188" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="2:4" s="6" customFormat="1">
+      <c r="B189" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C187" s="7" t="s">
+      <c r="C189" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="27" t="s">
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="20"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="2:4" s="6" customFormat="1">
+      <c r="B191" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4237,39 +4236,39 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="2:4" s="6" customFormat="1">
+      <c r="B193" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="2:4" s="6" customFormat="1">
+      <c r="B194" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C194" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="2:4" s="6" customFormat="1">
-      <c r="B194" s="27" t="s">
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="2:4" s="6" customFormat="1">
+      <c r="B195" s="20"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="2:4" s="6" customFormat="1">
+      <c r="B196" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="2:4" s="6" customFormat="1">
-      <c r="B195" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="2:4" s="6" customFormat="1">
-      <c r="B196" s="20" t="s">
-        <v>162</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4277,8 +4276,8 @@
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
-      <c r="B197" s="22" t="s">
-        <v>163</v>
+      <c r="B197" s="20" t="s">
+        <v>161</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -4287,7 +4286,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="20" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4295,8 +4294,8 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="20" t="s">
-        <v>86</v>
+      <c r="B199" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4304,63 +4303,65 @@
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
-      <c r="B200" s="22"/>
-      <c r="C200" s="7"/>
+      <c r="B200" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20"/>
-      <c r="C201" s="7"/>
+      <c r="B201" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="19"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="7"/>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="4"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="7"/>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B204" s="19"/>
       <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="2:4">
+    <row r="205" spans="2:4" s="6" customFormat="1">
+      <c r="B205" s="4"/>
       <c r="C205" s="7"/>
-    </row>
-    <row r="206" spans="2:4">
-      <c r="B206" s="43" t="s">
-        <v>135</v>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="2:4" s="6" customFormat="1">
+      <c r="B206" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C206" s="7"/>
+      <c r="D206" s="4"/>
     </row>
     <row r="207" spans="2:4">
       <c r="C207" s="7"/>
     </row>
     <row r="208" spans="2:4">
-      <c r="B208" t="s">
-        <v>81</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="B208" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C208" s="7"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" t="s">
-        <v>82</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C209" s="7"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C210" s="9" t="s">
         <v>14</v>
@@ -4368,7 +4369,7 @@
     </row>
     <row r="211" spans="2:3">
       <c r="B211" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>14</v>
@@ -4376,39 +4377,39 @@
     </row>
     <row r="212" spans="2:3">
       <c r="B212" t="s">
-        <v>85</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" t="s">
-        <v>86</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" t="s">
-        <v>87</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>14</v>
+      <c r="B215" t="s">
+        <v>86</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C216" s="9" t="s">
         <v>14</v>
@@ -4416,7 +4417,7 @@
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C217" s="9" t="s">
         <v>14</v>
@@ -4424,7 +4425,7 @@
     </row>
     <row r="218" spans="2:3">
       <c r="B218" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C218" s="9" t="s">
         <v>14</v>
@@ -4432,44 +4433,54 @@
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C219" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="45" t="s">
-        <v>102</v>
+      <c r="B220" t="s">
+        <v>91</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="45" t="s">
-        <v>116</v>
+      <c r="B221" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="C221" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="44"/>
-      <c r="C222" s="9"/>
+      <c r="B222" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="44"/>
-      <c r="C223" s="9"/>
+      <c r="B223" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="44"/>
       <c r="C224" s="9"/>
     </row>
     <row r="225" spans="2:3">
+      <c r="B225" s="44"/>
       <c r="C225" s="9"/>
     </row>
     <row r="226" spans="2:3">
+      <c r="B226" s="44"/>
       <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3">
@@ -4479,33 +4490,23 @@
       <c r="C228" s="9"/>
     </row>
     <row r="229" spans="2:3">
-      <c r="B229" s="43" t="s">
-        <v>136</v>
-      </c>
       <c r="C229" s="9"/>
     </row>
     <row r="230" spans="2:3">
       <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" t="s">
-        <v>110</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B231" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" t="s">
-        <v>111</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>14</v>
@@ -4513,7 +4514,7 @@
     </row>
     <row r="234" spans="2:3">
       <c r="B234" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>14</v>
@@ -4521,7 +4522,7 @@
     </row>
     <row r="235" spans="2:3">
       <c r="B235" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>14</v>
@@ -4529,7 +4530,7 @@
     </row>
     <row r="236" spans="2:3">
       <c r="B236" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4537,78 +4538,83 @@
     </row>
     <row r="237" spans="2:3">
       <c r="B237" t="s">
+        <v>114</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>115</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" t="s">
         <v>146</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="C238" s="9"/>
-    </row>
-    <row r="239" spans="2:3">
-      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3">
       <c r="C240" s="9"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="43" t="s">
-        <v>137</v>
-      </c>
       <c r="C241" s="9"/>
     </row>
     <row r="242" spans="2:3">
       <c r="C242" s="9"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" t="s">
+      <c r="B243" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C243" s="9"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" t="s">
         <v>133</v>
       </c>
-      <c r="C243" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="B244" t="s">
-        <v>101</v>
-      </c>
-      <c r="C244" s="9" t="s">
+      <c r="C245" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
-      <c r="B247" t="s">
-        <v>93</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="248" spans="2:3">
       <c r="B248" t="s">
+        <v>80</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" t="s">
+        <v>93</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
         <v>94</v>
       </c>
-      <c r="C248" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="C249" s="9"/>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="B250" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C250" s="9" t="s">
+      <c r="C250" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4617,28 +4623,28 @@
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C252" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" t="s">
-        <v>99</v>
-      </c>
-      <c r="C253" s="9" t="s">
+      <c r="C253" s="9"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" t="s">
-        <v>185</v>
-      </c>
-      <c r="C255" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C255" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4646,7 +4652,12 @@
       <c r="C256" s="9"/>
     </row>
     <row r="257" spans="2:3">
-      <c r="C257" s="9"/>
+      <c r="B257" t="s">
+        <v>185</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="258" spans="2:3">
       <c r="C258" s="9"/>
@@ -4661,70 +4672,70 @@
       <c r="C261" s="9"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="3" t="s">
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="C263" s="9"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C262" s="9"/>
-    </row>
-    <row r="263" spans="2:3">
-      <c r="B263" t="s">
-        <v>49</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="B264" t="s">
-        <v>50</v>
-      </c>
-      <c r="C264" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C265" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="266" spans="2:3">
-      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" t="s">
-        <v>97</v>
-      </c>
-      <c r="C268" s="7" t="s">
+      <c r="C268" s="9"/>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" t="s">
+        <v>96</v>
+      </c>
+      <c r="C269" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="269" spans="2:3">
-      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="2:3">
       <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="C272" s="9"/>
+      <c r="B272" t="s">
+        <v>146</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="273" spans="2:4">
       <c r="C273" s="9"/>
@@ -5516,7 +5527,7 @@
       </c>
       <c r="C387" s="6">
         <f>COUNTIF(C5:C385,"n")</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D387" s="2"/>
     </row>
@@ -5538,7 +5549,7 @@
       </c>
       <c r="C389">
         <f>SUM(C386:C388)</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D389" s="2"/>
     </row>
@@ -5550,7 +5561,7 @@
       </c>
       <c r="D390" s="41">
         <f>C386/(C387+C386 + C388)</f>
-        <v>0.41095890410958902</v>
+        <v>0.40909090909090912</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5561,7 +5572,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C276:C65139 C246:C274 C1:C3 C6:C244">
+  <conditionalFormatting sqref="C276:C65139 C248:C274 C1:C3 C6:C246">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5585,9 +5596,9 @@
   </sheetPr>
   <dimension ref="A1:IT873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -6078,13 +6089,13 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="47">
-        <v>42966</v>
+        <v>42967</v>
       </c>
       <c r="B59" s="4">
         <v>90</v>
       </c>
       <c r="C59" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -6095,7 +6106,7 @@
       <c r="F59" s="48"/>
       <c r="G59" s="30">
         <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
-        <v>0.41095890410958902</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="H59" s="7"/>
     </row>
@@ -6140,14 +6151,14 @@
       </c>
       <c r="G62" s="38">
         <f>MIN(G59)</f>
-        <v>0.41095890410958902</v>
+        <v>0.40909090909090912</v>
       </c>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="39">
         <f>SUM(B63:D63)</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B63" s="15">
         <f>Features!C386</f>
@@ -6155,7 +6166,7 @@
       </c>
       <c r="C63" s="16">
         <f>Features!C387</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D63" s="17">
         <f>Features!C388</f>
@@ -6206,7 +6217,7 @@
       </c>
       <c r="B67" s="49">
         <f>(A59-A48)*A63/B63 +A48</f>
-        <v>43348.7</v>
+        <v>43354.111111111109</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -299,9 +299,6 @@
     <t>move caret word right</t>
   </si>
   <si>
-    <t>delete character</t>
-  </si>
-  <si>
     <t>backspace</t>
   </si>
   <si>
@@ -464,9 +461,6 @@
     <t>stop blinking on mouse dragging</t>
   </si>
   <si>
-    <t>stop blinking when editing</t>
-  </si>
-  <si>
     <t>blink</t>
   </si>
   <si>
@@ -699,6 +693,12 @@
   </si>
   <si>
     <t>supports unicode beyond basic multilingual plane</t>
+  </si>
+  <si>
+    <t>stop blinking on key pressed</t>
+  </si>
+  <si>
+    <t>moves caret after the last symbol of inserted text (char)</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955236"/>
+          <c:w val="0.91978071330955258"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -991,10 +991,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1030,16 +1030,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$B$48:$B$59</c:f>
+              <c:f>Progress!$B$48:$B$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1075,6 +1078,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,10 +1113,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1146,16 +1152,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$59</c:f>
+              <c:f>Progress!$C$48:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1191,6 +1200,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1223,10 +1235,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1262,16 +1274,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$59</c:f>
+              <c:f>Progress!$D$48:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1306,6 +1321,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1339,10 +1357,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1378,16 +1396,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$E$48:$E$63</c:f>
+              <c:f>Progress!$E$48:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1424,21 +1445,24 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141536640"/>
-        <c:axId val="141366400"/>
+        <c:axId val="121548160"/>
+        <c:axId val="121312384"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="141536640"/>
+        <c:axId val="121548160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141366400"/>
+        <c:crossAx val="121312384"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1481,7 +1505,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141366400"/>
+        <c:axId val="121312384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141536640"/>
+        <c:crossAx val="121548160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1546,7 +1570,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218425"/>
+          <c:y val="0.33819556996218436"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1613,7 +1637,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1667,7 +1691,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.4510450248127609E-2"/>
+          <c:x val="4.451045024812763E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1702,10 +1726,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1741,16 +1765,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$G$48:$G$59</c:f>
+              <c:f>Progress!$G$48:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1786,16 +1813,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141386112"/>
-        <c:axId val="141387648"/>
+        <c:axId val="121332096"/>
+        <c:axId val="121333632"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="141386112"/>
+        <c:axId val="121332096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,13 +1833,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="141387648"/>
+        <c:crossAx val="121333632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141387648"/>
+        <c:axId val="121333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1852,7 +1882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141386112"/>
+        <c:crossAx val="121332096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1901,7 +1931,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1952,10 +1982,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -1991,16 +2021,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$C$48:$C$59</c:f>
+              <c:f>Progress!$C$48:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2036,6 +2069,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,10 +2104,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Progress!$A$48:$A$59</c:f>
+              <c:f>Progress!$A$48:$A$60</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\/mm\/dd</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>42699</c:v>
                 </c:pt>
@@ -2107,16 +2143,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>42967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress!$D$48:$D$59</c:f>
+              <c:f>Progress!$D$48:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2151,17 +2190,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="141416704"/>
-        <c:axId val="141422592"/>
+        <c:axId val="121366784"/>
+        <c:axId val="121700352"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="141416704"/>
+        <c:axId val="121366784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141422592"/>
+        <c:crossAx val="121700352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2203,7 +2245,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="141422592"/>
+        <c:axId val="121700352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2287,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="141416704"/>
+        <c:crossAx val="121366784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2294,7 +2336,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.7500000000000141" r="0.7500000000000141" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2344,7 +2386,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2752,10 +2794,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D391"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2858,7 +2900,7 @@
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
       <c r="B14" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>14</v>
@@ -2876,7 +2918,7 @@
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
       <c r="B16" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -2890,7 +2932,7 @@
     </row>
     <row r="18" spans="2:4" s="6" customFormat="1">
       <c r="B18" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>14</v>
@@ -2926,7 +2968,7 @@
     </row>
     <row r="24" spans="2:4" s="6" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>14</v>
@@ -2944,7 +2986,7 @@
     </row>
     <row r="26" spans="2:4" s="6" customFormat="1">
       <c r="B26" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>2</v>
@@ -2953,7 +2995,7 @@
     </row>
     <row r="27" spans="2:4" s="6" customFormat="1">
       <c r="B27" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>14</v>
@@ -2962,7 +3004,7 @@
     </row>
     <row r="28" spans="2:4" s="6" customFormat="1">
       <c r="B28" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>14</v>
@@ -2994,7 +3036,7 @@
     </row>
     <row r="32" spans="2:4" s="6" customFormat="1">
       <c r="B32" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -3003,7 +3045,7 @@
     </row>
     <row r="33" spans="2:4" s="6" customFormat="1">
       <c r="B33" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -3012,7 +3054,7 @@
     </row>
     <row r="34" spans="2:4" s="6" customFormat="1">
       <c r="B34" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -3048,7 +3090,7 @@
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
       <c r="B40" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -3057,7 +3099,7 @@
     </row>
     <row r="41" spans="2:4" s="6" customFormat="1">
       <c r="B41" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>14</v>
@@ -3071,7 +3113,7 @@
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>2</v>
@@ -3080,7 +3122,7 @@
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
       <c r="B44" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>2</v>
@@ -3098,7 +3140,7 @@
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
       <c r="B46" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -3121,7 +3163,7 @@
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
       <c r="B49" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>2</v>
@@ -3135,7 +3177,7 @@
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
       <c r="B51" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>2</v>
@@ -3144,7 +3186,7 @@
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
       <c r="B52" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>2</v>
@@ -3153,7 +3195,7 @@
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
       <c r="B53" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>14</v>
@@ -3185,7 +3227,7 @@
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
       <c r="B57" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>14</v>
@@ -3212,7 +3254,7 @@
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3221,7 +3263,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3230,7 +3272,7 @@
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
       <c r="B62" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>14</v>
@@ -3239,7 +3281,7 @@
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>14</v>
@@ -3248,7 +3290,7 @@
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>14</v>
@@ -3257,7 +3299,7 @@
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
       <c r="B65" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>14</v>
@@ -3266,7 +3308,7 @@
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
       <c r="B66" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3289,7 +3331,7 @@
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
       <c r="B69" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -3298,7 +3340,7 @@
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
       <c r="B70" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>2</v>
@@ -3307,7 +3349,7 @@
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
       <c r="B71" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>2</v>
@@ -3316,10 +3358,10 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72" s="4"/>
     </row>
@@ -3339,7 +3381,7 @@
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
       <c r="B75" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3366,7 +3408,7 @@
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
       <c r="B78" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>2</v>
@@ -3449,7 +3491,7 @@
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>14</v>
@@ -3547,7 +3589,7 @@
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
       <c r="B103" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -3561,7 +3603,7 @@
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
       <c r="B105" s="22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>14</v>
@@ -3575,7 +3617,7 @@
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
       <c r="B107" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>14</v>
@@ -3584,7 +3626,7 @@
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
       <c r="B108" s="22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3593,7 +3635,7 @@
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
       <c r="B109" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3607,7 +3649,7 @@
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>14</v>
@@ -3616,7 +3658,7 @@
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
       <c r="B112" s="22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -3630,7 +3672,7 @@
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
       <c r="B114" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3666,14 +3708,14 @@
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
       <c r="B120" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
       <c r="B121" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>2</v>
@@ -3682,7 +3724,7 @@
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
       <c r="B122" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>2</v>
@@ -3691,7 +3733,7 @@
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
       <c r="B123" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3700,7 +3742,7 @@
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
       <c r="B124" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>14</v>
@@ -3739,7 +3781,7 @@
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
       <c r="B129" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3748,7 +3790,7 @@
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
       <c r="B130" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>2</v>
@@ -3757,7 +3799,7 @@
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
       <c r="B131" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>2</v>
@@ -3766,7 +3808,7 @@
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
       <c r="B132" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>2</v>
@@ -3775,7 +3817,7 @@
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
       <c r="B133" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>2</v>
@@ -3798,7 +3840,7 @@
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
       <c r="B136" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>2</v>
@@ -3862,7 +3904,7 @@
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
       <c r="B144" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>2</v>
@@ -3931,7 +3973,7 @@
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
       <c r="B153" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -3945,7 +3987,7 @@
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>14</v>
@@ -3954,7 +3996,7 @@
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>14</v>
@@ -3968,7 +4010,7 @@
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -3977,7 +4019,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -3986,7 +4028,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -4000,7 +4042,7 @@
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>14</v>
@@ -4018,7 +4060,7 @@
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
@@ -4032,7 +4074,7 @@
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C166" s="7" t="s">
         <v>14</v>
@@ -4050,7 +4092,7 @@
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
       <c r="B168" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>14</v>
@@ -4064,7 +4106,7 @@
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
       <c r="B170" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>14</v>
@@ -4073,7 +4115,7 @@
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>14</v>
@@ -4082,7 +4124,7 @@
     </row>
     <row r="172" spans="2:4" s="6" customFormat="1">
       <c r="B172" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C172" s="7" t="s">
         <v>14</v>
@@ -4096,7 +4138,7 @@
     </row>
     <row r="174" spans="2:4" s="6" customFormat="1">
       <c r="B174" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C174" s="7" t="s">
         <v>2</v>
@@ -4126,7 +4168,7 @@
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
       <c r="B178" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>2</v>
@@ -4144,7 +4186,7 @@
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
       <c r="B180" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -4227,7 +4269,7 @@
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
       <c r="B191" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>2</v>
@@ -4236,7 +4278,7 @@
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
       <c r="B192" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>2</v>
@@ -4245,7 +4287,7 @@
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
       <c r="B193" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>2</v>
@@ -4254,7 +4296,7 @@
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>14</v>
@@ -4268,7 +4310,7 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C196" s="7" t="s">
         <v>2</v>
@@ -4277,7 +4319,7 @@
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -4286,7 +4328,7 @@
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
       <c r="B198" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4295,7 +4337,7 @@
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
       <c r="B199" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>2</v>
@@ -4352,7 +4394,7 @@
     </row>
     <row r="208" spans="2:4">
       <c r="B208" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C208" s="7"/>
     </row>
@@ -4457,7 +4499,7 @@
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C222" s="9" t="s">
         <v>14</v>
@@ -4465,7 +4507,7 @@
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>14</v>
@@ -4497,7 +4539,7 @@
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C231" s="9"/>
     </row>
@@ -4506,7 +4548,7 @@
     </row>
     <row r="233" spans="2:3">
       <c r="B233" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C233" s="7" t="s">
         <v>14</v>
@@ -4514,7 +4556,7 @@
     </row>
     <row r="234" spans="2:3">
       <c r="B234" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>14</v>
@@ -4522,7 +4564,7 @@
     </row>
     <row r="235" spans="2:3">
       <c r="B235" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>14</v>
@@ -4530,7 +4572,7 @@
     </row>
     <row r="236" spans="2:3">
       <c r="B236" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C236" s="7" t="s">
         <v>14</v>
@@ -4538,7 +4580,7 @@
     </row>
     <row r="237" spans="2:3">
       <c r="B237" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>14</v>
@@ -4546,7 +4588,7 @@
     </row>
     <row r="238" spans="2:3">
       <c r="B238" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>14</v>
@@ -4554,7 +4596,7 @@
     </row>
     <row r="239" spans="2:3">
       <c r="B239" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>2</v>
@@ -4571,96 +4613,94 @@
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C243" s="9"/>
-    </row>
-    <row r="244" spans="2:3">
-      <c r="C244" s="9"/>
-    </row>
-    <row r="245" spans="2:3">
-      <c r="B245" t="s">
-        <v>133</v>
-      </c>
-      <c r="C245" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" t="s">
-        <v>101</v>
-      </c>
-      <c r="C246" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C248" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:3">
-      <c r="B248" t="s">
-        <v>80</v>
-      </c>
-      <c r="C248" s="9" t="s">
+    <row r="249" spans="2:3">
+      <c r="B249" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C249" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="249" spans="2:3">
-      <c r="B249" t="s">
+    <row r="250" spans="2:3">
+      <c r="B250" s="44"/>
+      <c r="C250" s="7"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" t="s">
         <v>93</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C251" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="2:3">
-      <c r="B250" t="s">
-        <v>94</v>
-      </c>
-      <c r="C250" s="7" t="s">
+    <row r="252" spans="2:3">
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C253" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="2:3">
-      <c r="C251" s="9"/>
-    </row>
-    <row r="252" spans="2:3">
-      <c r="B252" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C252" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3">
-      <c r="C253" s="9"/>
-    </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" t="s">
-        <v>99</v>
+      <c r="B255" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="C255" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="256" spans="2:3">
-      <c r="C256" s="9"/>
+      <c r="B256" t="s">
+        <v>98</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="257" spans="2:3">
-      <c r="B257" t="s">
-        <v>185</v>
-      </c>
-      <c r="C257" s="7" t="s">
+      <c r="C257" s="9"/>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" t="s">
+        <v>183</v>
+      </c>
+      <c r="C258" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="C258" s="9"/>
     </row>
     <row r="259" spans="2:3">
       <c r="C259" s="9"/>
@@ -4678,95 +4718,89 @@
       <c r="C263" s="9"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C264" s="9"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" t="s">
-        <v>49</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B265" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="C268" s="9"/>
+      <c r="B268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" t="s">
-        <v>96</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C270" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="271" spans="2:3">
-      <c r="C271" s="9"/>
+      <c r="B271" t="s">
+        <v>96</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" t="s">
-        <v>146</v>
-      </c>
-      <c r="C272" s="7" t="s">
+      <c r="C272" s="9"/>
+    </row>
+    <row r="273" spans="2:4">
+      <c r="B273" t="s">
+        <v>145</v>
+      </c>
+      <c r="C273" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="2:4">
-      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:4">
       <c r="C274" s="9"/>
     </row>
-    <row r="276" spans="2:4" s="6" customFormat="1">
-      <c r="B276" s="3" t="s">
+    <row r="275" spans="2:4">
+      <c r="C275" s="9"/>
+    </row>
+    <row r="277" spans="2:4" s="6" customFormat="1">
+      <c r="B277" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C276" s="7"/>
-      <c r="D276" s="4"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="22"/>
       <c r="C277" s="7"/>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C278" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B278" s="22"/>
+      <c r="C278" s="7"/>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="2:4" s="6" customFormat="1">
       <c r="B279" s="22" t="s">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="C279" s="7" t="s">
         <v>2</v>
@@ -4775,16 +4809,16 @@
     </row>
     <row r="280" spans="2:4" s="6" customFormat="1">
       <c r="B280" s="22" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="2:4" s="6" customFormat="1">
       <c r="B281" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C281" s="7" t="s">
         <v>14</v>
@@ -4792,22 +4826,22 @@
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22"/>
-      <c r="C282" s="7"/>
+      <c r="B282" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B283" s="22"/>
+      <c r="C283" s="7"/>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="2:4" s="6" customFormat="1">
       <c r="B284" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>14</v>
@@ -4815,36 +4849,36 @@
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22"/>
-      <c r="C285" s="7"/>
+      <c r="B285" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" t="s">
-        <v>146</v>
-      </c>
-      <c r="C286" s="7" t="s">
+      <c r="B286" s="22"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="2:4" s="6" customFormat="1">
+      <c r="B287" t="s">
+        <v>145</v>
+      </c>
+      <c r="C287" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" s="22"/>
-      <c r="C287" s="7"/>
       <c r="D287" s="4"/>
     </row>
     <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B288" s="22"/>
+      <c r="C288" s="7"/>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="2:4" s="6" customFormat="1">
       <c r="B289" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C289" s="7" t="s">
         <v>14</v>
@@ -4852,56 +4886,56 @@
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="C290" s="7"/>
+      <c r="B290" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="B291" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="7"/>
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="2:4" s="6" customFormat="1">
+      <c r="B292" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C292" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="22"/>
-      <c r="C292" s="7"/>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C293" s="7" t="s">
+      <c r="B293" s="22"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="2:4" s="6" customFormat="1">
+      <c r="B294" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C294" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22"/>
-      <c r="C294" s="7"/>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22" t="s">
-        <v>176</v>
-      </c>
+      <c r="B295" s="22"/>
       <c r="C295" s="7"/>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B296" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C296" s="7"/>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
       <c r="B297" s="20" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C297" s="7" t="s">
         <v>14</v>
@@ -4910,7 +4944,7 @@
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
       <c r="B298" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C298" s="7" t="s">
         <v>14</v>
@@ -4919,7 +4953,7 @@
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
       <c r="B299" s="20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C299" s="7" t="s">
         <v>14</v>
@@ -4928,7 +4962,7 @@
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
       <c r="B300" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>14</v>
@@ -4936,22 +4970,22 @@
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="22"/>
-      <c r="C301" s="7"/>
+      <c r="B301" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C302" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B302" s="22"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
       <c r="B303" s="22" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C303" s="7" t="s">
         <v>14</v>
@@ -4959,22 +4993,26 @@
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
-      <c r="B304" s="22"/>
-      <c r="C304" s="7"/>
+      <c r="B304" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C305" s="7" t="s">
+      <c r="B305" s="22"/>
+      <c r="C305" s="7"/>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="2:4" s="6" customFormat="1">
+      <c r="B306" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C306" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D305" s="4"/>
-    </row>
-    <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22"/>
-      <c r="C306" s="7"/>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="2:4" s="6" customFormat="1">
@@ -4993,38 +5031,34 @@
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B310" s="22"/>
       <c r="C310" s="7"/>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="22"/>
+      <c r="B311" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C311" s="7"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C312" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B312" s="22"/>
+      <c r="C312" s="7"/>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
       <c r="B313" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>2</v>
@@ -5033,30 +5067,30 @@
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
       <c r="B315" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C315" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D315" s="4"/>
+    </row>
+    <row r="316" spans="2:4" s="6" customFormat="1">
+      <c r="B316" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C315" s="7" t="s">
+      <c r="C316" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="2:4" s="6" customFormat="1">
-      <c r="B316" s="22"/>
-      <c r="C316" s="7"/>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B317" s="22"/>
+      <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
       <c r="B318" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>14</v>
@@ -5064,22 +5098,22 @@
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22"/>
-      <c r="C319" s="7"/>
+      <c r="B319" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C320" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B320" s="22"/>
+      <c r="C320" s="7"/>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
       <c r="B321" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>14</v>
@@ -5088,7 +5122,7 @@
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
       <c r="B322" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>14</v>
@@ -5096,36 +5130,40 @@
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
-      <c r="B323" s="22"/>
-      <c r="C323" s="7"/>
+      <c r="B323" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C323" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C324" s="7" t="s">
+      <c r="B324" s="22"/>
+      <c r="C324" s="7"/>
+      <c r="D324" s="4"/>
+    </row>
+    <row r="325" spans="2:4" s="6" customFormat="1">
+      <c r="B325" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C325" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D324" s="4"/>
-    </row>
-    <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22"/>
-      <c r="C325" s="7"/>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C326" s="7" t="s">
+      <c r="B326" s="22"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="4"/>
+    </row>
+    <row r="327" spans="2:4" s="6" customFormat="1">
+      <c r="B327" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C327" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D326" s="4"/>
-    </row>
-    <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22"/>
-      <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
@@ -5149,36 +5187,32 @@
       <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" s="6" customFormat="1">
-      <c r="B332" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="B332" s="22"/>
       <c r="C332" s="7"/>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="22"/>
+      <c r="B333" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C333" s="7"/>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22" t="s">
-        <v>151</v>
-      </c>
+      <c r="B334" s="22"/>
       <c r="C334" s="7"/>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
-      <c r="B335" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B335" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C335" s="7"/>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
       <c r="B336" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>2</v>
@@ -5187,46 +5221,46 @@
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
       <c r="B337" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
       <c r="B338" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C338" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D338" s="4"/>
+    </row>
+    <row r="339" spans="2:4" s="6" customFormat="1">
+      <c r="B339" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C339" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D338" s="4"/>
-    </row>
-    <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="22"/>
-      <c r="C339" s="7"/>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="2:4" s="6" customFormat="1">
-      <c r="B340" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="B340" s="22"/>
       <c r="C340" s="7"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
-      <c r="B341" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B341" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C341" s="7"/>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
       <c r="B342" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C342" s="7" t="s">
         <v>2</v>
@@ -5235,7 +5269,7 @@
     </row>
     <row r="343" spans="2:4" s="6" customFormat="1">
       <c r="B343" s="20" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="C343" s="7" t="s">
         <v>2</v>
@@ -5243,36 +5277,36 @@
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="20"/>
-      <c r="C344" s="7"/>
+      <c r="B344" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C345" s="7" t="s">
+      <c r="B345" s="20"/>
+      <c r="C345" s="7"/>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C346" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="20"/>
-      <c r="C346" s="7"/>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C347" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
       <c r="B348" s="22" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>2</v>
@@ -5281,7 +5315,7 @@
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
       <c r="B349" s="22" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C349" s="7" t="s">
         <v>2</v>
@@ -5289,8 +5323,8 @@
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="20" t="s">
-        <v>225</v>
+      <c r="B350" s="22" t="s">
+        <v>222</v>
       </c>
       <c r="C350" s="7" t="s">
         <v>2</v>
@@ -5298,32 +5332,32 @@
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="22"/>
-      <c r="C351" s="7"/>
+      <c r="B351" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C351" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
-      <c r="B352" s="20"/>
+      <c r="B352" s="22"/>
       <c r="C352" s="7"/>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="22"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
     <row r="354" spans="2:4" s="6" customFormat="1">
-      <c r="B354" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C354" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B354" s="22"/>
+      <c r="C354" s="7"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C355" s="7" t="s">
         <v>14</v>
@@ -5331,22 +5365,26 @@
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22"/>
-      <c r="C356" s="7"/>
+      <c r="B356" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C356" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="C357" s="7" t="s">
+      <c r="B357" s="22"/>
+      <c r="C357" s="7"/>
+      <c r="D357" s="4"/>
+    </row>
+    <row r="358" spans="2:4" s="6" customFormat="1">
+      <c r="B358" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C358" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22"/>
-      <c r="C358" s="7"/>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
@@ -5365,17 +5403,13 @@
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="C362" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B362" s="22"/>
+      <c r="C362" s="7"/>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="20" t="s">
-        <v>204</v>
+      <c r="B363" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="C363" s="7" t="s">
         <v>14</v>
@@ -5384,7 +5418,7 @@
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C364" s="7" t="s">
         <v>14</v>
@@ -5393,25 +5427,25 @@
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
       <c r="B365" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
       <c r="B366" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
       <c r="B367" s="20" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C367" s="7" t="s">
         <v>14</v>
@@ -5419,8 +5453,12 @@
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="22"/>
-      <c r="C368" s="7"/>
+      <c r="B368" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C368" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
@@ -5485,16 +5523,16 @@
     </row>
     <row r="381" spans="2:4" s="6" customFormat="1">
       <c r="B381" s="22"/>
-      <c r="C381" s="4"/>
+      <c r="C381" s="7"/>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
-      <c r="B382" s="19"/>
+      <c r="B382" s="22"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="21"/>
+      <c r="B383" s="19"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
     </row>
@@ -5503,76 +5541,81 @@
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="3"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="3"/>
+    <row r="385" spans="1:4" s="6" customFormat="1">
+      <c r="B385" s="21"/>
+      <c r="C385" s="4"/>
+      <c r="D385" s="4"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="3"/>
-      <c r="B386" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C386" s="6">
-        <f>COUNTIF(C5:C385,"y")</f>
-        <v>90</v>
-      </c>
-      <c r="D386" s="2"/>
+      <c r="B386" s="11"/>
+      <c r="C386" s="11"/>
+      <c r="D386" s="3"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="3"/>
       <c r="B387" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387" s="6">
-        <f>COUNTIF(C5:C385,"n")</f>
-        <v>130</v>
+        <f>COUNTIF(C5:C386,"y")</f>
+        <v>93</v>
       </c>
       <c r="D387" s="2"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="3"/>
       <c r="B388" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C388" s="7">
-        <f>COUNTIF(C5:C385,"TBD")</f>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="C388" s="6">
+        <f>COUNTIF(C5:C386,"n")</f>
+        <v>127</v>
       </c>
       <c r="D388" s="2"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="3"/>
       <c r="B389" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C389" s="7">
+        <f>COUNTIF(C5:C386,"TBD")</f>
+        <v>0</v>
+      </c>
+      <c r="D389" s="2"/>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="3"/>
+      <c r="B390" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C389">
-        <f>SUM(C386:C388)</f>
+      <c r="C390">
+        <f>SUM(C387:C389)</f>
         <v>220</v>
       </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4" ht="18">
-      <c r="A390" s="3"/>
-      <c r="B390" s="10"/>
-      <c r="C390" s="10" t="s">
+      <c r="D390" s="2"/>
+    </row>
+    <row r="391" spans="1:4" ht="18">
+      <c r="A391" s="3"/>
+      <c r="B391" s="10"/>
+      <c r="C391" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D390" s="41">
-        <f>C386/(C387+C386 + C388)</f>
-        <v>0.40909090909090912</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="3"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="11"/>
-      <c r="D391" s="3"/>
+      <c r="D391" s="41">
+        <f>C387/(C388+C387 + C389)</f>
+        <v>0.42272727272727273</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="3"/>
+      <c r="B392" s="11"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C276:C65139 C248:C274 C1:C3 C6:C246">
+  <conditionalFormatting sqref="C277:C65140 C246:C275 C1:C3 C6:C243">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5594,11 +5637,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IT873"/>
+  <dimension ref="A1:IT874"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -5921,7 +5964,7 @@
       </c>
       <c r="F51" s="48"/>
       <c r="G51" s="30">
-        <f t="shared" ref="G51:G58" si="2">B51/SUM(B51:E51)</f>
+        <f t="shared" ref="G51:G59" si="2">B51/SUM(B51:E51)</f>
         <v>0.2</v>
       </c>
       <c r="H51" s="7"/>
@@ -6105,19 +6148,32 @@
       </c>
       <c r="F59" s="48"/>
       <c r="G59" s="30">
-        <f t="shared" ref="G59" si="3">B59/SUM(B59:E59)</f>
+        <f t="shared" si="2"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="47"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
+      <c r="A60" s="47">
+        <v>42980</v>
+      </c>
+      <c r="B60" s="4">
+        <v>93</v>
+      </c>
+      <c r="C60" s="4">
+        <v>127</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="30">
+        <f t="shared" ref="G60" si="3">B60/SUM(B60:E60)</f>
+        <v>0.42272727272727273</v>
+      </c>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:11">
@@ -6126,84 +6182,84 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="31"/>
+      <c r="F61" s="28"/>
       <c r="G61" s="30"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B63" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="14" t="s">
+      <c r="E63" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="38">
-        <f>MIN(G59)</f>
-        <v>0.40909090909090912</v>
-      </c>
-      <c r="H62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="39">
-        <f>SUM(B63:D63)</f>
+      <c r="G63" s="38">
+        <f>MIN(G60)</f>
+        <v>0.42272727272727273</v>
+      </c>
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="39">
+        <f>SUM(B64:D64)</f>
         <v>220</v>
       </c>
-      <c r="B63" s="15">
-        <f>Features!C386</f>
-        <v>90</v>
-      </c>
-      <c r="C63" s="16">
+      <c r="B64" s="15">
         <f>Features!C387</f>
-        <v>130</v>
-      </c>
-      <c r="D63" s="17">
+        <v>93</v>
+      </c>
+      <c r="C64" s="16">
         <f>Features!C388</f>
+        <v>127</v>
+      </c>
+      <c r="D64" s="17">
+        <f>Features!C389</f>
         <v>0</v>
       </c>
-      <c r="E63" s="18">
-        <f>MIN(E59)</f>
+      <c r="E64" s="18">
+        <f>MIN(E60)</f>
         <v>0</v>
       </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="30"/>
       <c r="H64" s="7"/>
-      <c r="J64" s="36"/>
-    </row>
-    <row r="65" spans="1:8">
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="4"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="30"/>
       <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="J65" s="36"/>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6211,14 +6267,9 @@
       <c r="G66" s="30"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="B67" s="49">
-        <f>(A59-A48)*A63/B63 +A48</f>
-        <v>43354.111111111109</v>
-      </c>
+    <row r="67" spans="1:10">
+      <c r="A67" s="4"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="4"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -6226,9 +6277,14 @@
       <c r="G67" s="30"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="49">
+        <f>(A60-A48)*A64/B64 +A48</f>
+        <v>43363.731182795702</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -6236,9 +6292,9 @@
       <c r="G68" s="30"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:10">
       <c r="A69" s="4"/>
-      <c r="B69" s="19"/>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -6246,7 +6302,7 @@
       <c r="G69" s="30"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:10">
       <c r="A70" s="4"/>
       <c r="B70" s="19"/>
       <c r="C70" s="4"/>
@@ -6256,9 +6312,9 @@
       <c r="G70" s="30"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:10">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="4"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -6266,7 +6322,7 @@
       <c r="G71" s="30"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:10">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6276,9 +6332,9 @@
       <c r="G72" s="30"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:10">
       <c r="A73" s="4"/>
-      <c r="B73" s="7"/>
+      <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -6286,9 +6342,9 @@
       <c r="G73" s="30"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:10">
       <c r="A74" s="4"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="4"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -6296,7 +6352,7 @@
       <c r="G74" s="30"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:10">
       <c r="A75" s="4"/>
       <c r="B75" s="20"/>
       <c r="C75" s="4"/>
@@ -6306,8 +6362,8 @@
       <c r="G75" s="30"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="7"/>
+    <row r="76" spans="1:10">
+      <c r="A76" s="4"/>
       <c r="B76" s="20"/>
       <c r="C76" s="4"/>
       <c r="D76" s="7"/>
@@ -6316,9 +6372,9 @@
       <c r="G76" s="30"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:10">
       <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="4"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -6326,7 +6382,7 @@
       <c r="G77" s="30"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:10">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="4"/>
@@ -6336,7 +6392,7 @@
       <c r="G78" s="30"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:10">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="4"/>
@@ -6346,7 +6402,7 @@
       <c r="G79" s="30"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:10">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="4"/>
@@ -6449,7 +6505,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
@@ -6458,7 +6514,7 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="7"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -6466,15 +6522,15 @@
       <c r="G91" s="30"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="4"/>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8" s="2" customFormat="1">
       <c r="A93" s="4"/>
@@ -6648,7 +6704,7 @@
     </row>
     <row r="110" spans="1:8" s="2" customFormat="1">
       <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -6658,7 +6714,7 @@
     </row>
     <row r="111" spans="1:8" s="2" customFormat="1">
       <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="6"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -6688,7 +6744,7 @@
     </row>
     <row r="114" spans="1:8" s="2" customFormat="1">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -6728,7 +6784,7 @@
     </row>
     <row r="118" spans="1:8" s="2" customFormat="1">
       <c r="A118" s="4"/>
-      <c r="B118" s="21"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -6738,7 +6794,7 @@
     </row>
     <row r="119" spans="1:8" s="2" customFormat="1">
       <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -6748,7 +6804,7 @@
     </row>
     <row r="120" spans="1:8" s="2" customFormat="1">
       <c r="A120" s="4"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -6758,7 +6814,7 @@
     </row>
     <row r="121" spans="1:8" s="2" customFormat="1">
       <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
+      <c r="B121" s="6"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -6768,7 +6824,7 @@
     </row>
     <row r="122" spans="1:8" s="2" customFormat="1">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -6788,7 +6844,7 @@
     </row>
     <row r="124" spans="1:8" s="2" customFormat="1">
       <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -6848,7 +6904,7 @@
     </row>
     <row r="130" spans="1:8" s="2" customFormat="1">
       <c r="A130" s="4"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -6948,7 +7004,7 @@
     </row>
     <row r="140" spans="1:8" s="2" customFormat="1">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -6998,7 +7054,7 @@
     </row>
     <row r="145" spans="1:254" s="2" customFormat="1">
       <c r="A145" s="4"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -7018,7 +7074,7 @@
     </row>
     <row r="147" spans="1:254" s="2" customFormat="1">
       <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -7057,284 +7113,284 @@
       <c r="H150" s="4"/>
     </row>
     <row r="151" spans="1:254" s="2" customFormat="1">
-      <c r="A151" s="21"/>
-      <c r="B151" s="21"/>
-      <c r="C151" s="21"/>
-      <c r="D151" s="21"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="35"/>
-      <c r="H151" s="21"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5"/>
-      <c r="V151" s="5"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
-      <c r="Z151" s="5"/>
-      <c r="AA151" s="5"/>
-      <c r="AB151" s="5"/>
-      <c r="AC151" s="5"/>
-      <c r="AD151" s="5"/>
-      <c r="AE151" s="5"/>
-      <c r="AF151" s="5"/>
-      <c r="AG151" s="5"/>
-      <c r="AH151" s="5"/>
-      <c r="AI151" s="5"/>
-      <c r="AJ151" s="5"/>
-      <c r="AK151" s="5"/>
-      <c r="AL151" s="5"/>
-      <c r="AM151" s="5"/>
-      <c r="AN151" s="5"/>
-      <c r="AO151" s="5"/>
-      <c r="AP151" s="5"/>
-      <c r="AQ151" s="5"/>
-      <c r="AR151" s="5"/>
-      <c r="AS151" s="5"/>
-      <c r="AT151" s="5"/>
-      <c r="AU151" s="5"/>
-      <c r="AV151" s="5"/>
-      <c r="AW151" s="5"/>
-      <c r="AX151" s="5"/>
-      <c r="AY151" s="5"/>
-      <c r="AZ151" s="5"/>
-      <c r="BA151" s="5"/>
-      <c r="BB151" s="5"/>
-      <c r="BC151" s="5"/>
-      <c r="BD151" s="5"/>
-      <c r="BE151" s="5"/>
-      <c r="BF151" s="5"/>
-      <c r="BG151" s="5"/>
-      <c r="BH151" s="5"/>
-      <c r="BI151" s="5"/>
-      <c r="BJ151" s="5"/>
-      <c r="BK151" s="5"/>
-      <c r="BL151" s="5"/>
-      <c r="BM151" s="5"/>
-      <c r="BN151" s="5"/>
-      <c r="BO151" s="5"/>
-      <c r="BP151" s="5"/>
-      <c r="BQ151" s="5"/>
-      <c r="BR151" s="5"/>
-      <c r="BS151" s="5"/>
-      <c r="BT151" s="5"/>
-      <c r="BU151" s="5"/>
-      <c r="BV151" s="5"/>
-      <c r="BW151" s="5"/>
-      <c r="BX151" s="5"/>
-      <c r="BY151" s="5"/>
-      <c r="BZ151" s="5"/>
-      <c r="CA151" s="5"/>
-      <c r="CB151" s="5"/>
-      <c r="CC151" s="5"/>
-      <c r="CD151" s="5"/>
-      <c r="CE151" s="5"/>
-      <c r="CF151" s="5"/>
-      <c r="CG151" s="5"/>
-      <c r="CH151" s="5"/>
-      <c r="CI151" s="5"/>
-      <c r="CJ151" s="5"/>
-      <c r="CK151" s="5"/>
-      <c r="CL151" s="5"/>
-      <c r="CM151" s="5"/>
-      <c r="CN151" s="5"/>
-      <c r="CO151" s="5"/>
-      <c r="CP151" s="5"/>
-      <c r="CQ151" s="5"/>
-      <c r="CR151" s="5"/>
-      <c r="CS151" s="5"/>
-      <c r="CT151" s="5"/>
-      <c r="CU151" s="5"/>
-      <c r="CV151" s="5"/>
-      <c r="CW151" s="5"/>
-      <c r="CX151" s="5"/>
-      <c r="CY151" s="5"/>
-      <c r="CZ151" s="5"/>
-      <c r="DA151" s="5"/>
-      <c r="DB151" s="5"/>
-      <c r="DC151" s="5"/>
-      <c r="DD151" s="5"/>
-      <c r="DE151" s="5"/>
-      <c r="DF151" s="5"/>
-      <c r="DG151" s="5"/>
-      <c r="DH151" s="5"/>
-      <c r="DI151" s="5"/>
-      <c r="DJ151" s="5"/>
-      <c r="DK151" s="5"/>
-      <c r="DL151" s="5"/>
-      <c r="DM151" s="5"/>
-      <c r="DN151" s="5"/>
-      <c r="DO151" s="5"/>
-      <c r="DP151" s="5"/>
-      <c r="DQ151" s="5"/>
-      <c r="DR151" s="5"/>
-      <c r="DS151" s="5"/>
-      <c r="DT151" s="5"/>
-      <c r="DU151" s="5"/>
-      <c r="DV151" s="5"/>
-      <c r="DW151" s="5"/>
-      <c r="DX151" s="5"/>
-      <c r="DY151" s="5"/>
-      <c r="DZ151" s="5"/>
-      <c r="EA151" s="5"/>
-      <c r="EB151" s="5"/>
-      <c r="EC151" s="5"/>
-      <c r="ED151" s="5"/>
-      <c r="EE151" s="5"/>
-      <c r="EF151" s="5"/>
-      <c r="EG151" s="5"/>
-      <c r="EH151" s="5"/>
-      <c r="EI151" s="5"/>
-      <c r="EJ151" s="5"/>
-      <c r="EK151" s="5"/>
-      <c r="EL151" s="5"/>
-      <c r="EM151" s="5"/>
-      <c r="EN151" s="5"/>
-      <c r="EO151" s="5"/>
-      <c r="EP151" s="5"/>
-      <c r="EQ151" s="5"/>
-      <c r="ER151" s="5"/>
-      <c r="ES151" s="5"/>
-      <c r="ET151" s="5"/>
-      <c r="EU151" s="5"/>
-      <c r="EV151" s="5"/>
-      <c r="EW151" s="5"/>
-      <c r="EX151" s="5"/>
-      <c r="EY151" s="5"/>
-      <c r="EZ151" s="5"/>
-      <c r="FA151" s="5"/>
-      <c r="FB151" s="5"/>
-      <c r="FC151" s="5"/>
-      <c r="FD151" s="5"/>
-      <c r="FE151" s="5"/>
-      <c r="FF151" s="5"/>
-      <c r="FG151" s="5"/>
-      <c r="FH151" s="5"/>
-      <c r="FI151" s="5"/>
-      <c r="FJ151" s="5"/>
-      <c r="FK151" s="5"/>
-      <c r="FL151" s="5"/>
-      <c r="FM151" s="5"/>
-      <c r="FN151" s="5"/>
-      <c r="FO151" s="5"/>
-      <c r="FP151" s="5"/>
-      <c r="FQ151" s="5"/>
-      <c r="FR151" s="5"/>
-      <c r="FS151" s="5"/>
-      <c r="FT151" s="5"/>
-      <c r="FU151" s="5"/>
-      <c r="FV151" s="5"/>
-      <c r="FW151" s="5"/>
-      <c r="FX151" s="5"/>
-      <c r="FY151" s="5"/>
-      <c r="FZ151" s="5"/>
-      <c r="GA151" s="5"/>
-      <c r="GB151" s="5"/>
-      <c r="GC151" s="5"/>
-      <c r="GD151" s="5"/>
-      <c r="GE151" s="5"/>
-      <c r="GF151" s="5"/>
-      <c r="GG151" s="5"/>
-      <c r="GH151" s="5"/>
-      <c r="GI151" s="5"/>
-      <c r="GJ151" s="5"/>
-      <c r="GK151" s="5"/>
-      <c r="GL151" s="5"/>
-      <c r="GM151" s="5"/>
-      <c r="GN151" s="5"/>
-      <c r="GO151" s="5"/>
-      <c r="GP151" s="5"/>
-      <c r="GQ151" s="5"/>
-      <c r="GR151" s="5"/>
-      <c r="GS151" s="5"/>
-      <c r="GT151" s="5"/>
-      <c r="GU151" s="5"/>
-      <c r="GV151" s="5"/>
-      <c r="GW151" s="5"/>
-      <c r="GX151" s="5"/>
-      <c r="GY151" s="5"/>
-      <c r="GZ151" s="5"/>
-      <c r="HA151" s="5"/>
-      <c r="HB151" s="5"/>
-      <c r="HC151" s="5"/>
-      <c r="HD151" s="5"/>
-      <c r="HE151" s="5"/>
-      <c r="HF151" s="5"/>
-      <c r="HG151" s="5"/>
-      <c r="HH151" s="5"/>
-      <c r="HI151" s="5"/>
-      <c r="HJ151" s="5"/>
-      <c r="HK151" s="5"/>
-      <c r="HL151" s="5"/>
-      <c r="HM151" s="5"/>
-      <c r="HN151" s="5"/>
-      <c r="HO151" s="5"/>
-      <c r="HP151" s="5"/>
-      <c r="HQ151" s="5"/>
-      <c r="HR151" s="5"/>
-      <c r="HS151" s="5"/>
-      <c r="HT151" s="5"/>
-      <c r="HU151" s="5"/>
-      <c r="HV151" s="5"/>
-      <c r="HW151" s="5"/>
-      <c r="HX151" s="5"/>
-      <c r="HY151" s="5"/>
-      <c r="HZ151" s="5"/>
-      <c r="IA151" s="5"/>
-      <c r="IB151" s="5"/>
-      <c r="IC151" s="5"/>
-      <c r="ID151" s="5"/>
-      <c r="IE151" s="5"/>
-      <c r="IF151" s="5"/>
-      <c r="IG151" s="5"/>
-      <c r="IH151" s="5"/>
-      <c r="II151" s="5"/>
-      <c r="IJ151" s="5"/>
-      <c r="IK151" s="5"/>
-      <c r="IL151" s="5"/>
-      <c r="IM151" s="5"/>
-      <c r="IN151" s="5"/>
-      <c r="IO151" s="5"/>
-      <c r="IP151" s="5"/>
-      <c r="IQ151" s="5"/>
-      <c r="IR151" s="5"/>
-      <c r="IS151" s="5"/>
-      <c r="IT151" s="5"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="34"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="1:254" s="2" customFormat="1">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:254">
-      <c r="A153" s="7"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="30"/>
-      <c r="H153" s="7"/>
+      <c r="A152" s="21"/>
+      <c r="B152" s="21"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="21"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
+      <c r="N152" s="5"/>
+      <c r="O152" s="5"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="5"/>
+      <c r="W152" s="5"/>
+      <c r="X152" s="5"/>
+      <c r="Y152" s="5"/>
+      <c r="Z152" s="5"/>
+      <c r="AA152" s="5"/>
+      <c r="AB152" s="5"/>
+      <c r="AC152" s="5"/>
+      <c r="AD152" s="5"/>
+      <c r="AE152" s="5"/>
+      <c r="AF152" s="5"/>
+      <c r="AG152" s="5"/>
+      <c r="AH152" s="5"/>
+      <c r="AI152" s="5"/>
+      <c r="AJ152" s="5"/>
+      <c r="AK152" s="5"/>
+      <c r="AL152" s="5"/>
+      <c r="AM152" s="5"/>
+      <c r="AN152" s="5"/>
+      <c r="AO152" s="5"/>
+      <c r="AP152" s="5"/>
+      <c r="AQ152" s="5"/>
+      <c r="AR152" s="5"/>
+      <c r="AS152" s="5"/>
+      <c r="AT152" s="5"/>
+      <c r="AU152" s="5"/>
+      <c r="AV152" s="5"/>
+      <c r="AW152" s="5"/>
+      <c r="AX152" s="5"/>
+      <c r="AY152" s="5"/>
+      <c r="AZ152" s="5"/>
+      <c r="BA152" s="5"/>
+      <c r="BB152" s="5"/>
+      <c r="BC152" s="5"/>
+      <c r="BD152" s="5"/>
+      <c r="BE152" s="5"/>
+      <c r="BF152" s="5"/>
+      <c r="BG152" s="5"/>
+      <c r="BH152" s="5"/>
+      <c r="BI152" s="5"/>
+      <c r="BJ152" s="5"/>
+      <c r="BK152" s="5"/>
+      <c r="BL152" s="5"/>
+      <c r="BM152" s="5"/>
+      <c r="BN152" s="5"/>
+      <c r="BO152" s="5"/>
+      <c r="BP152" s="5"/>
+      <c r="BQ152" s="5"/>
+      <c r="BR152" s="5"/>
+      <c r="BS152" s="5"/>
+      <c r="BT152" s="5"/>
+      <c r="BU152" s="5"/>
+      <c r="BV152" s="5"/>
+      <c r="BW152" s="5"/>
+      <c r="BX152" s="5"/>
+      <c r="BY152" s="5"/>
+      <c r="BZ152" s="5"/>
+      <c r="CA152" s="5"/>
+      <c r="CB152" s="5"/>
+      <c r="CC152" s="5"/>
+      <c r="CD152" s="5"/>
+      <c r="CE152" s="5"/>
+      <c r="CF152" s="5"/>
+      <c r="CG152" s="5"/>
+      <c r="CH152" s="5"/>
+      <c r="CI152" s="5"/>
+      <c r="CJ152" s="5"/>
+      <c r="CK152" s="5"/>
+      <c r="CL152" s="5"/>
+      <c r="CM152" s="5"/>
+      <c r="CN152" s="5"/>
+      <c r="CO152" s="5"/>
+      <c r="CP152" s="5"/>
+      <c r="CQ152" s="5"/>
+      <c r="CR152" s="5"/>
+      <c r="CS152" s="5"/>
+      <c r="CT152" s="5"/>
+      <c r="CU152" s="5"/>
+      <c r="CV152" s="5"/>
+      <c r="CW152" s="5"/>
+      <c r="CX152" s="5"/>
+      <c r="CY152" s="5"/>
+      <c r="CZ152" s="5"/>
+      <c r="DA152" s="5"/>
+      <c r="DB152" s="5"/>
+      <c r="DC152" s="5"/>
+      <c r="DD152" s="5"/>
+      <c r="DE152" s="5"/>
+      <c r="DF152" s="5"/>
+      <c r="DG152" s="5"/>
+      <c r="DH152" s="5"/>
+      <c r="DI152" s="5"/>
+      <c r="DJ152" s="5"/>
+      <c r="DK152" s="5"/>
+      <c r="DL152" s="5"/>
+      <c r="DM152" s="5"/>
+      <c r="DN152" s="5"/>
+      <c r="DO152" s="5"/>
+      <c r="DP152" s="5"/>
+      <c r="DQ152" s="5"/>
+      <c r="DR152" s="5"/>
+      <c r="DS152" s="5"/>
+      <c r="DT152" s="5"/>
+      <c r="DU152" s="5"/>
+      <c r="DV152" s="5"/>
+      <c r="DW152" s="5"/>
+      <c r="DX152" s="5"/>
+      <c r="DY152" s="5"/>
+      <c r="DZ152" s="5"/>
+      <c r="EA152" s="5"/>
+      <c r="EB152" s="5"/>
+      <c r="EC152" s="5"/>
+      <c r="ED152" s="5"/>
+      <c r="EE152" s="5"/>
+      <c r="EF152" s="5"/>
+      <c r="EG152" s="5"/>
+      <c r="EH152" s="5"/>
+      <c r="EI152" s="5"/>
+      <c r="EJ152" s="5"/>
+      <c r="EK152" s="5"/>
+      <c r="EL152" s="5"/>
+      <c r="EM152" s="5"/>
+      <c r="EN152" s="5"/>
+      <c r="EO152" s="5"/>
+      <c r="EP152" s="5"/>
+      <c r="EQ152" s="5"/>
+      <c r="ER152" s="5"/>
+      <c r="ES152" s="5"/>
+      <c r="ET152" s="5"/>
+      <c r="EU152" s="5"/>
+      <c r="EV152" s="5"/>
+      <c r="EW152" s="5"/>
+      <c r="EX152" s="5"/>
+      <c r="EY152" s="5"/>
+      <c r="EZ152" s="5"/>
+      <c r="FA152" s="5"/>
+      <c r="FB152" s="5"/>
+      <c r="FC152" s="5"/>
+      <c r="FD152" s="5"/>
+      <c r="FE152" s="5"/>
+      <c r="FF152" s="5"/>
+      <c r="FG152" s="5"/>
+      <c r="FH152" s="5"/>
+      <c r="FI152" s="5"/>
+      <c r="FJ152" s="5"/>
+      <c r="FK152" s="5"/>
+      <c r="FL152" s="5"/>
+      <c r="FM152" s="5"/>
+      <c r="FN152" s="5"/>
+      <c r="FO152" s="5"/>
+      <c r="FP152" s="5"/>
+      <c r="FQ152" s="5"/>
+      <c r="FR152" s="5"/>
+      <c r="FS152" s="5"/>
+      <c r="FT152" s="5"/>
+      <c r="FU152" s="5"/>
+      <c r="FV152" s="5"/>
+      <c r="FW152" s="5"/>
+      <c r="FX152" s="5"/>
+      <c r="FY152" s="5"/>
+      <c r="FZ152" s="5"/>
+      <c r="GA152" s="5"/>
+      <c r="GB152" s="5"/>
+      <c r="GC152" s="5"/>
+      <c r="GD152" s="5"/>
+      <c r="GE152" s="5"/>
+      <c r="GF152" s="5"/>
+      <c r="GG152" s="5"/>
+      <c r="GH152" s="5"/>
+      <c r="GI152" s="5"/>
+      <c r="GJ152" s="5"/>
+      <c r="GK152" s="5"/>
+      <c r="GL152" s="5"/>
+      <c r="GM152" s="5"/>
+      <c r="GN152" s="5"/>
+      <c r="GO152" s="5"/>
+      <c r="GP152" s="5"/>
+      <c r="GQ152" s="5"/>
+      <c r="GR152" s="5"/>
+      <c r="GS152" s="5"/>
+      <c r="GT152" s="5"/>
+      <c r="GU152" s="5"/>
+      <c r="GV152" s="5"/>
+      <c r="GW152" s="5"/>
+      <c r="GX152" s="5"/>
+      <c r="GY152" s="5"/>
+      <c r="GZ152" s="5"/>
+      <c r="HA152" s="5"/>
+      <c r="HB152" s="5"/>
+      <c r="HC152" s="5"/>
+      <c r="HD152" s="5"/>
+      <c r="HE152" s="5"/>
+      <c r="HF152" s="5"/>
+      <c r="HG152" s="5"/>
+      <c r="HH152" s="5"/>
+      <c r="HI152" s="5"/>
+      <c r="HJ152" s="5"/>
+      <c r="HK152" s="5"/>
+      <c r="HL152" s="5"/>
+      <c r="HM152" s="5"/>
+      <c r="HN152" s="5"/>
+      <c r="HO152" s="5"/>
+      <c r="HP152" s="5"/>
+      <c r="HQ152" s="5"/>
+      <c r="HR152" s="5"/>
+      <c r="HS152" s="5"/>
+      <c r="HT152" s="5"/>
+      <c r="HU152" s="5"/>
+      <c r="HV152" s="5"/>
+      <c r="HW152" s="5"/>
+      <c r="HX152" s="5"/>
+      <c r="HY152" s="5"/>
+      <c r="HZ152" s="5"/>
+      <c r="IA152" s="5"/>
+      <c r="IB152" s="5"/>
+      <c r="IC152" s="5"/>
+      <c r="ID152" s="5"/>
+      <c r="IE152" s="5"/>
+      <c r="IF152" s="5"/>
+      <c r="IG152" s="5"/>
+      <c r="IH152" s="5"/>
+      <c r="II152" s="5"/>
+      <c r="IJ152" s="5"/>
+      <c r="IK152" s="5"/>
+      <c r="IL152" s="5"/>
+      <c r="IM152" s="5"/>
+      <c r="IN152" s="5"/>
+      <c r="IO152" s="5"/>
+      <c r="IP152" s="5"/>
+      <c r="IQ152" s="5"/>
+      <c r="IR152" s="5"/>
+      <c r="IS152" s="5"/>
+      <c r="IT152" s="5"/>
+    </row>
+    <row r="153" spans="1:254" s="2" customFormat="1">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="34"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="1:254">
       <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="B154" s="6"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
@@ -7344,7 +7400,7 @@
     </row>
     <row r="155" spans="1:254">
       <c r="A155" s="7"/>
-      <c r="B155" s="20"/>
+      <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
@@ -7354,7 +7410,7 @@
     </row>
     <row r="156" spans="1:254">
       <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -7365,7 +7421,7 @@
     <row r="157" spans="1:254">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
@@ -7405,7 +7461,7 @@
     <row r="161" spans="1:8">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
+      <c r="C161" s="4"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
@@ -7414,7 +7470,7 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="7"/>
-      <c r="B162" s="22"/>
+      <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -7434,7 +7490,7 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
@@ -7444,7 +7500,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="7"/>
-      <c r="B165" s="20"/>
+      <c r="B165" s="7"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
@@ -7464,7 +7520,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
@@ -7484,7 +7540,7 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="7"/>
-      <c r="B169" s="20"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
@@ -7504,7 +7560,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
@@ -7524,7 +7580,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="7"/>
-      <c r="B173" s="20"/>
+      <c r="B173" s="7"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
@@ -7544,7 +7600,7 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7"/>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
@@ -7584,7 +7640,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="7"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="7"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7"/>
       <c r="E179" s="7"/>
@@ -7594,8 +7650,8 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
@@ -7604,7 +7660,7 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="7"/>
-      <c r="B181" s="19"/>
+      <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="7"/>
       <c r="E181" s="7"/>
@@ -7674,7 +7730,7 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="7"/>
-      <c r="B188" s="4"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -7684,7 +7740,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="7"/>
-      <c r="B189" s="19"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
@@ -7694,7 +7750,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="7"/>
-      <c r="B190" s="21"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -7714,7 +7770,7 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="7"/>
-      <c r="B192" s="19"/>
+      <c r="B192" s="21"/>
       <c r="C192" s="4"/>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
@@ -7755,7 +7811,7 @@
     <row r="196" spans="1:8">
       <c r="A196" s="7"/>
       <c r="B196" s="19"/>
-      <c r="C196" s="7"/>
+      <c r="C196" s="4"/>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="7"/>
@@ -7764,7 +7820,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="7"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="7"/>
@@ -7784,7 +7840,7 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="7"/>
-      <c r="B199" s="19"/>
+      <c r="B199" s="4"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
@@ -7844,7 +7900,7 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="7"/>
-      <c r="B205" s="21"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
@@ -7884,7 +7940,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="7"/>
-      <c r="B209" s="4"/>
+      <c r="B209" s="21"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
@@ -7894,7 +7950,7 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="7"/>
-      <c r="B210" s="6"/>
+      <c r="B210" s="4"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
@@ -7904,7 +7960,7 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="7"/>
-      <c r="B211" s="4"/>
+      <c r="B211" s="6"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -7914,7 +7970,7 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="7"/>
-      <c r="B212" s="19"/>
+      <c r="B212" s="4"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
@@ -7964,7 +8020,7 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="7"/>
-      <c r="B217" s="21"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
@@ -7974,7 +8030,7 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="7"/>
-      <c r="B218" s="19"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
@@ -8024,7 +8080,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="7"/>
-      <c r="B223" s="21"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
@@ -8084,7 +8140,7 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="7"/>
-      <c r="B229" s="4"/>
+      <c r="B229" s="21"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
@@ -8094,7 +8150,7 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="7"/>
-      <c r="B230" s="6"/>
+      <c r="B230" s="4"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
@@ -8104,8 +8160,8 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="7"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="B231" s="6"/>
+      <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -8114,7 +8170,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="7"/>
-      <c r="B232" s="19"/>
+      <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
@@ -8124,7 +8180,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="4"/>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
@@ -8134,7 +8190,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="7"/>
-      <c r="B234" s="20"/>
+      <c r="B234" s="7"/>
       <c r="C234" s="4"/>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
@@ -8174,7 +8230,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="7"/>
-      <c r="B238" s="7"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
@@ -8184,7 +8240,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="7"/>
-      <c r="B239" s="20"/>
+      <c r="B239" s="7"/>
       <c r="C239" s="4"/>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
@@ -8194,7 +8250,7 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="7"/>
-      <c r="B240" s="23"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
@@ -8214,7 +8270,7 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="7"/>
-      <c r="B242" s="20"/>
+      <c r="B242" s="23"/>
       <c r="C242" s="4"/>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
@@ -8254,7 +8310,7 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="7"/>
-      <c r="B246" s="7"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -8264,7 +8320,7 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="7"/>
-      <c r="B247" s="20"/>
+      <c r="B247" s="7"/>
       <c r="C247" s="4"/>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
@@ -8314,7 +8370,7 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
@@ -8324,8 +8380,8 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="7"/>
-      <c r="B253" s="20"/>
-      <c r="C253" s="7"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="4"/>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
@@ -8334,7 +8390,7 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="7"/>
-      <c r="B254" s="7"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7"/>
       <c r="E254" s="7"/>
@@ -8344,7 +8400,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="7"/>
-      <c r="B255" s="20"/>
+      <c r="B255" s="7"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
@@ -8354,7 +8410,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="7"/>
-      <c r="B256" s="23"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -8404,8 +8460,8 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="7"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="4"/>
+      <c r="B261" s="23"/>
+      <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="7"/>
@@ -8414,7 +8470,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="7"/>
-      <c r="B262" s="23"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="4"/>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
@@ -8424,7 +8480,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="7"/>
-      <c r="B263" s="24"/>
+      <c r="B263" s="23"/>
       <c r="C263" s="4"/>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
@@ -8452,9 +8508,9 @@
       <c r="G265" s="30"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266" spans="1:8" ht="11.25">
+    <row r="266" spans="1:8">
       <c r="A266" s="7"/>
-      <c r="B266" s="25"/>
+      <c r="B266" s="24"/>
       <c r="C266" s="4"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -8462,9 +8518,9 @@
       <c r="G266" s="30"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" ht="11.25">
       <c r="A267" s="7"/>
-      <c r="B267" s="23"/>
+      <c r="B267" s="25"/>
       <c r="C267" s="4"/>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
@@ -8504,7 +8560,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="7"/>
-      <c r="B271" s="24"/>
+      <c r="B271" s="23"/>
       <c r="C271" s="4"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -8534,7 +8590,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="7"/>
-      <c r="B274" s="23"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="4"/>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
@@ -8544,7 +8600,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="7"/>
-      <c r="B275" s="24"/>
+      <c r="B275" s="23"/>
       <c r="C275" s="4"/>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
@@ -8552,15 +8608,15 @@
       <c r="G275" s="30"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276" spans="1:8" s="2" customFormat="1">
-      <c r="A276" s="4"/>
+    <row r="276" spans="1:8">
+      <c r="A276" s="7"/>
       <c r="B276" s="24"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="4"/>
-      <c r="F276" s="4"/>
-      <c r="G276" s="34"/>
-      <c r="H276" s="4"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="7"/>
+      <c r="F276" s="7"/>
+      <c r="G276" s="30"/>
+      <c r="H276" s="7"/>
     </row>
     <row r="277" spans="1:8" s="2" customFormat="1">
       <c r="A277" s="4"/>
@@ -8572,19 +8628,19 @@
       <c r="G277" s="34"/>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="1:8">
-      <c r="A278" s="7"/>
+    <row r="278" spans="1:8" s="2" customFormat="1">
+      <c r="A278" s="4"/>
       <c r="B278" s="24"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="7"/>
-      <c r="E278" s="7"/>
-      <c r="F278" s="7"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="7"/>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
+      <c r="G278" s="34"/>
+      <c r="H278" s="4"/>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="7"/>
-      <c r="B279" s="23"/>
+      <c r="B279" s="24"/>
       <c r="C279" s="4"/>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
@@ -8594,7 +8650,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="7"/>
-      <c r="B280" s="24"/>
+      <c r="B280" s="23"/>
       <c r="C280" s="4"/>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
@@ -8624,7 +8680,7 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="7"/>
-      <c r="B283" s="22"/>
+      <c r="B283" s="24"/>
       <c r="C283" s="4"/>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
@@ -8634,7 +8690,7 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
+      <c r="B284" s="22"/>
       <c r="C284" s="4"/>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
@@ -8654,7 +8710,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="7"/>
-      <c r="B286" s="20"/>
+      <c r="B286" s="7"/>
       <c r="C286" s="4"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -8674,7 +8730,7 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" s="7"/>
-      <c r="B288" s="7"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="4"/>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
@@ -8705,7 +8761,7 @@
     <row r="291" spans="1:8">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
-      <c r="C291" s="7"/>
+      <c r="C291" s="4"/>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="7"/>
@@ -8714,7 +8770,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="7"/>
-      <c r="B292" s="6"/>
+      <c r="B292" s="7"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
@@ -8724,7 +8780,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="7"/>
-      <c r="B293" s="7"/>
+      <c r="B293" s="6"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
@@ -8804,7 +8860,7 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="7"/>
-      <c r="B301" s="6"/>
+      <c r="B301" s="7"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
@@ -8814,8 +8870,8 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="7"/>
-      <c r="B302" s="4"/>
-      <c r="C302" s="4"/>
+      <c r="B302" s="6"/>
+      <c r="C302" s="7"/>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
@@ -8824,7 +8880,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="7"/>
-      <c r="B303" s="19"/>
+      <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
@@ -8854,7 +8910,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="7"/>
-      <c r="B306" s="4"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
       <c r="D306" s="7"/>
       <c r="E306" s="7"/>
@@ -8914,7 +8970,7 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="7"/>
-      <c r="B312" s="19"/>
+      <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="7"/>
       <c r="E312" s="7"/>
@@ -8934,7 +8990,7 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="7"/>
-      <c r="B314" s="21"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="4"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -8944,8 +9000,8 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="7"/>
-      <c r="B315" s="7"/>
-      <c r="C315" s="7"/>
+      <c r="B315" s="21"/>
+      <c r="C315" s="4"/>
       <c r="D315" s="7"/>
       <c r="E315" s="7"/>
       <c r="F315" s="7"/>
@@ -8954,7 +9010,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="7"/>
-      <c r="B316" s="6"/>
+      <c r="B316" s="7"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7"/>
       <c r="E316" s="7"/>
@@ -8962,15 +9018,15 @@
       <c r="G316" s="30"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8" s="2" customFormat="1">
-      <c r="A317" s="4"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="4"/>
-      <c r="F317" s="4"/>
-      <c r="G317" s="34"/>
-      <c r="H317" s="4"/>
+    <row r="317" spans="1:8">
+      <c r="A317" s="7"/>
+      <c r="B317" s="6"/>
+      <c r="C317" s="7"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="7"/>
+      <c r="F317" s="7"/>
+      <c r="G317" s="30"/>
+      <c r="H317" s="7"/>
     </row>
     <row r="318" spans="1:8" s="2" customFormat="1">
       <c r="A318" s="4"/>
@@ -8994,7 +9050,7 @@
     </row>
     <row r="320" spans="1:8" s="2" customFormat="1">
       <c r="A320" s="4"/>
-      <c r="B320" s="19"/>
+      <c r="B320" s="4"/>
       <c r="C320" s="9"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
@@ -9044,8 +9100,8 @@
     </row>
     <row r="325" spans="1:8" s="2" customFormat="1">
       <c r="A325" s="4"/>
-      <c r="B325" s="26"/>
-      <c r="C325" s="4"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="9"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
@@ -9094,7 +9150,7 @@
     </row>
     <row r="330" spans="1:8" s="2" customFormat="1">
       <c r="A330" s="4"/>
-      <c r="B330" s="21"/>
+      <c r="B330" s="26"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
@@ -9144,7 +9200,7 @@
     </row>
     <row r="335" spans="1:8" s="2" customFormat="1">
       <c r="A335" s="4"/>
-      <c r="B335" s="19"/>
+      <c r="B335" s="21"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
@@ -9154,7 +9210,7 @@
     </row>
     <row r="336" spans="1:8" s="2" customFormat="1">
       <c r="A336" s="4"/>
-      <c r="B336" s="21"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
@@ -9164,7 +9220,7 @@
     </row>
     <row r="337" spans="1:8" s="2" customFormat="1">
       <c r="A337" s="4"/>
-      <c r="B337" s="4"/>
+      <c r="B337" s="21"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
@@ -9172,20 +9228,20 @@
       <c r="G337" s="34"/>
       <c r="H337" s="4"/>
     </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="7"/>
-      <c r="B338" s="6"/>
-      <c r="C338" s="7"/>
-      <c r="D338" s="7"/>
-      <c r="E338" s="7"/>
-      <c r="F338" s="7"/>
-      <c r="G338" s="30"/>
-      <c r="H338" s="7"/>
+    <row r="338" spans="1:8" s="2" customFormat="1">
+      <c r="A338" s="4"/>
+      <c r="B338" s="4"/>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+      <c r="G338" s="34"/>
+      <c r="H338" s="4"/>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" s="7"/>
-      <c r="B339" s="7"/>
-      <c r="C339" s="4"/>
+      <c r="B339" s="6"/>
+      <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
       <c r="F339" s="7"/>
@@ -9254,7 +9310,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" s="7"/>
-      <c r="B346" s="4"/>
+      <c r="B346" s="7"/>
       <c r="C346" s="4"/>
       <c r="D346" s="7"/>
       <c r="E346" s="7"/>
@@ -9265,7 +9321,7 @@
     <row r="347" spans="1:8">
       <c r="A347" s="7"/>
       <c r="B347" s="4"/>
-      <c r="C347" s="7"/>
+      <c r="C347" s="4"/>
       <c r="D347" s="7"/>
       <c r="E347" s="7"/>
       <c r="F347" s="7"/>
@@ -9274,7 +9330,7 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" s="7"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="4"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7"/>
       <c r="E348" s="7"/>
@@ -9284,7 +9340,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -9294,7 +9350,7 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" s="7"/>
-      <c r="B350" s="22"/>
+      <c r="B350" s="7"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7"/>
       <c r="E350" s="7"/>
@@ -9304,7 +9360,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" s="7"/>
-      <c r="B351" s="7"/>
+      <c r="B351" s="22"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7"/>
       <c r="E351" s="7"/>
@@ -9344,7 +9400,7 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" s="7"/>
-      <c r="B355" s="6"/>
+      <c r="B355" s="7"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7"/>
       <c r="E355" s="7"/>
@@ -9354,7 +9410,7 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" s="7"/>
-      <c r="B356" s="7"/>
+      <c r="B356" s="6"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7"/>
       <c r="E356" s="7"/>
@@ -9364,7 +9420,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" s="7"/>
-      <c r="B357" s="20"/>
+      <c r="B357" s="7"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7"/>
       <c r="E357" s="7"/>
@@ -9394,7 +9450,7 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" s="7"/>
-      <c r="B360" s="22"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7"/>
       <c r="E360" s="7"/>
@@ -9404,7 +9460,7 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" s="7"/>
-      <c r="B361" s="20"/>
+      <c r="B361" s="22"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7"/>
       <c r="E361" s="7"/>
@@ -9424,7 +9480,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" s="7"/>
-      <c r="B363" s="22"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7"/>
       <c r="E363" s="7"/>
@@ -9434,7 +9490,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="7"/>
-      <c r="B364" s="20"/>
+      <c r="B364" s="22"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -9444,7 +9500,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="7"/>
-      <c r="B365" s="22"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7"/>
       <c r="E365" s="7"/>
@@ -9454,7 +9510,7 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="7"/>
-      <c r="B366" s="20"/>
+      <c r="B366" s="22"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7"/>
       <c r="E366" s="7"/>
@@ -9484,7 +9540,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" s="7"/>
-      <c r="B369" s="7"/>
+      <c r="B369" s="20"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -9494,7 +9550,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" s="7"/>
-      <c r="B370" s="27"/>
+      <c r="B370" s="7"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7"/>
       <c r="E370" s="7"/>
@@ -9504,7 +9560,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" s="7"/>
-      <c r="B371" s="22"/>
+      <c r="B371" s="27"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7"/>
       <c r="E371" s="7"/>
@@ -9514,8 +9570,8 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" s="7"/>
-      <c r="B372" s="7"/>
-      <c r="C372" s="4"/>
+      <c r="B372" s="22"/>
+      <c r="C372" s="7"/>
       <c r="D372" s="7"/>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
@@ -9524,7 +9580,7 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" s="7"/>
-      <c r="B373" s="20"/>
+      <c r="B373" s="7"/>
       <c r="C373" s="4"/>
       <c r="D373" s="7"/>
       <c r="E373" s="7"/>
@@ -9554,7 +9610,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" s="7"/>
-      <c r="B376" s="7"/>
+      <c r="B376" s="20"/>
       <c r="C376" s="4"/>
       <c r="D376" s="7"/>
       <c r="E376" s="7"/>
@@ -9584,7 +9640,7 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" s="7"/>
-      <c r="B379" s="20"/>
+      <c r="B379" s="7"/>
       <c r="C379" s="4"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -9604,8 +9660,8 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
-      <c r="C381" s="7"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="4"/>
       <c r="D381" s="7"/>
       <c r="E381" s="7"/>
       <c r="F381" s="7"/>
@@ -9614,7 +9670,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" s="7"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="7"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7"/>
       <c r="E382" s="7"/>
@@ -9624,7 +9680,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" s="7"/>
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7"/>
       <c r="E383" s="7"/>
@@ -9684,7 +9740,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" s="7"/>
-      <c r="B389" s="6"/>
+      <c r="B389" s="7"/>
       <c r="C389" s="7"/>
       <c r="D389" s="7"/>
       <c r="E389" s="7"/>
@@ -9694,7 +9750,7 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" s="7"/>
-      <c r="B390" s="7"/>
+      <c r="B390" s="6"/>
       <c r="C390" s="7"/>
       <c r="D390" s="7"/>
       <c r="E390" s="7"/>
@@ -9715,7 +9771,7 @@
     <row r="392" spans="1:8">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
-      <c r="C392" s="4"/>
+      <c r="C392" s="7"/>
       <c r="D392" s="7"/>
       <c r="E392" s="7"/>
       <c r="F392" s="7"/>
@@ -9724,7 +9780,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" s="7"/>
-      <c r="B393" s="20"/>
+      <c r="B393" s="7"/>
       <c r="C393" s="4"/>
       <c r="D393" s="7"/>
       <c r="E393" s="7"/>
@@ -9735,7 +9791,7 @@
     <row r="394" spans="1:8">
       <c r="A394" s="7"/>
       <c r="B394" s="20"/>
-      <c r="C394" s="7"/>
+      <c r="C394" s="4"/>
       <c r="D394" s="7"/>
       <c r="E394" s="7"/>
       <c r="F394" s="7"/>
@@ -9744,7 +9800,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" s="7"/>
-      <c r="B395" s="27"/>
+      <c r="B395" s="20"/>
       <c r="C395" s="7"/>
       <c r="D395" s="7"/>
       <c r="E395" s="7"/>
@@ -9754,7 +9810,7 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" s="7"/>
-      <c r="B396" s="22"/>
+      <c r="B396" s="27"/>
       <c r="C396" s="7"/>
       <c r="D396" s="7"/>
       <c r="E396" s="7"/>
@@ -9804,7 +9860,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" s="7"/>
-      <c r="B401" s="7"/>
+      <c r="B401" s="22"/>
       <c r="C401" s="7"/>
       <c r="D401" s="7"/>
       <c r="E401" s="7"/>
@@ -9814,7 +9870,7 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" s="7"/>
-      <c r="B402" s="6"/>
+      <c r="B402" s="7"/>
       <c r="C402" s="7"/>
       <c r="D402" s="7"/>
       <c r="E402" s="7"/>
@@ -9824,7 +9880,7 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" s="7"/>
-      <c r="B403" s="7"/>
+      <c r="B403" s="6"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -9834,7 +9890,7 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" s="7"/>
-      <c r="B404" s="20"/>
+      <c r="B404" s="7"/>
       <c r="C404" s="7"/>
       <c r="D404" s="7"/>
       <c r="E404" s="7"/>
@@ -9844,7 +9900,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" s="7"/>
-      <c r="B405" s="22"/>
+      <c r="B405" s="20"/>
       <c r="C405" s="7"/>
       <c r="D405" s="7"/>
       <c r="E405" s="7"/>
@@ -9864,7 +9920,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" s="7"/>
-      <c r="B407" s="20"/>
+      <c r="B407" s="22"/>
       <c r="C407" s="7"/>
       <c r="D407" s="7"/>
       <c r="E407" s="7"/>
@@ -9904,7 +9960,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" s="7"/>
-      <c r="B411" s="7"/>
+      <c r="B411" s="20"/>
       <c r="C411" s="7"/>
       <c r="D411" s="7"/>
       <c r="E411" s="7"/>
@@ -9914,7 +9970,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="7"/>
-      <c r="B412" s="20"/>
+      <c r="B412" s="7"/>
       <c r="C412" s="7"/>
       <c r="D412" s="7"/>
       <c r="E412" s="7"/>
@@ -9934,7 +9990,7 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" s="7"/>
-      <c r="B414" s="22"/>
+      <c r="B414" s="20"/>
       <c r="C414" s="7"/>
       <c r="D414" s="7"/>
       <c r="E414" s="7"/>
@@ -9944,7 +10000,7 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" s="7"/>
-      <c r="B415" s="7"/>
+      <c r="B415" s="22"/>
       <c r="C415" s="7"/>
       <c r="D415" s="7"/>
       <c r="E415" s="7"/>
@@ -9954,7 +10010,7 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="7"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="7"/>
       <c r="C416" s="7"/>
       <c r="D416" s="7"/>
       <c r="E416" s="7"/>
@@ -9964,7 +10020,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" s="7"/>
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
       <c r="C417" s="7"/>
       <c r="D417" s="7"/>
       <c r="E417" s="7"/>
@@ -9984,7 +10040,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" s="7"/>
-      <c r="B419" s="6"/>
+      <c r="B419" s="7"/>
       <c r="C419" s="7"/>
       <c r="D419" s="7"/>
       <c r="E419" s="7"/>
@@ -9994,7 +10050,7 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="7"/>
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
       <c r="C420" s="7"/>
       <c r="D420" s="7"/>
       <c r="E420" s="7"/>
@@ -10004,7 +10060,7 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" s="7"/>
-      <c r="B421" s="20"/>
+      <c r="B421" s="7"/>
       <c r="C421" s="7"/>
       <c r="D421" s="7"/>
       <c r="E421" s="7"/>
@@ -10024,7 +10080,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" s="7"/>
-      <c r="B423" s="7"/>
+      <c r="B423" s="20"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -10034,7 +10090,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" s="7"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="7"/>
       <c r="C424" s="7"/>
       <c r="D424" s="7"/>
       <c r="E424" s="7"/>
@@ -10044,7 +10100,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="7"/>
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
       <c r="C425" s="7"/>
       <c r="D425" s="7"/>
       <c r="E425" s="7"/>
@@ -10094,7 +10150,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" s="7"/>
-      <c r="B430" s="6"/>
+      <c r="B430" s="7"/>
       <c r="C430" s="7"/>
       <c r="D430" s="7"/>
       <c r="E430" s="7"/>
@@ -10104,7 +10160,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" s="7"/>
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
       <c r="C431" s="7"/>
       <c r="D431" s="7"/>
       <c r="E431" s="7"/>
@@ -10164,7 +10220,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" s="7"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="7"/>
       <c r="C437" s="7"/>
       <c r="D437" s="7"/>
       <c r="E437" s="7"/>
@@ -10174,7 +10230,7 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" s="7"/>
-      <c r="B438" s="7"/>
+      <c r="B438" s="6"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -10194,7 +10250,7 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" s="7"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="7"/>
       <c r="C440" s="7"/>
       <c r="D440" s="7"/>
       <c r="E440" s="7"/>
@@ -10204,7 +10260,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" s="7"/>
-      <c r="B441" s="4"/>
+      <c r="B441" s="6"/>
       <c r="C441" s="7"/>
       <c r="D441" s="7"/>
       <c r="E441" s="7"/>
@@ -10224,7 +10280,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" s="7"/>
-      <c r="B443" s="7"/>
+      <c r="B443" s="4"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -10254,7 +10310,7 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="7"/>
-      <c r="B446" s="6"/>
+      <c r="B446" s="7"/>
       <c r="C446" s="7"/>
       <c r="D446" s="7"/>
       <c r="E446" s="7"/>
@@ -10264,8 +10320,8 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="7"/>
-      <c r="B447" s="7"/>
-      <c r="C447" s="4"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="7"/>
       <c r="D447" s="7"/>
       <c r="E447" s="7"/>
       <c r="F447" s="7"/>
@@ -10315,7 +10371,7 @@
     <row r="452" spans="1:8">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
-      <c r="C452" s="7"/>
+      <c r="C452" s="4"/>
       <c r="D452" s="7"/>
       <c r="E452" s="7"/>
       <c r="F452" s="7"/>
@@ -10324,7 +10380,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="7"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="7"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -10334,8 +10390,8 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="7"/>
-      <c r="B454" s="7"/>
-      <c r="C454" s="4"/>
+      <c r="B454" s="6"/>
+      <c r="C454" s="7"/>
       <c r="D454" s="7"/>
       <c r="E454" s="7"/>
       <c r="F454" s="7"/>
@@ -10375,7 +10431,7 @@
     <row r="458" spans="1:8">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
-      <c r="C458" s="7"/>
+      <c r="C458" s="4"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
       <c r="F458" s="7"/>
@@ -10384,7 +10440,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="7"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="7"/>
       <c r="C459" s="7"/>
       <c r="D459" s="7"/>
       <c r="E459" s="7"/>
@@ -10394,7 +10450,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="7"/>
-      <c r="B460" s="22"/>
+      <c r="B460" s="6"/>
       <c r="C460" s="7"/>
       <c r="D460" s="7"/>
       <c r="E460" s="7"/>
@@ -10454,7 +10510,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" s="7"/>
-      <c r="B466" s="7"/>
+      <c r="B466" s="22"/>
       <c r="C466" s="7"/>
       <c r="D466" s="7"/>
       <c r="E466" s="7"/>
@@ -10464,7 +10520,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" s="7"/>
-      <c r="B467" s="6"/>
+      <c r="B467" s="7"/>
       <c r="C467" s="7"/>
       <c r="D467" s="7"/>
       <c r="E467" s="7"/>
@@ -10474,7 +10530,7 @@
     </row>
     <row r="468" spans="1:8">
       <c r="A468" s="7"/>
-      <c r="B468" s="22"/>
+      <c r="B468" s="6"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -10503,8 +10559,8 @@
       <c r="H470" s="7"/>
     </row>
     <row r="471" spans="1:8">
-      <c r="A471" s="6"/>
-      <c r="B471" s="7"/>
+      <c r="A471" s="7"/>
+      <c r="B471" s="22"/>
       <c r="C471" s="7"/>
       <c r="D471" s="7"/>
       <c r="E471" s="7"/>
@@ -10513,7 +10569,7 @@
       <c r="H471" s="7"/>
     </row>
     <row r="472" spans="1:8">
-      <c r="A472" s="7"/>
+      <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
       <c r="D472" s="7"/>
@@ -10554,7 +10610,7 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" s="7"/>
-      <c r="B476" s="28"/>
+      <c r="B476" s="7"/>
       <c r="C476" s="7"/>
       <c r="D476" s="7"/>
       <c r="E476" s="7"/>
@@ -10584,7 +10640,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" s="7"/>
-      <c r="B479" s="7"/>
+      <c r="B479" s="28"/>
       <c r="C479" s="7"/>
       <c r="D479" s="7"/>
       <c r="E479" s="7"/>
@@ -10594,7 +10650,7 @@
     </row>
     <row r="480" spans="1:8">
       <c r="A480" s="7"/>
-      <c r="B480" s="28"/>
+      <c r="B480" s="7"/>
       <c r="C480" s="7"/>
       <c r="D480" s="7"/>
       <c r="E480" s="7"/>
@@ -10604,7 +10660,7 @@
     </row>
     <row r="481" spans="1:8">
       <c r="A481" s="7"/>
-      <c r="B481" s="7"/>
+      <c r="B481" s="28"/>
       <c r="C481" s="7"/>
       <c r="D481" s="7"/>
       <c r="E481" s="7"/>
@@ -10614,21 +10670,21 @@
     </row>
     <row r="482" spans="1:8">
       <c r="A482" s="7"/>
-      <c r="B482" s="29"/>
-      <c r="C482" s="30"/>
+      <c r="B482" s="7"/>
+      <c r="C482" s="7"/>
       <c r="D482" s="7"/>
       <c r="E482" s="7"/>
-      <c r="F482" s="29"/>
+      <c r="F482" s="7"/>
       <c r="G482" s="30"/>
       <c r="H482" s="7"/>
     </row>
     <row r="483" spans="1:8">
       <c r="A483" s="7"/>
-      <c r="B483" s="7"/>
-      <c r="C483" s="7"/>
+      <c r="B483" s="29"/>
+      <c r="C483" s="30"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
-      <c r="F483" s="7"/>
+      <c r="F483" s="29"/>
       <c r="G483" s="30"/>
       <c r="H483" s="7"/>
     </row>
@@ -14532,6 +14588,16 @@
       <c r="G873" s="30"/>
       <c r="H873" s="7"/>
     </row>
+    <row r="874" spans="1:8">
+      <c r="A874" s="7"/>
+      <c r="B874" s="7"/>
+      <c r="C874" s="7"/>
+      <c r="D874" s="7"/>
+      <c r="E874" s="7"/>
+      <c r="F874" s="7"/>
+      <c r="G874" s="30"/>
+      <c r="H874" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FxEditor Feature Matrix.xlsx
+++ b/FxEditor Feature Matrix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="8580" windowHeight="9255"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="228">
   <si>
     <t>Feature</t>
   </si>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>moves caret after the last symbol of inserted text (char)</t>
+  </si>
+  <si>
+    <t>Status Line Properties</t>
   </si>
 </sst>
 </file>
@@ -958,7 +961,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.8461559098965002E-2"/>
           <c:y val="2.2690437601296611E-2"/>
-          <c:w val="0.91978071330955258"/>
+          <c:w val="0.9197807133095528"/>
           <c:h val="0.89627228525119951"/>
         </c:manualLayout>
       </c:layout>
@@ -1458,11 +1461,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121548160"/>
-        <c:axId val="121312384"/>
+        <c:axId val="200990080"/>
+        <c:axId val="200815744"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="121548160"/>
+        <c:axId val="200990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121312384"/>
+        <c:crossAx val="200815744"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -1505,7 +1508,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121312384"/>
+        <c:axId val="200815744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121548160"/>
+        <c:crossAx val="200990080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,7 +1573,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5828229804607823E-2"/>
-          <c:y val="0.33819556996218436"/>
+          <c:y val="0.33819556996218442"/>
           <c:w val="0.12857154394162268"/>
           <c:h val="0.11669367909238262"/>
         </c:manualLayout>
@@ -1637,7 +1640,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="1200" verticalDpi="1200"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1691,7 +1694,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.451045024812763E-2"/>
+          <c:x val="4.4510450248127643E-2"/>
           <c:y val="0.10032394165889739"/>
           <c:w val="0.79228601441663349"/>
           <c:h val="0.79935527708863363"/>
@@ -1821,11 +1824,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121332096"/>
-        <c:axId val="121333632"/>
+        <c:axId val="200839552"/>
+        <c:axId val="200841088"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="121332096"/>
+        <c:axId val="200839552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1833,13 +1836,13 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy\/mm\/dd" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="121333632"/>
+        <c:crossAx val="200841088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121333632"/>
+        <c:axId val="200841088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1882,7 +1885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121332096"/>
+        <c:crossAx val="200839552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1931,7 +1934,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2199,11 +2202,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="121366784"/>
-        <c:axId val="121700352"/>
+        <c:axId val="200866048"/>
+        <c:axId val="158023680"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="121366784"/>
+        <c:axId val="200866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2239,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121700352"/>
+        <c:crossAx val="158023680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2245,7 +2248,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121700352"/>
+        <c:axId val="158023680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2290,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121366784"/>
+        <c:crossAx val="200866048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2336,7 +2339,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000001421" r="0.75000000000001421" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000001432" r="0.75000000000001432" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2794,10 +2797,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3077,9 +3080,7 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" s="6" customFormat="1">
-      <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B38" s="22"/>
       <c r="C38" s="7"/>
       <c r="D38" s="4"/>
     </row>
@@ -3089,71 +3090,53 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:4" s="6" customFormat="1">
-      <c r="B40" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="2:4" s="6" customFormat="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="2:4" s="6" customFormat="1">
+      <c r="B42" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="2:4" s="6" customFormat="1">
-      <c r="B41" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:4" s="6" customFormat="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" s="6" customFormat="1">
       <c r="B43" s="22" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:4" s="6" customFormat="1">
-      <c r="B44" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:4" s="6" customFormat="1">
-      <c r="B45" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:4" s="6" customFormat="1">
-      <c r="B46" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:4" s="6" customFormat="1">
-      <c r="B47" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:4" s="6" customFormat="1">
@@ -3162,12 +3145,8 @@
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="2:4" s="6" customFormat="1">
-      <c r="B49" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="2:4" s="6" customFormat="1">
@@ -3176,30 +3155,18 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="2:4" s="6" customFormat="1">
-      <c r="B51" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="2:4" s="6" customFormat="1">
-      <c r="B52" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="2:4" s="6" customFormat="1">
-      <c r="B53" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="2:4" s="6" customFormat="1">
@@ -3208,53 +3175,35 @@
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="2:4" s="6" customFormat="1">
-      <c r="B55" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="2:4" s="6" customFormat="1">
-      <c r="B56" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="2:4" s="6" customFormat="1">
-      <c r="B57" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="2:4" s="6" customFormat="1">
-      <c r="B58" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="7"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="2:4" s="6" customFormat="1">
-      <c r="B59" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="2:4" s="6" customFormat="1">
       <c r="B60" s="22" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>14</v>
@@ -3263,7 +3212,7 @@
     </row>
     <row r="61" spans="2:4" s="6" customFormat="1">
       <c r="B61" s="22" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>14</v>
@@ -3271,44 +3220,40 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="2:4" s="6" customFormat="1">
-      <c r="B62" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="2:4" s="6" customFormat="1">
       <c r="B63" s="22" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="2:4" s="6" customFormat="1">
       <c r="B64" s="20" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="2:4" s="6" customFormat="1">
-      <c r="B65" s="20" t="s">
-        <v>201</v>
+      <c r="B65" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="2:4" s="6" customFormat="1">
-      <c r="B66" s="22" t="s">
-        <v>141</v>
+      <c r="B66" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>14</v>
@@ -3316,22 +3261,22 @@
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="2:4" s="6" customFormat="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="7"/>
+      <c r="B67" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D67" s="4"/>
     </row>
     <row r="68" spans="2:4" s="6" customFormat="1">
-      <c r="B68" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="2:4" s="6" customFormat="1">
-      <c r="B69" s="20" t="s">
-        <v>147</v>
+      <c r="B69" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>2</v>
@@ -3339,17 +3284,13 @@
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="2:4" s="6" customFormat="1">
-      <c r="B70" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" s="6" customFormat="1">
-      <c r="B71" s="20" t="s">
-        <v>162</v>
+      <c r="B71" s="22" t="s">
+        <v>184</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>2</v>
@@ -3358,7 +3299,7 @@
     </row>
     <row r="72" spans="2:4" s="6" customFormat="1">
       <c r="B72" s="20" t="s">
-        <v>225</v>
+        <v>185</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>2</v>
@@ -3366,22 +3307,22 @@
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="2:4" s="6" customFormat="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="7"/>
+      <c r="B73" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="2:4" s="6" customFormat="1">
-      <c r="B74" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="2:4" s="6" customFormat="1">
-      <c r="B75" s="20" t="s">
-        <v>186</v>
+      <c r="B75" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>2</v>
@@ -3390,7 +3331,7 @@
     </row>
     <row r="76" spans="2:4" s="6" customFormat="1">
       <c r="B76" s="20" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>2</v>
@@ -3399,172 +3340,192 @@
     </row>
     <row r="77" spans="2:4" s="6" customFormat="1">
       <c r="B77" s="20" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="2:4" s="6" customFormat="1">
-      <c r="B78" s="20" t="s">
-        <v>187</v>
+      <c r="B78" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="2:4" s="6" customFormat="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="7"/>
+      <c r="B79" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="2:4" s="6" customFormat="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="7"/>
+      <c r="B80" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="2:4" s="6" customFormat="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="2:4" s="6" customFormat="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="7"/>
+      <c r="B82" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="2:4" s="6" customFormat="1">
       <c r="B83" s="22" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="2:4" s="6" customFormat="1">
       <c r="B84" s="20" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="2:4" s="6" customFormat="1">
       <c r="B85" s="20" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="C85" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:4" s="6" customFormat="1">
+      <c r="B86" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:4" s="6" customFormat="1">
+      <c r="B87" s="22"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="2:4" s="6" customFormat="1">
+      <c r="B88" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" s="6" customFormat="1">
-      <c r="B86" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" s="6" customFormat="1">
-      <c r="B87" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" s="6" customFormat="1">
-      <c r="B88" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="2:4" s="6" customFormat="1">
       <c r="B89" s="20" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D89" s="4"/>
     </row>
     <row r="90" spans="2:4" s="6" customFormat="1">
-      <c r="B90" s="20"/>
-      <c r="C90" s="9"/>
+      <c r="B90" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="2:4" s="6" customFormat="1">
-      <c r="B91" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>14</v>
+      <c r="B91" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="2:4" s="6" customFormat="1">
       <c r="B92" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>14</v>
+        <v>225</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="2:4" s="6" customFormat="1">
-      <c r="B93" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="2:4" s="6" customFormat="1">
-      <c r="B94" s="20" t="s">
-        <v>58</v>
+      <c r="B94" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="2:4" s="6" customFormat="1">
       <c r="B95" s="20" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="2:4" s="6" customFormat="1">
       <c r="B96" s="20" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="2:4" s="6" customFormat="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="2:4" s="6" customFormat="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="7"/>
+      <c r="B98" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" s="6" customFormat="1">
@@ -3588,45 +3549,53 @@
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" s="6" customFormat="1">
-      <c r="B103" s="3" t="s">
-        <v>191</v>
+      <c r="B103" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="2:4" s="6" customFormat="1">
-      <c r="B104" s="22"/>
-      <c r="C104" s="7"/>
+      <c r="B104" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="2:4" s="6" customFormat="1">
-      <c r="B105" s="22" t="s">
-        <v>192</v>
+      <c r="B105" s="20" t="s">
+        <v>59</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="2:4" s="6" customFormat="1">
-      <c r="B106" s="22"/>
-      <c r="C106" s="7"/>
+      <c r="B106" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="2:4" s="6" customFormat="1">
-      <c r="B107" s="22" t="s">
-        <v>193</v>
+      <c r="B107" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="2:4" s="6" customFormat="1">
-      <c r="B108" s="22" t="s">
-        <v>194</v>
+      <c r="B108" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>14</v>
@@ -3634,8 +3603,8 @@
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="2:4" s="6" customFormat="1">
-      <c r="B109" s="22" t="s">
-        <v>195</v>
+      <c r="B109" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>14</v>
@@ -3643,36 +3612,40 @@
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="2:4" s="6" customFormat="1">
-      <c r="B110" s="22"/>
-      <c r="C110" s="7"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="9"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="2:4" s="6" customFormat="1">
       <c r="B111" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="C111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="4"/>
     </row>
     <row r="112" spans="2:4" s="6" customFormat="1">
-      <c r="B112" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="7" t="s">
+      <c r="B112" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C112" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="2:4" s="6" customFormat="1">
-      <c r="B113" s="22"/>
-      <c r="C113" s="7"/>
+      <c r="B113" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="2:4" s="6" customFormat="1">
-      <c r="B114" s="22" t="s">
-        <v>198</v>
+      <c r="B114" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>14</v>
@@ -3680,13 +3653,21 @@
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="2:4" s="6" customFormat="1">
-      <c r="B115" s="22"/>
-      <c r="C115" s="7"/>
+      <c r="B115" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="2:4" s="6" customFormat="1">
-      <c r="B116" s="22"/>
-      <c r="C116" s="7"/>
+      <c r="B116" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="2:4" s="6" customFormat="1">
@@ -3695,9 +3676,7 @@
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="2:4" s="6" customFormat="1">
-      <c r="B118" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B118" s="22"/>
       <c r="C118" s="7"/>
       <c r="D118" s="4"/>
     </row>
@@ -3707,33 +3686,23 @@
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="2:4" s="6" customFormat="1">
-      <c r="B120" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="B120" s="22"/>
       <c r="C120" s="7"/>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="2:4" s="6" customFormat="1">
-      <c r="B121" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="2:4" s="6" customFormat="1">
-      <c r="B122" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B122" s="22"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="2:4" s="6" customFormat="1">
-      <c r="B123" s="20" t="s">
-        <v>119</v>
+      <c r="B123" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>14</v>
@@ -3741,47 +3710,45 @@
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="2:4" s="6" customFormat="1">
-      <c r="B124" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="22"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="2:4" s="6" customFormat="1">
+      <c r="B125" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="2:4" s="6" customFormat="1">
-      <c r="B125" s="22"/>
-      <c r="C125" s="7"/>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="2:4" s="6" customFormat="1">
-      <c r="B126" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="B126" s="22"/>
       <c r="C126" s="7"/>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="2:4" s="6" customFormat="1">
-      <c r="B127" s="20" t="s">
-        <v>53</v>
+      <c r="B127" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="2:4" s="6" customFormat="1">
-      <c r="B128" s="23" t="s">
-        <v>52</v>
+      <c r="B128" s="22" t="s">
+        <v>194</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" s="6" customFormat="1">
-      <c r="B129" s="23" t="s">
-        <v>208</v>
+      <c r="B129" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -3789,62 +3756,50 @@
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" s="6" customFormat="1">
-      <c r="B130" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B130" s="22"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="2:4" s="6" customFormat="1">
-      <c r="B131" s="23" t="s">
-        <v>164</v>
+      <c r="B131" s="22" t="s">
+        <v>196</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" s="6" customFormat="1">
-      <c r="B132" s="20" t="s">
-        <v>165</v>
+      <c r="B132" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" s="6" customFormat="1">
-      <c r="B133" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B133" s="22"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" s="6" customFormat="1">
-      <c r="B134" s="20"/>
-      <c r="C134" s="7"/>
+      <c r="B134" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="2:4" s="6" customFormat="1">
-      <c r="B135" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="2:4" s="6" customFormat="1">
-      <c r="B136" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B136" s="22"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="2:4" s="6" customFormat="1">
@@ -3853,40 +3808,36 @@
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="2:4" s="6" customFormat="1">
-      <c r="B138" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="2:4" s="6" customFormat="1">
+      <c r="B139" s="22"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="2:4" s="6" customFormat="1">
+      <c r="B140" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="2:4" s="6" customFormat="1">
+      <c r="B141" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="2:4" s="6" customFormat="1">
-      <c r="B139" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="2:4" s="6" customFormat="1">
-      <c r="B140" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="2:4" s="6" customFormat="1">
-      <c r="B141" s="20"/>
-      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="2:4" s="6" customFormat="1">
       <c r="B142" s="20" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>2</v>
@@ -3894,20 +3845,20 @@
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="2:4" s="6" customFormat="1">
-      <c r="B143" s="23" t="s">
-        <v>67</v>
+      <c r="B143" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="2:4" s="6" customFormat="1">
-      <c r="B144" s="23" t="s">
-        <v>158</v>
+      <c r="B144" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D144" s="4"/>
     </row>
@@ -3917,17 +3868,15 @@
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="2:4" s="6" customFormat="1">
-      <c r="B146" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B146" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="7"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="2:4" s="6" customFormat="1">
-      <c r="B147" s="23" t="s">
-        <v>76</v>
+      <c r="B147" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>2</v>
@@ -3935,22 +3884,26 @@
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="2:4" s="6" customFormat="1">
-      <c r="B148" s="22"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="2:4" s="6" customFormat="1">
-      <c r="B149" s="20" t="s">
-        <v>73</v>
+      <c r="B149" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="2:4" s="6" customFormat="1">
-      <c r="B150" s="23" t="s">
-        <v>75</v>
+      <c r="B150" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>2</v>
@@ -3959,7 +3912,7 @@
     </row>
     <row r="151" spans="2:4" s="6" customFormat="1">
       <c r="B151" s="23" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>2</v>
@@ -3967,13 +3920,17 @@
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="2:4" s="6" customFormat="1">
-      <c r="B152" s="22"/>
-      <c r="C152" s="7"/>
+      <c r="B152" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="2:4" s="6" customFormat="1">
-      <c r="B153" s="20" t="s">
-        <v>219</v>
+      <c r="B153" s="23" t="s">
+        <v>212</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>2</v>
@@ -3981,36 +3938,36 @@
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="2:4" s="6" customFormat="1">
-      <c r="B154" s="22"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="7"/>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="2:4" s="6" customFormat="1">
       <c r="B155" s="20" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D155" s="4"/>
     </row>
     <row r="156" spans="2:4" s="6" customFormat="1">
       <c r="B156" s="23" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="2:4" s="6" customFormat="1">
-      <c r="B157" s="20"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="7"/>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" s="6" customFormat="1">
       <c r="B158" s="20" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>2</v>
@@ -4019,7 +3976,7 @@
     </row>
     <row r="159" spans="2:4" s="6" customFormat="1">
       <c r="B159" s="23" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>2</v>
@@ -4028,7 +3985,7 @@
     </row>
     <row r="160" spans="2:4" s="6" customFormat="1">
       <c r="B160" s="23" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>2</v>
@@ -4036,139 +3993,137 @@
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="2:4" s="6" customFormat="1">
-      <c r="B161" s="22"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="7"/>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="2:4" s="6" customFormat="1">
       <c r="B162" s="20" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" s="6" customFormat="1">
       <c r="B163" s="23" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" s="6" customFormat="1">
       <c r="B164" s="23" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" s="6" customFormat="1">
-      <c r="B165" s="20"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="7"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="2:4" s="6" customFormat="1">
       <c r="B166" s="20" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="2:4" s="6" customFormat="1">
       <c r="B167" s="23" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:4" s="6" customFormat="1">
-      <c r="B168" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B168" s="22"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="2:4" s="6" customFormat="1">
-      <c r="B169" s="20"/>
-      <c r="C169" s="7"/>
+      <c r="B169" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="2:4" s="6" customFormat="1">
-      <c r="B170" s="20" t="s">
-        <v>129</v>
+      <c r="B170" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="2:4" s="6" customFormat="1">
       <c r="B171" s="23" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C171" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="2:4" s="6" customFormat="1">
+      <c r="B172" s="22"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="2:4" s="6" customFormat="1">
+      <c r="B173" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="2:4" s="6" customFormat="1">
+      <c r="B174" s="22"/>
+      <c r="C174" s="7"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="2:4" s="6" customFormat="1">
+      <c r="B175" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="2:4" s="6" customFormat="1">
-      <c r="B172" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C172" s="7" t="s">
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="2:4" s="6" customFormat="1">
+      <c r="B176" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="2:4" s="6" customFormat="1">
-      <c r="B173" s="23"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="2:4" s="6" customFormat="1">
-      <c r="B174" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="2:4" s="6" customFormat="1">
-      <c r="B175" s="20"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="2:4" s="6" customFormat="1">
-      <c r="B176" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="2:4" s="6" customFormat="1">
-      <c r="B177" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B177" s="20"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
     </row>
     <row r="178" spans="2:4" s="6" customFormat="1">
-      <c r="B178" s="23" t="s">
-        <v>209</v>
+      <c r="B178" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>2</v>
@@ -4177,19 +4132,19 @@
     </row>
     <row r="179" spans="2:4" s="6" customFormat="1">
       <c r="B179" s="23" t="s">
-        <v>55</v>
+        <v>123</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="2:4" s="6" customFormat="1">
-      <c r="B180" s="20" t="s">
-        <v>211</v>
+      <c r="B180" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D180" s="4"/>
     </row>
@@ -4200,7 +4155,7 @@
     </row>
     <row r="182" spans="2:4" s="6" customFormat="1">
       <c r="B182" s="20" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>14</v>
@@ -4209,7 +4164,7 @@
     </row>
     <row r="183" spans="2:4" s="6" customFormat="1">
       <c r="B183" s="23" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>14</v>
@@ -4217,22 +4172,22 @@
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="2:4" s="6" customFormat="1">
-      <c r="B184" s="22"/>
-      <c r="C184" s="7"/>
+      <c r="B184" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="2:4" s="6" customFormat="1">
-      <c r="B185" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="2:4" s="6" customFormat="1">
-      <c r="B186" s="23" t="s">
-        <v>70</v>
+      <c r="B186" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C186" s="7" t="s">
         <v>14</v>
@@ -4240,13 +4195,17 @@
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="2:4" s="6" customFormat="1">
-      <c r="B187" s="22"/>
-      <c r="C187" s="7"/>
+      <c r="B187" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" s="6" customFormat="1">
-      <c r="B188" s="20" t="s">
-        <v>74</v>
+      <c r="B188" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="C188" s="7" t="s">
         <v>14</v>
@@ -4254,52 +4213,48 @@
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" s="6" customFormat="1">
-      <c r="B189" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C189" s="7" t="s">
+      <c r="B189" s="20"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="2:4" s="6" customFormat="1">
+      <c r="B190" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C190" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="2:4" s="6" customFormat="1">
-      <c r="B190" s="20"/>
-      <c r="C190" s="7"/>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="2:4" s="6" customFormat="1">
-      <c r="B191" s="27" t="s">
-        <v>216</v>
+      <c r="B191" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="2:4" s="6" customFormat="1">
-      <c r="B192" s="20" t="s">
-        <v>217</v>
+      <c r="B192" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="2:4" s="6" customFormat="1">
-      <c r="B193" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B193" s="23"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" s="6" customFormat="1">
       <c r="B194" s="20" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D194" s="4"/>
     </row>
@@ -4310,16 +4265,14 @@
     </row>
     <row r="196" spans="2:4" s="6" customFormat="1">
       <c r="B196" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C196" s="7"/>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="2:4" s="6" customFormat="1">
       <c r="B197" s="20" t="s">
-        <v>159</v>
+        <v>54</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>2</v>
@@ -4327,8 +4280,8 @@
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="2:4" s="6" customFormat="1">
-      <c r="B198" s="20" t="s">
-        <v>160</v>
+      <c r="B198" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>2</v>
@@ -4336,374 +4289,431 @@
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="2:4" s="6" customFormat="1">
-      <c r="B199" s="22" t="s">
-        <v>161</v>
+      <c r="B199" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D199" s="4"/>
     </row>
     <row r="200" spans="2:4" s="6" customFormat="1">
       <c r="B200" s="20" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="2:4" s="6" customFormat="1">
-      <c r="B201" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C201" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B201" s="22"/>
+      <c r="C201" s="7"/>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="2:4" s="6" customFormat="1">
-      <c r="B202" s="22"/>
-      <c r="C202" s="7"/>
+      <c r="B202" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="2:4" s="6" customFormat="1">
-      <c r="B203" s="20"/>
-      <c r="C203" s="7"/>
+      <c r="B203" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="2:4" s="6" customFormat="1">
-      <c r="B204" s="19"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="7"/>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="2:4" s="6" customFormat="1">
-      <c r="B205" s="4"/>
-      <c r="C205" s="7"/>
+      <c r="B205" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="2:4" s="6" customFormat="1">
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="2:4" s="6" customFormat="1">
+      <c r="B207" s="22"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="2:4" s="6" customFormat="1">
+      <c r="B208" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="2:4" s="6" customFormat="1">
+      <c r="B209" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="2:4" s="6" customFormat="1">
+      <c r="B210" s="20"/>
+      <c r="C210" s="7"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="2:4" s="6" customFormat="1">
+      <c r="B211" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="2:4" s="6" customFormat="1">
+      <c r="B212" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="2:4" s="6" customFormat="1">
+      <c r="B213" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="2:4" s="6" customFormat="1">
+      <c r="B214" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="2:4" s="6" customFormat="1">
+      <c r="B215" s="20"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="2:4" s="6" customFormat="1">
+      <c r="B216" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="2:4" s="6" customFormat="1">
+      <c r="B217" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="2:4" s="6" customFormat="1">
+      <c r="B218" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="2:4" s="6" customFormat="1">
+      <c r="B219" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="2:4" s="6" customFormat="1">
+      <c r="B220" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="2:4" s="6" customFormat="1">
+      <c r="B221" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="2:4" s="6" customFormat="1">
+      <c r="B222" s="22"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="2:4" s="6" customFormat="1">
+      <c r="B223" s="20"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="2:4" s="6" customFormat="1">
+      <c r="B224" s="19"/>
+      <c r="C224" s="7"/>
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="2:4" s="6" customFormat="1">
+      <c r="B225" s="4"/>
+      <c r="C225" s="7"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="2:4" s="6" customFormat="1">
+      <c r="B226" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C206" s="7"/>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="2:4">
-      <c r="C207" s="7"/>
-    </row>
-    <row r="208" spans="2:4">
-      <c r="B208" s="43" t="s">
+      <c r="C226" s="7"/>
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="C227" s="7"/>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C208" s="7"/>
-    </row>
-    <row r="209" spans="2:3">
-      <c r="C209" s="7"/>
-    </row>
-    <row r="210" spans="2:3">
-      <c r="B210" t="s">
+      <c r="C228" s="7"/>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="C229" s="7"/>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" t="s">
         <v>81</v>
       </c>
-      <c r="C210" s="9" t="s">
+      <c r="C230" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
-      <c r="B211" t="s">
+    <row r="231" spans="2:4">
+      <c r="B231" t="s">
         <v>82</v>
       </c>
-      <c r="C211" s="9" t="s">
+      <c r="C231" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
-      <c r="B212" t="s">
+    <row r="232" spans="2:4">
+      <c r="B232" t="s">
         <v>83</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C232" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
-      <c r="B213" t="s">
+    <row r="233" spans="2:4">
+      <c r="B233" t="s">
         <v>84</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C233" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
-      <c r="B214" t="s">
+    <row r="234" spans="2:4">
+      <c r="B234" t="s">
         <v>85</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
-      <c r="B215" t="s">
+    <row r="235" spans="2:4">
+      <c r="B235" t="s">
         <v>86</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C235" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
-      <c r="B216" t="s">
+    <row r="236" spans="2:4">
+      <c r="B236" t="s">
         <v>87</v>
       </c>
-      <c r="C216" s="9" t="s">
+      <c r="C236" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
-      <c r="B217" s="44" t="s">
+    <row r="237" spans="2:4">
+      <c r="B237" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C237" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
-      <c r="B218" t="s">
+    <row r="238" spans="2:4">
+      <c r="B238" t="s">
         <v>88</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C238" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
-      <c r="B219" s="44" t="s">
+    <row r="239" spans="2:4">
+      <c r="B239" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C239" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
-      <c r="B220" t="s">
+    <row r="240" spans="2:4">
+      <c r="B240" t="s">
         <v>91</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
-      <c r="B221" s="44" t="s">
+    <row r="241" spans="2:3">
+      <c r="B241" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C241" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
-      <c r="B222" s="45" t="s">
+    <row r="242" spans="2:3">
+      <c r="B242" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C242" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
-      <c r="B223" s="45" t="s">
+    <row r="243" spans="2:3">
+      <c r="B243" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C243" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
-      <c r="B224" s="44"/>
-      <c r="C224" s="9"/>
-    </row>
-    <row r="225" spans="2:3">
-      <c r="B225" s="44"/>
-      <c r="C225" s="9"/>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="44"/>
-      <c r="C226" s="9"/>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="C227" s="9"/>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="C228" s="9"/>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="C229" s="9"/>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="C230" s="9"/>
-    </row>
-    <row r="231" spans="2:3">
-      <c r="B231" s="43" t="s">
+    <row r="244" spans="2:3">
+      <c r="B244" s="44"/>
+      <c r="C244" s="9"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="44"/>
+      <c r="C245" s="9"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="44"/>
+      <c r="C246" s="9"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="C249" s="9"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="C250" s="9"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C231" s="9"/>
-    </row>
-    <row r="232" spans="2:3">
-      <c r="C232" s="9"/>
-    </row>
-    <row r="233" spans="2:3">
-      <c r="B233" t="s">
-        <v>109</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3">
-      <c r="B234" t="s">
-        <v>110</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3">
-      <c r="B235" t="s">
-        <v>111</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3">
-      <c r="B236" t="s">
-        <v>112</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3">
-      <c r="B237" t="s">
-        <v>113</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3">
-      <c r="B238" t="s">
-        <v>114</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3">
-      <c r="B239" t="s">
-        <v>145</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3">
-      <c r="C240" s="9"/>
-    </row>
-    <row r="241" spans="2:3">
-      <c r="C241" s="9"/>
-    </row>
-    <row r="242" spans="2:3">
-      <c r="C242" s="9"/>
-    </row>
-    <row r="243" spans="2:3">
-      <c r="B243" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C243" s="9"/>
-    </row>
-    <row r="246" spans="2:3">
-      <c r="B246" t="s">
-        <v>80</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3">
-      <c r="B247" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3">
-      <c r="B248" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C248" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3">
-      <c r="B249" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="B250" s="44"/>
-      <c r="C250" s="7"/>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" t="s">
-        <v>93</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C251" s="9"/>
     </row>
     <row r="252" spans="2:3">
       <c r="C252" s="9"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C253" s="9" t="s">
+      <c r="B253" t="s">
+        <v>109</v>
+      </c>
+      <c r="C253" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="254" spans="2:3">
-      <c r="C254" s="9"/>
+      <c r="B254" t="s">
+        <v>110</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C255" s="9" t="s">
+      <c r="B255" t="s">
+        <v>111</v>
+      </c>
+      <c r="C255" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" t="s">
-        <v>98</v>
-      </c>
-      <c r="C256" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C256" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="257" spans="2:3">
-      <c r="C257" s="9"/>
+      <c r="B257" t="s">
+        <v>113</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="C258" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="259" spans="2:3">
-      <c r="C259" s="9"/>
+      <c r="B259" t="s">
+        <v>145</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="260" spans="2:3">
       <c r="C260" s="9"/>
@@ -4715,55 +4725,50 @@
       <c r="C262" s="9"/>
     </row>
     <row r="263" spans="2:3">
+      <c r="B263" s="43" t="s">
+        <v>136</v>
+      </c>
       <c r="C263" s="9"/>
-    </row>
-    <row r="264" spans="2:3">
-      <c r="C264" s="9"/>
-    </row>
-    <row r="265" spans="2:3">
-      <c r="B265" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C266" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" t="s">
-        <v>50</v>
+      <c r="B267" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" t="s">
-        <v>51</v>
+      <c r="B268" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="269" spans="2:3">
-      <c r="C269" s="9"/>
+      <c r="B269" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" t="s">
-        <v>95</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B270" s="44"/>
+      <c r="C270" s="7"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C271" s="7" t="s">
         <v>14</v>
@@ -4772,206 +4777,161 @@
     <row r="272" spans="2:3">
       <c r="C272" s="9"/>
     </row>
-    <row r="273" spans="2:4">
-      <c r="B273" t="s">
-        <v>145</v>
-      </c>
-      <c r="C273" s="7" t="s">
+    <row r="273" spans="2:3">
+      <c r="B273" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="C274" s="9"/>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" t="s">
+        <v>98</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="C277" s="9"/>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" t="s">
+        <v>183</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="C279" s="9"/>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="C280" s="9"/>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="C281" s="9"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="C282" s="9"/>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="C283" s="9"/>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="C284" s="9"/>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C285" s="9"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" t="s">
+        <v>49</v>
+      </c>
+      <c r="C286" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="2:4">
-      <c r="C274" s="9"/>
-    </row>
-    <row r="275" spans="2:4">
-      <c r="C275" s="9"/>
-    </row>
-    <row r="277" spans="2:4" s="6" customFormat="1">
-      <c r="B277" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C277" s="7"/>
-      <c r="D277" s="4"/>
-    </row>
-    <row r="278" spans="2:4" s="6" customFormat="1">
-      <c r="B278" s="22"/>
-      <c r="C278" s="7"/>
-      <c r="D278" s="4"/>
-    </row>
-    <row r="279" spans="2:4" s="6" customFormat="1">
-      <c r="B279" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="2:4" s="6" customFormat="1">
-      <c r="B280" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="2:4" s="6" customFormat="1">
-      <c r="B281" s="22" t="s">
+    <row r="287" spans="2:3">
+      <c r="B287" t="s">
         <v>50</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="2:4" s="6" customFormat="1">
-      <c r="B282" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="2:4" s="6" customFormat="1">
-      <c r="B283" s="22"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="2:4" s="6" customFormat="1">
-      <c r="B284" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C284" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D284" s="4"/>
-    </row>
-    <row r="285" spans="2:4" s="6" customFormat="1">
-      <c r="B285" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C285" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D285" s="4"/>
-    </row>
-    <row r="286" spans="2:4" s="6" customFormat="1">
-      <c r="B286" s="22"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="4"/>
-    </row>
-    <row r="287" spans="2:4" s="6" customFormat="1">
-      <c r="B287" t="s">
-        <v>145</v>
       </c>
       <c r="C287" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="2:4" s="6" customFormat="1">
-      <c r="B288" s="22"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="4"/>
-    </row>
-    <row r="289" spans="2:4" s="6" customFormat="1">
-      <c r="B289" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C289" s="7" t="s">
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" t="s">
+        <v>51</v>
+      </c>
+      <c r="C288" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D289" s="4"/>
-    </row>
-    <row r="290" spans="2:4" s="6" customFormat="1">
-      <c r="B290" s="22" t="s">
-        <v>171</v>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="C289" s="9"/>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>95</v>
       </c>
       <c r="C290" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D290" s="4"/>
-    </row>
-    <row r="291" spans="2:4" s="6" customFormat="1">
-      <c r="C291" s="7"/>
-      <c r="D291" s="4"/>
-    </row>
-    <row r="292" spans="2:4" s="6" customFormat="1">
-      <c r="B292" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C292" s="7" t="s">
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>96</v>
+      </c>
+      <c r="C291" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D292" s="4"/>
-    </row>
-    <row r="293" spans="2:4" s="6" customFormat="1">
-      <c r="B293" s="22"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="4"/>
-    </row>
-    <row r="294" spans="2:4" s="6" customFormat="1">
-      <c r="B294" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="2:4" s="6" customFormat="1">
-      <c r="B295" s="22"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="2:4" s="6" customFormat="1">
-      <c r="B296" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C296" s="7"/>
-      <c r="D296" s="4"/>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="C292" s="9"/>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>145</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="C294" s="9"/>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="C295" s="9"/>
     </row>
     <row r="297" spans="2:4" s="6" customFormat="1">
-      <c r="B297" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B297" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C297" s="7"/>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="2:4" s="6" customFormat="1">
-      <c r="B298" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B298" s="22"/>
+      <c r="C298" s="7"/>
       <c r="D298" s="4"/>
     </row>
     <row r="299" spans="2:4" s="6" customFormat="1">
-      <c r="B299" s="20" t="s">
-        <v>172</v>
+      <c r="B299" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="2:4" s="6" customFormat="1">
-      <c r="B300" s="20" t="s">
-        <v>173</v>
+      <c r="B300" s="22" t="s">
+        <v>189</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="2:4" s="6" customFormat="1">
-      <c r="B301" s="20" t="s">
-        <v>176</v>
+      <c r="B301" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>14</v>
@@ -4979,22 +4939,22 @@
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="2:4" s="6" customFormat="1">
-      <c r="B302" s="22"/>
-      <c r="C302" s="7"/>
+      <c r="B302" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" s="6" customFormat="1">
-      <c r="B303" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C303" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B303" s="22"/>
+      <c r="C303" s="7"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" s="6" customFormat="1">
       <c r="B304" s="22" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="C304" s="7" t="s">
         <v>14</v>
@@ -5002,22 +4962,26 @@
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="2:4" s="6" customFormat="1">
-      <c r="B305" s="22"/>
-      <c r="C305" s="7"/>
+      <c r="B305" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" s="6" customFormat="1">
-      <c r="B306" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C306" s="7" t="s">
+      <c r="B306" s="22"/>
+      <c r="C306" s="7"/>
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="2:4" s="6" customFormat="1">
+      <c r="B307" t="s">
+        <v>145</v>
+      </c>
+      <c r="C307" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D306" s="4"/>
-    </row>
-    <row r="307" spans="2:4" s="6" customFormat="1">
-      <c r="B307" s="22"/>
-      <c r="C307" s="7"/>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="2:4" s="6" customFormat="1">
@@ -5026,71 +4990,74 @@
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="2:4" s="6" customFormat="1">
-      <c r="B309" s="22"/>
-      <c r="C309" s="7"/>
+      <c r="B309" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="2:4" s="6" customFormat="1">
-      <c r="B310" s="22"/>
-      <c r="C310" s="7"/>
+      <c r="B310" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="2:4" s="6" customFormat="1">
-      <c r="B311" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C311" s="7"/>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="2:4" s="6" customFormat="1">
-      <c r="B312" s="22"/>
-      <c r="C312" s="7"/>
+      <c r="B312" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="2:4" s="6" customFormat="1">
-      <c r="B313" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C313" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B313" s="22"/>
+      <c r="C313" s="7"/>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="2:4" s="6" customFormat="1">
       <c r="B314" s="22" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="2:4" s="6" customFormat="1">
-      <c r="B315" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C315" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B315" s="22"/>
+      <c r="C315" s="7"/>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="2:4" s="6" customFormat="1">
       <c r="B316" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C316" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C316" s="7"/>
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="2:4" s="6" customFormat="1">
+      <c r="B317" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C317" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="2:4" s="6" customFormat="1">
-      <c r="B317" s="22"/>
-      <c r="C317" s="7"/>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="2:4" s="6" customFormat="1">
-      <c r="B318" s="22" t="s">
-        <v>47</v>
+      <c r="B318" s="20" t="s">
+        <v>169</v>
       </c>
       <c r="C318" s="7" t="s">
         <v>14</v>
@@ -5098,8 +5065,8 @@
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="2:4" s="6" customFormat="1">
-      <c r="B319" s="22" t="s">
-        <v>48</v>
+      <c r="B319" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="C319" s="7" t="s">
         <v>14</v>
@@ -5107,13 +5074,17 @@
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="2:4" s="6" customFormat="1">
-      <c r="B320" s="22"/>
-      <c r="C320" s="7"/>
+      <c r="B320" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="2:4" s="6" customFormat="1">
-      <c r="B321" s="22" t="s">
-        <v>49</v>
+      <c r="B321" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="C321" s="7" t="s">
         <v>14</v>
@@ -5121,17 +5092,13 @@
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="2:4" s="6" customFormat="1">
-      <c r="B322" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C322" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B322" s="22"/>
+      <c r="C322" s="7"/>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="2:4" s="6" customFormat="1">
       <c r="B323" s="22" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>14</v>
@@ -5139,31 +5106,31 @@
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="2:4" s="6" customFormat="1">
-      <c r="B324" s="22"/>
-      <c r="C324" s="7"/>
+      <c r="B324" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="2:4" s="6" customFormat="1">
-      <c r="B325" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C325" s="7" t="s">
+      <c r="B325" s="22"/>
+      <c r="C325" s="7"/>
+      <c r="D325" s="4"/>
+    </row>
+    <row r="326" spans="2:4" s="6" customFormat="1">
+      <c r="B326" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C326" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D325" s="4"/>
-    </row>
-    <row r="326" spans="2:4" s="6" customFormat="1">
-      <c r="B326" s="22"/>
-      <c r="C326" s="7"/>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="2:4" s="6" customFormat="1">
-      <c r="B327" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B327" s="22"/>
+      <c r="C327" s="7"/>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="2:4" s="6" customFormat="1">
@@ -5182,7 +5149,9 @@
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="2:4" s="6" customFormat="1">
-      <c r="B331" s="22"/>
+      <c r="B331" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C331" s="7"/>
       <c r="D331" s="4"/>
     </row>
@@ -5192,45 +5161,49 @@
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" s="6" customFormat="1">
-      <c r="B333" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C333" s="7"/>
+      <c r="B333" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="2:4" s="6" customFormat="1">
-      <c r="B334" s="22"/>
-      <c r="C334" s="7"/>
+      <c r="B334" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" s="6" customFormat="1">
       <c r="B335" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C335" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="2:4" s="6" customFormat="1">
-      <c r="B336" s="20" t="s">
-        <v>154</v>
+      <c r="B336" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="2:4" s="6" customFormat="1">
-      <c r="B337" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B337" s="22"/>
+      <c r="C337" s="7"/>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="2:4" s="6" customFormat="1">
-      <c r="B338" s="20" t="s">
-        <v>153</v>
+      <c r="B338" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C338" s="7" t="s">
         <v>14</v>
@@ -5238,11 +5211,11 @@
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="2:4" s="6" customFormat="1">
-      <c r="B339" s="20" t="s">
-        <v>157</v>
+      <c r="B339" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D339" s="4"/>
     </row>
@@ -5253,91 +5226,77 @@
     </row>
     <row r="341" spans="2:4" s="6" customFormat="1">
       <c r="B341" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C341" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="2:4" s="6" customFormat="1">
-      <c r="B342" s="20" t="s">
-        <v>151</v>
+      <c r="B342" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="C342" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D342" s="4"/>
+    </row>
+    <row r="343" spans="2:4" s="6" customFormat="1">
+      <c r="B343" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D343" s="4"/>
+    </row>
+    <row r="344" spans="2:4" s="6" customFormat="1">
+      <c r="B344" s="22"/>
+      <c r="C344" s="7"/>
+      <c r="D344" s="4"/>
+    </row>
+    <row r="345" spans="2:4" s="6" customFormat="1">
+      <c r="B345" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D345" s="4"/>
+    </row>
+    <row r="346" spans="2:4" s="6" customFormat="1">
+      <c r="B346" s="22"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="4"/>
+    </row>
+    <row r="347" spans="2:4" s="6" customFormat="1">
+      <c r="B347" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C347" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D342" s="4"/>
-    </row>
-    <row r="343" spans="2:4" s="6" customFormat="1">
-      <c r="B343" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D343" s="4"/>
-    </row>
-    <row r="344" spans="2:4" s="6" customFormat="1">
-      <c r="B344" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="2:4" s="6" customFormat="1">
-      <c r="B345" s="20"/>
-      <c r="C345" s="7"/>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="2:4" s="6" customFormat="1">
-      <c r="B346" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C346" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="2:4" s="6" customFormat="1">
-      <c r="B347" s="20"/>
-      <c r="C347" s="7"/>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="2:4" s="6" customFormat="1">
-      <c r="B348" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="C348" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B348" s="22"/>
+      <c r="C348" s="7"/>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="2:4" s="6" customFormat="1">
-      <c r="B349" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C349" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B349" s="22"/>
+      <c r="C349" s="7"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="2:4" s="6" customFormat="1">
-      <c r="B350" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C350" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B350" s="22"/>
+      <c r="C350" s="7"/>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="2:4" s="6" customFormat="1">
-      <c r="B351" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C351" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B351" s="22"/>
+      <c r="C351" s="7"/>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="2:4" s="6" customFormat="1">
@@ -5346,7 +5305,9 @@
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="2:4" s="6" customFormat="1">
-      <c r="B353" s="20"/>
+      <c r="B353" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="C353" s="7"/>
       <c r="D353" s="4"/>
     </row>
@@ -5357,30 +5318,32 @@
     </row>
     <row r="355" spans="2:4" s="6" customFormat="1">
       <c r="B355" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C355" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C355" s="7"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="2:4" s="6" customFormat="1">
-      <c r="B356" s="22" t="s">
-        <v>167</v>
+      <c r="B356" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="2:4" s="6" customFormat="1">
-      <c r="B357" s="22"/>
-      <c r="C357" s="7"/>
+      <c r="B357" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="2:4" s="6" customFormat="1">
-      <c r="B358" s="22" t="s">
-        <v>199</v>
+      <c r="B358" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>14</v>
@@ -5388,8 +5351,12 @@
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="2:4" s="6" customFormat="1">
-      <c r="B359" s="22"/>
-      <c r="C359" s="7"/>
+      <c r="B359" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="2:4" s="6" customFormat="1">
@@ -5398,45 +5365,47 @@
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" s="6" customFormat="1">
-      <c r="B361" s="22"/>
+      <c r="B361" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C361" s="7"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" s="6" customFormat="1">
-      <c r="B362" s="22"/>
-      <c r="C362" s="7"/>
+      <c r="B362" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C362" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="2:4" s="6" customFormat="1">
-      <c r="B363" s="22" t="s">
-        <v>200</v>
+      <c r="B363" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" s="6" customFormat="1">
       <c r="B364" s="20" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D364" s="4"/>
     </row>
     <row r="365" spans="2:4" s="6" customFormat="1">
-      <c r="B365" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C365" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="7"/>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="2:4" s="6" customFormat="1">
-      <c r="B366" s="20" t="s">
-        <v>204</v>
+      <c r="B366" s="22" t="s">
+        <v>214</v>
       </c>
       <c r="C366" s="7" t="s">
         <v>2</v>
@@ -5444,36 +5413,44 @@
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="2:4" s="6" customFormat="1">
-      <c r="B367" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C367" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="7"/>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="2:4" s="6" customFormat="1">
-      <c r="B368" s="20" t="s">
-        <v>206</v>
+      <c r="B368" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="2:4" s="6" customFormat="1">
-      <c r="B369" s="22"/>
-      <c r="C369" s="7"/>
+      <c r="B369" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C369" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="2:4" s="6" customFormat="1">
-      <c r="B370" s="22"/>
-      <c r="C370" s="7"/>
+      <c r="B370" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C370" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="2:4" s="6" customFormat="1">
-      <c r="B371" s="22"/>
-      <c r="C371" s="7"/>
+      <c r="B371" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C371" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="2:4" s="6" customFormat="1">
@@ -5482,7 +5459,7 @@
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="2:4" s="6" customFormat="1">
-      <c r="B373" s="22"/>
+      <c r="B373" s="20"/>
       <c r="C373" s="7"/>
       <c r="D373" s="4"/>
     </row>
@@ -5492,13 +5469,21 @@
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="2:4" s="6" customFormat="1">
-      <c r="B375" s="22"/>
-      <c r="C375" s="7"/>
+      <c r="B375" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C375" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D375" s="4"/>
     </row>
     <row r="376" spans="2:4" s="6" customFormat="1">
-      <c r="B376" s="22"/>
-      <c r="C376" s="7"/>
+      <c r="B376" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C376" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="2:4" s="6" customFormat="1">
@@ -5507,8 +5492,12 @@
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="2:4" s="6" customFormat="1">
-      <c r="B378" s="22"/>
-      <c r="C378" s="7"/>
+      <c r="B378" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="2:4" s="6" customFormat="1">
@@ -5528,94 +5517,218 @@
     </row>
     <row r="382" spans="2:4" s="6" customFormat="1">
       <c r="B382" s="22"/>
-      <c r="C382" s="4"/>
+      <c r="C382" s="7"/>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="2:4" s="6" customFormat="1">
-      <c r="B383" s="19"/>
-      <c r="C383" s="4"/>
+      <c r="B383" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C383" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="2:4" s="6" customFormat="1">
-      <c r="B384" s="21"/>
-      <c r="C384" s="4"/>
+      <c r="B384" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C384" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="1:4" s="6" customFormat="1">
-      <c r="B385" s="21"/>
-      <c r="C385" s="4"/>
+    <row r="385" spans="2:4" s="6" customFormat="1">
+      <c r="B385" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C385" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D385" s="4"/>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="3"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
-      <c r="D386" s="3"/>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="3"/>
-      <c r="B387" s="8" t="s">
+    <row r="386" spans="2:4" s="6" customFormat="1">
+      <c r="B386" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D386" s="4"/>
+    </row>
+    <row r="387" spans="2:4" s="6" customFormat="1">
+      <c r="B387" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C387" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D387" s="4"/>
+    </row>
+    <row r="388" spans="2:4" s="6" customFormat="1">
+      <c r="B388" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C388" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" s="4"/>
+    </row>
+    <row r="389" spans="2:4" s="6" customFormat="1">
+      <c r="B389" s="22"/>
+      <c r="C389" s="7"/>
+      <c r="D389" s="4"/>
+    </row>
+    <row r="390" spans="2:4" s="6" customFormat="1">
+      <c r="B390" s="22"/>
+      <c r="C390" s="7"/>
+      <c r="D390" s="4"/>
+    </row>
+    <row r="391" spans="2:4" s="6" customFormat="1">
+      <c r="B391" s="22"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="4"/>
+    </row>
+    <row r="392" spans="2:4" s="6" customFormat="1">
+      <c r="B392" s="22"/>
+      <c r="C392" s="7"/>
+      <c r="D392" s="4"/>
+    </row>
+    <row r="393" spans="2:4" s="6" customFormat="1">
+      <c r="B393" s="22"/>
+      <c r="C393" s="7"/>
+      <c r="D393" s="4"/>
+    </row>
+    <row r="394" spans="2:4" s="6" customFormat="1">
+      <c r="B394" s="22"/>
+      <c r="C394" s="7"/>
+      <c r="D394" s="4"/>
+    </row>
+    <row r="395" spans="2:4" s="6" customFormat="1">
+      <c r="B395" s="22"/>
+      <c r="C395" s="7"/>
+      <c r="D395" s="4"/>
+    </row>
+    <row r="396" spans="2:4" s="6" customFormat="1">
+      <c r="B396" s="22"/>
+      <c r="C396" s="7"/>
+      <c r="D396" s="4"/>
+    </row>
+    <row r="397" spans="2:4" s="6" customFormat="1">
+      <c r="B397" s="22"/>
+      <c r="C397" s="7"/>
+      <c r="D397" s="4"/>
+    </row>
+    <row r="398" spans="2:4" s="6" customFormat="1">
+      <c r="B398" s="22"/>
+      <c r="C398" s="7"/>
+      <c r="D398" s="4"/>
+    </row>
+    <row r="399" spans="2:4" s="6" customFormat="1">
+      <c r="B399" s="22"/>
+      <c r="C399" s="7"/>
+      <c r="D399" s="4"/>
+    </row>
+    <row r="400" spans="2:4" s="6" customFormat="1">
+      <c r="B400" s="22"/>
+      <c r="C400" s="7"/>
+      <c r="D400" s="4"/>
+    </row>
+    <row r="401" spans="1:4" s="6" customFormat="1">
+      <c r="B401" s="22"/>
+      <c r="C401" s="7"/>
+      <c r="D401" s="4"/>
+    </row>
+    <row r="402" spans="1:4" s="6" customFormat="1">
+      <c r="B402" s="22"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="4"/>
+    </row>
+    <row r="403" spans="1:4" s="6" customFormat="1">
+      <c r="B403" s="19"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="4"/>
+    </row>
+    <row r="404" spans="1:4" s="6" customFormat="1">
+      <c r="B404" s="21"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="4"/>
+    </row>
+    <row r="405" spans="1:4" s="6" customFormat="1">
+      <c r="B405" s="21"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="4"/>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="3"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="3"/>
+      <c r="B407" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C387" s="6">
-        <f>COUNTIF(C5:C386,"y")</f>
+      <c r="C407" s="6">
+        <f>COUNTIF(C5:C406,"y")</f>
         <v>93</v>
       </c>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="3"/>
-      <c r="B388" s="8" t="s">
+      <c r="D407" s="2"/>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="3"/>
+      <c r="B408" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C388" s="6">
-        <f>COUNTIF(C5:C386,"n")</f>
-        <v>127</v>
-      </c>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="3"/>
-      <c r="B389" s="8" t="s">
+      <c r="C408" s="6">
+        <f>COUNTIF(C5:C406,"n")</f>
+        <v>129</v>
+      </c>
+      <c r="D408" s="2"/>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="3"/>
+      <c r="B409" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C389" s="7">
-        <f>COUNTIF(C5:C386,"TBD")</f>
+      <c r="C409" s="7">
+        <f>COUNTIF(C5:C406,"TBD")</f>
         <v>0</v>
       </c>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="3"/>
-      <c r="B390" s="8" t="s">
+      <c r="D409" s="2"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="3"/>
+      <c r="B410" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C390">
-        <f>SUM(C387:C389)</f>
-        <v>220</v>
-      </c>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4" ht="18">
-      <c r="A391" s="3"/>
-      <c r="B391" s="10"/>
-      <c r="C391" s="10" t="s">
+      <c r="C410">
+        <f>SUM(C407:C409)</f>
+        <v>222</v>
+      </c>
+      <c r="D410" s="2"/>
+    </row>
+    <row r="411" spans="1:4" ht="18">
+      <c r="A411" s="3"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D391" s="41">
-        <f>C387/(C388+C387 + C389)</f>
-        <v>0.42272727272727273</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="3"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
-      <c r="D392" s="3"/>
+      <c r="D411" s="41">
+        <f>C407/(C408+C407 + C409)</f>
+        <v>0.41891891891891891</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="3"/>
+      <c r="B412" s="11"/>
+      <c r="C412" s="11"/>
+      <c r="D412" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="C277:C65140 C246:C275 C1:C3 C6:C243">
+  <conditionalFormatting sqref="C297:C65160 C266:C295 C1:C3 C6:C263">
     <cfRule type="cellIs" dxfId="2" priority="10" stopIfTrue="1" operator="equal">
       <formula>"y"</formula>
     </cfRule>
@@ -5639,7 +5752,7 @@
   </sheetPr>
   <dimension ref="A1:IT874"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="10020" topLeftCell="A46" activePane="bottomLeft"/>
       <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
@@ -6224,18 +6337,18 @@
     <row r="64" spans="1:11">
       <c r="A64" s="39">
         <f>SUM(B64:D64)</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B64" s="15">
-        <f>Features!C387</f>
+        <f>Features!C407</f>
         <v>93</v>
       </c>
       <c r="C64" s="16">
-        <f>Features!C388</f>
-        <v>127</v>
+        <f>Features!C408</f>
+        <v>129</v>
       </c>
       <c r="D64" s="17">
-        <f>Features!C389</f>
+        <f>Features!C409</f>
         <v>0</v>
       </c>
       <c r="E64" s="18">
@@ -6283,7 +6396,7 @@
       </c>
       <c r="B68" s="49">
         <f>(A60-A48)*A64/B64 +A48</f>
-        <v>43363.731182795702</v>
+        <v>43369.774193548386</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="7"/>
